--- a/Rpg.Client/PlotConverter/Ewar - Plot.xlsx
+++ b/Rpg.Client/PlotConverter/Ewar - Plot.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Texts" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Texts (копия)" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="17">
   <si>
     <t>Event</t>
   </si>
@@ -31,20 +32,44 @@
     <t>Slavic1</t>
   </si>
   <si>
-    <t>Berimir</t>
-  </si>
-  <si>
-    <t>Какой-то текст</t>
-  </si>
-  <si>
-    <t>Какой-то текст 2</t>
+    <t>Экипаж боевой дружины “Лютик”</t>
+  </si>
+  <si>
+    <t>Гнездо аспидов прямо пред тобой. Надобно уничтожить гадов</t>
+  </si>
+  <si>
+    <t>до</t>
+  </si>
+  <si>
+    <t>Беримир</t>
+  </si>
+  <si>
+    <t>Небыль какая. Ещё же дед сказывал, как перевели они аспидов</t>
+  </si>
+  <si>
+    <t>Темны времена, земли полнятся порождениями, о которых мы и слыхом не слыхивали. Пусть будет верно оружие в бою</t>
+  </si>
+  <si>
+    <t>Беримир отыскал гнездо поганых змеев. Стоило убить одного - приползали десятки. Блестящие шкуры виднелись на сажени вперёд. Он крепче перехватил меч</t>
+  </si>
+  <si>
+    <t>На месте убитых гадов появился чёрный ромб, похожий на камень.</t>
+  </si>
+  <si>
+    <t>после</t>
+  </si>
+  <si>
+    <t>Лютик! Аспиды отправились в тартарары. Дивну невидаль оставили</t>
+  </si>
+  <si>
+    <t>Славна битва твоя. Недалече мужи учёные, растолкуют. Да перестали слово молвить. Поищи, аль не случилось ли чего</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -55,13 +80,35 @@
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF24292F"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -70,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -79,6 +126,21 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -89,6 +151,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -317,37 +383,268 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>1.0</v>
       </c>
-      <c r="E2" s="1">
-        <v>-1.0</v>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3">
         <v>1.0</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E6" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="72.57"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3">
         <v>1.0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Rpg.Client/PlotConverter/Ewar - Plot.xlsx
+++ b/Rpg.Client/PlotConverter/Ewar - Plot.xlsx
@@ -4,7 +4,8 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Texts" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Texts (копия)" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Events" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Texts (копия)" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="25">
   <si>
     <t>Event</t>
   </si>
@@ -32,37 +33,61 @@
     <t>Slavic1</t>
   </si>
   <si>
+    <t>Hq</t>
+  </si>
+  <si>
+    <t>Гнездо аспидов прямо пред тобой. Надобно уничтожить гадов</t>
+  </si>
+  <si>
+    <t>Berimir</t>
+  </si>
+  <si>
+    <t>Небыль какая. Ещё же дед сказывал, как перевели они аспидов</t>
+  </si>
+  <si>
+    <t>Темны времена, земли полнятся порождениями, о которых мы и слыхом не слыхивали. Пусть будет верно оружие в бою</t>
+  </si>
+  <si>
+    <t>Беримир отыскал гнездо поганых змеев. Стоило убить одного - приползали десятки. Блестящие шкуры виднелись на сажени вперёд. Он крепче перехватил меч</t>
+  </si>
+  <si>
+    <t>На месте убитых гадов появился чёрный ромб, похожий на камень.</t>
+  </si>
+  <si>
+    <t>Лютик! Аспиды отправились в тартарары. Дивну невидаль оставили</t>
+  </si>
+  <si>
+    <t>Славна битва твоя. Недалече мужи учёные, растолкуют. Да перестали слово молвить. Поищи, аль не случилось ли чего</t>
+  </si>
+  <si>
+    <t>Sid</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Aftermath</t>
+  </si>
+  <si>
+    <t>Глухая чаща</t>
+  </si>
+  <si>
+    <t>Thicket</t>
+  </si>
+  <si>
     <t>Экипаж боевой дружины “Лютик”</t>
   </si>
   <si>
-    <t>Гнездо аспидов прямо пред тобой. Надобно уничтожить гадов</t>
-  </si>
-  <si>
     <t>до</t>
   </si>
   <si>
     <t>Беримир</t>
   </si>
   <si>
-    <t>Небыль какая. Ещё же дед сказывал, как перевели они аспидов</t>
-  </si>
-  <si>
-    <t>Темны времена, земли полнятся порождениями, о которых мы и слыхом не слыхивали. Пусть будет верно оружие в бою</t>
-  </si>
-  <si>
-    <t>Беримир отыскал гнездо поганых змеев. Стоило убить одного - приползали десятки. Блестящие шкуры виднелись на сажени вперёд. Он крепче перехватил меч</t>
-  </si>
-  <si>
-    <t>На месте убитых гадов появился чёрный ромб, похожий на камень.</t>
-  </si>
-  <si>
     <t>после</t>
-  </si>
-  <si>
-    <t>Лютик! Аспиды отправились в тартарары. Дивну невидаль оставили</t>
-  </si>
-  <si>
-    <t>Славна битва твоя. Недалече мужи учёные, растолкуют. Да перестали слово молвить. Поищи, аль не случилось ли чего</t>
   </si>
 </sst>
 </file>
@@ -79,7 +104,6 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
@@ -96,8 +120,9 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,6 +133,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor rgb="FFEFEFEF"/>
       </patternFill>
     </fill>
   </fills>
@@ -125,22 +156,22 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -155,6 +186,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -383,118 +418,118 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>1.0</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>2.0</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>8</v>
+      <c r="E3" s="3">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2">
         <v>3.0</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>8</v>
+      <c r="E4" s="3">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2">
         <v>4.0</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>8</v>
+      <c r="E5" s="3">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2">
         <v>1.0</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>14</v>
+      <c r="E6" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2">
         <v>2.0</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>14</v>
+      <c r="E7" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2">
         <v>3.0</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>14</v>
+      <c r="E8" s="3">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -503,6 +538,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -533,118 +608,118 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>1.0</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D4" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2">
         <v>2.0</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="E7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2">
         <v>3.0</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>14</v>
+      <c r="E8" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Rpg.Client/PlotConverter/Ewar - Plot.xlsx
+++ b/Rpg.Client/PlotConverter/Ewar - Plot.xlsx
@@ -3,8 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Texts" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Events" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Events" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Texts" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Texts (копия)" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
@@ -13,7 +13,79 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="82">
+  <si>
+    <t>Sid</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Aftermath</t>
+  </si>
+  <si>
+    <t>MainSlavic1</t>
+  </si>
+  <si>
+    <t>Начальная зачистка</t>
+  </si>
+  <si>
+    <t>Thicket</t>
+  </si>
+  <si>
+    <t>MainSlavic2</t>
+  </si>
+  <si>
+    <t>В поисках мудрости</t>
+  </si>
+  <si>
+    <t>Swamp</t>
+  </si>
+  <si>
+    <t>MainSlavic3</t>
+  </si>
+  <si>
+    <t>Ты - один из немногих</t>
+  </si>
+  <si>
+    <t>Pit</t>
+  </si>
+  <si>
+    <t>MeetArcher</t>
+  </si>
+  <si>
+    <t>MainSlavic4</t>
+  </si>
+  <si>
+    <t>Путь невозврата</t>
+  </si>
+  <si>
+    <t>DeathPath</t>
+  </si>
+  <si>
+    <t>MainSlavic5</t>
+  </si>
+  <si>
+    <t>Мудрость трав</t>
+  </si>
+  <si>
+    <t>Mines</t>
+  </si>
+  <si>
+    <t>MeetHerbalist</t>
+  </si>
+  <si>
+    <t>MainSlavic6</t>
+  </si>
+  <si>
+    <t>Долшое молчание</t>
+  </si>
+  <si>
+    <t>Castle</t>
+  </si>
   <si>
     <t>Event</t>
   </si>
@@ -30,9 +102,6 @@
     <t>CombatPosition</t>
   </si>
   <si>
-    <t>Slavic1</t>
-  </si>
-  <si>
     <t>Hq</t>
   </si>
   <si>
@@ -48,7 +117,9 @@
     <t>Темны времена, земли полнятся порождениями, о которых мы и слыхом не слыхивали. Пусть будет верно оружие в бою</t>
   </si>
   <si>
-    <t>Беримир отыскал гнездо поганых змеев. Стоило убить одного - приползали десятки. Блестящие шкуры виднелись на сажени вперёд. Он крепче перехватил меч</t>
+    <t>Беримир отыскал гнездо поганых змеев. Стоило убить одного
+ - приползали десятки. Блестящие шкуры виднелись на сажени
+вперёд. Он крепче перехватил меч</t>
   </si>
   <si>
     <t>На месте убитых гадов появился чёрный ромб, похожий на камень.</t>
@@ -60,46 +131,152 @@
     <t>Славна битва твоя. Недалече мужи учёные, растолкуют. Да перестали слово молвить. Поищи, аль не случилось ли чего</t>
   </si>
   <si>
-    <t>Sid</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Aftermath</t>
-  </si>
-  <si>
-    <t>Глухая чаща</t>
-  </si>
-  <si>
-    <t>Thicket</t>
-  </si>
-  <si>
-    <t>Экипаж боевой дружины “Лютик”</t>
+    <t>Куда путь держать-то...</t>
+  </si>
+  <si>
+    <t>Беримир бережно вынимает из котомки потрёпанный шерстяной клубок</t>
+  </si>
+  <si>
+    <t>Ты катись-катись клубок, через Запад на Восток, покажи мне все пути... Ах, чёрт. Ненавижу болота</t>
+  </si>
+  <si>
+    <t>Ноги всё глубже вязнут в трясине. Наконец показывается научная станция. Комплекс выглядит заброшенным, но ближе не рассмотреть: топь приходит в движение</t>
+  </si>
+  <si>
+    <t>В дверях показывается древний старец. Он едва стоит на ногах и с трудом удерживает переданный Беремиром предмет</t>
+  </si>
+  <si>
+    <t>Oldman</t>
+  </si>
+  <si>
+    <t>Добрался, добрый молодец. Да время вышло, всех нас извели. Сие есть семена зла! Они призывают порождения тьмы. Где упали - нечисть гнездится</t>
+  </si>
+  <si>
+    <t>Выжги калёным железом порождения поганые. Где их искать блюдечко с голубой каёмочкой кажет. Поспеши, да возьми флеш-летопись в помощь</t>
+  </si>
+  <si>
+    <t>Старик падает без сил. Из его руки выпадает карточка флеш-летописи</t>
+  </si>
+  <si>
+    <t>Вести учёных мужей получены. Отослали наногонца в палаты штабные. В версте экипаж "Полынь", довезёт до схрона, где ларец с блюдечком запрятан</t>
+  </si>
+  <si>
+    <t>Беримир отправляется к полученному сигналу. Постепенно вокруг наступает тишина. Подозрительная тишина. Рука тянется к эфесу. Внезапно рядом вонзается стрела</t>
+  </si>
+  <si>
+    <t>Hawk</t>
+  </si>
+  <si>
+    <t>Стой! Ты чьих будешь?</t>
+  </si>
+  <si>
+    <t>Нет во мне злого умысла. Товарищей из космодружины Полынь разыскиваю.Ты мне друг, али нет?</t>
+  </si>
+  <si>
+    <t>Полегли все в сыру землю-матушку. Да и мы не ровен час костьми ляжем: разбудили лихо</t>
+  </si>
+  <si>
+    <t>Схватка была тяжкой. Последнее лихо, испустив дикий вопль, сгинуло. После краткого привала воины следуют к тайнику. Сокол немногословен.</t>
+  </si>
+  <si>
+    <t>Село лучника сгинуло под водой. А сам он невесть как очутился за тысячи лет вперёд. Беримир было воспрял: жива надежда друзей сыскать.</t>
+  </si>
+  <si>
+    <t>Губы Сокола сжимаются в узкую полоску: пустое это. Здесь только нежить. В молчании ратники встретили стражницу схрона. С виду юна, да глаза больно старые</t>
+  </si>
+  <si>
+    <t>GuardianWoman</t>
+  </si>
+  <si>
+    <t>Знаю, знаю, зачем добры молодцы пожаловали. Забирайте блюдечко, да убирайтесь подобру-поздорову. В нём куда ни глянь - тьма и мрак, а без яблочка больше не разглядеть</t>
+  </si>
+  <si>
+    <t>Лютик! Есть у нас семя окаянное. Да воин славный в дружину</t>
+  </si>
+  <si>
+    <t>Нужно больше образцов. Мудрецы глаголят: блюдечко с голубой каёмочкой да яблочком наливным покажет, где семена тьмы укоренились. Сыщите его</t>
+  </si>
+  <si>
+    <t>Воины идут по пустынному тракту. Сокол немногословен. Пару лет назад его село сгинуло под водой. А сам он невесть как очутился за тысячи лет вперёд</t>
+  </si>
+  <si>
+    <t>Беримир было воспрял: жива надежда друзей отыскать. Губы Сокола сжимаются в узкую полоску: пустое это. Нет здесь ничего кроме нежити, что множится день ото дня</t>
+  </si>
+  <si>
+    <t>К слову о нежити. Тропа резко сужается. Путников обступают зловещие силуэты</t>
+  </si>
+  <si>
+    <t>Славная была сеча!</t>
+  </si>
+  <si>
+    <t>Да напрасная. Сгинули все торговцы и ремесленники с тракта</t>
+  </si>
+  <si>
+    <t>Сокол отирает грязь с камня на распутье</t>
+  </si>
+  <si>
+    <t>Направо пойдешь — коня потеряешь, налево пойдешь — жену сыщешь, прямо пустишься — голову сложишь. Что ж... Ни жён, ни коней у нас нет</t>
+  </si>
+  <si>
+    <t>Долго ли коротко ли. В мире, огнём и тьмой охваченном не так просто сыскать яблочко наливное. День и ночь витязи рыскали, да нашли заветное деревце и его хозяйку</t>
+  </si>
+  <si>
+    <t>Здравствуй, почтенная. Сподмоги нам яблочком для блюдечка дабы тьму истребить поганую</t>
+  </si>
+  <si>
+    <t>Rada</t>
+  </si>
+  <si>
+    <t>Ох милок, захватили яблоньку мою демоны окаянные. Сразимся за плоды её</t>
+  </si>
+  <si>
+    <t>Стара ты, знахарка, на поле битвы соваться</t>
+  </si>
+  <si>
+    <t>Ох не помнят юнцы истории. А в 21 веке за язык твой выгнали бы за эйджизм из дружины</t>
+  </si>
+  <si>
+    <t>Деревце моё засохло. Последнее яблоко осталось</t>
+  </si>
+  <si>
+    <t>Катись, катись, яблочко наливное, по блюдечку, покажи города и поля, покажи леса, и моря, покажи, где семя засело, да его главаря... Ох соколики!</t>
+  </si>
+  <si>
+    <t>Что ты видишь, почтенная? Где семена? Испепелим их, да в тартарары отправим</t>
+  </si>
+  <si>
+    <t>Попридержи коней. Пока вы одно семя бьете, Кощей ещё три сажает. Вот кого в тартарары отправить надобно!</t>
+  </si>
+  <si>
+    <t>Беримир</t>
   </si>
   <si>
     <t>до</t>
   </si>
   <si>
-    <t>Беримир</t>
+    <t>Болото</t>
   </si>
   <si>
     <t>после</t>
+  </si>
+  <si>
+    <t>Старец</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+    </font>
+    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
@@ -120,7 +297,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -131,47 +307,94 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEFEFEF"/>
-        <bgColor rgb="FFEFEFEF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -397,7 +620,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="72.57"/>
+    <col customWidth="1" min="2" max="2" width="22.57"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -413,123 +636,77 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>-1.0</v>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
+      <c r="A4" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>-1.0</v>
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>-1.0</v>
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1.0</v>
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
+      <c r="A7" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1.0</v>
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -546,31 +723,3608 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="72.57"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E2" s="7">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="7">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E12" s="7">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E17" s="7">
+        <v>-1.0</v>
+      </c>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E18" s="7">
+        <v>-1.0</v>
+      </c>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E19" s="7">
+        <v>-1.0</v>
+      </c>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E20" s="7">
+        <v>-1.0</v>
+      </c>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E21" s="7">
+        <v>-1.0</v>
+      </c>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E26" s="5">
+        <v>-1.0</v>
+      </c>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E27" s="5">
+        <v>-1.0</v>
+      </c>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E28" s="5">
+        <v>-1.0</v>
+      </c>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E29" s="5">
+        <v>-1.0</v>
+      </c>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E30" s="5">
+        <v>-1.0</v>
+      </c>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="B35" s="12"/>
+      <c r="C35" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E35" s="5">
+        <v>-1.0</v>
+      </c>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E36" s="5">
+        <v>-1.0</v>
+      </c>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E37" s="5">
+        <v>-1.0</v>
+      </c>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E38" s="5">
+        <v>-1.0</v>
+      </c>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E39" s="5">
+        <v>-1.0</v>
+      </c>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E40" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E41" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E42" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44">
+      <c r="C44" s="13"/>
+    </row>
+    <row r="45">
+      <c r="C45" s="13"/>
+    </row>
+    <row r="46">
+      <c r="C46" s="13"/>
+    </row>
+    <row r="47">
+      <c r="C47" s="13"/>
+    </row>
+    <row r="48">
+      <c r="C48" s="13"/>
+    </row>
+    <row r="49">
+      <c r="C49" s="13"/>
+    </row>
+    <row r="50">
+      <c r="C50" s="13"/>
+    </row>
+    <row r="51">
+      <c r="C51" s="13"/>
+    </row>
+    <row r="52">
+      <c r="C52" s="13"/>
+    </row>
+    <row r="53">
+      <c r="C53" s="13"/>
+    </row>
+    <row r="54">
+      <c r="C54" s="13"/>
+    </row>
+    <row r="55">
+      <c r="C55" s="13"/>
+    </row>
+    <row r="56">
+      <c r="C56" s="13"/>
+    </row>
+    <row r="57">
+      <c r="C57" s="13"/>
+    </row>
+    <row r="58">
+      <c r="C58" s="13"/>
+    </row>
+    <row r="59">
+      <c r="C59" s="13"/>
+    </row>
+    <row r="60">
+      <c r="C60" s="13"/>
+    </row>
+    <row r="61">
+      <c r="C61" s="13"/>
+    </row>
+    <row r="62">
+      <c r="C62" s="13"/>
+    </row>
+    <row r="63">
+      <c r="C63" s="13"/>
+    </row>
+    <row r="64">
+      <c r="C64" s="13"/>
+    </row>
+    <row r="65">
+      <c r="C65" s="13"/>
+    </row>
+    <row r="66">
+      <c r="C66" s="13"/>
+    </row>
+    <row r="67">
+      <c r="C67" s="13"/>
+    </row>
+    <row r="68">
+      <c r="C68" s="13"/>
+    </row>
+    <row r="69">
+      <c r="C69" s="13"/>
+    </row>
+    <row r="70">
+      <c r="C70" s="13"/>
+    </row>
+    <row r="71">
+      <c r="C71" s="13"/>
+    </row>
+    <row r="72">
+      <c r="C72" s="13"/>
+    </row>
+    <row r="73">
+      <c r="C73" s="13"/>
+    </row>
+    <row r="74">
+      <c r="C74" s="13"/>
+    </row>
+    <row r="75">
+      <c r="C75" s="13"/>
+    </row>
+    <row r="76">
+      <c r="C76" s="13"/>
+    </row>
+    <row r="77">
+      <c r="C77" s="13"/>
+    </row>
+    <row r="78">
+      <c r="C78" s="13"/>
+    </row>
+    <row r="79">
+      <c r="C79" s="13"/>
+    </row>
+    <row r="80">
+      <c r="C80" s="13"/>
+    </row>
+    <row r="81">
+      <c r="C81" s="13"/>
+    </row>
+    <row r="82">
+      <c r="C82" s="13"/>
+    </row>
+    <row r="83">
+      <c r="C83" s="13"/>
+    </row>
+    <row r="84">
+      <c r="C84" s="13"/>
+    </row>
+    <row r="85">
+      <c r="C85" s="13"/>
+    </row>
+    <row r="86">
+      <c r="C86" s="13"/>
+    </row>
+    <row r="87">
+      <c r="C87" s="13"/>
+    </row>
+    <row r="88">
+      <c r="C88" s="13"/>
+    </row>
+    <row r="89">
+      <c r="C89" s="13"/>
+    </row>
+    <row r="90">
+      <c r="C90" s="13"/>
+    </row>
+    <row r="91">
+      <c r="C91" s="13"/>
+    </row>
+    <row r="92">
+      <c r="C92" s="13"/>
+    </row>
+    <row r="93">
+      <c r="C93" s="13"/>
+    </row>
+    <row r="94">
+      <c r="C94" s="13"/>
+    </row>
+    <row r="95">
+      <c r="C95" s="13"/>
+    </row>
+    <row r="96">
+      <c r="C96" s="13"/>
+    </row>
+    <row r="97">
+      <c r="C97" s="13"/>
+    </row>
+    <row r="98">
+      <c r="C98" s="13"/>
+    </row>
+    <row r="99">
+      <c r="C99" s="13"/>
+    </row>
+    <row r="100">
+      <c r="C100" s="13"/>
+    </row>
+    <row r="101">
+      <c r="C101" s="13"/>
+    </row>
+    <row r="102">
+      <c r="C102" s="13"/>
+    </row>
+    <row r="103">
+      <c r="C103" s="13"/>
+    </row>
+    <row r="104">
+      <c r="C104" s="13"/>
+    </row>
+    <row r="105">
+      <c r="C105" s="13"/>
+    </row>
+    <row r="106">
+      <c r="C106" s="13"/>
+    </row>
+    <row r="107">
+      <c r="C107" s="13"/>
+    </row>
+    <row r="108">
+      <c r="C108" s="13"/>
+    </row>
+    <row r="109">
+      <c r="C109" s="13"/>
+    </row>
+    <row r="110">
+      <c r="C110" s="13"/>
+    </row>
+    <row r="111">
+      <c r="C111" s="13"/>
+    </row>
+    <row r="112">
+      <c r="C112" s="13"/>
+    </row>
+    <row r="113">
+      <c r="C113" s="13"/>
+    </row>
+    <row r="114">
+      <c r="C114" s="13"/>
+    </row>
+    <row r="115">
+      <c r="C115" s="13"/>
+    </row>
+    <row r="116">
+      <c r="C116" s="13"/>
+    </row>
+    <row r="117">
+      <c r="C117" s="13"/>
+    </row>
+    <row r="118">
+      <c r="C118" s="13"/>
+    </row>
+    <row r="119">
+      <c r="C119" s="13"/>
+    </row>
+    <row r="120">
+      <c r="C120" s="13"/>
+    </row>
+    <row r="121">
+      <c r="C121" s="13"/>
+    </row>
+    <row r="122">
+      <c r="C122" s="13"/>
+    </row>
+    <row r="123">
+      <c r="C123" s="13"/>
+    </row>
+    <row r="124">
+      <c r="C124" s="13"/>
+    </row>
+    <row r="125">
+      <c r="C125" s="13"/>
+    </row>
+    <row r="126">
+      <c r="C126" s="13"/>
+    </row>
+    <row r="127">
+      <c r="C127" s="13"/>
+    </row>
+    <row r="128">
+      <c r="C128" s="13"/>
+    </row>
+    <row r="129">
+      <c r="C129" s="13"/>
+    </row>
+    <row r="130">
+      <c r="C130" s="13"/>
+    </row>
+    <row r="131">
+      <c r="C131" s="13"/>
+    </row>
+    <row r="132">
+      <c r="C132" s="13"/>
+    </row>
+    <row r="133">
+      <c r="C133" s="13"/>
+    </row>
+    <row r="134">
+      <c r="C134" s="13"/>
+    </row>
+    <row r="135">
+      <c r="C135" s="13"/>
+    </row>
+    <row r="136">
+      <c r="C136" s="13"/>
+    </row>
+    <row r="137">
+      <c r="C137" s="13"/>
+    </row>
+    <row r="138">
+      <c r="C138" s="13"/>
+    </row>
+    <row r="139">
+      <c r="C139" s="13"/>
+    </row>
+    <row r="140">
+      <c r="C140" s="13"/>
+    </row>
+    <row r="141">
+      <c r="C141" s="13"/>
+    </row>
+    <row r="142">
+      <c r="C142" s="13"/>
+    </row>
+    <row r="143">
+      <c r="C143" s="13"/>
+    </row>
+    <row r="144">
+      <c r="C144" s="13"/>
+    </row>
+    <row r="145">
+      <c r="C145" s="13"/>
+    </row>
+    <row r="146">
+      <c r="C146" s="13"/>
+    </row>
+    <row r="147">
+      <c r="C147" s="13"/>
+    </row>
+    <row r="148">
+      <c r="C148" s="13"/>
+    </row>
+    <row r="149">
+      <c r="C149" s="13"/>
+    </row>
+    <row r="150">
+      <c r="C150" s="13"/>
+    </row>
+    <row r="151">
+      <c r="C151" s="13"/>
+    </row>
+    <row r="152">
+      <c r="C152" s="13"/>
+    </row>
+    <row r="153">
+      <c r="C153" s="13"/>
+    </row>
+    <row r="154">
+      <c r="C154" s="13"/>
+    </row>
+    <row r="155">
+      <c r="C155" s="13"/>
+    </row>
+    <row r="156">
+      <c r="C156" s="13"/>
+    </row>
+    <row r="157">
+      <c r="C157" s="13"/>
+    </row>
+    <row r="158">
+      <c r="C158" s="13"/>
+    </row>
+    <row r="159">
+      <c r="C159" s="13"/>
+    </row>
+    <row r="160">
+      <c r="C160" s="13"/>
+    </row>
+    <row r="161">
+      <c r="C161" s="13"/>
+    </row>
+    <row r="162">
+      <c r="C162" s="13"/>
+    </row>
+    <row r="163">
+      <c r="C163" s="13"/>
+    </row>
+    <row r="164">
+      <c r="C164" s="13"/>
+    </row>
+    <row r="165">
+      <c r="C165" s="13"/>
+    </row>
+    <row r="166">
+      <c r="C166" s="13"/>
+    </row>
+    <row r="167">
+      <c r="C167" s="13"/>
+    </row>
+    <row r="168">
+      <c r="C168" s="13"/>
+    </row>
+    <row r="169">
+      <c r="C169" s="13"/>
+    </row>
+    <row r="170">
+      <c r="C170" s="13"/>
+    </row>
+    <row r="171">
+      <c r="C171" s="13"/>
+    </row>
+    <row r="172">
+      <c r="C172" s="13"/>
+    </row>
+    <row r="173">
+      <c r="C173" s="13"/>
+    </row>
+    <row r="174">
+      <c r="C174" s="13"/>
+    </row>
+    <row r="175">
+      <c r="C175" s="13"/>
+    </row>
+    <row r="176">
+      <c r="C176" s="13"/>
+    </row>
+    <row r="177">
+      <c r="C177" s="13"/>
+    </row>
+    <row r="178">
+      <c r="C178" s="13"/>
+    </row>
+    <row r="179">
+      <c r="C179" s="13"/>
+    </row>
+    <row r="180">
+      <c r="C180" s="13"/>
+    </row>
+    <row r="181">
+      <c r="C181" s="13"/>
+    </row>
+    <row r="182">
+      <c r="C182" s="13"/>
+    </row>
+    <row r="183">
+      <c r="C183" s="13"/>
+    </row>
+    <row r="184">
+      <c r="C184" s="13"/>
+    </row>
+    <row r="185">
+      <c r="C185" s="13"/>
+    </row>
+    <row r="186">
+      <c r="C186" s="13"/>
+    </row>
+    <row r="187">
+      <c r="C187" s="13"/>
+    </row>
+    <row r="188">
+      <c r="C188" s="13"/>
+    </row>
+    <row r="189">
+      <c r="C189" s="13"/>
+    </row>
+    <row r="190">
+      <c r="C190" s="13"/>
+    </row>
+    <row r="191">
+      <c r="C191" s="13"/>
+    </row>
+    <row r="192">
+      <c r="C192" s="13"/>
+    </row>
+    <row r="193">
+      <c r="C193" s="13"/>
+    </row>
+    <row r="194">
+      <c r="C194" s="13"/>
+    </row>
+    <row r="195">
+      <c r="C195" s="13"/>
+    </row>
+    <row r="196">
+      <c r="C196" s="13"/>
+    </row>
+    <row r="197">
+      <c r="C197" s="13"/>
+    </row>
+    <row r="198">
+      <c r="C198" s="13"/>
+    </row>
+    <row r="199">
+      <c r="C199" s="13"/>
+    </row>
+    <row r="200">
+      <c r="C200" s="13"/>
+    </row>
+    <row r="201">
+      <c r="C201" s="13"/>
+    </row>
+    <row r="202">
+      <c r="C202" s="13"/>
+    </row>
+    <row r="203">
+      <c r="C203" s="13"/>
+    </row>
+    <row r="204">
+      <c r="C204" s="13"/>
+    </row>
+    <row r="205">
+      <c r="C205" s="13"/>
+    </row>
+    <row r="206">
+      <c r="C206" s="13"/>
+    </row>
+    <row r="207">
+      <c r="C207" s="13"/>
+    </row>
+    <row r="208">
+      <c r="C208" s="13"/>
+    </row>
+    <row r="209">
+      <c r="C209" s="13"/>
+    </row>
+    <row r="210">
+      <c r="C210" s="13"/>
+    </row>
+    <row r="211">
+      <c r="C211" s="13"/>
+    </row>
+    <row r="212">
+      <c r="C212" s="13"/>
+    </row>
+    <row r="213">
+      <c r="C213" s="13"/>
+    </row>
+    <row r="214">
+      <c r="C214" s="13"/>
+    </row>
+    <row r="215">
+      <c r="C215" s="13"/>
+    </row>
+    <row r="216">
+      <c r="C216" s="13"/>
+    </row>
+    <row r="217">
+      <c r="C217" s="13"/>
+    </row>
+    <row r="218">
+      <c r="C218" s="13"/>
+    </row>
+    <row r="219">
+      <c r="C219" s="13"/>
+    </row>
+    <row r="220">
+      <c r="C220" s="13"/>
+    </row>
+    <row r="221">
+      <c r="C221" s="13"/>
+    </row>
+    <row r="222">
+      <c r="C222" s="13"/>
+    </row>
+    <row r="223">
+      <c r="C223" s="13"/>
+    </row>
+    <row r="224">
+      <c r="C224" s="13"/>
+    </row>
+    <row r="225">
+      <c r="C225" s="13"/>
+    </row>
+    <row r="226">
+      <c r="C226" s="13"/>
+    </row>
+    <row r="227">
+      <c r="C227" s="13"/>
+    </row>
+    <row r="228">
+      <c r="C228" s="13"/>
+    </row>
+    <row r="229">
+      <c r="C229" s="13"/>
+    </row>
+    <row r="230">
+      <c r="C230" s="13"/>
+    </row>
+    <row r="231">
+      <c r="C231" s="13"/>
+    </row>
+    <row r="232">
+      <c r="C232" s="13"/>
+    </row>
+    <row r="233">
+      <c r="C233" s="13"/>
+    </row>
+    <row r="234">
+      <c r="C234" s="13"/>
+    </row>
+    <row r="235">
+      <c r="C235" s="13"/>
+    </row>
+    <row r="236">
+      <c r="C236" s="13"/>
+    </row>
+    <row r="237">
+      <c r="C237" s="13"/>
+    </row>
+    <row r="238">
+      <c r="C238" s="13"/>
+    </row>
+    <row r="239">
+      <c r="C239" s="13"/>
+    </row>
+    <row r="240">
+      <c r="C240" s="13"/>
+    </row>
+    <row r="241">
+      <c r="C241" s="13"/>
+    </row>
+    <row r="242">
+      <c r="C242" s="13"/>
+    </row>
+    <row r="243">
+      <c r="C243" s="13"/>
+    </row>
+    <row r="244">
+      <c r="C244" s="13"/>
+    </row>
+    <row r="245">
+      <c r="C245" s="13"/>
+    </row>
+    <row r="246">
+      <c r="C246" s="13"/>
+    </row>
+    <row r="247">
+      <c r="C247" s="13"/>
+    </row>
+    <row r="248">
+      <c r="C248" s="13"/>
+    </row>
+    <row r="249">
+      <c r="C249" s="13"/>
+    </row>
+    <row r="250">
+      <c r="C250" s="13"/>
+    </row>
+    <row r="251">
+      <c r="C251" s="13"/>
+    </row>
+    <row r="252">
+      <c r="C252" s="13"/>
+    </row>
+    <row r="253">
+      <c r="C253" s="13"/>
+    </row>
+    <row r="254">
+      <c r="C254" s="13"/>
+    </row>
+    <row r="255">
+      <c r="C255" s="13"/>
+    </row>
+    <row r="256">
+      <c r="C256" s="13"/>
+    </row>
+    <row r="257">
+      <c r="C257" s="13"/>
+    </row>
+    <row r="258">
+      <c r="C258" s="13"/>
+    </row>
+    <row r="259">
+      <c r="C259" s="13"/>
+    </row>
+    <row r="260">
+      <c r="C260" s="13"/>
+    </row>
+    <row r="261">
+      <c r="C261" s="13"/>
+    </row>
+    <row r="262">
+      <c r="C262" s="13"/>
+    </row>
+    <row r="263">
+      <c r="C263" s="13"/>
+    </row>
+    <row r="264">
+      <c r="C264" s="13"/>
+    </row>
+    <row r="265">
+      <c r="C265" s="13"/>
+    </row>
+    <row r="266">
+      <c r="C266" s="13"/>
+    </row>
+    <row r="267">
+      <c r="C267" s="13"/>
+    </row>
+    <row r="268">
+      <c r="C268" s="13"/>
+    </row>
+    <row r="269">
+      <c r="C269" s="13"/>
+    </row>
+    <row r="270">
+      <c r="C270" s="13"/>
+    </row>
+    <row r="271">
+      <c r="C271" s="13"/>
+    </row>
+    <row r="272">
+      <c r="C272" s="13"/>
+    </row>
+    <row r="273">
+      <c r="C273" s="13"/>
+    </row>
+    <row r="274">
+      <c r="C274" s="13"/>
+    </row>
+    <row r="275">
+      <c r="C275" s="13"/>
+    </row>
+    <row r="276">
+      <c r="C276" s="13"/>
+    </row>
+    <row r="277">
+      <c r="C277" s="13"/>
+    </row>
+    <row r="278">
+      <c r="C278" s="13"/>
+    </row>
+    <row r="279">
+      <c r="C279" s="13"/>
+    </row>
+    <row r="280">
+      <c r="C280" s="13"/>
+    </row>
+    <row r="281">
+      <c r="C281" s="13"/>
+    </row>
+    <row r="282">
+      <c r="C282" s="13"/>
+    </row>
+    <row r="283">
+      <c r="C283" s="13"/>
+    </row>
+    <row r="284">
+      <c r="C284" s="13"/>
+    </row>
+    <row r="285">
+      <c r="C285" s="13"/>
+    </row>
+    <row r="286">
+      <c r="C286" s="13"/>
+    </row>
+    <row r="287">
+      <c r="C287" s="13"/>
+    </row>
+    <row r="288">
+      <c r="C288" s="13"/>
+    </row>
+    <row r="289">
+      <c r="C289" s="13"/>
+    </row>
+    <row r="290">
+      <c r="C290" s="13"/>
+    </row>
+    <row r="291">
+      <c r="C291" s="13"/>
+    </row>
+    <row r="292">
+      <c r="C292" s="13"/>
+    </row>
+    <row r="293">
+      <c r="C293" s="13"/>
+    </row>
+    <row r="294">
+      <c r="C294" s="13"/>
+    </row>
+    <row r="295">
+      <c r="C295" s="13"/>
+    </row>
+    <row r="296">
+      <c r="C296" s="13"/>
+    </row>
+    <row r="297">
+      <c r="C297" s="13"/>
+    </row>
+    <row r="298">
+      <c r="C298" s="13"/>
+    </row>
+    <row r="299">
+      <c r="C299" s="13"/>
+    </row>
+    <row r="300">
+      <c r="C300" s="13"/>
+    </row>
+    <row r="301">
+      <c r="C301" s="13"/>
+    </row>
+    <row r="302">
+      <c r="C302" s="13"/>
+    </row>
+    <row r="303">
+      <c r="C303" s="13"/>
+    </row>
+    <row r="304">
+      <c r="C304" s="13"/>
+    </row>
+    <row r="305">
+      <c r="C305" s="13"/>
+    </row>
+    <row r="306">
+      <c r="C306" s="13"/>
+    </row>
+    <row r="307">
+      <c r="C307" s="13"/>
+    </row>
+    <row r="308">
+      <c r="C308" s="13"/>
+    </row>
+    <row r="309">
+      <c r="C309" s="13"/>
+    </row>
+    <row r="310">
+      <c r="C310" s="13"/>
+    </row>
+    <row r="311">
+      <c r="C311" s="13"/>
+    </row>
+    <row r="312">
+      <c r="C312" s="13"/>
+    </row>
+    <row r="313">
+      <c r="C313" s="13"/>
+    </row>
+    <row r="314">
+      <c r="C314" s="13"/>
+    </row>
+    <row r="315">
+      <c r="C315" s="13"/>
+    </row>
+    <row r="316">
+      <c r="C316" s="13"/>
+    </row>
+    <row r="317">
+      <c r="C317" s="13"/>
+    </row>
+    <row r="318">
+      <c r="C318" s="13"/>
+    </row>
+    <row r="319">
+      <c r="C319" s="13"/>
+    </row>
+    <row r="320">
+      <c r="C320" s="13"/>
+    </row>
+    <row r="321">
+      <c r="C321" s="13"/>
+    </row>
+    <row r="322">
+      <c r="C322" s="13"/>
+    </row>
+    <row r="323">
+      <c r="C323" s="13"/>
+    </row>
+    <row r="324">
+      <c r="C324" s="13"/>
+    </row>
+    <row r="325">
+      <c r="C325" s="13"/>
+    </row>
+    <row r="326">
+      <c r="C326" s="13"/>
+    </row>
+    <row r="327">
+      <c r="C327" s="13"/>
+    </row>
+    <row r="328">
+      <c r="C328" s="13"/>
+    </row>
+    <row r="329">
+      <c r="C329" s="13"/>
+    </row>
+    <row r="330">
+      <c r="C330" s="13"/>
+    </row>
+    <row r="331">
+      <c r="C331" s="13"/>
+    </row>
+    <row r="332">
+      <c r="C332" s="13"/>
+    </row>
+    <row r="333">
+      <c r="C333" s="13"/>
+    </row>
+    <row r="334">
+      <c r="C334" s="13"/>
+    </row>
+    <row r="335">
+      <c r="C335" s="13"/>
+    </row>
+    <row r="336">
+      <c r="C336" s="13"/>
+    </row>
+    <row r="337">
+      <c r="C337" s="13"/>
+    </row>
+    <row r="338">
+      <c r="C338" s="13"/>
+    </row>
+    <row r="339">
+      <c r="C339" s="13"/>
+    </row>
+    <row r="340">
+      <c r="C340" s="13"/>
+    </row>
+    <row r="341">
+      <c r="C341" s="13"/>
+    </row>
+    <row r="342">
+      <c r="C342" s="13"/>
+    </row>
+    <row r="343">
+      <c r="C343" s="13"/>
+    </row>
+    <row r="344">
+      <c r="C344" s="13"/>
+    </row>
+    <row r="345">
+      <c r="C345" s="13"/>
+    </row>
+    <row r="346">
+      <c r="C346" s="13"/>
+    </row>
+    <row r="347">
+      <c r="C347" s="13"/>
+    </row>
+    <row r="348">
+      <c r="C348" s="13"/>
+    </row>
+    <row r="349">
+      <c r="C349" s="13"/>
+    </row>
+    <row r="350">
+      <c r="C350" s="13"/>
+    </row>
+    <row r="351">
+      <c r="C351" s="13"/>
+    </row>
+    <row r="352">
+      <c r="C352" s="13"/>
+    </row>
+    <row r="353">
+      <c r="C353" s="13"/>
+    </row>
+    <row r="354">
+      <c r="C354" s="13"/>
+    </row>
+    <row r="355">
+      <c r="C355" s="13"/>
+    </row>
+    <row r="356">
+      <c r="C356" s="13"/>
+    </row>
+    <row r="357">
+      <c r="C357" s="13"/>
+    </row>
+    <row r="358">
+      <c r="C358" s="13"/>
+    </row>
+    <row r="359">
+      <c r="C359" s="13"/>
+    </row>
+    <row r="360">
+      <c r="C360" s="13"/>
+    </row>
+    <row r="361">
+      <c r="C361" s="13"/>
+    </row>
+    <row r="362">
+      <c r="C362" s="13"/>
+    </row>
+    <row r="363">
+      <c r="C363" s="13"/>
+    </row>
+    <row r="364">
+      <c r="C364" s="13"/>
+    </row>
+    <row r="365">
+      <c r="C365" s="13"/>
+    </row>
+    <row r="366">
+      <c r="C366" s="13"/>
+    </row>
+    <row r="367">
+      <c r="C367" s="13"/>
+    </row>
+    <row r="368">
+      <c r="C368" s="13"/>
+    </row>
+    <row r="369">
+      <c r="C369" s="13"/>
+    </row>
+    <row r="370">
+      <c r="C370" s="13"/>
+    </row>
+    <row r="371">
+      <c r="C371" s="13"/>
+    </row>
+    <row r="372">
+      <c r="C372" s="13"/>
+    </row>
+    <row r="373">
+      <c r="C373" s="13"/>
+    </row>
+    <row r="374">
+      <c r="C374" s="13"/>
+    </row>
+    <row r="375">
+      <c r="C375" s="13"/>
+    </row>
+    <row r="376">
+      <c r="C376" s="13"/>
+    </row>
+    <row r="377">
+      <c r="C377" s="13"/>
+    </row>
+    <row r="378">
+      <c r="C378" s="13"/>
+    </row>
+    <row r="379">
+      <c r="C379" s="13"/>
+    </row>
+    <row r="380">
+      <c r="C380" s="13"/>
+    </row>
+    <row r="381">
+      <c r="C381" s="13"/>
+    </row>
+    <row r="382">
+      <c r="C382" s="13"/>
+    </row>
+    <row r="383">
+      <c r="C383" s="13"/>
+    </row>
+    <row r="384">
+      <c r="C384" s="13"/>
+    </row>
+    <row r="385">
+      <c r="C385" s="13"/>
+    </row>
+    <row r="386">
+      <c r="C386" s="13"/>
+    </row>
+    <row r="387">
+      <c r="C387" s="13"/>
+    </row>
+    <row r="388">
+      <c r="C388" s="13"/>
+    </row>
+    <row r="389">
+      <c r="C389" s="13"/>
+    </row>
+    <row r="390">
+      <c r="C390" s="13"/>
+    </row>
+    <row r="391">
+      <c r="C391" s="13"/>
+    </row>
+    <row r="392">
+      <c r="C392" s="13"/>
+    </row>
+    <row r="393">
+      <c r="C393" s="13"/>
+    </row>
+    <row r="394">
+      <c r="C394" s="13"/>
+    </row>
+    <row r="395">
+      <c r="C395" s="13"/>
+    </row>
+    <row r="396">
+      <c r="C396" s="13"/>
+    </row>
+    <row r="397">
+      <c r="C397" s="13"/>
+    </row>
+    <row r="398">
+      <c r="C398" s="13"/>
+    </row>
+    <row r="399">
+      <c r="C399" s="13"/>
+    </row>
+    <row r="400">
+      <c r="C400" s="13"/>
+    </row>
+    <row r="401">
+      <c r="C401" s="13"/>
+    </row>
+    <row r="402">
+      <c r="C402" s="13"/>
+    </row>
+    <row r="403">
+      <c r="C403" s="13"/>
+    </row>
+    <row r="404">
+      <c r="C404" s="13"/>
+    </row>
+    <row r="405">
+      <c r="C405" s="13"/>
+    </row>
+    <row r="406">
+      <c r="C406" s="13"/>
+    </row>
+    <row r="407">
+      <c r="C407" s="13"/>
+    </row>
+    <row r="408">
+      <c r="C408" s="13"/>
+    </row>
+    <row r="409">
+      <c r="C409" s="13"/>
+    </row>
+    <row r="410">
+      <c r="C410" s="13"/>
+    </row>
+    <row r="411">
+      <c r="C411" s="13"/>
+    </row>
+    <row r="412">
+      <c r="C412" s="13"/>
+    </row>
+    <row r="413">
+      <c r="C413" s="13"/>
+    </row>
+    <row r="414">
+      <c r="C414" s="13"/>
+    </row>
+    <row r="415">
+      <c r="C415" s="13"/>
+    </row>
+    <row r="416">
+      <c r="C416" s="13"/>
+    </row>
+    <row r="417">
+      <c r="C417" s="13"/>
+    </row>
+    <row r="418">
+      <c r="C418" s="13"/>
+    </row>
+    <row r="419">
+      <c r="C419" s="13"/>
+    </row>
+    <row r="420">
+      <c r="C420" s="13"/>
+    </row>
+    <row r="421">
+      <c r="C421" s="13"/>
+    </row>
+    <row r="422">
+      <c r="C422" s="13"/>
+    </row>
+    <row r="423">
+      <c r="C423" s="13"/>
+    </row>
+    <row r="424">
+      <c r="C424" s="13"/>
+    </row>
+    <row r="425">
+      <c r="C425" s="13"/>
+    </row>
+    <row r="426">
+      <c r="C426" s="13"/>
+    </row>
+    <row r="427">
+      <c r="C427" s="13"/>
+    </row>
+    <row r="428">
+      <c r="C428" s="13"/>
+    </row>
+    <row r="429">
+      <c r="C429" s="13"/>
+    </row>
+    <row r="430">
+      <c r="C430" s="13"/>
+    </row>
+    <row r="431">
+      <c r="C431" s="13"/>
+    </row>
+    <row r="432">
+      <c r="C432" s="13"/>
+    </row>
+    <row r="433">
+      <c r="C433" s="13"/>
+    </row>
+    <row r="434">
+      <c r="C434" s="13"/>
+    </row>
+    <row r="435">
+      <c r="C435" s="13"/>
+    </row>
+    <row r="436">
+      <c r="C436" s="13"/>
+    </row>
+    <row r="437">
+      <c r="C437" s="13"/>
+    </row>
+    <row r="438">
+      <c r="C438" s="13"/>
+    </row>
+    <row r="439">
+      <c r="C439" s="13"/>
+    </row>
+    <row r="440">
+      <c r="C440" s="13"/>
+    </row>
+    <row r="441">
+      <c r="C441" s="13"/>
+    </row>
+    <row r="442">
+      <c r="C442" s="13"/>
+    </row>
+    <row r="443">
+      <c r="C443" s="13"/>
+    </row>
+    <row r="444">
+      <c r="C444" s="13"/>
+    </row>
+    <row r="445">
+      <c r="C445" s="13"/>
+    </row>
+    <row r="446">
+      <c r="C446" s="13"/>
+    </row>
+    <row r="447">
+      <c r="C447" s="13"/>
+    </row>
+    <row r="448">
+      <c r="C448" s="13"/>
+    </row>
+    <row r="449">
+      <c r="C449" s="13"/>
+    </row>
+    <row r="450">
+      <c r="C450" s="13"/>
+    </row>
+    <row r="451">
+      <c r="C451" s="13"/>
+    </row>
+    <row r="452">
+      <c r="C452" s="13"/>
+    </row>
+    <row r="453">
+      <c r="C453" s="13"/>
+    </row>
+    <row r="454">
+      <c r="C454" s="13"/>
+    </row>
+    <row r="455">
+      <c r="C455" s="13"/>
+    </row>
+    <row r="456">
+      <c r="C456" s="13"/>
+    </row>
+    <row r="457">
+      <c r="C457" s="13"/>
+    </row>
+    <row r="458">
+      <c r="C458" s="13"/>
+    </row>
+    <row r="459">
+      <c r="C459" s="13"/>
+    </row>
+    <row r="460">
+      <c r="C460" s="13"/>
+    </row>
+    <row r="461">
+      <c r="C461" s="13"/>
+    </row>
+    <row r="462">
+      <c r="C462" s="13"/>
+    </row>
+    <row r="463">
+      <c r="C463" s="13"/>
+    </row>
+    <row r="464">
+      <c r="C464" s="13"/>
+    </row>
+    <row r="465">
+      <c r="C465" s="13"/>
+    </row>
+    <row r="466">
+      <c r="C466" s="13"/>
+    </row>
+    <row r="467">
+      <c r="C467" s="13"/>
+    </row>
+    <row r="468">
+      <c r="C468" s="13"/>
+    </row>
+    <row r="469">
+      <c r="C469" s="13"/>
+    </row>
+    <row r="470">
+      <c r="C470" s="13"/>
+    </row>
+    <row r="471">
+      <c r="C471" s="13"/>
+    </row>
+    <row r="472">
+      <c r="C472" s="13"/>
+    </row>
+    <row r="473">
+      <c r="C473" s="13"/>
+    </row>
+    <row r="474">
+      <c r="C474" s="13"/>
+    </row>
+    <row r="475">
+      <c r="C475" s="13"/>
+    </row>
+    <row r="476">
+      <c r="C476" s="13"/>
+    </row>
+    <row r="477">
+      <c r="C477" s="13"/>
+    </row>
+    <row r="478">
+      <c r="C478" s="13"/>
+    </row>
+    <row r="479">
+      <c r="C479" s="13"/>
+    </row>
+    <row r="480">
+      <c r="C480" s="13"/>
+    </row>
+    <row r="481">
+      <c r="C481" s="13"/>
+    </row>
+    <row r="482">
+      <c r="C482" s="13"/>
+    </row>
+    <row r="483">
+      <c r="C483" s="13"/>
+    </row>
+    <row r="484">
+      <c r="C484" s="13"/>
+    </row>
+    <row r="485">
+      <c r="C485" s="13"/>
+    </row>
+    <row r="486">
+      <c r="C486" s="13"/>
+    </row>
+    <row r="487">
+      <c r="C487" s="13"/>
+    </row>
+    <row r="488">
+      <c r="C488" s="13"/>
+    </row>
+    <row r="489">
+      <c r="C489" s="13"/>
+    </row>
+    <row r="490">
+      <c r="C490" s="13"/>
+    </row>
+    <row r="491">
+      <c r="C491" s="13"/>
+    </row>
+    <row r="492">
+      <c r="C492" s="13"/>
+    </row>
+    <row r="493">
+      <c r="C493" s="13"/>
+    </row>
+    <row r="494">
+      <c r="C494" s="13"/>
+    </row>
+    <row r="495">
+      <c r="C495" s="13"/>
+    </row>
+    <row r="496">
+      <c r="C496" s="13"/>
+    </row>
+    <row r="497">
+      <c r="C497" s="13"/>
+    </row>
+    <row r="498">
+      <c r="C498" s="13"/>
+    </row>
+    <row r="499">
+      <c r="C499" s="13"/>
+    </row>
+    <row r="500">
+      <c r="C500" s="13"/>
+    </row>
+    <row r="501">
+      <c r="C501" s="13"/>
+    </row>
+    <row r="502">
+      <c r="C502" s="13"/>
+    </row>
+    <row r="503">
+      <c r="C503" s="13"/>
+    </row>
+    <row r="504">
+      <c r="C504" s="13"/>
+    </row>
+    <row r="505">
+      <c r="C505" s="13"/>
+    </row>
+    <row r="506">
+      <c r="C506" s="13"/>
+    </row>
+    <row r="507">
+      <c r="C507" s="13"/>
+    </row>
+    <row r="508">
+      <c r="C508" s="13"/>
+    </row>
+    <row r="509">
+      <c r="C509" s="13"/>
+    </row>
+    <row r="510">
+      <c r="C510" s="13"/>
+    </row>
+    <row r="511">
+      <c r="C511" s="13"/>
+    </row>
+    <row r="512">
+      <c r="C512" s="13"/>
+    </row>
+    <row r="513">
+      <c r="C513" s="13"/>
+    </row>
+    <row r="514">
+      <c r="C514" s="13"/>
+    </row>
+    <row r="515">
+      <c r="C515" s="13"/>
+    </row>
+    <row r="516">
+      <c r="C516" s="13"/>
+    </row>
+    <row r="517">
+      <c r="C517" s="13"/>
+    </row>
+    <row r="518">
+      <c r="C518" s="13"/>
+    </row>
+    <row r="519">
+      <c r="C519" s="13"/>
+    </row>
+    <row r="520">
+      <c r="C520" s="13"/>
+    </row>
+    <row r="521">
+      <c r="C521" s="13"/>
+    </row>
+    <row r="522">
+      <c r="C522" s="13"/>
+    </row>
+    <row r="523">
+      <c r="C523" s="13"/>
+    </row>
+    <row r="524">
+      <c r="C524" s="13"/>
+    </row>
+    <row r="525">
+      <c r="C525" s="13"/>
+    </row>
+    <row r="526">
+      <c r="C526" s="13"/>
+    </row>
+    <row r="527">
+      <c r="C527" s="13"/>
+    </row>
+    <row r="528">
+      <c r="C528" s="13"/>
+    </row>
+    <row r="529">
+      <c r="C529" s="13"/>
+    </row>
+    <row r="530">
+      <c r="C530" s="13"/>
+    </row>
+    <row r="531">
+      <c r="C531" s="13"/>
+    </row>
+    <row r="532">
+      <c r="C532" s="13"/>
+    </row>
+    <row r="533">
+      <c r="C533" s="13"/>
+    </row>
+    <row r="534">
+      <c r="C534" s="13"/>
+    </row>
+    <row r="535">
+      <c r="C535" s="13"/>
+    </row>
+    <row r="536">
+      <c r="C536" s="13"/>
+    </row>
+    <row r="537">
+      <c r="C537" s="13"/>
+    </row>
+    <row r="538">
+      <c r="C538" s="13"/>
+    </row>
+    <row r="539">
+      <c r="C539" s="13"/>
+    </row>
+    <row r="540">
+      <c r="C540" s="13"/>
+    </row>
+    <row r="541">
+      <c r="C541" s="13"/>
+    </row>
+    <row r="542">
+      <c r="C542" s="13"/>
+    </row>
+    <row r="543">
+      <c r="C543" s="13"/>
+    </row>
+    <row r="544">
+      <c r="C544" s="13"/>
+    </row>
+    <row r="545">
+      <c r="C545" s="13"/>
+    </row>
+    <row r="546">
+      <c r="C546" s="13"/>
+    </row>
+    <row r="547">
+      <c r="C547" s="13"/>
+    </row>
+    <row r="548">
+      <c r="C548" s="13"/>
+    </row>
+    <row r="549">
+      <c r="C549" s="13"/>
+    </row>
+    <row r="550">
+      <c r="C550" s="13"/>
+    </row>
+    <row r="551">
+      <c r="C551" s="13"/>
+    </row>
+    <row r="552">
+      <c r="C552" s="13"/>
+    </row>
+    <row r="553">
+      <c r="C553" s="13"/>
+    </row>
+    <row r="554">
+      <c r="C554" s="13"/>
+    </row>
+    <row r="555">
+      <c r="C555" s="13"/>
+    </row>
+    <row r="556">
+      <c r="C556" s="13"/>
+    </row>
+    <row r="557">
+      <c r="C557" s="13"/>
+    </row>
+    <row r="558">
+      <c r="C558" s="13"/>
+    </row>
+    <row r="559">
+      <c r="C559" s="13"/>
+    </row>
+    <row r="560">
+      <c r="C560" s="13"/>
+    </row>
+    <row r="561">
+      <c r="C561" s="13"/>
+    </row>
+    <row r="562">
+      <c r="C562" s="13"/>
+    </row>
+    <row r="563">
+      <c r="C563" s="13"/>
+    </row>
+    <row r="564">
+      <c r="C564" s="13"/>
+    </row>
+    <row r="565">
+      <c r="C565" s="13"/>
+    </row>
+    <row r="566">
+      <c r="C566" s="13"/>
+    </row>
+    <row r="567">
+      <c r="C567" s="13"/>
+    </row>
+    <row r="568">
+      <c r="C568" s="13"/>
+    </row>
+    <row r="569">
+      <c r="C569" s="13"/>
+    </row>
+    <row r="570">
+      <c r="C570" s="13"/>
+    </row>
+    <row r="571">
+      <c r="C571" s="13"/>
+    </row>
+    <row r="572">
+      <c r="C572" s="13"/>
+    </row>
+    <row r="573">
+      <c r="C573" s="13"/>
+    </row>
+    <row r="574">
+      <c r="C574" s="13"/>
+    </row>
+    <row r="575">
+      <c r="C575" s="13"/>
+    </row>
+    <row r="576">
+      <c r="C576" s="13"/>
+    </row>
+    <row r="577">
+      <c r="C577" s="13"/>
+    </row>
+    <row r="578">
+      <c r="C578" s="13"/>
+    </row>
+    <row r="579">
+      <c r="C579" s="13"/>
+    </row>
+    <row r="580">
+      <c r="C580" s="13"/>
+    </row>
+    <row r="581">
+      <c r="C581" s="13"/>
+    </row>
+    <row r="582">
+      <c r="C582" s="13"/>
+    </row>
+    <row r="583">
+      <c r="C583" s="13"/>
+    </row>
+    <row r="584">
+      <c r="C584" s="13"/>
+    </row>
+    <row r="585">
+      <c r="C585" s="13"/>
+    </row>
+    <row r="586">
+      <c r="C586" s="13"/>
+    </row>
+    <row r="587">
+      <c r="C587" s="13"/>
+    </row>
+    <row r="588">
+      <c r="C588" s="13"/>
+    </row>
+    <row r="589">
+      <c r="C589" s="13"/>
+    </row>
+    <row r="590">
+      <c r="C590" s="13"/>
+    </row>
+    <row r="591">
+      <c r="C591" s="13"/>
+    </row>
+    <row r="592">
+      <c r="C592" s="13"/>
+    </row>
+    <row r="593">
+      <c r="C593" s="13"/>
+    </row>
+    <row r="594">
+      <c r="C594" s="13"/>
+    </row>
+    <row r="595">
+      <c r="C595" s="13"/>
+    </row>
+    <row r="596">
+      <c r="C596" s="13"/>
+    </row>
+    <row r="597">
+      <c r="C597" s="13"/>
+    </row>
+    <row r="598">
+      <c r="C598" s="13"/>
+    </row>
+    <row r="599">
+      <c r="C599" s="13"/>
+    </row>
+    <row r="600">
+      <c r="C600" s="13"/>
+    </row>
+    <row r="601">
+      <c r="C601" s="13"/>
+    </row>
+    <row r="602">
+      <c r="C602" s="13"/>
+    </row>
+    <row r="603">
+      <c r="C603" s="13"/>
+    </row>
+    <row r="604">
+      <c r="C604" s="13"/>
+    </row>
+    <row r="605">
+      <c r="C605" s="13"/>
+    </row>
+    <row r="606">
+      <c r="C606" s="13"/>
+    </row>
+    <row r="607">
+      <c r="C607" s="13"/>
+    </row>
+    <row r="608">
+      <c r="C608" s="13"/>
+    </row>
+    <row r="609">
+      <c r="C609" s="13"/>
+    </row>
+    <row r="610">
+      <c r="C610" s="13"/>
+    </row>
+    <row r="611">
+      <c r="C611" s="13"/>
+    </row>
+    <row r="612">
+      <c r="C612" s="13"/>
+    </row>
+    <row r="613">
+      <c r="C613" s="13"/>
+    </row>
+    <row r="614">
+      <c r="C614" s="13"/>
+    </row>
+    <row r="615">
+      <c r="C615" s="13"/>
+    </row>
+    <row r="616">
+      <c r="C616" s="13"/>
+    </row>
+    <row r="617">
+      <c r="C617" s="13"/>
+    </row>
+    <row r="618">
+      <c r="C618" s="13"/>
+    </row>
+    <row r="619">
+      <c r="C619" s="13"/>
+    </row>
+    <row r="620">
+      <c r="C620" s="13"/>
+    </row>
+    <row r="621">
+      <c r="C621" s="13"/>
+    </row>
+    <row r="622">
+      <c r="C622" s="13"/>
+    </row>
+    <row r="623">
+      <c r="C623" s="13"/>
+    </row>
+    <row r="624">
+      <c r="C624" s="13"/>
+    </row>
+    <row r="625">
+      <c r="C625" s="13"/>
+    </row>
+    <row r="626">
+      <c r="C626" s="13"/>
+    </row>
+    <row r="627">
+      <c r="C627" s="13"/>
+    </row>
+    <row r="628">
+      <c r="C628" s="13"/>
+    </row>
+    <row r="629">
+      <c r="C629" s="13"/>
+    </row>
+    <row r="630">
+      <c r="C630" s="13"/>
+    </row>
+    <row r="631">
+      <c r="C631" s="13"/>
+    </row>
+    <row r="632">
+      <c r="C632" s="13"/>
+    </row>
+    <row r="633">
+      <c r="C633" s="13"/>
+    </row>
+    <row r="634">
+      <c r="C634" s="13"/>
+    </row>
+    <row r="635">
+      <c r="C635" s="13"/>
+    </row>
+    <row r="636">
+      <c r="C636" s="13"/>
+    </row>
+    <row r="637">
+      <c r="C637" s="13"/>
+    </row>
+    <row r="638">
+      <c r="C638" s="13"/>
+    </row>
+    <row r="639">
+      <c r="C639" s="13"/>
+    </row>
+    <row r="640">
+      <c r="C640" s="13"/>
+    </row>
+    <row r="641">
+      <c r="C641" s="13"/>
+    </row>
+    <row r="642">
+      <c r="C642" s="13"/>
+    </row>
+    <row r="643">
+      <c r="C643" s="13"/>
+    </row>
+    <row r="644">
+      <c r="C644" s="13"/>
+    </row>
+    <row r="645">
+      <c r="C645" s="13"/>
+    </row>
+    <row r="646">
+      <c r="C646" s="13"/>
+    </row>
+    <row r="647">
+      <c r="C647" s="13"/>
+    </row>
+    <row r="648">
+      <c r="C648" s="13"/>
+    </row>
+    <row r="649">
+      <c r="C649" s="13"/>
+    </row>
+    <row r="650">
+      <c r="C650" s="13"/>
+    </row>
+    <row r="651">
+      <c r="C651" s="13"/>
+    </row>
+    <row r="652">
+      <c r="C652" s="13"/>
+    </row>
+    <row r="653">
+      <c r="C653" s="13"/>
+    </row>
+    <row r="654">
+      <c r="C654" s="13"/>
+    </row>
+    <row r="655">
+      <c r="C655" s="13"/>
+    </row>
+    <row r="656">
+      <c r="C656" s="13"/>
+    </row>
+    <row r="657">
+      <c r="C657" s="13"/>
+    </row>
+    <row r="658">
+      <c r="C658" s="13"/>
+    </row>
+    <row r="659">
+      <c r="C659" s="13"/>
+    </row>
+    <row r="660">
+      <c r="C660" s="13"/>
+    </row>
+    <row r="661">
+      <c r="C661" s="13"/>
+    </row>
+    <row r="662">
+      <c r="C662" s="13"/>
+    </row>
+    <row r="663">
+      <c r="C663" s="13"/>
+    </row>
+    <row r="664">
+      <c r="C664" s="13"/>
+    </row>
+    <row r="665">
+      <c r="C665" s="13"/>
+    </row>
+    <row r="666">
+      <c r="C666" s="13"/>
+    </row>
+    <row r="667">
+      <c r="C667" s="13"/>
+    </row>
+    <row r="668">
+      <c r="C668" s="13"/>
+    </row>
+    <row r="669">
+      <c r="C669" s="13"/>
+    </row>
+    <row r="670">
+      <c r="C670" s="13"/>
+    </row>
+    <row r="671">
+      <c r="C671" s="13"/>
+    </row>
+    <row r="672">
+      <c r="C672" s="13"/>
+    </row>
+    <row r="673">
+      <c r="C673" s="13"/>
+    </row>
+    <row r="674">
+      <c r="C674" s="13"/>
+    </row>
+    <row r="675">
+      <c r="C675" s="13"/>
+    </row>
+    <row r="676">
+      <c r="C676" s="13"/>
+    </row>
+    <row r="677">
+      <c r="C677" s="13"/>
+    </row>
+    <row r="678">
+      <c r="C678" s="13"/>
+    </row>
+    <row r="679">
+      <c r="C679" s="13"/>
+    </row>
+    <row r="680">
+      <c r="C680" s="13"/>
+    </row>
+    <row r="681">
+      <c r="C681" s="13"/>
+    </row>
+    <row r="682">
+      <c r="C682" s="13"/>
+    </row>
+    <row r="683">
+      <c r="C683" s="13"/>
+    </row>
+    <row r="684">
+      <c r="C684" s="13"/>
+    </row>
+    <row r="685">
+      <c r="C685" s="13"/>
+    </row>
+    <row r="686">
+      <c r="C686" s="13"/>
+    </row>
+    <row r="687">
+      <c r="C687" s="13"/>
+    </row>
+    <row r="688">
+      <c r="C688" s="13"/>
+    </row>
+    <row r="689">
+      <c r="C689" s="13"/>
+    </row>
+    <row r="690">
+      <c r="C690" s="13"/>
+    </row>
+    <row r="691">
+      <c r="C691" s="13"/>
+    </row>
+    <row r="692">
+      <c r="C692" s="13"/>
+    </row>
+    <row r="693">
+      <c r="C693" s="13"/>
+    </row>
+    <row r="694">
+      <c r="C694" s="13"/>
+    </row>
+    <row r="695">
+      <c r="C695" s="13"/>
+    </row>
+    <row r="696">
+      <c r="C696" s="13"/>
+    </row>
+    <row r="697">
+      <c r="C697" s="13"/>
+    </row>
+    <row r="698">
+      <c r="C698" s="13"/>
+    </row>
+    <row r="699">
+      <c r="C699" s="13"/>
+    </row>
+    <row r="700">
+      <c r="C700" s="13"/>
+    </row>
+    <row r="701">
+      <c r="C701" s="13"/>
+    </row>
+    <row r="702">
+      <c r="C702" s="13"/>
+    </row>
+    <row r="703">
+      <c r="C703" s="13"/>
+    </row>
+    <row r="704">
+      <c r="C704" s="13"/>
+    </row>
+    <row r="705">
+      <c r="C705" s="13"/>
+    </row>
+    <row r="706">
+      <c r="C706" s="13"/>
+    </row>
+    <row r="707">
+      <c r="C707" s="13"/>
+    </row>
+    <row r="708">
+      <c r="C708" s="13"/>
+    </row>
+    <row r="709">
+      <c r="C709" s="13"/>
+    </row>
+    <row r="710">
+      <c r="C710" s="13"/>
+    </row>
+    <row r="711">
+      <c r="C711" s="13"/>
+    </row>
+    <row r="712">
+      <c r="C712" s="13"/>
+    </row>
+    <row r="713">
+      <c r="C713" s="13"/>
+    </row>
+    <row r="714">
+      <c r="C714" s="13"/>
+    </row>
+    <row r="715">
+      <c r="C715" s="13"/>
+    </row>
+    <row r="716">
+      <c r="C716" s="13"/>
+    </row>
+    <row r="717">
+      <c r="C717" s="13"/>
+    </row>
+    <row r="718">
+      <c r="C718" s="13"/>
+    </row>
+    <row r="719">
+      <c r="C719" s="13"/>
+    </row>
+    <row r="720">
+      <c r="C720" s="13"/>
+    </row>
+    <row r="721">
+      <c r="C721" s="13"/>
+    </row>
+    <row r="722">
+      <c r="C722" s="13"/>
+    </row>
+    <row r="723">
+      <c r="C723" s="13"/>
+    </row>
+    <row r="724">
+      <c r="C724" s="13"/>
+    </row>
+    <row r="725">
+      <c r="C725" s="13"/>
+    </row>
+    <row r="726">
+      <c r="C726" s="13"/>
+    </row>
+    <row r="727">
+      <c r="C727" s="13"/>
+    </row>
+    <row r="728">
+      <c r="C728" s="13"/>
+    </row>
+    <row r="729">
+      <c r="C729" s="13"/>
+    </row>
+    <row r="730">
+      <c r="C730" s="13"/>
+    </row>
+    <row r="731">
+      <c r="C731" s="13"/>
+    </row>
+    <row r="732">
+      <c r="C732" s="13"/>
+    </row>
+    <row r="733">
+      <c r="C733" s="13"/>
+    </row>
+    <row r="734">
+      <c r="C734" s="13"/>
+    </row>
+    <row r="735">
+      <c r="C735" s="13"/>
+    </row>
+    <row r="736">
+      <c r="C736" s="13"/>
+    </row>
+    <row r="737">
+      <c r="C737" s="13"/>
+    </row>
+    <row r="738">
+      <c r="C738" s="13"/>
+    </row>
+    <row r="739">
+      <c r="C739" s="13"/>
+    </row>
+    <row r="740">
+      <c r="C740" s="13"/>
+    </row>
+    <row r="741">
+      <c r="C741" s="13"/>
+    </row>
+    <row r="742">
+      <c r="C742" s="13"/>
+    </row>
+    <row r="743">
+      <c r="C743" s="13"/>
+    </row>
+    <row r="744">
+      <c r="C744" s="13"/>
+    </row>
+    <row r="745">
+      <c r="C745" s="13"/>
+    </row>
+    <row r="746">
+      <c r="C746" s="13"/>
+    </row>
+    <row r="747">
+      <c r="C747" s="13"/>
+    </row>
+    <row r="748">
+      <c r="C748" s="13"/>
+    </row>
+    <row r="749">
+      <c r="C749" s="13"/>
+    </row>
+    <row r="750">
+      <c r="C750" s="13"/>
+    </row>
+    <row r="751">
+      <c r="C751" s="13"/>
+    </row>
+    <row r="752">
+      <c r="C752" s="13"/>
+    </row>
+    <row r="753">
+      <c r="C753" s="13"/>
+    </row>
+    <row r="754">
+      <c r="C754" s="13"/>
+    </row>
+    <row r="755">
+      <c r="C755" s="13"/>
+    </row>
+    <row r="756">
+      <c r="C756" s="13"/>
+    </row>
+    <row r="757">
+      <c r="C757" s="13"/>
+    </row>
+    <row r="758">
+      <c r="C758" s="13"/>
+    </row>
+    <row r="759">
+      <c r="C759" s="13"/>
+    </row>
+    <row r="760">
+      <c r="C760" s="13"/>
+    </row>
+    <row r="761">
+      <c r="C761" s="13"/>
+    </row>
+    <row r="762">
+      <c r="C762" s="13"/>
+    </row>
+    <row r="763">
+      <c r="C763" s="13"/>
+    </row>
+    <row r="764">
+      <c r="C764" s="13"/>
+    </row>
+    <row r="765">
+      <c r="C765" s="13"/>
+    </row>
+    <row r="766">
+      <c r="C766" s="13"/>
+    </row>
+    <row r="767">
+      <c r="C767" s="13"/>
+    </row>
+    <row r="768">
+      <c r="C768" s="13"/>
+    </row>
+    <row r="769">
+      <c r="C769" s="13"/>
+    </row>
+    <row r="770">
+      <c r="C770" s="13"/>
+    </row>
+    <row r="771">
+      <c r="C771" s="13"/>
+    </row>
+    <row r="772">
+      <c r="C772" s="13"/>
+    </row>
+    <row r="773">
+      <c r="C773" s="13"/>
+    </row>
+    <row r="774">
+      <c r="C774" s="13"/>
+    </row>
+    <row r="775">
+      <c r="C775" s="13"/>
+    </row>
+    <row r="776">
+      <c r="C776" s="13"/>
+    </row>
+    <row r="777">
+      <c r="C777" s="13"/>
+    </row>
+    <row r="778">
+      <c r="C778" s="13"/>
+    </row>
+    <row r="779">
+      <c r="C779" s="13"/>
+    </row>
+    <row r="780">
+      <c r="C780" s="13"/>
+    </row>
+    <row r="781">
+      <c r="C781" s="13"/>
+    </row>
+    <row r="782">
+      <c r="C782" s="13"/>
+    </row>
+    <row r="783">
+      <c r="C783" s="13"/>
+    </row>
+    <row r="784">
+      <c r="C784" s="13"/>
+    </row>
+    <row r="785">
+      <c r="C785" s="13"/>
+    </row>
+    <row r="786">
+      <c r="C786" s="13"/>
+    </row>
+    <row r="787">
+      <c r="C787" s="13"/>
+    </row>
+    <row r="788">
+      <c r="C788" s="13"/>
+    </row>
+    <row r="789">
+      <c r="C789" s="13"/>
+    </row>
+    <row r="790">
+      <c r="C790" s="13"/>
+    </row>
+    <row r="791">
+      <c r="C791" s="13"/>
+    </row>
+    <row r="792">
+      <c r="C792" s="13"/>
+    </row>
+    <row r="793">
+      <c r="C793" s="13"/>
+    </row>
+    <row r="794">
+      <c r="C794" s="13"/>
+    </row>
+    <row r="795">
+      <c r="C795" s="13"/>
+    </row>
+    <row r="796">
+      <c r="C796" s="13"/>
+    </row>
+    <row r="797">
+      <c r="C797" s="13"/>
+    </row>
+    <row r="798">
+      <c r="C798" s="13"/>
+    </row>
+    <row r="799">
+      <c r="C799" s="13"/>
+    </row>
+    <row r="800">
+      <c r="C800" s="13"/>
+    </row>
+    <row r="801">
+      <c r="C801" s="13"/>
+    </row>
+    <row r="802">
+      <c r="C802" s="13"/>
+    </row>
+    <row r="803">
+      <c r="C803" s="13"/>
+    </row>
+    <row r="804">
+      <c r="C804" s="13"/>
+    </row>
+    <row r="805">
+      <c r="C805" s="13"/>
+    </row>
+    <row r="806">
+      <c r="C806" s="13"/>
+    </row>
+    <row r="807">
+      <c r="C807" s="13"/>
+    </row>
+    <row r="808">
+      <c r="C808" s="13"/>
+    </row>
+    <row r="809">
+      <c r="C809" s="13"/>
+    </row>
+    <row r="810">
+      <c r="C810" s="13"/>
+    </row>
+    <row r="811">
+      <c r="C811" s="13"/>
+    </row>
+    <row r="812">
+      <c r="C812" s="13"/>
+    </row>
+    <row r="813">
+      <c r="C813" s="13"/>
+    </row>
+    <row r="814">
+      <c r="C814" s="13"/>
+    </row>
+    <row r="815">
+      <c r="C815" s="13"/>
+    </row>
+    <row r="816">
+      <c r="C816" s="13"/>
+    </row>
+    <row r="817">
+      <c r="C817" s="13"/>
+    </row>
+    <row r="818">
+      <c r="C818" s="13"/>
+    </row>
+    <row r="819">
+      <c r="C819" s="13"/>
+    </row>
+    <row r="820">
+      <c r="C820" s="13"/>
+    </row>
+    <row r="821">
+      <c r="C821" s="13"/>
+    </row>
+    <row r="822">
+      <c r="C822" s="13"/>
+    </row>
+    <row r="823">
+      <c r="C823" s="13"/>
+    </row>
+    <row r="824">
+      <c r="C824" s="13"/>
+    </row>
+    <row r="825">
+      <c r="C825" s="13"/>
+    </row>
+    <row r="826">
+      <c r="C826" s="13"/>
+    </row>
+    <row r="827">
+      <c r="C827" s="13"/>
+    </row>
+    <row r="828">
+      <c r="C828" s="13"/>
+    </row>
+    <row r="829">
+      <c r="C829" s="13"/>
+    </row>
+    <row r="830">
+      <c r="C830" s="13"/>
+    </row>
+    <row r="831">
+      <c r="C831" s="13"/>
+    </row>
+    <row r="832">
+      <c r="C832" s="13"/>
+    </row>
+    <row r="833">
+      <c r="C833" s="13"/>
+    </row>
+    <row r="834">
+      <c r="C834" s="13"/>
+    </row>
+    <row r="835">
+      <c r="C835" s="13"/>
+    </row>
+    <row r="836">
+      <c r="C836" s="13"/>
+    </row>
+    <row r="837">
+      <c r="C837" s="13"/>
+    </row>
+    <row r="838">
+      <c r="C838" s="13"/>
+    </row>
+    <row r="839">
+      <c r="C839" s="13"/>
+    </row>
+    <row r="840">
+      <c r="C840" s="13"/>
+    </row>
+    <row r="841">
+      <c r="C841" s="13"/>
+    </row>
+    <row r="842">
+      <c r="C842" s="13"/>
+    </row>
+    <row r="843">
+      <c r="C843" s="13"/>
+    </row>
+    <row r="844">
+      <c r="C844" s="13"/>
+    </row>
+    <row r="845">
+      <c r="C845" s="13"/>
+    </row>
+    <row r="846">
+      <c r="C846" s="13"/>
+    </row>
+    <row r="847">
+      <c r="C847" s="13"/>
+    </row>
+    <row r="848">
+      <c r="C848" s="13"/>
+    </row>
+    <row r="849">
+      <c r="C849" s="13"/>
+    </row>
+    <row r="850">
+      <c r="C850" s="13"/>
+    </row>
+    <row r="851">
+      <c r="C851" s="13"/>
+    </row>
+    <row r="852">
+      <c r="C852" s="13"/>
+    </row>
+    <row r="853">
+      <c r="C853" s="13"/>
+    </row>
+    <row r="854">
+      <c r="C854" s="13"/>
+    </row>
+    <row r="855">
+      <c r="C855" s="13"/>
+    </row>
+    <row r="856">
+      <c r="C856" s="13"/>
+    </row>
+    <row r="857">
+      <c r="C857" s="13"/>
+    </row>
+    <row r="858">
+      <c r="C858" s="13"/>
+    </row>
+    <row r="859">
+      <c r="C859" s="13"/>
+    </row>
+    <row r="860">
+      <c r="C860" s="13"/>
+    </row>
+    <row r="861">
+      <c r="C861" s="13"/>
+    </row>
+    <row r="862">
+      <c r="C862" s="13"/>
+    </row>
+    <row r="863">
+      <c r="C863" s="13"/>
+    </row>
+    <row r="864">
+      <c r="C864" s="13"/>
+    </row>
+    <row r="865">
+      <c r="C865" s="13"/>
+    </row>
+    <row r="866">
+      <c r="C866" s="13"/>
+    </row>
+    <row r="867">
+      <c r="C867" s="13"/>
+    </row>
+    <row r="868">
+      <c r="C868" s="13"/>
+    </row>
+    <row r="869">
+      <c r="C869" s="13"/>
+    </row>
+    <row r="870">
+      <c r="C870" s="13"/>
+    </row>
+    <row r="871">
+      <c r="C871" s="13"/>
+    </row>
+    <row r="872">
+      <c r="C872" s="13"/>
+    </row>
+    <row r="873">
+      <c r="C873" s="13"/>
+    </row>
+    <row r="874">
+      <c r="C874" s="13"/>
+    </row>
+    <row r="875">
+      <c r="C875" s="13"/>
+    </row>
+    <row r="876">
+      <c r="C876" s="13"/>
+    </row>
+    <row r="877">
+      <c r="C877" s="13"/>
+    </row>
+    <row r="878">
+      <c r="C878" s="13"/>
+    </row>
+    <row r="879">
+      <c r="C879" s="13"/>
+    </row>
+    <row r="880">
+      <c r="C880" s="13"/>
+    </row>
+    <row r="881">
+      <c r="C881" s="13"/>
+    </row>
+    <row r="882">
+      <c r="C882" s="13"/>
+    </row>
+    <row r="883">
+      <c r="C883" s="13"/>
+    </row>
+    <row r="884">
+      <c r="C884" s="13"/>
+    </row>
+    <row r="885">
+      <c r="C885" s="13"/>
+    </row>
+    <row r="886">
+      <c r="C886" s="13"/>
+    </row>
+    <row r="887">
+      <c r="C887" s="13"/>
+    </row>
+    <row r="888">
+      <c r="C888" s="13"/>
+    </row>
+    <row r="889">
+      <c r="C889" s="13"/>
+    </row>
+    <row r="890">
+      <c r="C890" s="13"/>
+    </row>
+    <row r="891">
+      <c r="C891" s="13"/>
+    </row>
+    <row r="892">
+      <c r="C892" s="13"/>
+    </row>
+    <row r="893">
+      <c r="C893" s="13"/>
+    </row>
+    <row r="894">
+      <c r="C894" s="13"/>
+    </row>
+    <row r="895">
+      <c r="C895" s="13"/>
+    </row>
+    <row r="896">
+      <c r="C896" s="13"/>
+    </row>
+    <row r="897">
+      <c r="C897" s="13"/>
+    </row>
+    <row r="898">
+      <c r="C898" s="13"/>
+    </row>
+    <row r="899">
+      <c r="C899" s="13"/>
+    </row>
+    <row r="900">
+      <c r="C900" s="13"/>
+    </row>
+    <row r="901">
+      <c r="C901" s="13"/>
+    </row>
+    <row r="902">
+      <c r="C902" s="13"/>
+    </row>
+    <row r="903">
+      <c r="C903" s="13"/>
+    </row>
+    <row r="904">
+      <c r="C904" s="13"/>
+    </row>
+    <row r="905">
+      <c r="C905" s="13"/>
+    </row>
+    <row r="906">
+      <c r="C906" s="13"/>
+    </row>
+    <row r="907">
+      <c r="C907" s="13"/>
+    </row>
+    <row r="908">
+      <c r="C908" s="13"/>
+    </row>
+    <row r="909">
+      <c r="C909" s="13"/>
+    </row>
+    <row r="910">
+      <c r="C910" s="13"/>
+    </row>
+    <row r="911">
+      <c r="C911" s="13"/>
+    </row>
+    <row r="912">
+      <c r="C912" s="13"/>
+    </row>
+    <row r="913">
+      <c r="C913" s="13"/>
+    </row>
+    <row r="914">
+      <c r="C914" s="13"/>
+    </row>
+    <row r="915">
+      <c r="C915" s="13"/>
+    </row>
+    <row r="916">
+      <c r="C916" s="13"/>
+    </row>
+    <row r="917">
+      <c r="C917" s="13"/>
+    </row>
+    <row r="918">
+      <c r="C918" s="13"/>
+    </row>
+    <row r="919">
+      <c r="C919" s="13"/>
+    </row>
+    <row r="920">
+      <c r="C920" s="13"/>
+    </row>
+    <row r="921">
+      <c r="C921" s="13"/>
+    </row>
+    <row r="922">
+      <c r="C922" s="13"/>
+    </row>
+    <row r="923">
+      <c r="C923" s="13"/>
+    </row>
+    <row r="924">
+      <c r="C924" s="13"/>
+    </row>
+    <row r="925">
+      <c r="C925" s="13"/>
+    </row>
+    <row r="926">
+      <c r="C926" s="13"/>
+    </row>
+    <row r="927">
+      <c r="C927" s="13"/>
+    </row>
+    <row r="928">
+      <c r="C928" s="13"/>
+    </row>
+    <row r="929">
+      <c r="C929" s="13"/>
+    </row>
+    <row r="930">
+      <c r="C930" s="13"/>
+    </row>
+    <row r="931">
+      <c r="C931" s="13"/>
+    </row>
+    <row r="932">
+      <c r="C932" s="13"/>
+    </row>
+    <row r="933">
+      <c r="C933" s="13"/>
+    </row>
+    <row r="934">
+      <c r="C934" s="13"/>
+    </row>
+    <row r="935">
+      <c r="C935" s="13"/>
+    </row>
+    <row r="936">
+      <c r="C936" s="13"/>
+    </row>
+    <row r="937">
+      <c r="C937" s="13"/>
+    </row>
+    <row r="938">
+      <c r="C938" s="13"/>
+    </row>
+    <row r="939">
+      <c r="C939" s="13"/>
+    </row>
+    <row r="940">
+      <c r="C940" s="13"/>
+    </row>
+    <row r="941">
+      <c r="C941" s="13"/>
+    </row>
+    <row r="942">
+      <c r="C942" s="13"/>
+    </row>
+    <row r="943">
+      <c r="C943" s="13"/>
+    </row>
+    <row r="944">
+      <c r="C944" s="13"/>
+    </row>
+    <row r="945">
+      <c r="C945" s="13"/>
+    </row>
+    <row r="946">
+      <c r="C946" s="13"/>
+    </row>
+    <row r="947">
+      <c r="C947" s="13"/>
+    </row>
+    <row r="948">
+      <c r="C948" s="13"/>
+    </row>
+    <row r="949">
+      <c r="C949" s="13"/>
+    </row>
+    <row r="950">
+      <c r="C950" s="13"/>
+    </row>
+    <row r="951">
+      <c r="C951" s="13"/>
+    </row>
+    <row r="952">
+      <c r="C952" s="13"/>
+    </row>
+    <row r="953">
+      <c r="C953" s="13"/>
+    </row>
+    <row r="954">
+      <c r="C954" s="13"/>
+    </row>
+    <row r="955">
+      <c r="C955" s="13"/>
+    </row>
+    <row r="956">
+      <c r="C956" s="13"/>
+    </row>
+    <row r="957">
+      <c r="C957" s="13"/>
+    </row>
+    <row r="958">
+      <c r="C958" s="13"/>
+    </row>
+    <row r="959">
+      <c r="C959" s="13"/>
+    </row>
+    <row r="960">
+      <c r="C960" s="13"/>
+    </row>
+    <row r="961">
+      <c r="C961" s="13"/>
+    </row>
+    <row r="962">
+      <c r="C962" s="13"/>
+    </row>
+    <row r="963">
+      <c r="C963" s="13"/>
+    </row>
+    <row r="964">
+      <c r="C964" s="13"/>
+    </row>
+    <row r="965">
+      <c r="C965" s="13"/>
+    </row>
+    <row r="966">
+      <c r="C966" s="13"/>
+    </row>
+    <row r="967">
+      <c r="C967" s="13"/>
+    </row>
+    <row r="968">
+      <c r="C968" s="13"/>
+    </row>
+    <row r="969">
+      <c r="C969" s="13"/>
+    </row>
+    <row r="970">
+      <c r="C970" s="13"/>
+    </row>
+    <row r="971">
+      <c r="C971" s="13"/>
+    </row>
+    <row r="972">
+      <c r="C972" s="13"/>
+    </row>
+    <row r="973">
+      <c r="C973" s="13"/>
+    </row>
+    <row r="974">
+      <c r="C974" s="13"/>
+    </row>
+    <row r="975">
+      <c r="C975" s="13"/>
+    </row>
+    <row r="976">
+      <c r="C976" s="13"/>
+    </row>
+    <row r="977">
+      <c r="C977" s="13"/>
+    </row>
+    <row r="978">
+      <c r="C978" s="13"/>
+    </row>
+    <row r="979">
+      <c r="C979" s="13"/>
+    </row>
+    <row r="980">
+      <c r="C980" s="13"/>
+    </row>
+    <row r="981">
+      <c r="C981" s="13"/>
+    </row>
+    <row r="982">
+      <c r="C982" s="13"/>
+    </row>
+    <row r="983">
+      <c r="C983" s="13"/>
+    </row>
+    <row r="984">
+      <c r="C984" s="13"/>
+    </row>
+    <row r="985">
+      <c r="C985" s="13"/>
+    </row>
+    <row r="986">
+      <c r="C986" s="13"/>
+    </row>
+    <row r="987">
+      <c r="C987" s="13"/>
+    </row>
+    <row r="988">
+      <c r="C988" s="13"/>
+    </row>
+    <row r="989">
+      <c r="C989" s="13"/>
+    </row>
+    <row r="990">
+      <c r="C990" s="13"/>
+    </row>
+    <row r="991">
+      <c r="C991" s="13"/>
+    </row>
+    <row r="992">
+      <c r="C992" s="13"/>
+    </row>
+    <row r="993">
+      <c r="C993" s="13"/>
+    </row>
+    <row r="994">
+      <c r="C994" s="13"/>
+    </row>
+    <row r="995">
+      <c r="C995" s="13"/>
+    </row>
+    <row r="996">
+      <c r="C996" s="13"/>
+    </row>
+    <row r="997">
+      <c r="C997" s="13"/>
+    </row>
+    <row r="998">
+      <c r="C998" s="13"/>
+    </row>
+    <row r="999">
+      <c r="C999" s="13"/>
+    </row>
+    <row r="1000">
+      <c r="C1000" s="13"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -591,135 +4345,148 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+      <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="B2" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="14">
         <v>1.0</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>22</v>
+      <c r="E2" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="B3" s="15"/>
+      <c r="C3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="14">
         <v>2.0</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>22</v>
+      <c r="E3" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="B4" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="14">
         <v>3.0</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>22</v>
+      <c r="E4" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="B5" s="17"/>
+      <c r="C5" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="14">
         <v>4.0</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>22</v>
+      <c r="E5" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="B6" s="17"/>
+      <c r="C6" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="14">
         <v>1.0</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>24</v>
+      <c r="E6" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="B7" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="14">
         <v>2.0</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>24</v>
+      <c r="E7" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="B8" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="14">
         <v>3.0</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>24</v>
+      <c r="E8" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="18"/>
+      <c r="C9" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="14">
+        <v>4.0</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Rpg.Client/PlotConverter/Ewar - Plot.xlsx
+++ b/Rpg.Client/PlotConverter/Ewar - Plot.xlsx
@@ -5,7 +5,6 @@
   <sheets>
     <sheet state="visible" name="Events" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Texts" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Texts (копия)" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="173">
   <si>
     <t>Sid</t>
   </si>
@@ -81,10 +80,97 @@
     <t>MainSlavic6</t>
   </si>
   <si>
-    <t>Долшое молчание</t>
+    <t>Зловещее молчание</t>
   </si>
   <si>
     <t>Castle</t>
+  </si>
+  <si>
+    <t>MainChinese1</t>
+  </si>
+  <si>
+    <t>Новый мир</t>
+  </si>
+  <si>
+    <t>Monastery</t>
+  </si>
+  <si>
+    <t>MeetMonk</t>
+  </si>
+  <si>
+    <t>MainChinese2</t>
+  </si>
+  <si>
+    <t>Другая смерть</t>
+  </si>
+  <si>
+    <t>GaintBamboo</t>
+  </si>
+  <si>
+    <t>MainChinese3</t>
+  </si>
+  <si>
+    <t>Демоны внутри меня</t>
+  </si>
+  <si>
+    <t>EmperorTomb</t>
+  </si>
+  <si>
+    <t>MeetSpearman</t>
+  </si>
+  <si>
+    <t>MainChinese4</t>
+  </si>
+  <si>
+    <t>Ученье - свет</t>
+  </si>
+  <si>
+    <t>RiseFields</t>
+  </si>
+  <si>
+    <t>MeetMissionary</t>
+  </si>
+  <si>
+    <t>MainChinese5</t>
+  </si>
+  <si>
+    <t>Зло каждого из нас</t>
+  </si>
+  <si>
+    <t>SkyTower</t>
+  </si>
+  <si>
+    <t>MainEgyptian1</t>
+  </si>
+  <si>
+    <t>Беги</t>
+  </si>
+  <si>
+    <t>SacredPlace</t>
+  </si>
+  <si>
+    <t>MeetScorpion</t>
+  </si>
+  <si>
+    <t>MainEgyptian2</t>
+  </si>
+  <si>
+    <t>Темное и злое</t>
+  </si>
+  <si>
+    <t>Temple</t>
+  </si>
+  <si>
+    <t>MeetPriest</t>
+  </si>
+  <si>
+    <t>MainEgyptian3</t>
+  </si>
+  <si>
+    <t>Древа смерти</t>
+  </si>
+  <si>
+    <t>ScreamValey</t>
   </si>
   <si>
     <t>Event</t>
@@ -248,26 +334,212 @@
     <t>Попридержи коней. Пока вы одно семя бьете, Кощей ещё три сажает. Вот кого в тартарары отправить надобно!</t>
   </si>
   <si>
-    <t>Беримир</t>
-  </si>
-  <si>
-    <t>до</t>
-  </si>
-  <si>
-    <t>Болото</t>
-  </si>
-  <si>
-    <t>после</t>
-  </si>
-  <si>
-    <t>Старец</t>
+    <t>Maosin</t>
+  </si>
+  <si>
+    <t>Ждал вас я, витязи. Спешки у вас нет только</t>
+  </si>
+  <si>
+    <t>Что за диво. Сон иль явь?</t>
+  </si>
+  <si>
+    <t>Кончиться мог бы кошмар, сном будь это. Тьма миры наши пожирает</t>
+  </si>
+  <si>
+    <t>Пока вы тут лясы точите, нас окружили!</t>
+  </si>
+  <si>
+    <t>Путники тяжело дышат после схватки. Беримир осматривает поле боя, выискивая семя зла. Монах Мяосин наблюдает за ним</t>
+  </si>
+  <si>
+    <t>Расползлась по всем мирам нечисть. Видение было мне в медитации. Древо смерти, где семена зла родятся, мы отыщем</t>
+  </si>
+  <si>
+    <t>Конца-края нет бесовщине. Слово молвить и на ногах можно.</t>
+  </si>
+  <si>
+    <t>Путники углубляются в чащу высоких стеблей. Солнце едва проникает на тропу</t>
+  </si>
+  <si>
+    <t>Больно чуден лес тутошний. Стан стройней берёзы, да листьев не видать</t>
+  </si>
+  <si>
+    <t>Бамбука стебель как воина дух</t>
+  </si>
+  <si>
+    <t>Зазря мы сюда пришли, милки. Здесь тлен да погибель!</t>
+  </si>
+  <si>
+    <t>Не чую Древа смерти здесь. Аль подвёл ты нас, голубчик? Аль по злому умыслу в лес нечистый завёл?</t>
+  </si>
+  <si>
+    <t>Мыслей злых в голове моей нет, Рада-сан. Ищем мы не то древо. Из мира подземного амулет дорогу укажет. В императора гробницу лежит путь</t>
+  </si>
+  <si>
+    <t>В лес, кишащий тварями, а теперь и в могилу... Есть ли тропа другая?</t>
+  </si>
+  <si>
+    <t>Дорогой сложной идти надо, чтобы цели достичь</t>
+  </si>
+  <si>
+    <t>В пещеру первыми спускаются Беримир и Сокол. За ними на цыпочках следует Мяосин. Перед их глазами простирается большая армия каменных солдат</t>
+  </si>
+  <si>
+    <t>Тише быть следует нам. Нечисть спящую иначе разбудим мы. В руках императора амулет, но до него живыми добраться надо. За шагами своими следите</t>
+  </si>
+  <si>
+    <t>Сокол старается смотреть под ноги, но неосторожно ступает на упавшую руку статуи, лежащую на земле. Хруст. Раздаётся пронзительный крик</t>
+  </si>
+  <si>
+    <t>Ping</t>
+  </si>
+  <si>
+    <t>Я накормлю своей плотью демонов, потому что моя жизнь - плата за людское спокойствие!</t>
+  </si>
+  <si>
+    <t>Утихомирься, касатик. Коли ты живой, не подымай мёртвых.</t>
+  </si>
+  <si>
+    <t>Ближайшая статуя медленно повернула голову в сторону путников. Увидев это, Мяосин поспешил в схватку, велев ждать у входа</t>
+  </si>
+  <si>
+    <t>Едва отмахались от порождений. Да куда же монах запропастился?</t>
+  </si>
+  <si>
+    <t>На месте битвы, переливаясь на свету. Ни единого шороха. Тишина вселяет тревогу. Вдруг появляется монах, поигрывающий блестящим на солнце камнем</t>
+  </si>
+  <si>
+    <t>Вас я жду долго. Будто передохнуть решили остаться</t>
+  </si>
+  <si>
+    <t>Монах, куда алатырь твой указывает? В какой стороне зло искать?</t>
+  </si>
+  <si>
+    <t>Учёного найти предстоит нам, чтобы победить зла хранителя</t>
+  </si>
+  <si>
+    <t>Встретили мы ужо молодца, да чуть в могиле он нас не оставил...</t>
+  </si>
+  <si>
+    <t>Храню я вас. Демоны мне вред нанести не могут</t>
+  </si>
+  <si>
+    <t>Вот и поглядим. Лезут со всех сторон бесы треклятые</t>
+  </si>
+  <si>
+    <t>Стало быть тебя нам не хватало</t>
+  </si>
+  <si>
+    <t>Cheng</t>
+  </si>
+  <si>
+    <t>Лишь объединившись можно победить дракона. Поросль зла хранит сын дракона великого</t>
+  </si>
+  <si>
+    <t>Порешим тварь заморскую, за дево выкорчуем на корню</t>
+  </si>
+  <si>
+    <t>Вход в старинную гробницу завален камнями. Попытки сдвинуть глыбы с места безуспешны. Хи Ченг начинает рассыпать вокруг валунов белый порошок</t>
+  </si>
+  <si>
+    <t>Что за зелье диковинное?</t>
+  </si>
+  <si>
+    <t>Не суеверия здесь нужны, а наука. Порох лишь поджечь нужно, да укрыться понадёжнее</t>
+  </si>
+  <si>
+    <t>С хитрым прищуром Рада достаёт заговорённое огниво. Стоит камням рухнуть, как из дыры устремляется нечисть</t>
+  </si>
+  <si>
+    <t>Всё вверх дном подняли, да не можем древа смерти сыскать</t>
+  </si>
+  <si>
+    <t>От Дева тьмы лишь часть здесь. Продолжиться должно странствие наше</t>
+  </si>
+  <si>
+    <t>Здесь слышен бедствия сигнал, но слаб и затихает. Поспешить бы нам</t>
+  </si>
+  <si>
+    <t>На стенах логова проступают причудливые иероглифы. Каменные стены становятся гладкими. На воинов с изогнутой палкой наперевес выбегает загорелый мужчина</t>
+  </si>
+  <si>
+    <t>Amun</t>
+  </si>
+  <si>
+    <t>Изыди, тьма, облик людей принявшая!</t>
+  </si>
+  <si>
+    <t>Осади, чернявый! Сигнал бедствия нас сюда привёл!</t>
+  </si>
+  <si>
+    <t>К оружию! В бою проверим на чьей стороне сразитесь!</t>
+  </si>
+  <si>
+    <t>Нельзя здесь долго оставаться. Надо бежать к храму под защиту богов!</t>
+  </si>
+  <si>
+    <t>Знают ли боги твои, где Древо смерти стоит да семена свои по мирам разбрасывает, тьму призывая?</t>
+  </si>
+  <si>
+    <t>На священных папирусах про Древо жизни легенды передаются. Где жизнь там и смерть</t>
+  </si>
+  <si>
+    <t>Касатик дело говорит. Да хоть одно дерево сыскать бы здесь. Куда ни глянь песок и камни</t>
+  </si>
+  <si>
+    <t>Некогда величавое строение полуразрушено. Пустые проёмы зияют чернотой. Зловещая атмосфера повисла над руинами</t>
+  </si>
+  <si>
+    <t>Опоздали может мы? Слишком тихо здесь</t>
+  </si>
+  <si>
+    <t>Секретный проход в ущелье. Бежим!</t>
+  </si>
+  <si>
+    <t>В темноте загорается пара глаз. Затем ещё одна, ещё и ещё… Светящиеся точки направляются к путникам</t>
+  </si>
+  <si>
+    <t>Kakhotep</t>
+  </si>
+  <si>
+    <t>Предсказано явление героев, да герои ничего без помощи сделать не могут</t>
+  </si>
+  <si>
+    <t>Коль скоро ты без нас справляешься, пойдём своей дорогой, а ты своей иди</t>
+  </si>
+  <si>
+    <t>Мы только лишь в единстве сильны. К древу священному укажи путь нам, жрец</t>
+  </si>
+  <si>
+    <t>Что-то не так. Река, на берегу которой росло Древо жизни, почернела. Вокруг всё иссохло. Ни листочка, ни травинки. Но дерево было покрыто плодами</t>
+  </si>
+  <si>
+    <t>Один из них, покачиваясь, упал с ветки и ударился о землю. Из него роем посыпались семена зла. Беримир невесело усмехнулся</t>
+  </si>
+  <si>
+    <t>Древо жизни, молвите?</t>
+  </si>
+  <si>
+    <t>Ннннне может быть! Осирис, взываю к тебе и мощи твоей. Возроди древо, прогони тьму!</t>
+  </si>
+  <si>
+    <t>Ответом был громогласный хохот с небес. “Смертный, кончилось время легенд. Тьма - новый бог. Служи верой и правдой или умри в муках"</t>
+  </si>
+  <si>
+    <t>На месте срубленной ветки вырастали две. С каждым ударом ствол креп и разрастался.</t>
+  </si>
+  <si>
+    <t>Чтобы голову срубить, надо метить в шею. Секите корни ему</t>
+  </si>
+  <si>
+    <t>Проросло Древо сюда, корни его в мире другом только</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -297,6 +569,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -318,22 +595,8 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border/>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
@@ -378,23 +641,23 @@
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -409,10 +672,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -709,6 +968,109 @@
         <v>23</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -729,19 +1091,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2">
@@ -749,10 +1111,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="D2" s="5">
         <v>1.0</v>
@@ -766,10 +1128,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="D3" s="5">
         <v>2.0</v>
@@ -783,10 +1145,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="D4" s="5">
         <v>3.0</v>
@@ -801,7 +1163,7 @@
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="9" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="D5" s="5">
         <v>4.0</v>
@@ -816,7 +1178,7 @@
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="D6" s="5">
         <v>1.0</v>
@@ -830,10 +1192,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="D7" s="5">
         <v>2.0</v>
@@ -847,10 +1209,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="D8" s="5">
         <v>3.0</v>
@@ -864,10 +1226,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="D9" s="5">
         <v>1.0</v>
@@ -882,7 +1244,7 @@
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="11" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="D10" s="5">
         <v>2.0</v>
@@ -896,10 +1258,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D11" s="5">
         <v>3.0</v>
@@ -914,7 +1276,7 @@
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="11" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="D12" s="5">
         <v>4.0</v>
@@ -929,7 +1291,7 @@
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="11" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D13" s="5">
         <v>1.0</v>
@@ -943,10 +1305,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="D14" s="5">
         <v>2.0</v>
@@ -960,10 +1322,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D15" s="5">
         <v>3.0</v>
@@ -978,7 +1340,7 @@
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="11" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="D16" s="5">
         <v>4.0</v>
@@ -992,10 +1354,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="D17" s="5">
         <v>1.0</v>
@@ -1011,7 +1373,7 @@
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="11" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="D18" s="5">
         <v>2.0</v>
@@ -1026,10 +1388,10 @@
         <v>10</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="D19" s="5">
         <v>3.0</v>
@@ -1044,10 +1406,10 @@
         <v>10</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="D20" s="5">
         <v>4.0</v>
@@ -1062,10 +1424,10 @@
         <v>10</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="D21" s="5">
         <v>5.0</v>
@@ -1081,7 +1443,7 @@
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="11" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="D22" s="5">
         <v>1.0</v>
@@ -1097,7 +1459,7 @@
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="11" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="D23" s="5">
         <v>2.0</v>
@@ -1113,7 +1475,7 @@
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="11" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="D24" s="5">
         <v>3.0</v>
@@ -1128,10 +1490,10 @@
         <v>10</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="D25" s="5">
         <v>4.0</v>
@@ -1146,10 +1508,10 @@
         <v>14</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="D26" s="5">
         <v>1.0</v>
@@ -1164,10 +1526,10 @@
         <v>14</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="D27" s="5">
         <v>2.0</v>
@@ -1183,7 +1545,7 @@
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="11" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="D28" s="5">
         <v>3.0</v>
@@ -1199,7 +1561,7 @@
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="11" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="D29" s="5">
         <v>4.0</v>
@@ -1215,7 +1577,7 @@
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="11" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="D30" s="5">
         <v>5.0</v>
@@ -1230,10 +1592,10 @@
         <v>14</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="D31" s="5">
         <v>1.0</v>
@@ -1248,10 +1610,10 @@
         <v>14</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="D32" s="5">
         <v>2.0</v>
@@ -1267,7 +1629,7 @@
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="11" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="D33" s="5">
         <v>3.0</v>
@@ -1282,10 +1644,10 @@
         <v>14</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="D34" s="5">
         <v>4.0</v>
@@ -1301,7 +1663,7 @@
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="11" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="D35" s="5">
         <v>1.0</v>
@@ -1316,10 +1678,10 @@
         <v>17</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="D36" s="5">
         <v>2.0</v>
@@ -1334,10 +1696,10 @@
         <v>17</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D37" s="5">
         <v>3.0</v>
@@ -1352,10 +1714,10 @@
         <v>17</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="D38" s="5">
         <v>4.0</v>
@@ -1370,10 +1732,10 @@
         <v>17</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="D39" s="5">
         <v>5.0</v>
@@ -1388,10 +1750,10 @@
         <v>17</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="D40" s="5">
         <v>1.0</v>
@@ -1406,10 +1768,10 @@
         <v>17</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="D41" s="5">
         <v>3.0</v>
@@ -1424,10 +1786,10 @@
         <v>17</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="D42" s="5">
         <v>3.0</v>
@@ -1442,10 +1804,10 @@
         <v>17</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="D43" s="5">
         <v>4.0</v>
@@ -1456,3038 +1818,3772 @@
       <c r="F43" s="5"/>
     </row>
     <row r="44">
-      <c r="C44" s="13"/>
+      <c r="A44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E44" s="5">
+        <v>-1.0</v>
+      </c>
+      <c r="F44" s="5"/>
     </row>
     <row r="45">
-      <c r="C45" s="13"/>
+      <c r="A45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E45" s="5">
+        <v>-1.0</v>
+      </c>
+      <c r="F45" s="5"/>
     </row>
     <row r="46">
-      <c r="C46" s="13"/>
+      <c r="A46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E46" s="5">
+        <v>-1.0</v>
+      </c>
+      <c r="F46" s="5"/>
     </row>
     <row r="47">
-      <c r="C47" s="13"/>
+      <c r="A47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E47" s="5">
+        <v>-1.0</v>
+      </c>
+      <c r="F47" s="5"/>
     </row>
     <row r="48">
-      <c r="C48" s="13"/>
+      <c r="A48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="12"/>
+      <c r="C48" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E48" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F48" s="5"/>
     </row>
     <row r="49">
-      <c r="C49" s="13"/>
+      <c r="A49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E49" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F49" s="5"/>
     </row>
     <row r="50">
-      <c r="C50" s="13"/>
+      <c r="A50" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E50" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F50" s="5"/>
     </row>
     <row r="51">
-      <c r="C51" s="13"/>
+      <c r="A51" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="13"/>
+      <c r="C51" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D51" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E51" s="5">
+        <v>-1.0</v>
+      </c>
+      <c r="F51" s="5"/>
     </row>
     <row r="52">
-      <c r="C52" s="13"/>
+      <c r="A52" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D52" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E52" s="5">
+        <v>-1.0</v>
+      </c>
+      <c r="F52" s="5"/>
     </row>
     <row r="53">
-      <c r="C53" s="13"/>
+      <c r="A53" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D53" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E53" s="5">
+        <v>-1.0</v>
+      </c>
+      <c r="F53" s="5"/>
     </row>
     <row r="54">
-      <c r="C54" s="13"/>
+      <c r="A54" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D54" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E54" s="5">
+        <v>-1.0</v>
+      </c>
+      <c r="F54" s="5"/>
     </row>
     <row r="55">
-      <c r="C55" s="13"/>
+      <c r="A55" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E55" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F55" s="5"/>
     </row>
     <row r="56">
-      <c r="C56" s="13"/>
+      <c r="A56" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E56" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F56" s="5"/>
     </row>
     <row r="57">
-      <c r="C57" s="13"/>
+      <c r="A57" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E57" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F57" s="5"/>
     </row>
     <row r="58">
-      <c r="C58" s="13"/>
+      <c r="A58" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D58" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E58" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F58" s="5"/>
     </row>
     <row r="59">
-      <c r="C59" s="13"/>
+      <c r="A59" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" s="13"/>
+      <c r="C59" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D59" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E59" s="5">
+        <v>-1.0</v>
+      </c>
+      <c r="F59" s="5"/>
     </row>
     <row r="60">
-      <c r="C60" s="13"/>
+      <c r="A60" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D60" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E60" s="5">
+        <v>-1.0</v>
+      </c>
+      <c r="F60" s="5"/>
     </row>
     <row r="61">
-      <c r="C61" s="13"/>
+      <c r="A61" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B61" s="13"/>
+      <c r="C61" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D61" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E61" s="5">
+        <v>-1.0</v>
+      </c>
+      <c r="F61" s="5"/>
     </row>
     <row r="62">
-      <c r="C62" s="13"/>
+      <c r="A62" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D62" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E62" s="5">
+        <v>-1.0</v>
+      </c>
+      <c r="F62" s="5"/>
     </row>
     <row r="63">
-      <c r="C63" s="13"/>
+      <c r="A63" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D63" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E63" s="5">
+        <v>-1.0</v>
+      </c>
+      <c r="F63" s="5"/>
     </row>
     <row r="64">
-      <c r="C64" s="13"/>
+      <c r="A64" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B64" s="13"/>
+      <c r="C64" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D64" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E64" s="5">
+        <v>-1.0</v>
+      </c>
+      <c r="F64" s="5"/>
     </row>
     <row r="65">
-      <c r="C65" s="13"/>
+      <c r="A65" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D65" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E65" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F65" s="5"/>
     </row>
     <row r="66">
-      <c r="C66" s="13"/>
+      <c r="A66" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B66" s="13"/>
+      <c r="C66" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D66" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E66" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F66" s="5"/>
     </row>
     <row r="67">
-      <c r="C67" s="13"/>
+      <c r="A67" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D67" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E67" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F67" s="5"/>
     </row>
     <row r="68">
-      <c r="C68" s="13"/>
+      <c r="A68" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D68" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E68" s="5">
+        <v>-1.0</v>
+      </c>
+      <c r="F68" s="15"/>
     </row>
     <row r="69">
-      <c r="C69" s="13"/>
+      <c r="A69" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D69" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E69" s="5">
+        <v>-1.0</v>
+      </c>
+      <c r="F69" s="15"/>
     </row>
     <row r="70">
-      <c r="C70" s="13"/>
+      <c r="A70" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D70" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E70" s="5">
+        <v>-1.0</v>
+      </c>
+      <c r="F70" s="15"/>
     </row>
     <row r="71">
-      <c r="C71" s="13"/>
+      <c r="A71" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D71" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E71" s="5">
+        <v>-1.0</v>
+      </c>
+      <c r="F71" s="15"/>
     </row>
     <row r="72">
-      <c r="C72" s="13"/>
+      <c r="A72" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D72" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E72" s="5">
+        <v>-1.0</v>
+      </c>
+      <c r="F72" s="15"/>
     </row>
     <row r="73">
-      <c r="C73" s="13"/>
+      <c r="A73" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D73" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E73" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F73" s="15"/>
     </row>
     <row r="74">
-      <c r="C74" s="13"/>
+      <c r="A74" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D74" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E74" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F74" s="15"/>
     </row>
     <row r="75">
-      <c r="C75" s="13"/>
+      <c r="A75" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D75" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E75" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F75" s="15"/>
     </row>
     <row r="76">
-      <c r="C76" s="13"/>
+      <c r="A76" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B76" s="17"/>
+      <c r="C76" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D76" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E76" s="5">
+        <v>-1.0</v>
+      </c>
+      <c r="F76" s="15"/>
     </row>
     <row r="77">
-      <c r="C77" s="13"/>
+      <c r="A77" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D77" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E77" s="5">
+        <v>-1.0</v>
+      </c>
+      <c r="F77" s="15"/>
     </row>
     <row r="78">
-      <c r="C78" s="13"/>
+      <c r="A78" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D78" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E78" s="5">
+        <v>-1.0</v>
+      </c>
+      <c r="F78" s="15"/>
     </row>
     <row r="79">
-      <c r="C79" s="13"/>
+      <c r="A79" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B79" s="17"/>
+      <c r="C79" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D79" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E79" s="5">
+        <v>-1.0</v>
+      </c>
+      <c r="F79" s="15"/>
     </row>
     <row r="80">
-      <c r="C80" s="13"/>
+      <c r="A80" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D80" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E80" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F80" s="15"/>
     </row>
     <row r="81">
-      <c r="C81" s="13"/>
+      <c r="A81" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D81" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E81" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F81" s="15"/>
     </row>
     <row r="82">
-      <c r="C82" s="13"/>
+      <c r="A82" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D82" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E82" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F82" s="15"/>
     </row>
     <row r="83">
-      <c r="C83" s="13"/>
+      <c r="A83" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B83" s="12"/>
+      <c r="C83" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D83" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E83" s="5">
+        <v>-1.0</v>
+      </c>
+      <c r="F83" s="5"/>
     </row>
     <row r="84">
-      <c r="C84" s="13"/>
+      <c r="A84" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D84" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E84" s="5">
+        <v>-1.0</v>
+      </c>
+      <c r="F84" s="5"/>
     </row>
     <row r="85">
-      <c r="C85" s="13"/>
+      <c r="A85" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D85" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E85" s="5">
+        <v>-1.0</v>
+      </c>
+      <c r="F85" s="5"/>
     </row>
     <row r="86">
-      <c r="C86" s="13"/>
+      <c r="A86" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D86" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E86" s="5">
+        <v>-1.0</v>
+      </c>
+      <c r="F86" s="5"/>
     </row>
     <row r="87">
-      <c r="C87" s="13"/>
+      <c r="A87" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D87" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E87" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F87" s="5"/>
     </row>
     <row r="88">
-      <c r="C88" s="13"/>
+      <c r="A88" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D88" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E88" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F88" s="5"/>
     </row>
     <row r="89">
-      <c r="C89" s="13"/>
+      <c r="A89" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D89" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E89" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F89" s="5"/>
     </row>
     <row r="90">
-      <c r="C90" s="13"/>
+      <c r="A90" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D90" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E90" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F90" s="5"/>
     </row>
     <row r="91">
-      <c r="C91" s="13"/>
+      <c r="A91" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B91" s="12"/>
+      <c r="C91" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D91" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E91" s="5">
+        <v>-1.0</v>
+      </c>
+      <c r="F91" s="5"/>
     </row>
     <row r="92">
-      <c r="C92" s="13"/>
+      <c r="A92" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D92" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E92" s="5">
+        <v>-1.0</v>
+      </c>
+      <c r="F92" s="5"/>
     </row>
     <row r="93">
-      <c r="C93" s="13"/>
+      <c r="A93" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D93" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E93" s="5">
+        <v>-1.0</v>
+      </c>
+      <c r="F93" s="5"/>
     </row>
     <row r="94">
-      <c r="C94" s="13"/>
+      <c r="A94" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B94" s="12"/>
+      <c r="C94" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D94" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E94" s="5">
+        <v>-1.0</v>
+      </c>
+      <c r="F94" s="5"/>
     </row>
     <row r="95">
-      <c r="C95" s="13"/>
+      <c r="A95" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D95" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E95" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F95" s="5"/>
     </row>
     <row r="96">
-      <c r="C96" s="13"/>
+      <c r="A96" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D96" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E96" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F96" s="5"/>
     </row>
     <row r="97">
-      <c r="C97" s="13"/>
+      <c r="A97" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D97" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E97" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F97" s="5"/>
     </row>
     <row r="98">
-      <c r="C98" s="13"/>
+      <c r="A98" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B98" s="12"/>
+      <c r="C98" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D98" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E98" s="5">
+        <v>-1.0</v>
+      </c>
+      <c r="F98" s="5"/>
     </row>
     <row r="99">
-      <c r="C99" s="13"/>
+      <c r="A99" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B99" s="12"/>
+      <c r="C99" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D99" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E99" s="5">
+        <v>-1.0</v>
+      </c>
+      <c r="F99" s="5"/>
     </row>
     <row r="100">
-      <c r="C100" s="13"/>
+      <c r="A100" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D100" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E100" s="5">
+        <v>-1.0</v>
+      </c>
+      <c r="F100" s="5"/>
     </row>
     <row r="101">
-      <c r="C101" s="13"/>
+      <c r="A101" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D101" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E101" s="5">
+        <v>-1.0</v>
+      </c>
+      <c r="F101" s="5"/>
     </row>
     <row r="102">
-      <c r="C102" s="13"/>
+      <c r="A102" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B102" s="12"/>
+      <c r="C102" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D102" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E102" s="5">
+        <v>-1.0</v>
+      </c>
+      <c r="F102" s="5"/>
     </row>
     <row r="103">
-      <c r="C103" s="13"/>
+      <c r="A103" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B103" s="12"/>
+      <c r="C103" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D103" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E103" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F103" s="5"/>
     </row>
     <row r="104">
-      <c r="C104" s="13"/>
+      <c r="A104" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D104" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E104" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F104" s="5"/>
     </row>
     <row r="105">
-      <c r="C105" s="13"/>
+      <c r="A105" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D105" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E105" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F105" s="5"/>
     </row>
     <row r="106">
-      <c r="C106" s="13"/>
+      <c r="C106" s="18"/>
     </row>
     <row r="107">
-      <c r="C107" s="13"/>
+      <c r="C107" s="18"/>
     </row>
     <row r="108">
-      <c r="C108" s="13"/>
+      <c r="C108" s="18"/>
     </row>
     <row r="109">
-      <c r="C109" s="13"/>
+      <c r="C109" s="18"/>
     </row>
     <row r="110">
-      <c r="C110" s="13"/>
+      <c r="C110" s="18"/>
     </row>
     <row r="111">
-      <c r="C111" s="13"/>
+      <c r="C111" s="18"/>
     </row>
     <row r="112">
-      <c r="C112" s="13"/>
+      <c r="C112" s="18"/>
     </row>
     <row r="113">
-      <c r="C113" s="13"/>
+      <c r="C113" s="18"/>
     </row>
     <row r="114">
-      <c r="C114" s="13"/>
+      <c r="C114" s="18"/>
     </row>
     <row r="115">
-      <c r="C115" s="13"/>
+      <c r="C115" s="18"/>
     </row>
     <row r="116">
-      <c r="C116" s="13"/>
+      <c r="C116" s="18"/>
     </row>
     <row r="117">
-      <c r="C117" s="13"/>
+      <c r="C117" s="18"/>
     </row>
     <row r="118">
-      <c r="C118" s="13"/>
+      <c r="C118" s="18"/>
     </row>
     <row r="119">
-      <c r="C119" s="13"/>
+      <c r="C119" s="18"/>
     </row>
     <row r="120">
-      <c r="C120" s="13"/>
+      <c r="C120" s="18"/>
     </row>
     <row r="121">
-      <c r="C121" s="13"/>
+      <c r="C121" s="18"/>
     </row>
     <row r="122">
-      <c r="C122" s="13"/>
+      <c r="C122" s="18"/>
     </row>
     <row r="123">
-      <c r="C123" s="13"/>
+      <c r="C123" s="18"/>
     </row>
     <row r="124">
-      <c r="C124" s="13"/>
+      <c r="C124" s="18"/>
     </row>
     <row r="125">
-      <c r="C125" s="13"/>
+      <c r="C125" s="18"/>
     </row>
     <row r="126">
-      <c r="C126" s="13"/>
+      <c r="C126" s="18"/>
     </row>
     <row r="127">
-      <c r="C127" s="13"/>
+      <c r="C127" s="18"/>
     </row>
     <row r="128">
-      <c r="C128" s="13"/>
+      <c r="C128" s="18"/>
     </row>
     <row r="129">
-      <c r="C129" s="13"/>
+      <c r="C129" s="18"/>
     </row>
     <row r="130">
-      <c r="C130" s="13"/>
+      <c r="C130" s="18"/>
     </row>
     <row r="131">
-      <c r="C131" s="13"/>
+      <c r="C131" s="18"/>
     </row>
     <row r="132">
-      <c r="C132" s="13"/>
+      <c r="C132" s="18"/>
     </row>
     <row r="133">
-      <c r="C133" s="13"/>
+      <c r="C133" s="18"/>
     </row>
     <row r="134">
-      <c r="C134" s="13"/>
+      <c r="C134" s="18"/>
     </row>
     <row r="135">
-      <c r="C135" s="13"/>
+      <c r="C135" s="18"/>
     </row>
     <row r="136">
-      <c r="C136" s="13"/>
+      <c r="C136" s="18"/>
     </row>
     <row r="137">
-      <c r="C137" s="13"/>
+      <c r="C137" s="18"/>
     </row>
     <row r="138">
-      <c r="C138" s="13"/>
+      <c r="C138" s="18"/>
     </row>
     <row r="139">
-      <c r="C139" s="13"/>
+      <c r="C139" s="18"/>
     </row>
     <row r="140">
-      <c r="C140" s="13"/>
+      <c r="C140" s="18"/>
     </row>
     <row r="141">
-      <c r="C141" s="13"/>
+      <c r="C141" s="18"/>
     </row>
     <row r="142">
-      <c r="C142" s="13"/>
+      <c r="C142" s="18"/>
     </row>
     <row r="143">
-      <c r="C143" s="13"/>
+      <c r="C143" s="18"/>
     </row>
     <row r="144">
-      <c r="C144" s="13"/>
+      <c r="C144" s="18"/>
     </row>
     <row r="145">
-      <c r="C145" s="13"/>
+      <c r="C145" s="18"/>
     </row>
     <row r="146">
-      <c r="C146" s="13"/>
+      <c r="C146" s="18"/>
     </row>
     <row r="147">
-      <c r="C147" s="13"/>
+      <c r="C147" s="18"/>
     </row>
     <row r="148">
-      <c r="C148" s="13"/>
+      <c r="C148" s="18"/>
     </row>
     <row r="149">
-      <c r="C149" s="13"/>
+      <c r="C149" s="18"/>
     </row>
     <row r="150">
-      <c r="C150" s="13"/>
+      <c r="C150" s="18"/>
     </row>
     <row r="151">
-      <c r="C151" s="13"/>
+      <c r="C151" s="18"/>
     </row>
     <row r="152">
-      <c r="C152" s="13"/>
+      <c r="C152" s="18"/>
     </row>
     <row r="153">
-      <c r="C153" s="13"/>
+      <c r="C153" s="18"/>
     </row>
     <row r="154">
-      <c r="C154" s="13"/>
+      <c r="C154" s="18"/>
     </row>
     <row r="155">
-      <c r="C155" s="13"/>
+      <c r="C155" s="18"/>
     </row>
     <row r="156">
-      <c r="C156" s="13"/>
+      <c r="C156" s="18"/>
     </row>
     <row r="157">
-      <c r="C157" s="13"/>
+      <c r="C157" s="18"/>
     </row>
     <row r="158">
-      <c r="C158" s="13"/>
+      <c r="C158" s="18"/>
     </row>
     <row r="159">
-      <c r="C159" s="13"/>
+      <c r="C159" s="18"/>
     </row>
     <row r="160">
-      <c r="C160" s="13"/>
+      <c r="C160" s="18"/>
     </row>
     <row r="161">
-      <c r="C161" s="13"/>
+      <c r="C161" s="18"/>
     </row>
     <row r="162">
-      <c r="C162" s="13"/>
+      <c r="C162" s="18"/>
     </row>
     <row r="163">
-      <c r="C163" s="13"/>
+      <c r="C163" s="18"/>
     </row>
     <row r="164">
-      <c r="C164" s="13"/>
+      <c r="C164" s="18"/>
     </row>
     <row r="165">
-      <c r="C165" s="13"/>
+      <c r="C165" s="18"/>
     </row>
     <row r="166">
-      <c r="C166" s="13"/>
+      <c r="C166" s="18"/>
     </row>
     <row r="167">
-      <c r="C167" s="13"/>
+      <c r="C167" s="18"/>
     </row>
     <row r="168">
-      <c r="C168" s="13"/>
+      <c r="C168" s="18"/>
     </row>
     <row r="169">
-      <c r="C169" s="13"/>
+      <c r="C169" s="18"/>
     </row>
     <row r="170">
-      <c r="C170" s="13"/>
+      <c r="C170" s="18"/>
     </row>
     <row r="171">
-      <c r="C171" s="13"/>
+      <c r="C171" s="18"/>
     </row>
     <row r="172">
-      <c r="C172" s="13"/>
+      <c r="C172" s="18"/>
     </row>
     <row r="173">
-      <c r="C173" s="13"/>
+      <c r="C173" s="18"/>
     </row>
     <row r="174">
-      <c r="C174" s="13"/>
+      <c r="C174" s="18"/>
     </row>
     <row r="175">
-      <c r="C175" s="13"/>
+      <c r="C175" s="18"/>
     </row>
     <row r="176">
-      <c r="C176" s="13"/>
+      <c r="C176" s="18"/>
     </row>
     <row r="177">
-      <c r="C177" s="13"/>
+      <c r="C177" s="18"/>
     </row>
     <row r="178">
-      <c r="C178" s="13"/>
+      <c r="C178" s="18"/>
     </row>
     <row r="179">
-      <c r="C179" s="13"/>
+      <c r="C179" s="18"/>
     </row>
     <row r="180">
-      <c r="C180" s="13"/>
+      <c r="C180" s="18"/>
     </row>
     <row r="181">
-      <c r="C181" s="13"/>
+      <c r="C181" s="18"/>
     </row>
     <row r="182">
-      <c r="C182" s="13"/>
+      <c r="C182" s="18"/>
     </row>
     <row r="183">
-      <c r="C183" s="13"/>
+      <c r="C183" s="18"/>
     </row>
     <row r="184">
-      <c r="C184" s="13"/>
+      <c r="C184" s="18"/>
     </row>
     <row r="185">
-      <c r="C185" s="13"/>
+      <c r="C185" s="18"/>
     </row>
     <row r="186">
-      <c r="C186" s="13"/>
+      <c r="C186" s="18"/>
     </row>
     <row r="187">
-      <c r="C187" s="13"/>
+      <c r="C187" s="18"/>
     </row>
     <row r="188">
-      <c r="C188" s="13"/>
+      <c r="C188" s="18"/>
     </row>
     <row r="189">
-      <c r="C189" s="13"/>
+      <c r="C189" s="18"/>
     </row>
     <row r="190">
-      <c r="C190" s="13"/>
+      <c r="C190" s="18"/>
     </row>
     <row r="191">
-      <c r="C191" s="13"/>
+      <c r="C191" s="18"/>
     </row>
     <row r="192">
-      <c r="C192" s="13"/>
+      <c r="C192" s="18"/>
     </row>
     <row r="193">
-      <c r="C193" s="13"/>
+      <c r="C193" s="18"/>
     </row>
     <row r="194">
-      <c r="C194" s="13"/>
+      <c r="C194" s="18"/>
     </row>
     <row r="195">
-      <c r="C195" s="13"/>
+      <c r="C195" s="18"/>
     </row>
     <row r="196">
-      <c r="C196" s="13"/>
+      <c r="C196" s="18"/>
     </row>
     <row r="197">
-      <c r="C197" s="13"/>
+      <c r="C197" s="18"/>
     </row>
     <row r="198">
-      <c r="C198" s="13"/>
+      <c r="C198" s="18"/>
     </row>
     <row r="199">
-      <c r="C199" s="13"/>
+      <c r="C199" s="18"/>
     </row>
     <row r="200">
-      <c r="C200" s="13"/>
+      <c r="C200" s="18"/>
     </row>
     <row r="201">
-      <c r="C201" s="13"/>
+      <c r="C201" s="18"/>
     </row>
     <row r="202">
-      <c r="C202" s="13"/>
+      <c r="C202" s="18"/>
     </row>
     <row r="203">
-      <c r="C203" s="13"/>
+      <c r="C203" s="18"/>
     </row>
     <row r="204">
-      <c r="C204" s="13"/>
+      <c r="C204" s="18"/>
     </row>
     <row r="205">
-      <c r="C205" s="13"/>
+      <c r="C205" s="18"/>
     </row>
     <row r="206">
-      <c r="C206" s="13"/>
+      <c r="C206" s="18"/>
     </row>
     <row r="207">
-      <c r="C207" s="13"/>
+      <c r="C207" s="18"/>
     </row>
     <row r="208">
-      <c r="C208" s="13"/>
+      <c r="C208" s="18"/>
     </row>
     <row r="209">
-      <c r="C209" s="13"/>
+      <c r="C209" s="18"/>
     </row>
     <row r="210">
-      <c r="C210" s="13"/>
+      <c r="C210" s="18"/>
     </row>
     <row r="211">
-      <c r="C211" s="13"/>
+      <c r="C211" s="18"/>
     </row>
     <row r="212">
-      <c r="C212" s="13"/>
+      <c r="C212" s="18"/>
     </row>
     <row r="213">
-      <c r="C213" s="13"/>
+      <c r="C213" s="18"/>
     </row>
     <row r="214">
-      <c r="C214" s="13"/>
+      <c r="C214" s="18"/>
     </row>
     <row r="215">
-      <c r="C215" s="13"/>
+      <c r="C215" s="18"/>
     </row>
     <row r="216">
-      <c r="C216" s="13"/>
+      <c r="C216" s="18"/>
     </row>
     <row r="217">
-      <c r="C217" s="13"/>
+      <c r="C217" s="18"/>
     </row>
     <row r="218">
-      <c r="C218" s="13"/>
+      <c r="C218" s="18"/>
     </row>
     <row r="219">
-      <c r="C219" s="13"/>
+      <c r="C219" s="18"/>
     </row>
     <row r="220">
-      <c r="C220" s="13"/>
+      <c r="C220" s="18"/>
     </row>
     <row r="221">
-      <c r="C221" s="13"/>
+      <c r="C221" s="18"/>
     </row>
     <row r="222">
-      <c r="C222" s="13"/>
+      <c r="C222" s="18"/>
     </row>
     <row r="223">
-      <c r="C223" s="13"/>
+      <c r="C223" s="18"/>
     </row>
     <row r="224">
-      <c r="C224" s="13"/>
+      <c r="C224" s="18"/>
     </row>
     <row r="225">
-      <c r="C225" s="13"/>
+      <c r="C225" s="18"/>
     </row>
     <row r="226">
-      <c r="C226" s="13"/>
+      <c r="C226" s="18"/>
     </row>
     <row r="227">
-      <c r="C227" s="13"/>
+      <c r="C227" s="18"/>
     </row>
     <row r="228">
-      <c r="C228" s="13"/>
+      <c r="C228" s="18"/>
     </row>
     <row r="229">
-      <c r="C229" s="13"/>
+      <c r="C229" s="18"/>
     </row>
     <row r="230">
-      <c r="C230" s="13"/>
+      <c r="C230" s="18"/>
     </row>
     <row r="231">
-      <c r="C231" s="13"/>
+      <c r="C231" s="18"/>
     </row>
     <row r="232">
-      <c r="C232" s="13"/>
+      <c r="C232" s="18"/>
     </row>
     <row r="233">
-      <c r="C233" s="13"/>
+      <c r="C233" s="18"/>
     </row>
     <row r="234">
-      <c r="C234" s="13"/>
+      <c r="C234" s="18"/>
     </row>
     <row r="235">
-      <c r="C235" s="13"/>
+      <c r="C235" s="18"/>
     </row>
     <row r="236">
-      <c r="C236" s="13"/>
+      <c r="C236" s="18"/>
     </row>
     <row r="237">
-      <c r="C237" s="13"/>
+      <c r="C237" s="18"/>
     </row>
     <row r="238">
-      <c r="C238" s="13"/>
+      <c r="C238" s="18"/>
     </row>
     <row r="239">
-      <c r="C239" s="13"/>
+      <c r="C239" s="18"/>
     </row>
     <row r="240">
-      <c r="C240" s="13"/>
+      <c r="C240" s="18"/>
     </row>
     <row r="241">
-      <c r="C241" s="13"/>
+      <c r="C241" s="18"/>
     </row>
     <row r="242">
-      <c r="C242" s="13"/>
+      <c r="C242" s="18"/>
     </row>
     <row r="243">
-      <c r="C243" s="13"/>
+      <c r="C243" s="18"/>
     </row>
     <row r="244">
-      <c r="C244" s="13"/>
+      <c r="C244" s="18"/>
     </row>
     <row r="245">
-      <c r="C245" s="13"/>
+      <c r="C245" s="18"/>
     </row>
     <row r="246">
-      <c r="C246" s="13"/>
+      <c r="C246" s="18"/>
     </row>
     <row r="247">
-      <c r="C247" s="13"/>
+      <c r="C247" s="18"/>
     </row>
     <row r="248">
-      <c r="C248" s="13"/>
+      <c r="C248" s="18"/>
     </row>
     <row r="249">
-      <c r="C249" s="13"/>
+      <c r="C249" s="18"/>
     </row>
     <row r="250">
-      <c r="C250" s="13"/>
+      <c r="C250" s="18"/>
     </row>
     <row r="251">
-      <c r="C251" s="13"/>
+      <c r="C251" s="18"/>
     </row>
     <row r="252">
-      <c r="C252" s="13"/>
+      <c r="C252" s="18"/>
     </row>
     <row r="253">
-      <c r="C253" s="13"/>
+      <c r="C253" s="18"/>
     </row>
     <row r="254">
-      <c r="C254" s="13"/>
+      <c r="C254" s="18"/>
     </row>
     <row r="255">
-      <c r="C255" s="13"/>
+      <c r="C255" s="18"/>
     </row>
     <row r="256">
-      <c r="C256" s="13"/>
+      <c r="C256" s="18"/>
     </row>
     <row r="257">
-      <c r="C257" s="13"/>
+      <c r="C257" s="18"/>
     </row>
     <row r="258">
-      <c r="C258" s="13"/>
+      <c r="C258" s="18"/>
     </row>
     <row r="259">
-      <c r="C259" s="13"/>
+      <c r="C259" s="18"/>
     </row>
     <row r="260">
-      <c r="C260" s="13"/>
+      <c r="C260" s="18"/>
     </row>
     <row r="261">
-      <c r="C261" s="13"/>
+      <c r="C261" s="18"/>
     </row>
     <row r="262">
-      <c r="C262" s="13"/>
+      <c r="C262" s="18"/>
     </row>
     <row r="263">
-      <c r="C263" s="13"/>
+      <c r="C263" s="18"/>
     </row>
     <row r="264">
-      <c r="C264" s="13"/>
+      <c r="C264" s="18"/>
     </row>
     <row r="265">
-      <c r="C265" s="13"/>
+      <c r="C265" s="18"/>
     </row>
     <row r="266">
-      <c r="C266" s="13"/>
+      <c r="C266" s="18"/>
     </row>
     <row r="267">
-      <c r="C267" s="13"/>
+      <c r="C267" s="18"/>
     </row>
     <row r="268">
-      <c r="C268" s="13"/>
+      <c r="C268" s="18"/>
     </row>
     <row r="269">
-      <c r="C269" s="13"/>
+      <c r="C269" s="18"/>
     </row>
     <row r="270">
-      <c r="C270" s="13"/>
+      <c r="C270" s="18"/>
     </row>
     <row r="271">
-      <c r="C271" s="13"/>
+      <c r="C271" s="18"/>
     </row>
     <row r="272">
-      <c r="C272" s="13"/>
+      <c r="C272" s="18"/>
     </row>
     <row r="273">
-      <c r="C273" s="13"/>
+      <c r="C273" s="18"/>
     </row>
     <row r="274">
-      <c r="C274" s="13"/>
+      <c r="C274" s="18"/>
     </row>
     <row r="275">
-      <c r="C275" s="13"/>
+      <c r="C275" s="18"/>
     </row>
     <row r="276">
-      <c r="C276" s="13"/>
+      <c r="C276" s="18"/>
     </row>
     <row r="277">
-      <c r="C277" s="13"/>
+      <c r="C277" s="18"/>
     </row>
     <row r="278">
-      <c r="C278" s="13"/>
+      <c r="C278" s="18"/>
     </row>
     <row r="279">
-      <c r="C279" s="13"/>
+      <c r="C279" s="18"/>
     </row>
     <row r="280">
-      <c r="C280" s="13"/>
+      <c r="C280" s="18"/>
     </row>
     <row r="281">
-      <c r="C281" s="13"/>
+      <c r="C281" s="18"/>
     </row>
     <row r="282">
-      <c r="C282" s="13"/>
+      <c r="C282" s="18"/>
     </row>
     <row r="283">
-      <c r="C283" s="13"/>
+      <c r="C283" s="18"/>
     </row>
     <row r="284">
-      <c r="C284" s="13"/>
+      <c r="C284" s="18"/>
     </row>
     <row r="285">
-      <c r="C285" s="13"/>
+      <c r="C285" s="18"/>
     </row>
     <row r="286">
-      <c r="C286" s="13"/>
+      <c r="C286" s="18"/>
     </row>
     <row r="287">
-      <c r="C287" s="13"/>
+      <c r="C287" s="18"/>
     </row>
     <row r="288">
-      <c r="C288" s="13"/>
+      <c r="C288" s="18"/>
     </row>
     <row r="289">
-      <c r="C289" s="13"/>
+      <c r="C289" s="18"/>
     </row>
     <row r="290">
-      <c r="C290" s="13"/>
+      <c r="C290" s="18"/>
     </row>
     <row r="291">
-      <c r="C291" s="13"/>
+      <c r="C291" s="18"/>
     </row>
     <row r="292">
-      <c r="C292" s="13"/>
+      <c r="C292" s="18"/>
     </row>
     <row r="293">
-      <c r="C293" s="13"/>
+      <c r="C293" s="18"/>
     </row>
     <row r="294">
-      <c r="C294" s="13"/>
+      <c r="C294" s="18"/>
     </row>
     <row r="295">
-      <c r="C295" s="13"/>
+      <c r="C295" s="18"/>
     </row>
     <row r="296">
-      <c r="C296" s="13"/>
+      <c r="C296" s="18"/>
     </row>
     <row r="297">
-      <c r="C297" s="13"/>
+      <c r="C297" s="18"/>
     </row>
     <row r="298">
-      <c r="C298" s="13"/>
+      <c r="C298" s="18"/>
     </row>
     <row r="299">
-      <c r="C299" s="13"/>
+      <c r="C299" s="18"/>
     </row>
     <row r="300">
-      <c r="C300" s="13"/>
+      <c r="C300" s="18"/>
     </row>
     <row r="301">
-      <c r="C301" s="13"/>
+      <c r="C301" s="18"/>
     </row>
     <row r="302">
-      <c r="C302" s="13"/>
+      <c r="C302" s="18"/>
     </row>
     <row r="303">
-      <c r="C303" s="13"/>
+      <c r="C303" s="18"/>
     </row>
     <row r="304">
-      <c r="C304" s="13"/>
+      <c r="C304" s="18"/>
     </row>
     <row r="305">
-      <c r="C305" s="13"/>
+      <c r="C305" s="18"/>
     </row>
     <row r="306">
-      <c r="C306" s="13"/>
+      <c r="C306" s="18"/>
     </row>
     <row r="307">
-      <c r="C307" s="13"/>
+      <c r="C307" s="18"/>
     </row>
     <row r="308">
-      <c r="C308" s="13"/>
+      <c r="C308" s="18"/>
     </row>
     <row r="309">
-      <c r="C309" s="13"/>
+      <c r="C309" s="18"/>
     </row>
     <row r="310">
-      <c r="C310" s="13"/>
+      <c r="C310" s="18"/>
     </row>
     <row r="311">
-      <c r="C311" s="13"/>
+      <c r="C311" s="18"/>
     </row>
     <row r="312">
-      <c r="C312" s="13"/>
+      <c r="C312" s="18"/>
     </row>
     <row r="313">
-      <c r="C313" s="13"/>
+      <c r="C313" s="18"/>
     </row>
     <row r="314">
-      <c r="C314" s="13"/>
+      <c r="C314" s="18"/>
     </row>
     <row r="315">
-      <c r="C315" s="13"/>
+      <c r="C315" s="18"/>
     </row>
     <row r="316">
-      <c r="C316" s="13"/>
+      <c r="C316" s="18"/>
     </row>
     <row r="317">
-      <c r="C317" s="13"/>
+      <c r="C317" s="18"/>
     </row>
     <row r="318">
-      <c r="C318" s="13"/>
+      <c r="C318" s="18"/>
     </row>
     <row r="319">
-      <c r="C319" s="13"/>
+      <c r="C319" s="18"/>
     </row>
     <row r="320">
-      <c r="C320" s="13"/>
+      <c r="C320" s="18"/>
     </row>
     <row r="321">
-      <c r="C321" s="13"/>
+      <c r="C321" s="18"/>
     </row>
     <row r="322">
-      <c r="C322" s="13"/>
+      <c r="C322" s="18"/>
     </row>
     <row r="323">
-      <c r="C323" s="13"/>
+      <c r="C323" s="18"/>
     </row>
     <row r="324">
-      <c r="C324" s="13"/>
+      <c r="C324" s="18"/>
     </row>
     <row r="325">
-      <c r="C325" s="13"/>
+      <c r="C325" s="18"/>
     </row>
     <row r="326">
-      <c r="C326" s="13"/>
+      <c r="C326" s="18"/>
     </row>
     <row r="327">
-      <c r="C327" s="13"/>
+      <c r="C327" s="18"/>
     </row>
     <row r="328">
-      <c r="C328" s="13"/>
+      <c r="C328" s="18"/>
     </row>
     <row r="329">
-      <c r="C329" s="13"/>
+      <c r="C329" s="18"/>
     </row>
     <row r="330">
-      <c r="C330" s="13"/>
+      <c r="C330" s="18"/>
     </row>
     <row r="331">
-      <c r="C331" s="13"/>
+      <c r="C331" s="18"/>
     </row>
     <row r="332">
-      <c r="C332" s="13"/>
+      <c r="C332" s="18"/>
     </row>
     <row r="333">
-      <c r="C333" s="13"/>
+      <c r="C333" s="18"/>
     </row>
     <row r="334">
-      <c r="C334" s="13"/>
+      <c r="C334" s="18"/>
     </row>
     <row r="335">
-      <c r="C335" s="13"/>
+      <c r="C335" s="18"/>
     </row>
     <row r="336">
-      <c r="C336" s="13"/>
+      <c r="C336" s="18"/>
     </row>
     <row r="337">
-      <c r="C337" s="13"/>
+      <c r="C337" s="18"/>
     </row>
     <row r="338">
-      <c r="C338" s="13"/>
+      <c r="C338" s="18"/>
     </row>
     <row r="339">
-      <c r="C339" s="13"/>
+      <c r="C339" s="18"/>
     </row>
     <row r="340">
-      <c r="C340" s="13"/>
+      <c r="C340" s="18"/>
     </row>
     <row r="341">
-      <c r="C341" s="13"/>
+      <c r="C341" s="18"/>
     </row>
     <row r="342">
-      <c r="C342" s="13"/>
+      <c r="C342" s="18"/>
     </row>
     <row r="343">
-      <c r="C343" s="13"/>
+      <c r="C343" s="18"/>
     </row>
     <row r="344">
-      <c r="C344" s="13"/>
+      <c r="C344" s="18"/>
     </row>
     <row r="345">
-      <c r="C345" s="13"/>
+      <c r="C345" s="18"/>
     </row>
     <row r="346">
-      <c r="C346" s="13"/>
+      <c r="C346" s="18"/>
     </row>
     <row r="347">
-      <c r="C347" s="13"/>
+      <c r="C347" s="18"/>
     </row>
     <row r="348">
-      <c r="C348" s="13"/>
+      <c r="C348" s="18"/>
     </row>
     <row r="349">
-      <c r="C349" s="13"/>
+      <c r="C349" s="18"/>
     </row>
     <row r="350">
-      <c r="C350" s="13"/>
+      <c r="C350" s="18"/>
     </row>
     <row r="351">
-      <c r="C351" s="13"/>
+      <c r="C351" s="18"/>
     </row>
     <row r="352">
-      <c r="C352" s="13"/>
+      <c r="C352" s="18"/>
     </row>
     <row r="353">
-      <c r="C353" s="13"/>
+      <c r="C353" s="18"/>
     </row>
     <row r="354">
-      <c r="C354" s="13"/>
+      <c r="C354" s="18"/>
     </row>
     <row r="355">
-      <c r="C355" s="13"/>
+      <c r="C355" s="18"/>
     </row>
     <row r="356">
-      <c r="C356" s="13"/>
+      <c r="C356" s="18"/>
     </row>
     <row r="357">
-      <c r="C357" s="13"/>
+      <c r="C357" s="18"/>
     </row>
     <row r="358">
-      <c r="C358" s="13"/>
+      <c r="C358" s="18"/>
     </row>
     <row r="359">
-      <c r="C359" s="13"/>
+      <c r="C359" s="18"/>
     </row>
     <row r="360">
-      <c r="C360" s="13"/>
+      <c r="C360" s="18"/>
     </row>
     <row r="361">
-      <c r="C361" s="13"/>
+      <c r="C361" s="18"/>
     </row>
     <row r="362">
-      <c r="C362" s="13"/>
+      <c r="C362" s="18"/>
     </row>
     <row r="363">
-      <c r="C363" s="13"/>
+      <c r="C363" s="18"/>
     </row>
     <row r="364">
-      <c r="C364" s="13"/>
+      <c r="C364" s="18"/>
     </row>
     <row r="365">
-      <c r="C365" s="13"/>
+      <c r="C365" s="18"/>
     </row>
     <row r="366">
-      <c r="C366" s="13"/>
+      <c r="C366" s="18"/>
     </row>
     <row r="367">
-      <c r="C367" s="13"/>
+      <c r="C367" s="18"/>
     </row>
     <row r="368">
-      <c r="C368" s="13"/>
+      <c r="C368" s="18"/>
     </row>
     <row r="369">
-      <c r="C369" s="13"/>
+      <c r="C369" s="18"/>
     </row>
     <row r="370">
-      <c r="C370" s="13"/>
+      <c r="C370" s="18"/>
     </row>
     <row r="371">
-      <c r="C371" s="13"/>
+      <c r="C371" s="18"/>
     </row>
     <row r="372">
-      <c r="C372" s="13"/>
+      <c r="C372" s="18"/>
     </row>
     <row r="373">
-      <c r="C373" s="13"/>
+      <c r="C373" s="18"/>
     </row>
     <row r="374">
-      <c r="C374" s="13"/>
+      <c r="C374" s="18"/>
     </row>
     <row r="375">
-      <c r="C375" s="13"/>
+      <c r="C375" s="18"/>
     </row>
     <row r="376">
-      <c r="C376" s="13"/>
+      <c r="C376" s="18"/>
     </row>
     <row r="377">
-      <c r="C377" s="13"/>
+      <c r="C377" s="18"/>
     </row>
     <row r="378">
-      <c r="C378" s="13"/>
+      <c r="C378" s="18"/>
     </row>
     <row r="379">
-      <c r="C379" s="13"/>
+      <c r="C379" s="18"/>
     </row>
     <row r="380">
-      <c r="C380" s="13"/>
+      <c r="C380" s="18"/>
     </row>
     <row r="381">
-      <c r="C381" s="13"/>
+      <c r="C381" s="18"/>
     </row>
     <row r="382">
-      <c r="C382" s="13"/>
+      <c r="C382" s="18"/>
     </row>
     <row r="383">
-      <c r="C383" s="13"/>
+      <c r="C383" s="18"/>
     </row>
     <row r="384">
-      <c r="C384" s="13"/>
+      <c r="C384" s="18"/>
     </row>
     <row r="385">
-      <c r="C385" s="13"/>
+      <c r="C385" s="18"/>
     </row>
     <row r="386">
-      <c r="C386" s="13"/>
+      <c r="C386" s="18"/>
     </row>
     <row r="387">
-      <c r="C387" s="13"/>
+      <c r="C387" s="18"/>
     </row>
     <row r="388">
-      <c r="C388" s="13"/>
+      <c r="C388" s="18"/>
     </row>
     <row r="389">
-      <c r="C389" s="13"/>
+      <c r="C389" s="18"/>
     </row>
     <row r="390">
-      <c r="C390" s="13"/>
+      <c r="C390" s="18"/>
     </row>
     <row r="391">
-      <c r="C391" s="13"/>
+      <c r="C391" s="18"/>
     </row>
     <row r="392">
-      <c r="C392" s="13"/>
+      <c r="C392" s="18"/>
     </row>
     <row r="393">
-      <c r="C393" s="13"/>
+      <c r="C393" s="18"/>
     </row>
     <row r="394">
-      <c r="C394" s="13"/>
+      <c r="C394" s="18"/>
     </row>
     <row r="395">
-      <c r="C395" s="13"/>
+      <c r="C395" s="18"/>
     </row>
     <row r="396">
-      <c r="C396" s="13"/>
+      <c r="C396" s="18"/>
     </row>
     <row r="397">
-      <c r="C397" s="13"/>
+      <c r="C397" s="18"/>
     </row>
     <row r="398">
-      <c r="C398" s="13"/>
+      <c r="C398" s="18"/>
     </row>
     <row r="399">
-      <c r="C399" s="13"/>
+      <c r="C399" s="18"/>
     </row>
     <row r="400">
-      <c r="C400" s="13"/>
+      <c r="C400" s="18"/>
     </row>
     <row r="401">
-      <c r="C401" s="13"/>
+      <c r="C401" s="18"/>
     </row>
     <row r="402">
-      <c r="C402" s="13"/>
+      <c r="C402" s="18"/>
     </row>
     <row r="403">
-      <c r="C403" s="13"/>
+      <c r="C403" s="18"/>
     </row>
     <row r="404">
-      <c r="C404" s="13"/>
+      <c r="C404" s="18"/>
     </row>
     <row r="405">
-      <c r="C405" s="13"/>
+      <c r="C405" s="18"/>
     </row>
     <row r="406">
-      <c r="C406" s="13"/>
+      <c r="C406" s="18"/>
     </row>
     <row r="407">
-      <c r="C407" s="13"/>
+      <c r="C407" s="18"/>
     </row>
     <row r="408">
-      <c r="C408" s="13"/>
+      <c r="C408" s="18"/>
     </row>
     <row r="409">
-      <c r="C409" s="13"/>
+      <c r="C409" s="18"/>
     </row>
     <row r="410">
-      <c r="C410" s="13"/>
+      <c r="C410" s="18"/>
     </row>
     <row r="411">
-      <c r="C411" s="13"/>
+      <c r="C411" s="18"/>
     </row>
     <row r="412">
-      <c r="C412" s="13"/>
+      <c r="C412" s="18"/>
     </row>
     <row r="413">
-      <c r="C413" s="13"/>
+      <c r="C413" s="18"/>
     </row>
     <row r="414">
-      <c r="C414" s="13"/>
+      <c r="C414" s="18"/>
     </row>
     <row r="415">
-      <c r="C415" s="13"/>
+      <c r="C415" s="18"/>
     </row>
     <row r="416">
-      <c r="C416" s="13"/>
+      <c r="C416" s="18"/>
     </row>
     <row r="417">
-      <c r="C417" s="13"/>
+      <c r="C417" s="18"/>
     </row>
     <row r="418">
-      <c r="C418" s="13"/>
+      <c r="C418" s="18"/>
     </row>
     <row r="419">
-      <c r="C419" s="13"/>
+      <c r="C419" s="18"/>
     </row>
     <row r="420">
-      <c r="C420" s="13"/>
+      <c r="C420" s="18"/>
     </row>
     <row r="421">
-      <c r="C421" s="13"/>
+      <c r="C421" s="18"/>
     </row>
     <row r="422">
-      <c r="C422" s="13"/>
+      <c r="C422" s="18"/>
     </row>
     <row r="423">
-      <c r="C423" s="13"/>
+      <c r="C423" s="18"/>
     </row>
     <row r="424">
-      <c r="C424" s="13"/>
+      <c r="C424" s="18"/>
     </row>
     <row r="425">
-      <c r="C425" s="13"/>
+      <c r="C425" s="18"/>
     </row>
     <row r="426">
-      <c r="C426" s="13"/>
+      <c r="C426" s="18"/>
     </row>
     <row r="427">
-      <c r="C427" s="13"/>
+      <c r="C427" s="18"/>
     </row>
     <row r="428">
-      <c r="C428" s="13"/>
+      <c r="C428" s="18"/>
     </row>
     <row r="429">
-      <c r="C429" s="13"/>
+      <c r="C429" s="18"/>
     </row>
     <row r="430">
-      <c r="C430" s="13"/>
+      <c r="C430" s="18"/>
     </row>
     <row r="431">
-      <c r="C431" s="13"/>
+      <c r="C431" s="18"/>
     </row>
     <row r="432">
-      <c r="C432" s="13"/>
+      <c r="C432" s="18"/>
     </row>
     <row r="433">
-      <c r="C433" s="13"/>
+      <c r="C433" s="18"/>
     </row>
     <row r="434">
-      <c r="C434" s="13"/>
+      <c r="C434" s="18"/>
     </row>
     <row r="435">
-      <c r="C435" s="13"/>
+      <c r="C435" s="18"/>
     </row>
     <row r="436">
-      <c r="C436" s="13"/>
+      <c r="C436" s="18"/>
     </row>
     <row r="437">
-      <c r="C437" s="13"/>
+      <c r="C437" s="18"/>
     </row>
     <row r="438">
-      <c r="C438" s="13"/>
+      <c r="C438" s="18"/>
     </row>
     <row r="439">
-      <c r="C439" s="13"/>
+      <c r="C439" s="18"/>
     </row>
     <row r="440">
-      <c r="C440" s="13"/>
+      <c r="C440" s="18"/>
     </row>
     <row r="441">
-      <c r="C441" s="13"/>
+      <c r="C441" s="18"/>
     </row>
     <row r="442">
-      <c r="C442" s="13"/>
+      <c r="C442" s="18"/>
     </row>
     <row r="443">
-      <c r="C443" s="13"/>
+      <c r="C443" s="18"/>
     </row>
     <row r="444">
-      <c r="C444" s="13"/>
+      <c r="C444" s="18"/>
     </row>
     <row r="445">
-      <c r="C445" s="13"/>
+      <c r="C445" s="18"/>
     </row>
     <row r="446">
-      <c r="C446" s="13"/>
+      <c r="C446" s="18"/>
     </row>
     <row r="447">
-      <c r="C447" s="13"/>
+      <c r="C447" s="18"/>
     </row>
     <row r="448">
-      <c r="C448" s="13"/>
+      <c r="C448" s="18"/>
     </row>
     <row r="449">
-      <c r="C449" s="13"/>
+      <c r="C449" s="18"/>
     </row>
     <row r="450">
-      <c r="C450" s="13"/>
+      <c r="C450" s="18"/>
     </row>
     <row r="451">
-      <c r="C451" s="13"/>
+      <c r="C451" s="18"/>
     </row>
     <row r="452">
-      <c r="C452" s="13"/>
+      <c r="C452" s="18"/>
     </row>
     <row r="453">
-      <c r="C453" s="13"/>
+      <c r="C453" s="18"/>
     </row>
     <row r="454">
-      <c r="C454" s="13"/>
+      <c r="C454" s="18"/>
     </row>
     <row r="455">
-      <c r="C455" s="13"/>
+      <c r="C455" s="18"/>
     </row>
     <row r="456">
-      <c r="C456" s="13"/>
+      <c r="C456" s="18"/>
     </row>
     <row r="457">
-      <c r="C457" s="13"/>
+      <c r="C457" s="18"/>
     </row>
     <row r="458">
-      <c r="C458" s="13"/>
+      <c r="C458" s="18"/>
     </row>
     <row r="459">
-      <c r="C459" s="13"/>
+      <c r="C459" s="18"/>
     </row>
     <row r="460">
-      <c r="C460" s="13"/>
+      <c r="C460" s="18"/>
     </row>
     <row r="461">
-      <c r="C461" s="13"/>
+      <c r="C461" s="18"/>
     </row>
     <row r="462">
-      <c r="C462" s="13"/>
+      <c r="C462" s="18"/>
     </row>
     <row r="463">
-      <c r="C463" s="13"/>
+      <c r="C463" s="18"/>
     </row>
     <row r="464">
-      <c r="C464" s="13"/>
+      <c r="C464" s="18"/>
     </row>
     <row r="465">
-      <c r="C465" s="13"/>
+      <c r="C465" s="18"/>
     </row>
     <row r="466">
-      <c r="C466" s="13"/>
+      <c r="C466" s="18"/>
     </row>
     <row r="467">
-      <c r="C467" s="13"/>
+      <c r="C467" s="18"/>
     </row>
     <row r="468">
-      <c r="C468" s="13"/>
+      <c r="C468" s="18"/>
     </row>
     <row r="469">
-      <c r="C469" s="13"/>
+      <c r="C469" s="18"/>
     </row>
     <row r="470">
-      <c r="C470" s="13"/>
+      <c r="C470" s="18"/>
     </row>
     <row r="471">
-      <c r="C471" s="13"/>
+      <c r="C471" s="18"/>
     </row>
     <row r="472">
-      <c r="C472" s="13"/>
+      <c r="C472" s="18"/>
     </row>
     <row r="473">
-      <c r="C473" s="13"/>
+      <c r="C473" s="18"/>
     </row>
     <row r="474">
-      <c r="C474" s="13"/>
+      <c r="C474" s="18"/>
     </row>
     <row r="475">
-      <c r="C475" s="13"/>
+      <c r="C475" s="18"/>
     </row>
     <row r="476">
-      <c r="C476" s="13"/>
+      <c r="C476" s="18"/>
     </row>
     <row r="477">
-      <c r="C477" s="13"/>
+      <c r="C477" s="18"/>
     </row>
     <row r="478">
-      <c r="C478" s="13"/>
+      <c r="C478" s="18"/>
     </row>
     <row r="479">
-      <c r="C479" s="13"/>
+      <c r="C479" s="18"/>
     </row>
     <row r="480">
-      <c r="C480" s="13"/>
+      <c r="C480" s="18"/>
     </row>
     <row r="481">
-      <c r="C481" s="13"/>
+      <c r="C481" s="18"/>
     </row>
     <row r="482">
-      <c r="C482" s="13"/>
+      <c r="C482" s="18"/>
     </row>
     <row r="483">
-      <c r="C483" s="13"/>
+      <c r="C483" s="18"/>
     </row>
     <row r="484">
-      <c r="C484" s="13"/>
+      <c r="C484" s="18"/>
     </row>
     <row r="485">
-      <c r="C485" s="13"/>
+      <c r="C485" s="18"/>
     </row>
     <row r="486">
-      <c r="C486" s="13"/>
+      <c r="C486" s="18"/>
     </row>
     <row r="487">
-      <c r="C487" s="13"/>
+      <c r="C487" s="18"/>
     </row>
     <row r="488">
-      <c r="C488" s="13"/>
+      <c r="C488" s="18"/>
     </row>
     <row r="489">
-      <c r="C489" s="13"/>
+      <c r="C489" s="18"/>
     </row>
     <row r="490">
-      <c r="C490" s="13"/>
+      <c r="C490" s="18"/>
     </row>
     <row r="491">
-      <c r="C491" s="13"/>
+      <c r="C491" s="18"/>
     </row>
     <row r="492">
-      <c r="C492" s="13"/>
+      <c r="C492" s="18"/>
     </row>
     <row r="493">
-      <c r="C493" s="13"/>
+      <c r="C493" s="18"/>
     </row>
     <row r="494">
-      <c r="C494" s="13"/>
+      <c r="C494" s="18"/>
     </row>
     <row r="495">
-      <c r="C495" s="13"/>
+      <c r="C495" s="18"/>
     </row>
     <row r="496">
-      <c r="C496" s="13"/>
+      <c r="C496" s="18"/>
     </row>
     <row r="497">
-      <c r="C497" s="13"/>
+      <c r="C497" s="18"/>
     </row>
     <row r="498">
-      <c r="C498" s="13"/>
+      <c r="C498" s="18"/>
     </row>
     <row r="499">
-      <c r="C499" s="13"/>
+      <c r="C499" s="18"/>
     </row>
     <row r="500">
-      <c r="C500" s="13"/>
+      <c r="C500" s="18"/>
     </row>
     <row r="501">
-      <c r="C501" s="13"/>
+      <c r="C501" s="18"/>
     </row>
     <row r="502">
-      <c r="C502" s="13"/>
+      <c r="C502" s="18"/>
     </row>
     <row r="503">
-      <c r="C503" s="13"/>
+      <c r="C503" s="18"/>
     </row>
     <row r="504">
-      <c r="C504" s="13"/>
+      <c r="C504" s="18"/>
     </row>
     <row r="505">
-      <c r="C505" s="13"/>
+      <c r="C505" s="18"/>
     </row>
     <row r="506">
-      <c r="C506" s="13"/>
+      <c r="C506" s="18"/>
     </row>
     <row r="507">
-      <c r="C507" s="13"/>
+      <c r="C507" s="18"/>
     </row>
     <row r="508">
-      <c r="C508" s="13"/>
+      <c r="C508" s="18"/>
     </row>
     <row r="509">
-      <c r="C509" s="13"/>
+      <c r="C509" s="18"/>
     </row>
     <row r="510">
-      <c r="C510" s="13"/>
+      <c r="C510" s="18"/>
     </row>
     <row r="511">
-      <c r="C511" s="13"/>
+      <c r="C511" s="18"/>
     </row>
     <row r="512">
-      <c r="C512" s="13"/>
+      <c r="C512" s="18"/>
     </row>
     <row r="513">
-      <c r="C513" s="13"/>
+      <c r="C513" s="18"/>
     </row>
     <row r="514">
-      <c r="C514" s="13"/>
+      <c r="C514" s="18"/>
     </row>
     <row r="515">
-      <c r="C515" s="13"/>
+      <c r="C515" s="18"/>
     </row>
     <row r="516">
-      <c r="C516" s="13"/>
+      <c r="C516" s="18"/>
     </row>
     <row r="517">
-      <c r="C517" s="13"/>
+      <c r="C517" s="18"/>
     </row>
     <row r="518">
-      <c r="C518" s="13"/>
+      <c r="C518" s="18"/>
     </row>
     <row r="519">
-      <c r="C519" s="13"/>
+      <c r="C519" s="18"/>
     </row>
     <row r="520">
-      <c r="C520" s="13"/>
+      <c r="C520" s="18"/>
     </row>
     <row r="521">
-      <c r="C521" s="13"/>
+      <c r="C521" s="18"/>
     </row>
     <row r="522">
-      <c r="C522" s="13"/>
+      <c r="C522" s="18"/>
     </row>
     <row r="523">
-      <c r="C523" s="13"/>
+      <c r="C523" s="18"/>
     </row>
     <row r="524">
-      <c r="C524" s="13"/>
+      <c r="C524" s="18"/>
     </row>
     <row r="525">
-      <c r="C525" s="13"/>
+      <c r="C525" s="18"/>
     </row>
     <row r="526">
-      <c r="C526" s="13"/>
+      <c r="C526" s="18"/>
     </row>
     <row r="527">
-      <c r="C527" s="13"/>
+      <c r="C527" s="18"/>
     </row>
     <row r="528">
-      <c r="C528" s="13"/>
+      <c r="C528" s="18"/>
     </row>
     <row r="529">
-      <c r="C529" s="13"/>
+      <c r="C529" s="18"/>
     </row>
     <row r="530">
-      <c r="C530" s="13"/>
+      <c r="C530" s="18"/>
     </row>
     <row r="531">
-      <c r="C531" s="13"/>
+      <c r="C531" s="18"/>
     </row>
     <row r="532">
-      <c r="C532" s="13"/>
+      <c r="C532" s="18"/>
     </row>
     <row r="533">
-      <c r="C533" s="13"/>
+      <c r="C533" s="18"/>
     </row>
     <row r="534">
-      <c r="C534" s="13"/>
+      <c r="C534" s="18"/>
     </row>
     <row r="535">
-      <c r="C535" s="13"/>
+      <c r="C535" s="18"/>
     </row>
     <row r="536">
-      <c r="C536" s="13"/>
+      <c r="C536" s="18"/>
     </row>
     <row r="537">
-      <c r="C537" s="13"/>
+      <c r="C537" s="18"/>
     </row>
     <row r="538">
-      <c r="C538" s="13"/>
+      <c r="C538" s="18"/>
     </row>
     <row r="539">
-      <c r="C539" s="13"/>
+      <c r="C539" s="18"/>
     </row>
     <row r="540">
-      <c r="C540" s="13"/>
+      <c r="C540" s="18"/>
     </row>
     <row r="541">
-      <c r="C541" s="13"/>
+      <c r="C541" s="18"/>
     </row>
     <row r="542">
-      <c r="C542" s="13"/>
+      <c r="C542" s="18"/>
     </row>
     <row r="543">
-      <c r="C543" s="13"/>
+      <c r="C543" s="18"/>
     </row>
     <row r="544">
-      <c r="C544" s="13"/>
+      <c r="C544" s="18"/>
     </row>
     <row r="545">
-      <c r="C545" s="13"/>
+      <c r="C545" s="18"/>
     </row>
     <row r="546">
-      <c r="C546" s="13"/>
+      <c r="C546" s="18"/>
     </row>
     <row r="547">
-      <c r="C547" s="13"/>
+      <c r="C547" s="18"/>
     </row>
     <row r="548">
-      <c r="C548" s="13"/>
+      <c r="C548" s="18"/>
     </row>
     <row r="549">
-      <c r="C549" s="13"/>
+      <c r="C549" s="18"/>
     </row>
     <row r="550">
-      <c r="C550" s="13"/>
+      <c r="C550" s="18"/>
     </row>
     <row r="551">
-      <c r="C551" s="13"/>
+      <c r="C551" s="18"/>
     </row>
     <row r="552">
-      <c r="C552" s="13"/>
+      <c r="C552" s="18"/>
     </row>
     <row r="553">
-      <c r="C553" s="13"/>
+      <c r="C553" s="18"/>
     </row>
     <row r="554">
-      <c r="C554" s="13"/>
+      <c r="C554" s="18"/>
     </row>
     <row r="555">
-      <c r="C555" s="13"/>
+      <c r="C555" s="18"/>
     </row>
     <row r="556">
-      <c r="C556" s="13"/>
+      <c r="C556" s="18"/>
     </row>
     <row r="557">
-      <c r="C557" s="13"/>
+      <c r="C557" s="18"/>
     </row>
     <row r="558">
-      <c r="C558" s="13"/>
+      <c r="C558" s="18"/>
     </row>
     <row r="559">
-      <c r="C559" s="13"/>
+      <c r="C559" s="18"/>
     </row>
     <row r="560">
-      <c r="C560" s="13"/>
+      <c r="C560" s="18"/>
     </row>
     <row r="561">
-      <c r="C561" s="13"/>
+      <c r="C561" s="18"/>
     </row>
     <row r="562">
-      <c r="C562" s="13"/>
+      <c r="C562" s="18"/>
     </row>
     <row r="563">
-      <c r="C563" s="13"/>
+      <c r="C563" s="18"/>
     </row>
     <row r="564">
-      <c r="C564" s="13"/>
+      <c r="C564" s="18"/>
     </row>
     <row r="565">
-      <c r="C565" s="13"/>
+      <c r="C565" s="18"/>
     </row>
     <row r="566">
-      <c r="C566" s="13"/>
+      <c r="C566" s="18"/>
     </row>
     <row r="567">
-      <c r="C567" s="13"/>
+      <c r="C567" s="18"/>
     </row>
     <row r="568">
-      <c r="C568" s="13"/>
+      <c r="C568" s="18"/>
     </row>
     <row r="569">
-      <c r="C569" s="13"/>
+      <c r="C569" s="18"/>
     </row>
     <row r="570">
-      <c r="C570" s="13"/>
+      <c r="C570" s="18"/>
     </row>
     <row r="571">
-      <c r="C571" s="13"/>
+      <c r="C571" s="18"/>
     </row>
     <row r="572">
-      <c r="C572" s="13"/>
+      <c r="C572" s="18"/>
     </row>
     <row r="573">
-      <c r="C573" s="13"/>
+      <c r="C573" s="18"/>
     </row>
     <row r="574">
-      <c r="C574" s="13"/>
+      <c r="C574" s="18"/>
     </row>
     <row r="575">
-      <c r="C575" s="13"/>
+      <c r="C575" s="18"/>
     </row>
     <row r="576">
-      <c r="C576" s="13"/>
+      <c r="C576" s="18"/>
     </row>
     <row r="577">
-      <c r="C577" s="13"/>
+      <c r="C577" s="18"/>
     </row>
     <row r="578">
-      <c r="C578" s="13"/>
+      <c r="C578" s="18"/>
     </row>
     <row r="579">
-      <c r="C579" s="13"/>
+      <c r="C579" s="18"/>
     </row>
     <row r="580">
-      <c r="C580" s="13"/>
+      <c r="C580" s="18"/>
     </row>
     <row r="581">
-      <c r="C581" s="13"/>
+      <c r="C581" s="18"/>
     </row>
     <row r="582">
-      <c r="C582" s="13"/>
+      <c r="C582" s="18"/>
     </row>
     <row r="583">
-      <c r="C583" s="13"/>
+      <c r="C583" s="18"/>
     </row>
     <row r="584">
-      <c r="C584" s="13"/>
+      <c r="C584" s="18"/>
     </row>
     <row r="585">
-      <c r="C585" s="13"/>
+      <c r="C585" s="18"/>
     </row>
     <row r="586">
-      <c r="C586" s="13"/>
+      <c r="C586" s="18"/>
     </row>
     <row r="587">
-      <c r="C587" s="13"/>
+      <c r="C587" s="18"/>
     </row>
     <row r="588">
-      <c r="C588" s="13"/>
+      <c r="C588" s="18"/>
     </row>
     <row r="589">
-      <c r="C589" s="13"/>
+      <c r="C589" s="18"/>
     </row>
     <row r="590">
-      <c r="C590" s="13"/>
+      <c r="C590" s="18"/>
     </row>
     <row r="591">
-      <c r="C591" s="13"/>
+      <c r="C591" s="18"/>
     </row>
     <row r="592">
-      <c r="C592" s="13"/>
+      <c r="C592" s="18"/>
     </row>
     <row r="593">
-      <c r="C593" s="13"/>
+      <c r="C593" s="18"/>
     </row>
     <row r="594">
-      <c r="C594" s="13"/>
+      <c r="C594" s="18"/>
     </row>
     <row r="595">
-      <c r="C595" s="13"/>
+      <c r="C595" s="18"/>
     </row>
     <row r="596">
-      <c r="C596" s="13"/>
+      <c r="C596" s="18"/>
     </row>
     <row r="597">
-      <c r="C597" s="13"/>
+      <c r="C597" s="18"/>
     </row>
     <row r="598">
-      <c r="C598" s="13"/>
+      <c r="C598" s="18"/>
     </row>
     <row r="599">
-      <c r="C599" s="13"/>
+      <c r="C599" s="18"/>
     </row>
     <row r="600">
-      <c r="C600" s="13"/>
+      <c r="C600" s="18"/>
     </row>
     <row r="601">
-      <c r="C601" s="13"/>
+      <c r="C601" s="18"/>
     </row>
     <row r="602">
-      <c r="C602" s="13"/>
+      <c r="C602" s="18"/>
     </row>
     <row r="603">
-      <c r="C603" s="13"/>
+      <c r="C603" s="18"/>
     </row>
     <row r="604">
-      <c r="C604" s="13"/>
+      <c r="C604" s="18"/>
     </row>
     <row r="605">
-      <c r="C605" s="13"/>
+      <c r="C605" s="18"/>
     </row>
     <row r="606">
-      <c r="C606" s="13"/>
+      <c r="C606" s="18"/>
     </row>
     <row r="607">
-      <c r="C607" s="13"/>
+      <c r="C607" s="18"/>
     </row>
     <row r="608">
-      <c r="C608" s="13"/>
+      <c r="C608" s="18"/>
     </row>
     <row r="609">
-      <c r="C609" s="13"/>
+      <c r="C609" s="18"/>
     </row>
     <row r="610">
-      <c r="C610" s="13"/>
+      <c r="C610" s="18"/>
     </row>
     <row r="611">
-      <c r="C611" s="13"/>
+      <c r="C611" s="18"/>
     </row>
     <row r="612">
-      <c r="C612" s="13"/>
+      <c r="C612" s="18"/>
     </row>
     <row r="613">
-      <c r="C613" s="13"/>
+      <c r="C613" s="18"/>
     </row>
     <row r="614">
-      <c r="C614" s="13"/>
+      <c r="C614" s="18"/>
     </row>
     <row r="615">
-      <c r="C615" s="13"/>
+      <c r="C615" s="18"/>
     </row>
     <row r="616">
-      <c r="C616" s="13"/>
+      <c r="C616" s="18"/>
     </row>
     <row r="617">
-      <c r="C617" s="13"/>
+      <c r="C617" s="18"/>
     </row>
     <row r="618">
-      <c r="C618" s="13"/>
+      <c r="C618" s="18"/>
     </row>
     <row r="619">
-      <c r="C619" s="13"/>
+      <c r="C619" s="18"/>
     </row>
     <row r="620">
-      <c r="C620" s="13"/>
+      <c r="C620" s="18"/>
     </row>
     <row r="621">
-      <c r="C621" s="13"/>
+      <c r="C621" s="18"/>
     </row>
     <row r="622">
-      <c r="C622" s="13"/>
+      <c r="C622" s="18"/>
     </row>
     <row r="623">
-      <c r="C623" s="13"/>
+      <c r="C623" s="18"/>
     </row>
     <row r="624">
-      <c r="C624" s="13"/>
+      <c r="C624" s="18"/>
     </row>
     <row r="625">
-      <c r="C625" s="13"/>
+      <c r="C625" s="18"/>
     </row>
     <row r="626">
-      <c r="C626" s="13"/>
+      <c r="C626" s="18"/>
     </row>
     <row r="627">
-      <c r="C627" s="13"/>
+      <c r="C627" s="18"/>
     </row>
     <row r="628">
-      <c r="C628" s="13"/>
+      <c r="C628" s="18"/>
     </row>
     <row r="629">
-      <c r="C629" s="13"/>
+      <c r="C629" s="18"/>
     </row>
     <row r="630">
-      <c r="C630" s="13"/>
+      <c r="C630" s="18"/>
     </row>
     <row r="631">
-      <c r="C631" s="13"/>
+      <c r="C631" s="18"/>
     </row>
     <row r="632">
-      <c r="C632" s="13"/>
+      <c r="C632" s="18"/>
     </row>
     <row r="633">
-      <c r="C633" s="13"/>
+      <c r="C633" s="18"/>
     </row>
     <row r="634">
-      <c r="C634" s="13"/>
+      <c r="C634" s="18"/>
     </row>
     <row r="635">
-      <c r="C635" s="13"/>
+      <c r="C635" s="18"/>
     </row>
     <row r="636">
-      <c r="C636" s="13"/>
+      <c r="C636" s="18"/>
     </row>
     <row r="637">
-      <c r="C637" s="13"/>
+      <c r="C637" s="18"/>
     </row>
     <row r="638">
-      <c r="C638" s="13"/>
+      <c r="C638" s="18"/>
     </row>
     <row r="639">
-      <c r="C639" s="13"/>
+      <c r="C639" s="18"/>
     </row>
     <row r="640">
-      <c r="C640" s="13"/>
+      <c r="C640" s="18"/>
     </row>
     <row r="641">
-      <c r="C641" s="13"/>
+      <c r="C641" s="18"/>
     </row>
     <row r="642">
-      <c r="C642" s="13"/>
+      <c r="C642" s="18"/>
     </row>
     <row r="643">
-      <c r="C643" s="13"/>
+      <c r="C643" s="18"/>
     </row>
     <row r="644">
-      <c r="C644" s="13"/>
+      <c r="C644" s="18"/>
     </row>
     <row r="645">
-      <c r="C645" s="13"/>
+      <c r="C645" s="18"/>
     </row>
     <row r="646">
-      <c r="C646" s="13"/>
+      <c r="C646" s="18"/>
     </row>
     <row r="647">
-      <c r="C647" s="13"/>
+      <c r="C647" s="18"/>
     </row>
     <row r="648">
-      <c r="C648" s="13"/>
+      <c r="C648" s="18"/>
     </row>
     <row r="649">
-      <c r="C649" s="13"/>
+      <c r="C649" s="18"/>
     </row>
     <row r="650">
-      <c r="C650" s="13"/>
+      <c r="C650" s="18"/>
     </row>
     <row r="651">
-      <c r="C651" s="13"/>
+      <c r="C651" s="18"/>
     </row>
     <row r="652">
-      <c r="C652" s="13"/>
+      <c r="C652" s="18"/>
     </row>
     <row r="653">
-      <c r="C653" s="13"/>
+      <c r="C653" s="18"/>
     </row>
     <row r="654">
-      <c r="C654" s="13"/>
+      <c r="C654" s="18"/>
     </row>
     <row r="655">
-      <c r="C655" s="13"/>
+      <c r="C655" s="18"/>
     </row>
     <row r="656">
-      <c r="C656" s="13"/>
+      <c r="C656" s="18"/>
     </row>
     <row r="657">
-      <c r="C657" s="13"/>
+      <c r="C657" s="18"/>
     </row>
     <row r="658">
-      <c r="C658" s="13"/>
+      <c r="C658" s="18"/>
     </row>
     <row r="659">
-      <c r="C659" s="13"/>
+      <c r="C659" s="18"/>
     </row>
     <row r="660">
-      <c r="C660" s="13"/>
+      <c r="C660" s="18"/>
     </row>
     <row r="661">
-      <c r="C661" s="13"/>
+      <c r="C661" s="18"/>
     </row>
     <row r="662">
-      <c r="C662" s="13"/>
+      <c r="C662" s="18"/>
     </row>
     <row r="663">
-      <c r="C663" s="13"/>
+      <c r="C663" s="18"/>
     </row>
     <row r="664">
-      <c r="C664" s="13"/>
+      <c r="C664" s="18"/>
     </row>
     <row r="665">
-      <c r="C665" s="13"/>
+      <c r="C665" s="18"/>
     </row>
     <row r="666">
-      <c r="C666" s="13"/>
+      <c r="C666" s="18"/>
     </row>
     <row r="667">
-      <c r="C667" s="13"/>
+      <c r="C667" s="18"/>
     </row>
     <row r="668">
-      <c r="C668" s="13"/>
+      <c r="C668" s="18"/>
     </row>
     <row r="669">
-      <c r="C669" s="13"/>
+      <c r="C669" s="18"/>
     </row>
     <row r="670">
-      <c r="C670" s="13"/>
+      <c r="C670" s="18"/>
     </row>
     <row r="671">
-      <c r="C671" s="13"/>
+      <c r="C671" s="18"/>
     </row>
     <row r="672">
-      <c r="C672" s="13"/>
+      <c r="C672" s="18"/>
     </row>
     <row r="673">
-      <c r="C673" s="13"/>
+      <c r="C673" s="18"/>
     </row>
     <row r="674">
-      <c r="C674" s="13"/>
+      <c r="C674" s="18"/>
     </row>
     <row r="675">
-      <c r="C675" s="13"/>
+      <c r="C675" s="18"/>
     </row>
     <row r="676">
-      <c r="C676" s="13"/>
+      <c r="C676" s="18"/>
     </row>
     <row r="677">
-      <c r="C677" s="13"/>
+      <c r="C677" s="18"/>
     </row>
     <row r="678">
-      <c r="C678" s="13"/>
+      <c r="C678" s="18"/>
     </row>
     <row r="679">
-      <c r="C679" s="13"/>
+      <c r="C679" s="18"/>
     </row>
     <row r="680">
-      <c r="C680" s="13"/>
+      <c r="C680" s="18"/>
     </row>
     <row r="681">
-      <c r="C681" s="13"/>
+      <c r="C681" s="18"/>
     </row>
     <row r="682">
-      <c r="C682" s="13"/>
+      <c r="C682" s="18"/>
     </row>
     <row r="683">
-      <c r="C683" s="13"/>
+      <c r="C683" s="18"/>
     </row>
     <row r="684">
-      <c r="C684" s="13"/>
+      <c r="C684" s="18"/>
     </row>
     <row r="685">
-      <c r="C685" s="13"/>
+      <c r="C685" s="18"/>
     </row>
     <row r="686">
-      <c r="C686" s="13"/>
+      <c r="C686" s="18"/>
     </row>
     <row r="687">
-      <c r="C687" s="13"/>
+      <c r="C687" s="18"/>
     </row>
     <row r="688">
-      <c r="C688" s="13"/>
+      <c r="C688" s="18"/>
     </row>
     <row r="689">
-      <c r="C689" s="13"/>
+      <c r="C689" s="18"/>
     </row>
     <row r="690">
-      <c r="C690" s="13"/>
+      <c r="C690" s="18"/>
     </row>
     <row r="691">
-      <c r="C691" s="13"/>
+      <c r="C691" s="18"/>
     </row>
     <row r="692">
-      <c r="C692" s="13"/>
+      <c r="C692" s="18"/>
     </row>
     <row r="693">
-      <c r="C693" s="13"/>
+      <c r="C693" s="18"/>
     </row>
     <row r="694">
-      <c r="C694" s="13"/>
+      <c r="C694" s="18"/>
     </row>
     <row r="695">
-      <c r="C695" s="13"/>
+      <c r="C695" s="18"/>
     </row>
     <row r="696">
-      <c r="C696" s="13"/>
+      <c r="C696" s="18"/>
     </row>
     <row r="697">
-      <c r="C697" s="13"/>
+      <c r="C697" s="18"/>
     </row>
     <row r="698">
-      <c r="C698" s="13"/>
+      <c r="C698" s="18"/>
     </row>
     <row r="699">
-      <c r="C699" s="13"/>
+      <c r="C699" s="18"/>
     </row>
     <row r="700">
-      <c r="C700" s="13"/>
+      <c r="C700" s="18"/>
     </row>
     <row r="701">
-      <c r="C701" s="13"/>
+      <c r="C701" s="18"/>
     </row>
     <row r="702">
-      <c r="C702" s="13"/>
+      <c r="C702" s="18"/>
     </row>
     <row r="703">
-      <c r="C703" s="13"/>
+      <c r="C703" s="18"/>
     </row>
     <row r="704">
-      <c r="C704" s="13"/>
+      <c r="C704" s="18"/>
     </row>
     <row r="705">
-      <c r="C705" s="13"/>
+      <c r="C705" s="18"/>
     </row>
     <row r="706">
-      <c r="C706" s="13"/>
+      <c r="C706" s="18"/>
     </row>
     <row r="707">
-      <c r="C707" s="13"/>
+      <c r="C707" s="18"/>
     </row>
     <row r="708">
-      <c r="C708" s="13"/>
+      <c r="C708" s="18"/>
     </row>
     <row r="709">
-      <c r="C709" s="13"/>
+      <c r="C709" s="18"/>
     </row>
     <row r="710">
-      <c r="C710" s="13"/>
+      <c r="C710" s="18"/>
     </row>
     <row r="711">
-      <c r="C711" s="13"/>
+      <c r="C711" s="18"/>
     </row>
     <row r="712">
-      <c r="C712" s="13"/>
+      <c r="C712" s="18"/>
     </row>
     <row r="713">
-      <c r="C713" s="13"/>
+      <c r="C713" s="18"/>
     </row>
     <row r="714">
-      <c r="C714" s="13"/>
+      <c r="C714" s="18"/>
     </row>
     <row r="715">
-      <c r="C715" s="13"/>
+      <c r="C715" s="18"/>
     </row>
     <row r="716">
-      <c r="C716" s="13"/>
+      <c r="C716" s="18"/>
     </row>
     <row r="717">
-      <c r="C717" s="13"/>
+      <c r="C717" s="18"/>
     </row>
     <row r="718">
-      <c r="C718" s="13"/>
+      <c r="C718" s="18"/>
     </row>
     <row r="719">
-      <c r="C719" s="13"/>
+      <c r="C719" s="18"/>
     </row>
     <row r="720">
-      <c r="C720" s="13"/>
+      <c r="C720" s="18"/>
     </row>
     <row r="721">
-      <c r="C721" s="13"/>
+      <c r="C721" s="18"/>
     </row>
     <row r="722">
-      <c r="C722" s="13"/>
+      <c r="C722" s="18"/>
     </row>
     <row r="723">
-      <c r="C723" s="13"/>
+      <c r="C723" s="18"/>
     </row>
     <row r="724">
-      <c r="C724" s="13"/>
+      <c r="C724" s="18"/>
     </row>
     <row r="725">
-      <c r="C725" s="13"/>
+      <c r="C725" s="18"/>
     </row>
     <row r="726">
-      <c r="C726" s="13"/>
+      <c r="C726" s="18"/>
     </row>
     <row r="727">
-      <c r="C727" s="13"/>
+      <c r="C727" s="18"/>
     </row>
     <row r="728">
-      <c r="C728" s="13"/>
+      <c r="C728" s="18"/>
     </row>
     <row r="729">
-      <c r="C729" s="13"/>
+      <c r="C729" s="18"/>
     </row>
     <row r="730">
-      <c r="C730" s="13"/>
+      <c r="C730" s="18"/>
     </row>
     <row r="731">
-      <c r="C731" s="13"/>
+      <c r="C731" s="18"/>
     </row>
     <row r="732">
-      <c r="C732" s="13"/>
+      <c r="C732" s="18"/>
     </row>
     <row r="733">
-      <c r="C733" s="13"/>
+      <c r="C733" s="18"/>
     </row>
     <row r="734">
-      <c r="C734" s="13"/>
+      <c r="C734" s="18"/>
     </row>
     <row r="735">
-      <c r="C735" s="13"/>
+      <c r="C735" s="18"/>
     </row>
     <row r="736">
-      <c r="C736" s="13"/>
+      <c r="C736" s="18"/>
     </row>
     <row r="737">
-      <c r="C737" s="13"/>
+      <c r="C737" s="18"/>
     </row>
     <row r="738">
-      <c r="C738" s="13"/>
+      <c r="C738" s="18"/>
     </row>
     <row r="739">
-      <c r="C739" s="13"/>
+      <c r="C739" s="18"/>
     </row>
     <row r="740">
-      <c r="C740" s="13"/>
+      <c r="C740" s="18"/>
     </row>
     <row r="741">
-      <c r="C741" s="13"/>
+      <c r="C741" s="18"/>
     </row>
     <row r="742">
-      <c r="C742" s="13"/>
+      <c r="C742" s="18"/>
     </row>
     <row r="743">
-      <c r="C743" s="13"/>
+      <c r="C743" s="18"/>
     </row>
     <row r="744">
-      <c r="C744" s="13"/>
+      <c r="C744" s="18"/>
     </row>
     <row r="745">
-      <c r="C745" s="13"/>
+      <c r="C745" s="18"/>
     </row>
     <row r="746">
-      <c r="C746" s="13"/>
+      <c r="C746" s="18"/>
     </row>
     <row r="747">
-      <c r="C747" s="13"/>
+      <c r="C747" s="18"/>
     </row>
     <row r="748">
-      <c r="C748" s="13"/>
+      <c r="C748" s="18"/>
     </row>
     <row r="749">
-      <c r="C749" s="13"/>
+      <c r="C749" s="18"/>
     </row>
     <row r="750">
-      <c r="C750" s="13"/>
+      <c r="C750" s="18"/>
     </row>
     <row r="751">
-      <c r="C751" s="13"/>
+      <c r="C751" s="18"/>
     </row>
     <row r="752">
-      <c r="C752" s="13"/>
+      <c r="C752" s="18"/>
     </row>
     <row r="753">
-      <c r="C753" s="13"/>
+      <c r="C753" s="18"/>
     </row>
     <row r="754">
-      <c r="C754" s="13"/>
+      <c r="C754" s="18"/>
     </row>
     <row r="755">
-      <c r="C755" s="13"/>
+      <c r="C755" s="18"/>
     </row>
     <row r="756">
-      <c r="C756" s="13"/>
+      <c r="C756" s="18"/>
     </row>
     <row r="757">
-      <c r="C757" s="13"/>
+      <c r="C757" s="18"/>
     </row>
     <row r="758">
-      <c r="C758" s="13"/>
+      <c r="C758" s="18"/>
     </row>
     <row r="759">
-      <c r="C759" s="13"/>
+      <c r="C759" s="18"/>
     </row>
     <row r="760">
-      <c r="C760" s="13"/>
+      <c r="C760" s="18"/>
     </row>
     <row r="761">
-      <c r="C761" s="13"/>
+      <c r="C761" s="18"/>
     </row>
     <row r="762">
-      <c r="C762" s="13"/>
+      <c r="C762" s="18"/>
     </row>
     <row r="763">
-      <c r="C763" s="13"/>
+      <c r="C763" s="18"/>
     </row>
     <row r="764">
-      <c r="C764" s="13"/>
+      <c r="C764" s="18"/>
     </row>
     <row r="765">
-      <c r="C765" s="13"/>
+      <c r="C765" s="18"/>
     </row>
     <row r="766">
-      <c r="C766" s="13"/>
+      <c r="C766" s="18"/>
     </row>
     <row r="767">
-      <c r="C767" s="13"/>
+      <c r="C767" s="18"/>
     </row>
     <row r="768">
-      <c r="C768" s="13"/>
+      <c r="C768" s="18"/>
     </row>
     <row r="769">
-      <c r="C769" s="13"/>
+      <c r="C769" s="18"/>
     </row>
     <row r="770">
-      <c r="C770" s="13"/>
+      <c r="C770" s="18"/>
     </row>
     <row r="771">
-      <c r="C771" s="13"/>
+      <c r="C771" s="18"/>
     </row>
     <row r="772">
-      <c r="C772" s="13"/>
+      <c r="C772" s="18"/>
     </row>
     <row r="773">
-      <c r="C773" s="13"/>
+      <c r="C773" s="18"/>
     </row>
     <row r="774">
-      <c r="C774" s="13"/>
+      <c r="C774" s="18"/>
     </row>
     <row r="775">
-      <c r="C775" s="13"/>
+      <c r="C775" s="18"/>
     </row>
     <row r="776">
-      <c r="C776" s="13"/>
+      <c r="C776" s="18"/>
     </row>
     <row r="777">
-      <c r="C777" s="13"/>
+      <c r="C777" s="18"/>
     </row>
     <row r="778">
-      <c r="C778" s="13"/>
+      <c r="C778" s="18"/>
     </row>
     <row r="779">
-      <c r="C779" s="13"/>
+      <c r="C779" s="18"/>
     </row>
     <row r="780">
-      <c r="C780" s="13"/>
+      <c r="C780" s="18"/>
     </row>
     <row r="781">
-      <c r="C781" s="13"/>
+      <c r="C781" s="18"/>
     </row>
     <row r="782">
-      <c r="C782" s="13"/>
+      <c r="C782" s="18"/>
     </row>
     <row r="783">
-      <c r="C783" s="13"/>
+      <c r="C783" s="18"/>
     </row>
     <row r="784">
-      <c r="C784" s="13"/>
+      <c r="C784" s="18"/>
     </row>
     <row r="785">
-      <c r="C785" s="13"/>
+      <c r="C785" s="18"/>
     </row>
     <row r="786">
-      <c r="C786" s="13"/>
+      <c r="C786" s="18"/>
     </row>
     <row r="787">
-      <c r="C787" s="13"/>
+      <c r="C787" s="18"/>
     </row>
     <row r="788">
-      <c r="C788" s="13"/>
+      <c r="C788" s="18"/>
     </row>
     <row r="789">
-      <c r="C789" s="13"/>
+      <c r="C789" s="18"/>
     </row>
     <row r="790">
-      <c r="C790" s="13"/>
+      <c r="C790" s="18"/>
     </row>
     <row r="791">
-      <c r="C791" s="13"/>
+      <c r="C791" s="18"/>
     </row>
     <row r="792">
-      <c r="C792" s="13"/>
+      <c r="C792" s="18"/>
     </row>
     <row r="793">
-      <c r="C793" s="13"/>
+      <c r="C793" s="18"/>
     </row>
     <row r="794">
-      <c r="C794" s="13"/>
+      <c r="C794" s="18"/>
     </row>
     <row r="795">
-      <c r="C795" s="13"/>
+      <c r="C795" s="18"/>
     </row>
     <row r="796">
-      <c r="C796" s="13"/>
+      <c r="C796" s="18"/>
     </row>
     <row r="797">
-      <c r="C797" s="13"/>
+      <c r="C797" s="18"/>
     </row>
     <row r="798">
-      <c r="C798" s="13"/>
+      <c r="C798" s="18"/>
     </row>
     <row r="799">
-      <c r="C799" s="13"/>
+      <c r="C799" s="18"/>
     </row>
     <row r="800">
-      <c r="C800" s="13"/>
+      <c r="C800" s="18"/>
     </row>
     <row r="801">
-      <c r="C801" s="13"/>
+      <c r="C801" s="18"/>
     </row>
     <row r="802">
-      <c r="C802" s="13"/>
+      <c r="C802" s="18"/>
     </row>
     <row r="803">
-      <c r="C803" s="13"/>
+      <c r="C803" s="18"/>
     </row>
     <row r="804">
-      <c r="C804" s="13"/>
+      <c r="C804" s="18"/>
     </row>
     <row r="805">
-      <c r="C805" s="13"/>
+      <c r="C805" s="18"/>
     </row>
     <row r="806">
-      <c r="C806" s="13"/>
+      <c r="C806" s="18"/>
     </row>
     <row r="807">
-      <c r="C807" s="13"/>
+      <c r="C807" s="18"/>
     </row>
     <row r="808">
-      <c r="C808" s="13"/>
+      <c r="C808" s="18"/>
     </row>
     <row r="809">
-      <c r="C809" s="13"/>
+      <c r="C809" s="18"/>
     </row>
     <row r="810">
-      <c r="C810" s="13"/>
+      <c r="C810" s="18"/>
     </row>
     <row r="811">
-      <c r="C811" s="13"/>
+      <c r="C811" s="18"/>
     </row>
     <row r="812">
-      <c r="C812" s="13"/>
+      <c r="C812" s="18"/>
     </row>
     <row r="813">
-      <c r="C813" s="13"/>
+      <c r="C813" s="18"/>
     </row>
     <row r="814">
-      <c r="C814" s="13"/>
+      <c r="C814" s="18"/>
     </row>
     <row r="815">
-      <c r="C815" s="13"/>
+      <c r="C815" s="18"/>
     </row>
     <row r="816">
-      <c r="C816" s="13"/>
+      <c r="C816" s="18"/>
     </row>
     <row r="817">
-      <c r="C817" s="13"/>
+      <c r="C817" s="18"/>
     </row>
     <row r="818">
-      <c r="C818" s="13"/>
+      <c r="C818" s="18"/>
     </row>
     <row r="819">
-      <c r="C819" s="13"/>
+      <c r="C819" s="18"/>
     </row>
     <row r="820">
-      <c r="C820" s="13"/>
+      <c r="C820" s="18"/>
     </row>
     <row r="821">
-      <c r="C821" s="13"/>
+      <c r="C821" s="18"/>
     </row>
     <row r="822">
-      <c r="C822" s="13"/>
+      <c r="C822" s="18"/>
     </row>
     <row r="823">
-      <c r="C823" s="13"/>
+      <c r="C823" s="18"/>
     </row>
     <row r="824">
-      <c r="C824" s="13"/>
+      <c r="C824" s="18"/>
     </row>
     <row r="825">
-      <c r="C825" s="13"/>
+      <c r="C825" s="18"/>
     </row>
     <row r="826">
-      <c r="C826" s="13"/>
+      <c r="C826" s="18"/>
     </row>
     <row r="827">
-      <c r="C827" s="13"/>
+      <c r="C827" s="18"/>
     </row>
     <row r="828">
-      <c r="C828" s="13"/>
+      <c r="C828" s="18"/>
     </row>
     <row r="829">
-      <c r="C829" s="13"/>
+      <c r="C829" s="18"/>
     </row>
     <row r="830">
-      <c r="C830" s="13"/>
+      <c r="C830" s="18"/>
     </row>
     <row r="831">
-      <c r="C831" s="13"/>
+      <c r="C831" s="18"/>
     </row>
     <row r="832">
-      <c r="C832" s="13"/>
+      <c r="C832" s="18"/>
     </row>
     <row r="833">
-      <c r="C833" s="13"/>
+      <c r="C833" s="18"/>
     </row>
     <row r="834">
-      <c r="C834" s="13"/>
+      <c r="C834" s="18"/>
     </row>
     <row r="835">
-      <c r="C835" s="13"/>
+      <c r="C835" s="18"/>
     </row>
     <row r="836">
-      <c r="C836" s="13"/>
+      <c r="C836" s="18"/>
     </row>
     <row r="837">
-      <c r="C837" s="13"/>
+      <c r="C837" s="18"/>
     </row>
     <row r="838">
-      <c r="C838" s="13"/>
+      <c r="C838" s="18"/>
     </row>
     <row r="839">
-      <c r="C839" s="13"/>
+      <c r="C839" s="18"/>
     </row>
     <row r="840">
-      <c r="C840" s="13"/>
+      <c r="C840" s="18"/>
     </row>
     <row r="841">
-      <c r="C841" s="13"/>
+      <c r="C841" s="18"/>
     </row>
     <row r="842">
-      <c r="C842" s="13"/>
+      <c r="C842" s="18"/>
     </row>
     <row r="843">
-      <c r="C843" s="13"/>
+      <c r="C843" s="18"/>
     </row>
     <row r="844">
-      <c r="C844" s="13"/>
+      <c r="C844" s="18"/>
     </row>
     <row r="845">
-      <c r="C845" s="13"/>
+      <c r="C845" s="18"/>
     </row>
     <row r="846">
-      <c r="C846" s="13"/>
+      <c r="C846" s="18"/>
     </row>
     <row r="847">
-      <c r="C847" s="13"/>
+      <c r="C847" s="18"/>
     </row>
     <row r="848">
-      <c r="C848" s="13"/>
+      <c r="C848" s="18"/>
     </row>
     <row r="849">
-      <c r="C849" s="13"/>
+      <c r="C849" s="18"/>
     </row>
     <row r="850">
-      <c r="C850" s="13"/>
+      <c r="C850" s="18"/>
     </row>
     <row r="851">
-      <c r="C851" s="13"/>
+      <c r="C851" s="18"/>
     </row>
     <row r="852">
-      <c r="C852" s="13"/>
+      <c r="C852" s="18"/>
     </row>
     <row r="853">
-      <c r="C853" s="13"/>
+      <c r="C853" s="18"/>
     </row>
     <row r="854">
-      <c r="C854" s="13"/>
+      <c r="C854" s="18"/>
     </row>
     <row r="855">
-      <c r="C855" s="13"/>
+      <c r="C855" s="18"/>
     </row>
     <row r="856">
-      <c r="C856" s="13"/>
+      <c r="C856" s="18"/>
     </row>
     <row r="857">
-      <c r="C857" s="13"/>
+      <c r="C857" s="18"/>
     </row>
     <row r="858">
-      <c r="C858" s="13"/>
+      <c r="C858" s="18"/>
     </row>
     <row r="859">
-      <c r="C859" s="13"/>
+      <c r="C859" s="18"/>
     </row>
     <row r="860">
-      <c r="C860" s="13"/>
+      <c r="C860" s="18"/>
     </row>
     <row r="861">
-      <c r="C861" s="13"/>
+      <c r="C861" s="18"/>
     </row>
     <row r="862">
-      <c r="C862" s="13"/>
+      <c r="C862" s="18"/>
     </row>
     <row r="863">
-      <c r="C863" s="13"/>
+      <c r="C863" s="18"/>
     </row>
     <row r="864">
-      <c r="C864" s="13"/>
+      <c r="C864" s="18"/>
     </row>
     <row r="865">
-      <c r="C865" s="13"/>
+      <c r="C865" s="18"/>
     </row>
     <row r="866">
-      <c r="C866" s="13"/>
+      <c r="C866" s="18"/>
     </row>
     <row r="867">
-      <c r="C867" s="13"/>
+      <c r="C867" s="18"/>
     </row>
     <row r="868">
-      <c r="C868" s="13"/>
+      <c r="C868" s="18"/>
     </row>
     <row r="869">
-      <c r="C869" s="13"/>
+      <c r="C869" s="18"/>
     </row>
     <row r="870">
-      <c r="C870" s="13"/>
+      <c r="C870" s="18"/>
     </row>
     <row r="871">
-      <c r="C871" s="13"/>
+      <c r="C871" s="18"/>
     </row>
     <row r="872">
-      <c r="C872" s="13"/>
+      <c r="C872" s="18"/>
     </row>
     <row r="873">
-      <c r="C873" s="13"/>
+      <c r="C873" s="18"/>
     </row>
     <row r="874">
-      <c r="C874" s="13"/>
+      <c r="C874" s="18"/>
     </row>
     <row r="875">
-      <c r="C875" s="13"/>
+      <c r="C875" s="18"/>
     </row>
     <row r="876">
-      <c r="C876" s="13"/>
+      <c r="C876" s="18"/>
     </row>
     <row r="877">
-      <c r="C877" s="13"/>
+      <c r="C877" s="18"/>
     </row>
     <row r="878">
-      <c r="C878" s="13"/>
+      <c r="C878" s="18"/>
     </row>
     <row r="879">
-      <c r="C879" s="13"/>
+      <c r="C879" s="18"/>
     </row>
     <row r="880">
-      <c r="C880" s="13"/>
+      <c r="C880" s="18"/>
     </row>
     <row r="881">
-      <c r="C881" s="13"/>
+      <c r="C881" s="18"/>
     </row>
     <row r="882">
-      <c r="C882" s="13"/>
+      <c r="C882" s="18"/>
     </row>
     <row r="883">
-      <c r="C883" s="13"/>
+      <c r="C883" s="18"/>
     </row>
     <row r="884">
-      <c r="C884" s="13"/>
+      <c r="C884" s="18"/>
     </row>
     <row r="885">
-      <c r="C885" s="13"/>
+      <c r="C885" s="18"/>
     </row>
     <row r="886">
-      <c r="C886" s="13"/>
+      <c r="C886" s="18"/>
     </row>
     <row r="887">
-      <c r="C887" s="13"/>
+      <c r="C887" s="18"/>
     </row>
     <row r="888">
-      <c r="C888" s="13"/>
+      <c r="C888" s="18"/>
     </row>
     <row r="889">
-      <c r="C889" s="13"/>
+      <c r="C889" s="18"/>
     </row>
     <row r="890">
-      <c r="C890" s="13"/>
+      <c r="C890" s="18"/>
     </row>
     <row r="891">
-      <c r="C891" s="13"/>
+      <c r="C891" s="18"/>
     </row>
     <row r="892">
-      <c r="C892" s="13"/>
+      <c r="C892" s="18"/>
     </row>
     <row r="893">
-      <c r="C893" s="13"/>
+      <c r="C893" s="18"/>
     </row>
     <row r="894">
-      <c r="C894" s="13"/>
+      <c r="C894" s="18"/>
     </row>
     <row r="895">
-      <c r="C895" s="13"/>
+      <c r="C895" s="18"/>
     </row>
     <row r="896">
-      <c r="C896" s="13"/>
+      <c r="C896" s="18"/>
     </row>
     <row r="897">
-      <c r="C897" s="13"/>
+      <c r="C897" s="18"/>
     </row>
     <row r="898">
-      <c r="C898" s="13"/>
+      <c r="C898" s="18"/>
     </row>
     <row r="899">
-      <c r="C899" s="13"/>
+      <c r="C899" s="18"/>
     </row>
     <row r="900">
-      <c r="C900" s="13"/>
+      <c r="C900" s="18"/>
     </row>
     <row r="901">
-      <c r="C901" s="13"/>
+      <c r="C901" s="18"/>
     </row>
     <row r="902">
-      <c r="C902" s="13"/>
+      <c r="C902" s="18"/>
     </row>
     <row r="903">
-      <c r="C903" s="13"/>
+      <c r="C903" s="18"/>
     </row>
     <row r="904">
-      <c r="C904" s="13"/>
+      <c r="C904" s="18"/>
     </row>
     <row r="905">
-      <c r="C905" s="13"/>
+      <c r="C905" s="18"/>
     </row>
     <row r="906">
-      <c r="C906" s="13"/>
+      <c r="C906" s="18"/>
     </row>
     <row r="907">
-      <c r="C907" s="13"/>
+      <c r="C907" s="18"/>
     </row>
     <row r="908">
-      <c r="C908" s="13"/>
+      <c r="C908" s="18"/>
     </row>
     <row r="909">
-      <c r="C909" s="13"/>
+      <c r="C909" s="18"/>
     </row>
     <row r="910">
-      <c r="C910" s="13"/>
+      <c r="C910" s="18"/>
     </row>
     <row r="911">
-      <c r="C911" s="13"/>
+      <c r="C911" s="18"/>
     </row>
     <row r="912">
-      <c r="C912" s="13"/>
+      <c r="C912" s="18"/>
     </row>
     <row r="913">
-      <c r="C913" s="13"/>
+      <c r="C913" s="18"/>
     </row>
     <row r="914">
-      <c r="C914" s="13"/>
+      <c r="C914" s="18"/>
     </row>
     <row r="915">
-      <c r="C915" s="13"/>
+      <c r="C915" s="18"/>
     </row>
     <row r="916">
-      <c r="C916" s="13"/>
+      <c r="C916" s="18"/>
     </row>
     <row r="917">
-      <c r="C917" s="13"/>
+      <c r="C917" s="18"/>
     </row>
     <row r="918">
-      <c r="C918" s="13"/>
+      <c r="C918" s="18"/>
     </row>
     <row r="919">
-      <c r="C919" s="13"/>
+      <c r="C919" s="18"/>
     </row>
     <row r="920">
-      <c r="C920" s="13"/>
+      <c r="C920" s="18"/>
     </row>
     <row r="921">
-      <c r="C921" s="13"/>
+      <c r="C921" s="18"/>
     </row>
     <row r="922">
-      <c r="C922" s="13"/>
+      <c r="C922" s="18"/>
     </row>
     <row r="923">
-      <c r="C923" s="13"/>
+      <c r="C923" s="18"/>
     </row>
     <row r="924">
-      <c r="C924" s="13"/>
+      <c r="C924" s="18"/>
     </row>
     <row r="925">
-      <c r="C925" s="13"/>
+      <c r="C925" s="18"/>
     </row>
     <row r="926">
-      <c r="C926" s="13"/>
+      <c r="C926" s="18"/>
     </row>
     <row r="927">
-      <c r="C927" s="13"/>
+      <c r="C927" s="18"/>
     </row>
     <row r="928">
-      <c r="C928" s="13"/>
+      <c r="C928" s="18"/>
     </row>
     <row r="929">
-      <c r="C929" s="13"/>
+      <c r="C929" s="18"/>
     </row>
     <row r="930">
-      <c r="C930" s="13"/>
+      <c r="C930" s="18"/>
     </row>
     <row r="931">
-      <c r="C931" s="13"/>
+      <c r="C931" s="18"/>
     </row>
     <row r="932">
-      <c r="C932" s="13"/>
+      <c r="C932" s="18"/>
     </row>
     <row r="933">
-      <c r="C933" s="13"/>
+      <c r="C933" s="18"/>
     </row>
     <row r="934">
-      <c r="C934" s="13"/>
+      <c r="C934" s="18"/>
     </row>
     <row r="935">
-      <c r="C935" s="13"/>
+      <c r="C935" s="18"/>
     </row>
     <row r="936">
-      <c r="C936" s="13"/>
+      <c r="C936" s="18"/>
     </row>
     <row r="937">
-      <c r="C937" s="13"/>
+      <c r="C937" s="18"/>
     </row>
     <row r="938">
-      <c r="C938" s="13"/>
+      <c r="C938" s="18"/>
     </row>
     <row r="939">
-      <c r="C939" s="13"/>
+      <c r="C939" s="18"/>
     </row>
     <row r="940">
-      <c r="C940" s="13"/>
+      <c r="C940" s="18"/>
     </row>
     <row r="941">
-      <c r="C941" s="13"/>
+      <c r="C941" s="18"/>
     </row>
     <row r="942">
-      <c r="C942" s="13"/>
+      <c r="C942" s="18"/>
     </row>
     <row r="943">
-      <c r="C943" s="13"/>
+      <c r="C943" s="18"/>
     </row>
     <row r="944">
-      <c r="C944" s="13"/>
+      <c r="C944" s="18"/>
     </row>
     <row r="945">
-      <c r="C945" s="13"/>
+      <c r="C945" s="18"/>
     </row>
     <row r="946">
-      <c r="C946" s="13"/>
+      <c r="C946" s="18"/>
     </row>
     <row r="947">
-      <c r="C947" s="13"/>
+      <c r="C947" s="18"/>
     </row>
     <row r="948">
-      <c r="C948" s="13"/>
+      <c r="C948" s="18"/>
     </row>
     <row r="949">
-      <c r="C949" s="13"/>
+      <c r="C949" s="18"/>
     </row>
     <row r="950">
-      <c r="C950" s="13"/>
+      <c r="C950" s="18"/>
     </row>
     <row r="951">
-      <c r="C951" s="13"/>
+      <c r="C951" s="18"/>
     </row>
     <row r="952">
-      <c r="C952" s="13"/>
+      <c r="C952" s="18"/>
     </row>
     <row r="953">
-      <c r="C953" s="13"/>
+      <c r="C953" s="18"/>
     </row>
     <row r="954">
-      <c r="C954" s="13"/>
+      <c r="C954" s="18"/>
     </row>
     <row r="955">
-      <c r="C955" s="13"/>
+      <c r="C955" s="18"/>
     </row>
     <row r="956">
-      <c r="C956" s="13"/>
+      <c r="C956" s="18"/>
     </row>
     <row r="957">
-      <c r="C957" s="13"/>
+      <c r="C957" s="18"/>
     </row>
     <row r="958">
-      <c r="C958" s="13"/>
+      <c r="C958" s="18"/>
     </row>
     <row r="959">
-      <c r="C959" s="13"/>
+      <c r="C959" s="18"/>
     </row>
     <row r="960">
-      <c r="C960" s="13"/>
+      <c r="C960" s="18"/>
     </row>
     <row r="961">
-      <c r="C961" s="13"/>
+      <c r="C961" s="18"/>
     </row>
     <row r="962">
-      <c r="C962" s="13"/>
+      <c r="C962" s="18"/>
     </row>
     <row r="963">
-      <c r="C963" s="13"/>
+      <c r="C963" s="18"/>
     </row>
     <row r="964">
-      <c r="C964" s="13"/>
+      <c r="C964" s="18"/>
     </row>
     <row r="965">
-      <c r="C965" s="13"/>
+      <c r="C965" s="18"/>
     </row>
     <row r="966">
-      <c r="C966" s="13"/>
+      <c r="C966" s="18"/>
     </row>
     <row r="967">
-      <c r="C967" s="13"/>
+      <c r="C967" s="18"/>
     </row>
     <row r="968">
-      <c r="C968" s="13"/>
+      <c r="C968" s="18"/>
     </row>
     <row r="969">
-      <c r="C969" s="13"/>
+      <c r="C969" s="18"/>
     </row>
     <row r="970">
-      <c r="C970" s="13"/>
+      <c r="C970" s="18"/>
     </row>
     <row r="971">
-      <c r="C971" s="13"/>
+      <c r="C971" s="18"/>
     </row>
     <row r="972">
-      <c r="C972" s="13"/>
+      <c r="C972" s="18"/>
     </row>
     <row r="973">
-      <c r="C973" s="13"/>
+      <c r="C973" s="18"/>
     </row>
     <row r="974">
-      <c r="C974" s="13"/>
+      <c r="C974" s="18"/>
     </row>
     <row r="975">
-      <c r="C975" s="13"/>
+      <c r="C975" s="18"/>
     </row>
     <row r="976">
-      <c r="C976" s="13"/>
+      <c r="C976" s="18"/>
     </row>
     <row r="977">
-      <c r="C977" s="13"/>
+      <c r="C977" s="18"/>
     </row>
     <row r="978">
-      <c r="C978" s="13"/>
+      <c r="C978" s="18"/>
     </row>
     <row r="979">
-      <c r="C979" s="13"/>
+      <c r="C979" s="18"/>
     </row>
     <row r="980">
-      <c r="C980" s="13"/>
+      <c r="C980" s="18"/>
     </row>
     <row r="981">
-      <c r="C981" s="13"/>
+      <c r="C981" s="18"/>
     </row>
     <row r="982">
-      <c r="C982" s="13"/>
+      <c r="C982" s="18"/>
     </row>
     <row r="983">
-      <c r="C983" s="13"/>
+      <c r="C983" s="18"/>
     </row>
     <row r="984">
-      <c r="C984" s="13"/>
+      <c r="C984" s="18"/>
     </row>
     <row r="985">
-      <c r="C985" s="13"/>
+      <c r="C985" s="18"/>
     </row>
     <row r="986">
-      <c r="C986" s="13"/>
+      <c r="C986" s="18"/>
     </row>
     <row r="987">
-      <c r="C987" s="13"/>
+      <c r="C987" s="18"/>
     </row>
     <row r="988">
-      <c r="C988" s="13"/>
+      <c r="C988" s="18"/>
     </row>
     <row r="989">
-      <c r="C989" s="13"/>
+      <c r="C989" s="18"/>
     </row>
     <row r="990">
-      <c r="C990" s="13"/>
+      <c r="C990" s="18"/>
     </row>
     <row r="991">
-      <c r="C991" s="13"/>
+      <c r="C991" s="18"/>
     </row>
     <row r="992">
-      <c r="C992" s="13"/>
+      <c r="C992" s="18"/>
     </row>
     <row r="993">
-      <c r="C993" s="13"/>
+      <c r="C993" s="18"/>
     </row>
     <row r="994">
-      <c r="C994" s="13"/>
+      <c r="C994" s="18"/>
     </row>
     <row r="995">
-      <c r="C995" s="13"/>
+      <c r="C995" s="18"/>
     </row>
     <row r="996">
-      <c r="C996" s="13"/>
+      <c r="C996" s="18"/>
     </row>
     <row r="997">
-      <c r="C997" s="13"/>
+      <c r="C997" s="18"/>
     </row>
     <row r="998">
-      <c r="C998" s="13"/>
+      <c r="C998" s="18"/>
     </row>
     <row r="999">
-      <c r="C999" s="13"/>
-    </row>
-    <row r="1000">
-      <c r="C1000" s="13"/>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="3" max="3" width="72.57"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="B2" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="15"/>
-      <c r="C3" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="17"/>
-      <c r="C5" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="17"/>
-      <c r="C6" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="18"/>
-      <c r="C9" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>79</v>
-      </c>
+      <c r="C999" s="18"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Rpg.Client/PlotConverter/Ewar - Plot.xlsx
+++ b/Rpg.Client/PlotConverter/Ewar - Plot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECTS\ewar\Rpg.Client\PlotConverter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C626FD4-DFE9-4465-9F7D-396B9E19A52D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E081058A-88CC-415F-93D4-32FC8D271A26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Events" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="325">
   <si>
     <t>Sid</t>
   </si>
@@ -1013,6 +1013,12 @@
   <si>
     <t>Беримир натолько глубоко погружается в молитву, что его невозможно призвать в реальный мир.</t>
   </si>
+  <si>
+    <t>BeforeCombatAftermath</t>
+  </si>
+  <si>
+    <t>AfterCombatAftermath</t>
+  </si>
 </sst>
 </file>
 
@@ -1401,18 +1407,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1423,10 +1431,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1437,7 +1448,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1448,7 +1459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1462,7 +1473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1473,7 +1484,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1487,7 +1498,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1498,7 +1509,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -1512,7 +1523,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -1523,7 +1534,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -1537,7 +1548,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
@@ -1551,7 +1562,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
@@ -1562,7 +1573,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
@@ -1576,7 +1587,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
@@ -1590,7 +1601,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>50</v>
       </c>
@@ -1604,7 +1615,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>54</v>
       </c>
@@ -1616,7 +1627,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>57</v>
       </c>
@@ -1628,7 +1639,7 @@
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>60</v>
       </c>
@@ -1642,7 +1653,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>64</v>
       </c>
@@ -1656,7 +1667,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>68</v>
       </c>
@@ -1670,7 +1681,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>72</v>
       </c>
@@ -1681,7 +1692,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>75</v>
       </c>
@@ -1692,7 +1703,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>78</v>
       </c>
@@ -1703,7 +1714,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>81</v>
       </c>
@@ -1714,7 +1725,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>84</v>
       </c>
@@ -1725,7 +1736,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>87</v>
       </c>
@@ -1735,7 +1746,7 @@
       <c r="C26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>319</v>
       </c>
     </row>
@@ -1752,7 +1763,7 @@
   </sheetPr>
   <dimension ref="A1:Z1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+    <sheetView topLeftCell="A166" workbookViewId="0">
       <selection activeCell="C184" sqref="C184"/>
     </sheetView>
   </sheetViews>
@@ -1801,7 +1812,7 @@
       <c r="Y1" s="6"/>
       <c r="Z1" s="6"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -1839,7 +1850,7 @@
       <c r="Y2" s="6"/>
       <c r="Z2" s="6"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -1877,7 +1888,7 @@
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -1915,7 +1926,7 @@
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -1951,7 +1962,7 @@
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
@@ -1987,7 +1998,7 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
@@ -2025,7 +2036,7 @@
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
@@ -2063,7 +2074,7 @@
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
@@ -2101,7 +2112,7 @@
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
@@ -2137,7 +2148,7 @@
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
@@ -2175,7 +2186,7 @@
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
@@ -2211,7 +2222,7 @@
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>7</v>
       </c>
@@ -2247,7 +2258,7 @@
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
@@ -2285,7 +2296,7 @@
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
@@ -2323,7 +2334,7 @@
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>7</v>
       </c>
@@ -2359,7 +2370,7 @@
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>10</v>
       </c>
@@ -2397,7 +2408,7 @@
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>10</v>
       </c>
@@ -2433,7 +2444,7 @@
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>10</v>
       </c>
@@ -2471,7 +2482,7 @@
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>10</v>
       </c>
@@ -2509,7 +2520,7 @@
       <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>10</v>
       </c>
@@ -2547,7 +2558,7 @@
       <c r="Y21" s="6"/>
       <c r="Z21" s="6"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>10</v>
       </c>
@@ -2583,7 +2594,7 @@
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>10</v>
       </c>
@@ -2619,7 +2630,7 @@
       <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>10</v>
       </c>
@@ -2655,7 +2666,7 @@
       <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>10</v>
       </c>
@@ -2693,7 +2704,7 @@
       <c r="Y25" s="6"/>
       <c r="Z25" s="6"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>14</v>
       </c>
@@ -2731,7 +2742,7 @@
       <c r="Y26" s="6"/>
       <c r="Z26" s="6"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>14</v>
       </c>
@@ -2769,7 +2780,7 @@
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>14</v>
       </c>
@@ -2805,7 +2816,7 @@
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>14</v>
       </c>
@@ -2841,7 +2852,7 @@
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>14</v>
       </c>
@@ -2877,7 +2888,7 @@
       <c r="Y30" s="6"/>
       <c r="Z30" s="6"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>14</v>
       </c>
@@ -2915,7 +2926,7 @@
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>14</v>
       </c>
@@ -2953,7 +2964,7 @@
       <c r="Y32" s="6"/>
       <c r="Z32" s="6"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>14</v>
       </c>
@@ -2989,7 +3000,7 @@
       <c r="Y33" s="6"/>
       <c r="Z33" s="6"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>14</v>
       </c>
@@ -3027,7 +3038,7 @@
       <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>17</v>
       </c>
@@ -3063,7 +3074,7 @@
       <c r="Y35" s="6"/>
       <c r="Z35" s="6"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>17</v>
       </c>
@@ -3101,7 +3112,7 @@
       <c r="Y36" s="6"/>
       <c r="Z36" s="6"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>17</v>
       </c>
@@ -32124,7 +32135,7 @@
       <c r="Y1" s="6"/>
       <c r="Z1" s="6"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -32162,7 +32173,7 @@
       <c r="Y2" s="6"/>
       <c r="Z2" s="6"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -32200,7 +32211,7 @@
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -32238,7 +32249,7 @@
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -32274,7 +32285,7 @@
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
@@ -32310,7 +32321,7 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
@@ -32348,7 +32359,7 @@
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
@@ -32384,7 +32395,7 @@
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
@@ -32422,7 +32433,7 @@
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
@@ -32460,7 +32471,7 @@
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
@@ -32496,7 +32507,7 @@
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
@@ -32534,7 +32545,7 @@
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>7</v>
       </c>
@@ -32570,7 +32581,7 @@
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
@@ -32606,7 +32617,7 @@
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
@@ -32642,7 +32653,7 @@
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>7</v>
       </c>
@@ -32680,7 +32691,7 @@
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>7</v>
       </c>
@@ -32718,7 +32729,7 @@
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>7</v>
       </c>
@@ -32754,7 +32765,7 @@
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>10</v>
       </c>
@@ -32792,7 +32803,7 @@
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>10</v>
       </c>
@@ -32830,7 +32841,7 @@
       <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>10</v>
       </c>
@@ -32866,7 +32877,7 @@
       <c r="Y21" s="6"/>
       <c r="Z21" s="6"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>10</v>
       </c>
@@ -32904,7 +32915,7 @@
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>10</v>
       </c>
@@ -32942,7 +32953,7 @@
       <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>10</v>
       </c>
@@ -32980,7 +32991,7 @@
       <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>10</v>
       </c>
@@ -33018,7 +33029,7 @@
       <c r="Y25" s="6"/>
       <c r="Z25" s="6"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>10</v>
       </c>
@@ -33054,7 +33065,7 @@
       <c r="Y26" s="6"/>
       <c r="Z26" s="6"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>10</v>
       </c>
@@ -33092,7 +33103,7 @@
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>10</v>
       </c>
@@ -33128,7 +33139,7 @@
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>10</v>
       </c>
@@ -33166,7 +33177,7 @@
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>10</v>
       </c>
@@ -33202,7 +33213,7 @@
       <c r="Y30" s="6"/>
       <c r="Z30" s="6"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
@@ -33230,7 +33241,7 @@
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
@@ -33258,7 +33269,7 @@
       <c r="Y32" s="6"/>
       <c r="Z32" s="6"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="11"/>
       <c r="C33" s="9"/>
@@ -33286,7 +33297,7 @@
       <c r="Y33" s="6"/>
       <c r="Z33" s="6"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="11"/>
       <c r="C34" s="9"/>
@@ -33314,7 +33325,7 @@
       <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
       <c r="B35" s="11"/>
       <c r="C35" s="9"/>
@@ -33342,7 +33353,7 @@
       <c r="Y35" s="6"/>
       <c r="Z35" s="6"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
       <c r="B36" s="8"/>
       <c r="C36" s="9"/>
@@ -33370,7 +33381,7 @@
       <c r="Y36" s="6"/>
       <c r="Z36" s="6"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>

--- a/Rpg.Client/PlotConverter/Ewar - Plot.xlsx
+++ b/Rpg.Client/PlotConverter/Ewar - Plot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECTS\ewar\Rpg.Client\PlotConverter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E081058A-88CC-415F-93D4-32FC8D271A26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF50E8A0-30FC-48F5-89ED-963EE0B8DB40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="353">
   <si>
     <t>Sid</t>
   </si>
@@ -1019,6 +1019,90 @@
   <si>
     <t>AfterCombatAftermath</t>
   </si>
+  <si>
+    <t>SideSlavic2</t>
+  </si>
+  <si>
+    <t>Точность</t>
+  </si>
+  <si>
+    <t>Сокол, где твоя сила богатырская?</t>
+  </si>
+  <si>
+    <t>Сокол посмотрел на Беримира. Посмотрел вокруг и выстрелил. Послышался рёв.</t>
+  </si>
+  <si>
+    <t>Когда комар сядет тебе на яйца, ты поймёшь, что точность важнее силы</t>
+  </si>
+  <si>
+    <t>SideSlavic3</t>
+  </si>
+  <si>
+    <t>Некогда здесь располагался горноперерабатывающий завод. Сырьё брали из других районов мира. Предприятие казалось перспективным. Ещё и потому, что на смену старому консервативному руководству пришёл молодой амбициозный управленец.</t>
+  </si>
+  <si>
+    <t>Прошло немного времени. Инвесторы уже ожидали увидеть золотые яйца. Но… увидели не золотые.</t>
+  </si>
+  <si>
+    <t>SideSlavic4</t>
+  </si>
+  <si>
+    <t>Слышал, здесь похоронен великий человек. Несмотря на сильную хворь он нашёл в себе силы и продолжил величие дела. Но всё равно черная хворь скосила его.</t>
+  </si>
+  <si>
+    <t>Он просто спутал выздоровление с бессмертием. Скосила его не хворь, а омерзительный образ жизни. И это потому, что великим сделал он себя сам. Знавала я этого мерзавца. Дюже неприятный человек был.</t>
+  </si>
+  <si>
+    <t>SideSlavic5</t>
+  </si>
+  <si>
+    <t>Нам, чтобы пройти дальше, нужно подписать путевой лист.</t>
+  </si>
+  <si>
+    <t>Оформляем, подписываем путевой лист.</t>
+  </si>
+  <si>
+    <t>Теперь нужна служебная записка.</t>
+  </si>
+  <si>
+    <t>Запрашиваем служебную записку. Ждём.</t>
+  </si>
+  <si>
+    <t>Служебную записку невозможно заполнить без табельного номера. Нужно подать завление на получение этого гадского номера.</t>
+  </si>
+  <si>
+    <t>Надо, так надо. Заявка оформлена со всей скурпулёзностью и отправлена.</t>
+  </si>
+  <si>
+    <t>Заявка не может быть удовлетворена, пока не пройдёт 10 дней с момента получения путевого листа. Что!</t>
+  </si>
+  <si>
+    <t>Я не хочу заниматься этими бумагами! Я! ХОЧУ! СТРЕЛЯТЬ СГУСТКАМИ ЭНЕРГИИ! ИЗ ЛУКА!</t>
+  </si>
+  <si>
+    <t>SideSlavic6</t>
+  </si>
+  <si>
+    <t>Вокруг огромного бизнес-центра снуют люди. Тут решается множество вопросов. Ведут серьезные и мелкие дела. Решаются важные проблемы.</t>
+  </si>
+  <si>
+    <t>Возле входа сидит бабушка. Она уже пожила своё, она видела многое. И, честно говоря, её время отличается от теперешнего. Поэтому она просто сидит и безучастно смотрит на всю эту бесполезную суету.</t>
+  </si>
+  <si>
+    <t>Золотые яйца</t>
+  </si>
+  <si>
+    <t>Battleground</t>
+  </si>
+  <si>
+    <t>Пустой</t>
+  </si>
+  <si>
+    <t>Бюрократия</t>
+  </si>
+  <si>
+    <t>Другие времена</t>
+  </si>
 </sst>
 </file>
 
@@ -1119,7 +1203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1187,8 +1271,22 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1407,10 +1505,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1748,6 +1846,61 @@
       </c>
       <c r="E26" s="2" t="s">
         <v>319</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1763,14 +1916,14 @@
   </sheetPr>
   <dimension ref="A1:Z1013"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="C184" sqref="C184"/>
+    <sheetView topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="C186" sqref="C186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="101.85546875" customWidth="1"/>
+    <col min="3" max="3" width="101.85546875" style="34" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1781,7 +1934,7 @@
       <c r="B1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="30" t="s">
         <v>90</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -1819,7 +1972,7 @@
       <c r="B2" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>94</v>
       </c>
       <c r="D2" s="8">
@@ -1857,7 +2010,7 @@
       <c r="B3" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>96</v>
       </c>
       <c r="D3" s="8">
@@ -1888,14 +2041,14 @@
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
     </row>
-    <row r="4" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>97</v>
       </c>
       <c r="D4" s="8">
@@ -1926,12 +2079,12 @@
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
     </row>
-    <row r="5" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>98</v>
       </c>
       <c r="D5" s="8">
@@ -1967,7 +2120,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>99</v>
       </c>
       <c r="D6" s="8">
@@ -2005,7 +2158,7 @@
       <c r="B7" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>100</v>
       </c>
       <c r="D7" s="8">
@@ -2036,14 +2189,14 @@
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
     </row>
-    <row r="8" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>101</v>
       </c>
       <c r="D8" s="8">
@@ -2081,7 +2234,7 @@
       <c r="B9" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>102</v>
       </c>
       <c r="D9" s="8">
@@ -2117,7 +2270,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>103</v>
       </c>
       <c r="D10" s="8">
@@ -2148,14 +2301,14 @@
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
     </row>
-    <row r="11" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>104</v>
       </c>
       <c r="D11" s="8">
@@ -2186,12 +2339,12 @@
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
     </row>
-    <row r="12" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="11"/>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>105</v>
       </c>
       <c r="D12" s="8">
@@ -2222,12 +2375,12 @@
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
     </row>
-    <row r="13" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="11"/>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>106</v>
       </c>
       <c r="D13" s="8">
@@ -2258,14 +2411,14 @@
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
     </row>
-    <row r="14" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>108</v>
       </c>
       <c r="D14" s="8">
@@ -2296,14 +2449,14 @@
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
     </row>
-    <row r="15" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>109</v>
       </c>
       <c r="D15" s="8">
@@ -2339,7 +2492,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="11"/>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D16" s="8">
@@ -2370,14 +2523,14 @@
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
     </row>
-    <row r="17" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>111</v>
       </c>
       <c r="D17" s="8">
@@ -2408,12 +2561,12 @@
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
     </row>
-    <row r="18" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="11"/>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>112</v>
       </c>
       <c r="D18" s="8">
@@ -2451,7 +2604,7 @@
       <c r="B19" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>114</v>
       </c>
       <c r="D19" s="8">
@@ -2482,14 +2635,14 @@
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>115</v>
       </c>
       <c r="D20" s="8">
@@ -2527,7 +2680,7 @@
       <c r="B21" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>116</v>
       </c>
       <c r="D21" s="8">
@@ -2558,12 +2711,12 @@
       <c r="Y21" s="6"/>
       <c r="Z21" s="6"/>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="11"/>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>117</v>
       </c>
       <c r="D22" s="8">
@@ -2594,12 +2747,12 @@
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="11"/>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>118</v>
       </c>
       <c r="D23" s="8">
@@ -2630,12 +2783,12 @@
       <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="11"/>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>119</v>
       </c>
       <c r="D24" s="8">
@@ -2673,7 +2826,7 @@
       <c r="B25" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>121</v>
       </c>
       <c r="D25" s="8">
@@ -2711,7 +2864,7 @@
       <c r="B26" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>122</v>
       </c>
       <c r="D26" s="8">
@@ -2742,14 +2895,14 @@
       <c r="Y26" s="6"/>
       <c r="Z26" s="6"/>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>123</v>
       </c>
       <c r="D27" s="8">
@@ -2780,12 +2933,12 @@
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="11"/>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>124</v>
       </c>
       <c r="D28" s="8">
@@ -2816,12 +2969,12 @@
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B29" s="11"/>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>125</v>
       </c>
       <c r="D29" s="8">
@@ -2857,7 +3010,7 @@
         <v>14</v>
       </c>
       <c r="B30" s="11"/>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>126</v>
       </c>
       <c r="D30" s="8">
@@ -2895,7 +3048,7 @@
       <c r="B31" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>127</v>
       </c>
       <c r="D31" s="8">
@@ -2933,7 +3086,7 @@
       <c r="B32" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>128</v>
       </c>
       <c r="D32" s="8">
@@ -2969,7 +3122,7 @@
         <v>14</v>
       </c>
       <c r="B33" s="11"/>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="8" t="s">
         <v>129</v>
       </c>
       <c r="D33" s="8">
@@ -3000,14 +3153,14 @@
       <c r="Y33" s="6"/>
       <c r="Z33" s="6"/>
     </row>
-    <row r="34" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="8" t="s">
         <v>130</v>
       </c>
       <c r="D34" s="8">
@@ -3038,12 +3191,12 @@
       <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
     </row>
-    <row r="35" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B35" s="11"/>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="8" t="s">
         <v>131</v>
       </c>
       <c r="D35" s="8">
@@ -3081,7 +3234,7 @@
       <c r="B36" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="8" t="s">
         <v>132</v>
       </c>
       <c r="D36" s="8">
@@ -3119,7 +3272,7 @@
       <c r="B37" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="8" t="s">
         <v>134</v>
       </c>
       <c r="D37" s="8">
@@ -3157,7 +3310,7 @@
       <c r="B38" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="8" t="s">
         <v>135</v>
       </c>
       <c r="D38" s="8">
@@ -3195,7 +3348,7 @@
       <c r="B39" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="8" t="s">
         <v>136</v>
       </c>
       <c r="D39" s="8">
@@ -3233,7 +3386,7 @@
       <c r="B40" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="8" t="s">
         <v>137</v>
       </c>
       <c r="D40" s="8">
@@ -3264,14 +3417,14 @@
       <c r="Y40" s="6"/>
       <c r="Z40" s="6"/>
     </row>
-    <row r="41" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="8" t="s">
         <v>138</v>
       </c>
       <c r="D41" s="8">
@@ -3309,7 +3462,7 @@
       <c r="B42" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="8" t="s">
         <v>139</v>
       </c>
       <c r="D42" s="8">
@@ -3340,14 +3493,14 @@
       <c r="Y42" s="6"/>
       <c r="Z42" s="6"/>
     </row>
-    <row r="43" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="8" t="s">
         <v>140</v>
       </c>
       <c r="D43" s="8">
@@ -3385,7 +3538,7 @@
       <c r="B44" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="8" t="s">
         <v>142</v>
       </c>
       <c r="D44" s="8">
@@ -3423,7 +3576,7 @@
       <c r="B45" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="8" t="s">
         <v>143</v>
       </c>
       <c r="D45" s="8">
@@ -3461,7 +3614,7 @@
       <c r="B46" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="8" t="s">
         <v>144</v>
       </c>
       <c r="D46" s="8">
@@ -3499,7 +3652,7 @@
       <c r="B47" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="8" t="s">
         <v>145</v>
       </c>
       <c r="D47" s="8">
@@ -3530,12 +3683,12 @@
       <c r="Y47" s="6"/>
       <c r="Z47" s="6"/>
     </row>
-    <row r="48" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B48" s="11"/>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="8" t="s">
         <v>146</v>
       </c>
       <c r="D48" s="8">
@@ -3566,14 +3719,14 @@
       <c r="Y48" s="6"/>
       <c r="Z48" s="6"/>
     </row>
-    <row r="49" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="8" t="s">
         <v>147</v>
       </c>
       <c r="D49" s="8">
@@ -3611,7 +3764,7 @@
       <c r="B50" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="8" t="s">
         <v>148</v>
       </c>
       <c r="D50" s="8">
@@ -3647,7 +3800,7 @@
         <v>28</v>
       </c>
       <c r="B51" s="13"/>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="8" t="s">
         <v>149</v>
       </c>
       <c r="D51" s="8">
@@ -3685,7 +3838,7 @@
       <c r="B52" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="8" t="s">
         <v>150</v>
       </c>
       <c r="D52" s="8">
@@ -3723,7 +3876,7 @@
       <c r="B53" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="8" t="s">
         <v>151</v>
       </c>
       <c r="D53" s="8">
@@ -3761,7 +3914,7 @@
       <c r="B54" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="8" t="s">
         <v>152</v>
       </c>
       <c r="D54" s="8">
@@ -3792,14 +3945,14 @@
       <c r="Y54" s="6"/>
       <c r="Z54" s="6"/>
     </row>
-    <row r="55" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="8" t="s">
         <v>153</v>
       </c>
       <c r="D55" s="8">
@@ -3830,14 +3983,14 @@
       <c r="Y55" s="6"/>
       <c r="Z55" s="6"/>
     </row>
-    <row r="56" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="8" t="s">
         <v>154</v>
       </c>
       <c r="D56" s="8">
@@ -3875,7 +4028,7 @@
       <c r="B57" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="8" t="s">
         <v>155</v>
       </c>
       <c r="D57" s="8">
@@ -3913,7 +4066,7 @@
       <c r="B58" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="8" t="s">
         <v>156</v>
       </c>
       <c r="D58" s="8">
@@ -3944,12 +4097,12 @@
       <c r="Y58" s="6"/>
       <c r="Z58" s="6"/>
     </row>
-    <row r="59" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B59" s="13"/>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="8" t="s">
         <v>157</v>
       </c>
       <c r="D59" s="8">
@@ -3980,14 +4133,14 @@
       <c r="Y59" s="6"/>
       <c r="Z59" s="6"/>
     </row>
-    <row r="60" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="8" t="s">
         <v>158</v>
       </c>
       <c r="D60" s="8">
@@ -4018,12 +4171,12 @@
       <c r="Y60" s="6"/>
       <c r="Z60" s="6"/>
     </row>
-    <row r="61" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B61" s="13"/>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="8" t="s">
         <v>159</v>
       </c>
       <c r="D61" s="8">
@@ -4061,7 +4214,7 @@
       <c r="B62" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C62" s="31" t="s">
         <v>161</v>
       </c>
       <c r="D62" s="8">
@@ -4099,7 +4252,7 @@
       <c r="B63" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="8" t="s">
         <v>162</v>
       </c>
       <c r="D63" s="8">
@@ -4130,12 +4283,12 @@
       <c r="Y63" s="6"/>
       <c r="Z63" s="6"/>
     </row>
-    <row r="64" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B64" s="13"/>
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="8" t="s">
         <v>163</v>
       </c>
       <c r="D64" s="8">
@@ -4173,7 +4326,7 @@
       <c r="B65" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="8" t="s">
         <v>164</v>
       </c>
       <c r="D65" s="8">
@@ -4204,12 +4357,12 @@
       <c r="Y65" s="6"/>
       <c r="Z65" s="6"/>
     </row>
-    <row r="66" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B66" s="13"/>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D66" s="8">
@@ -4247,7 +4400,7 @@
       <c r="B67" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="8" t="s">
         <v>166</v>
       </c>
       <c r="D67" s="8">
@@ -4285,7 +4438,7 @@
       <c r="B68" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="8" t="s">
         <v>167</v>
       </c>
       <c r="D68" s="8">
@@ -4323,7 +4476,7 @@
       <c r="B69" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="8" t="s">
         <v>168</v>
       </c>
       <c r="D69" s="8">
@@ -4361,7 +4514,7 @@
       <c r="B70" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="8" t="s">
         <v>169</v>
       </c>
       <c r="D70" s="8">
@@ -4399,7 +4552,7 @@
       <c r="B71" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C71" s="8" t="s">
         <v>170</v>
       </c>
       <c r="D71" s="8">
@@ -4437,7 +4590,7 @@
       <c r="B72" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="8" t="s">
         <v>171</v>
       </c>
       <c r="D72" s="8">
@@ -4475,7 +4628,7 @@
       <c r="B73" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="8" t="s">
         <v>172</v>
       </c>
       <c r="D73" s="8">
@@ -4513,7 +4666,7 @@
       <c r="B74" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="8" t="s">
         <v>174</v>
       </c>
       <c r="D74" s="8">
@@ -4551,7 +4704,7 @@
       <c r="B75" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C75" s="8" t="s">
         <v>175</v>
       </c>
       <c r="D75" s="8">
@@ -4582,12 +4735,12 @@
       <c r="Y75" s="6"/>
       <c r="Z75" s="6"/>
     </row>
-    <row r="76" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B76" s="16"/>
-      <c r="C76" s="9" t="s">
+      <c r="C76" s="8" t="s">
         <v>176</v>
       </c>
       <c r="D76" s="8">
@@ -4625,7 +4778,7 @@
       <c r="B77" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C77" s="8" t="s">
         <v>177</v>
       </c>
       <c r="D77" s="8">
@@ -4663,7 +4816,7 @@
       <c r="B78" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C78" s="8" t="s">
         <v>178</v>
       </c>
       <c r="D78" s="8">
@@ -4694,12 +4847,12 @@
       <c r="Y78" s="6"/>
       <c r="Z78" s="6"/>
     </row>
-    <row r="79" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B79" s="16"/>
-      <c r="C79" s="9" t="s">
+      <c r="C79" s="8" t="s">
         <v>179</v>
       </c>
       <c r="D79" s="8">
@@ -4737,7 +4890,7 @@
       <c r="B80" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C80" s="8" t="s">
         <v>180</v>
       </c>
       <c r="D80" s="8">
@@ -4775,7 +4928,7 @@
       <c r="B81" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C81" s="8" t="s">
         <v>181</v>
       </c>
       <c r="D81" s="8">
@@ -4813,7 +4966,7 @@
       <c r="B82" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C82" s="8" t="s">
         <v>182</v>
       </c>
       <c r="D82" s="8">
@@ -4844,12 +4997,12 @@
       <c r="Y82" s="6"/>
       <c r="Z82" s="6"/>
     </row>
-    <row r="83" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B83" s="11"/>
-      <c r="C83" s="9" t="s">
+      <c r="C83" s="8" t="s">
         <v>183</v>
       </c>
       <c r="D83" s="8">
@@ -4887,7 +5040,7 @@
       <c r="B84" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C84" s="8" t="s">
         <v>185</v>
       </c>
       <c r="D84" s="8">
@@ -4925,7 +5078,7 @@
       <c r="B85" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="C85" s="8" t="s">
         <v>186</v>
       </c>
       <c r="D85" s="8">
@@ -4963,7 +5116,7 @@
       <c r="B86" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C86" s="8" t="s">
         <v>187</v>
       </c>
       <c r="D86" s="8">
@@ -5001,7 +5154,7 @@
       <c r="B87" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="C87" s="8" t="s">
         <v>188</v>
       </c>
       <c r="D87" s="8">
@@ -5032,14 +5185,14 @@
       <c r="Y87" s="6"/>
       <c r="Z87" s="6"/>
     </row>
-    <row r="88" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="C88" s="8" t="s">
         <v>189</v>
       </c>
       <c r="D88" s="8">
@@ -5077,7 +5230,7 @@
       <c r="B89" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="C89" s="8" t="s">
         <v>190</v>
       </c>
       <c r="D89" s="8">
@@ -5115,7 +5268,7 @@
       <c r="B90" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C90" s="8" t="s">
         <v>191</v>
       </c>
       <c r="D90" s="8">
@@ -5146,12 +5299,12 @@
       <c r="Y90" s="6"/>
       <c r="Z90" s="6"/>
     </row>
-    <row r="91" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B91" s="11"/>
-      <c r="C91" s="9" t="s">
+      <c r="C91" s="8" t="s">
         <v>192</v>
       </c>
       <c r="D91" s="8">
@@ -5189,7 +5342,7 @@
       <c r="B92" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="C92" s="8" t="s">
         <v>193</v>
       </c>
       <c r="D92" s="8">
@@ -5227,7 +5380,7 @@
       <c r="B93" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C93" s="9" t="s">
+      <c r="C93" s="8" t="s">
         <v>194</v>
       </c>
       <c r="D93" s="8">
@@ -5258,12 +5411,12 @@
       <c r="Y93" s="6"/>
       <c r="Z93" s="6"/>
     </row>
-    <row r="94" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B94" s="11"/>
-      <c r="C94" s="9" t="s">
+      <c r="C94" s="8" t="s">
         <v>195</v>
       </c>
       <c r="D94" s="8">
@@ -5301,7 +5454,7 @@
       <c r="B95" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="C95" s="8" t="s">
         <v>197</v>
       </c>
       <c r="D95" s="8">
@@ -5339,7 +5492,7 @@
       <c r="B96" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C96" s="9" t="s">
+      <c r="C96" s="8" t="s">
         <v>198</v>
       </c>
       <c r="D96" s="8">
@@ -5377,7 +5530,7 @@
       <c r="B97" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C97" s="9" t="s">
+      <c r="C97" s="8" t="s">
         <v>199</v>
       </c>
       <c r="D97" s="8">
@@ -8563,7 +8716,7 @@
         <v>87</v>
       </c>
       <c r="B182" s="6"/>
-      <c r="C182" s="29" t="s">
+      <c r="C182" s="32" t="s">
         <v>320</v>
       </c>
       <c r="D182" s="24">
@@ -8598,10 +8751,10 @@
       <c r="A183" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B183" s="30" t="s">
+      <c r="B183" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="C183" s="29" t="s">
+      <c r="C183" s="32" t="s">
         <v>321</v>
       </c>
       <c r="D183" s="24">
@@ -8632,12 +8785,12 @@
       <c r="Y183" s="6"/>
       <c r="Z183" s="6"/>
     </row>
-    <row r="184" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A184" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B184" s="30"/>
-      <c r="C184" s="29" t="s">
+      <c r="B184" s="29"/>
+      <c r="C184" s="32" t="s">
         <v>322</v>
       </c>
       <c r="D184" s="26">
@@ -8669,11 +8822,21 @@
       <c r="Z184" s="6"/>
     </row>
     <row r="185" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A185" s="6"/>
-      <c r="B185" s="6"/>
-      <c r="C185" s="25"/>
-      <c r="D185" s="26"/>
-      <c r="E185" s="26"/>
+      <c r="A185" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C185" s="33" t="s">
+        <v>327</v>
+      </c>
+      <c r="D185" s="26">
+        <v>1</v>
+      </c>
+      <c r="E185" s="26">
+        <v>-1</v>
+      </c>
       <c r="F185" s="6"/>
       <c r="G185" s="6"/>
       <c r="H185" s="6"/>
@@ -8697,11 +8860,19 @@
       <c r="Z185" s="6"/>
     </row>
     <row r="186" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A186" s="6"/>
+      <c r="A186" s="6" t="s">
+        <v>325</v>
+      </c>
       <c r="B186" s="6"/>
-      <c r="C186" s="25"/>
-      <c r="D186" s="26"/>
-      <c r="E186" s="26"/>
+      <c r="C186" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="D186" s="26">
+        <v>2</v>
+      </c>
+      <c r="E186" s="26">
+        <v>-1</v>
+      </c>
       <c r="F186" s="6"/>
       <c r="G186" s="6"/>
       <c r="H186" s="6"/>
@@ -8725,11 +8896,21 @@
       <c r="Z186" s="6"/>
     </row>
     <row r="187" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A187" s="6"/>
-      <c r="B187" s="6"/>
-      <c r="C187" s="25"/>
-      <c r="D187" s="26"/>
-      <c r="E187" s="26"/>
+      <c r="A187" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C187" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="D187" s="26">
+        <v>1</v>
+      </c>
+      <c r="E187" s="26">
+        <v>1</v>
+      </c>
       <c r="F187" s="6"/>
       <c r="G187" s="6"/>
       <c r="H187" s="6"/>
@@ -8752,12 +8933,20 @@
       <c r="Y187" s="6"/>
       <c r="Z187" s="6"/>
     </row>
-    <row r="188" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A188" s="6"/>
+    <row r="188" spans="1:26" ht="45" x14ac:dyDescent="0.2">
+      <c r="A188" s="6" t="s">
+        <v>330</v>
+      </c>
       <c r="B188" s="6"/>
-      <c r="C188" s="25"/>
-      <c r="D188" s="26"/>
-      <c r="E188" s="26"/>
+      <c r="C188" s="33" t="s">
+        <v>331</v>
+      </c>
+      <c r="D188" s="26">
+        <v>1</v>
+      </c>
+      <c r="E188" s="26">
+        <v>-1</v>
+      </c>
       <c r="F188" s="6"/>
       <c r="G188" s="6"/>
       <c r="H188" s="6"/>
@@ -8780,12 +8969,20 @@
       <c r="Y188" s="6"/>
       <c r="Z188" s="6"/>
     </row>
-    <row r="189" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A189" s="6"/>
+    <row r="189" spans="1:26" ht="30" x14ac:dyDescent="0.2">
+      <c r="A189" s="6" t="s">
+        <v>330</v>
+      </c>
       <c r="B189" s="6"/>
-      <c r="C189" s="25"/>
-      <c r="D189" s="26"/>
-      <c r="E189" s="26"/>
+      <c r="C189" s="33" t="s">
+        <v>332</v>
+      </c>
+      <c r="D189" s="26">
+        <v>1</v>
+      </c>
+      <c r="E189" s="26">
+        <v>1</v>
+      </c>
       <c r="F189" s="6"/>
       <c r="G189" s="6"/>
       <c r="H189" s="6"/>
@@ -8808,12 +9005,22 @@
       <c r="Y189" s="6"/>
       <c r="Z189" s="6"/>
     </row>
-    <row r="190" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A190" s="6"/>
-      <c r="B190" s="6"/>
-      <c r="C190" s="25"/>
-      <c r="D190" s="26"/>
-      <c r="E190" s="26"/>
+    <row r="190" spans="1:26" ht="30" x14ac:dyDescent="0.2">
+      <c r="A190" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C190" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="D190" s="26">
+        <v>1</v>
+      </c>
+      <c r="E190" s="26">
+        <v>-1</v>
+      </c>
       <c r="F190" s="6"/>
       <c r="G190" s="6"/>
       <c r="H190" s="6"/>
@@ -8836,12 +9043,22 @@
       <c r="Y190" s="6"/>
       <c r="Z190" s="6"/>
     </row>
-    <row r="191" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A191" s="6"/>
-      <c r="B191" s="6"/>
-      <c r="C191" s="25"/>
-      <c r="D191" s="26"/>
-      <c r="E191" s="26"/>
+    <row r="191" spans="1:26" ht="45" x14ac:dyDescent="0.2">
+      <c r="A191" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C191" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="D191" s="26">
+        <v>2</v>
+      </c>
+      <c r="E191" s="26">
+        <v>-1</v>
+      </c>
       <c r="F191" s="6"/>
       <c r="G191" s="6"/>
       <c r="H191" s="6"/>
@@ -8865,11 +9082,21 @@
       <c r="Z191" s="6"/>
     </row>
     <row r="192" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A192" s="6"/>
-      <c r="B192" s="6"/>
-      <c r="C192" s="25"/>
-      <c r="D192" s="26"/>
-      <c r="E192" s="26"/>
+      <c r="A192" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C192" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="D192" s="26">
+        <v>1</v>
+      </c>
+      <c r="E192" s="26">
+        <v>-1</v>
+      </c>
       <c r="F192" s="6"/>
       <c r="G192" s="6"/>
       <c r="H192" s="6"/>
@@ -8893,11 +9120,19 @@
       <c r="Z192" s="6"/>
     </row>
     <row r="193" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A193" s="6"/>
+      <c r="A193" s="6" t="s">
+        <v>336</v>
+      </c>
       <c r="B193" s="6"/>
-      <c r="C193" s="25"/>
-      <c r="D193" s="26"/>
-      <c r="E193" s="26"/>
+      <c r="C193" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="D193" s="26">
+        <v>2</v>
+      </c>
+      <c r="E193" s="26">
+        <v>-1</v>
+      </c>
       <c r="F193" s="6"/>
       <c r="G193" s="6"/>
       <c r="H193" s="6"/>
@@ -8921,11 +9156,21 @@
       <c r="Z193" s="6"/>
     </row>
     <row r="194" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A194" s="6"/>
-      <c r="B194" s="6"/>
-      <c r="C194" s="25"/>
-      <c r="D194" s="26"/>
-      <c r="E194" s="26"/>
+      <c r="A194" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C194" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="D194" s="26">
+        <v>3</v>
+      </c>
+      <c r="E194" s="26">
+        <v>-1</v>
+      </c>
       <c r="F194" s="6"/>
       <c r="G194" s="6"/>
       <c r="H194" s="6"/>
@@ -8949,11 +9194,19 @@
       <c r="Z194" s="6"/>
     </row>
     <row r="195" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A195" s="6"/>
+      <c r="A195" s="6" t="s">
+        <v>336</v>
+      </c>
       <c r="B195" s="6"/>
-      <c r="C195" s="25"/>
-      <c r="D195" s="26"/>
-      <c r="E195" s="26"/>
+      <c r="C195" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="D195" s="26">
+        <v>4</v>
+      </c>
+      <c r="E195" s="26">
+        <v>-1</v>
+      </c>
       <c r="F195" s="6"/>
       <c r="G195" s="6"/>
       <c r="H195" s="6"/>
@@ -8976,12 +9229,22 @@
       <c r="Y195" s="6"/>
       <c r="Z195" s="6"/>
     </row>
-    <row r="196" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A196" s="6"/>
-      <c r="B196" s="6"/>
-      <c r="C196" s="25"/>
-      <c r="D196" s="26"/>
-      <c r="E196" s="26"/>
+    <row r="196" spans="1:26" ht="30" x14ac:dyDescent="0.2">
+      <c r="A196" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C196" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="D196" s="26">
+        <v>5</v>
+      </c>
+      <c r="E196" s="26">
+        <v>-1</v>
+      </c>
       <c r="F196" s="6"/>
       <c r="G196" s="6"/>
       <c r="H196" s="6"/>
@@ -9005,11 +9268,19 @@
       <c r="Z196" s="6"/>
     </row>
     <row r="197" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A197" s="6"/>
+      <c r="A197" s="6" t="s">
+        <v>336</v>
+      </c>
       <c r="B197" s="6"/>
-      <c r="C197" s="25"/>
-      <c r="D197" s="26"/>
-      <c r="E197" s="26"/>
+      <c r="C197" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="D197" s="26">
+        <v>6</v>
+      </c>
+      <c r="E197" s="26">
+        <v>-1</v>
+      </c>
       <c r="F197" s="6"/>
       <c r="G197" s="6"/>
       <c r="H197" s="6"/>
@@ -9032,12 +9303,22 @@
       <c r="Y197" s="6"/>
       <c r="Z197" s="6"/>
     </row>
-    <row r="198" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A198" s="6"/>
-      <c r="B198" s="6"/>
-      <c r="C198" s="25"/>
-      <c r="D198" s="26"/>
-      <c r="E198" s="26"/>
+    <row r="198" spans="1:26" ht="30" x14ac:dyDescent="0.2">
+      <c r="A198" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C198" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="D198" s="26">
+        <v>7</v>
+      </c>
+      <c r="E198" s="26">
+        <v>-1</v>
+      </c>
       <c r="F198" s="6"/>
       <c r="G198" s="6"/>
       <c r="H198" s="6"/>
@@ -9060,12 +9341,22 @@
       <c r="Y198" s="6"/>
       <c r="Z198" s="6"/>
     </row>
-    <row r="199" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A199" s="6"/>
-      <c r="B199" s="6"/>
-      <c r="C199" s="25"/>
-      <c r="D199" s="26"/>
-      <c r="E199" s="26"/>
+    <row r="199" spans="1:26" ht="30" x14ac:dyDescent="0.2">
+      <c r="A199" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C199" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="D199" s="26">
+        <v>1</v>
+      </c>
+      <c r="E199" s="26">
+        <v>1</v>
+      </c>
       <c r="F199" s="6"/>
       <c r="G199" s="6"/>
       <c r="H199" s="6"/>
@@ -9088,12 +9379,20 @@
       <c r="Y199" s="6"/>
       <c r="Z199" s="6"/>
     </row>
-    <row r="200" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A200" s="6"/>
+    <row r="200" spans="1:26" ht="30" x14ac:dyDescent="0.2">
+      <c r="A200" s="6" t="s">
+        <v>345</v>
+      </c>
       <c r="B200" s="6"/>
-      <c r="C200" s="25"/>
-      <c r="D200" s="26"/>
-      <c r="E200" s="26"/>
+      <c r="C200" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="D200" s="26">
+        <v>1</v>
+      </c>
+      <c r="E200" s="26">
+        <v>-1</v>
+      </c>
       <c r="F200" s="6"/>
       <c r="G200" s="6"/>
       <c r="H200" s="6"/>
@@ -9116,12 +9415,20 @@
       <c r="Y200" s="6"/>
       <c r="Z200" s="6"/>
     </row>
-    <row r="201" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A201" s="6"/>
+    <row r="201" spans="1:26" ht="45" x14ac:dyDescent="0.2">
+      <c r="A201" s="6" t="s">
+        <v>345</v>
+      </c>
       <c r="B201" s="6"/>
-      <c r="C201" s="25"/>
-      <c r="D201" s="26"/>
-      <c r="E201" s="26"/>
+      <c r="C201" s="33" t="s">
+        <v>347</v>
+      </c>
+      <c r="D201" s="26">
+        <v>2</v>
+      </c>
+      <c r="E201" s="26">
+        <v>-1</v>
+      </c>
       <c r="F201" s="6"/>
       <c r="G201" s="6"/>
       <c r="H201" s="6"/>
@@ -9147,7 +9454,7 @@
     <row r="202" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
-      <c r="C202" s="25"/>
+      <c r="C202" s="33"/>
       <c r="D202" s="26"/>
       <c r="E202" s="26"/>
       <c r="F202" s="6"/>
@@ -9175,7 +9482,7 @@
     <row r="203" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A203" s="6"/>
       <c r="B203" s="6"/>
-      <c r="C203" s="25"/>
+      <c r="C203" s="33"/>
       <c r="D203" s="26"/>
       <c r="E203" s="26"/>
       <c r="F203" s="6"/>
@@ -9203,7 +9510,7 @@
     <row r="204" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
-      <c r="C204" s="25"/>
+      <c r="C204" s="33"/>
       <c r="D204" s="26"/>
       <c r="E204" s="26"/>
       <c r="F204" s="6"/>
@@ -9231,7 +9538,7 @@
     <row r="205" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A205" s="6"/>
       <c r="B205" s="6"/>
-      <c r="C205" s="25"/>
+      <c r="C205" s="33"/>
       <c r="D205" s="26"/>
       <c r="E205" s="26"/>
       <c r="F205" s="6"/>
@@ -9259,7 +9566,7 @@
     <row r="206" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
-      <c r="C206" s="25"/>
+      <c r="C206" s="33"/>
       <c r="D206" s="26"/>
       <c r="E206" s="26"/>
       <c r="F206" s="6"/>
@@ -9287,7 +9594,7 @@
     <row r="207" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A207" s="6"/>
       <c r="B207" s="6"/>
-      <c r="C207" s="25"/>
+      <c r="C207" s="33"/>
       <c r="D207" s="26"/>
       <c r="E207" s="26"/>
       <c r="F207" s="6"/>
@@ -9315,7 +9622,7 @@
     <row r="208" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A208" s="6"/>
       <c r="B208" s="6"/>
-      <c r="C208" s="25"/>
+      <c r="C208" s="33"/>
       <c r="D208" s="26"/>
       <c r="E208" s="26"/>
       <c r="F208" s="6"/>
@@ -9343,7 +9650,7 @@
     <row r="209" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
-      <c r="C209" s="25"/>
+      <c r="C209" s="33"/>
       <c r="D209" s="26"/>
       <c r="E209" s="26"/>
       <c r="F209" s="6"/>
@@ -9371,7 +9678,7 @@
     <row r="210" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
-      <c r="C210" s="25"/>
+      <c r="C210" s="33"/>
       <c r="D210" s="26"/>
       <c r="E210" s="26"/>
       <c r="F210" s="6"/>
@@ -9399,7 +9706,7 @@
     <row r="211" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
-      <c r="C211" s="25"/>
+      <c r="C211" s="33"/>
       <c r="D211" s="26"/>
       <c r="E211" s="26"/>
       <c r="F211" s="6"/>
@@ -9427,7 +9734,7 @@
     <row r="212" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
-      <c r="C212" s="25"/>
+      <c r="C212" s="33"/>
       <c r="D212" s="26"/>
       <c r="E212" s="26"/>
       <c r="F212" s="6"/>
@@ -9455,7 +9762,7 @@
     <row r="213" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
-      <c r="C213" s="25"/>
+      <c r="C213" s="33"/>
       <c r="D213" s="26"/>
       <c r="E213" s="26"/>
       <c r="F213" s="6"/>
@@ -9483,7 +9790,7 @@
     <row r="214" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
-      <c r="C214" s="25"/>
+      <c r="C214" s="33"/>
       <c r="D214" s="26"/>
       <c r="E214" s="26"/>
       <c r="F214" s="6"/>
@@ -9511,7 +9818,7 @@
     <row r="215" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
-      <c r="C215" s="25"/>
+      <c r="C215" s="33"/>
       <c r="D215" s="26"/>
       <c r="E215" s="26"/>
       <c r="F215" s="6"/>
@@ -9539,7 +9846,7 @@
     <row r="216" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
-      <c r="C216" s="25"/>
+      <c r="C216" s="33"/>
       <c r="D216" s="26"/>
       <c r="E216" s="26"/>
       <c r="F216" s="6"/>
@@ -9567,7 +9874,7 @@
     <row r="217" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A217" s="6"/>
       <c r="B217" s="6"/>
-      <c r="C217" s="25"/>
+      <c r="C217" s="33"/>
       <c r="D217" s="26"/>
       <c r="E217" s="26"/>
       <c r="F217" s="6"/>
@@ -9595,7 +9902,7 @@
     <row r="218" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
-      <c r="C218" s="25"/>
+      <c r="C218" s="33"/>
       <c r="D218" s="26"/>
       <c r="E218" s="26"/>
       <c r="F218" s="6"/>
@@ -9623,7 +9930,7 @@
     <row r="219" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A219" s="6"/>
       <c r="B219" s="6"/>
-      <c r="C219" s="25"/>
+      <c r="C219" s="33"/>
       <c r="D219" s="26"/>
       <c r="E219" s="26"/>
       <c r="F219" s="6"/>
@@ -9651,7 +9958,7 @@
     <row r="220" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
-      <c r="C220" s="25"/>
+      <c r="C220" s="33"/>
       <c r="D220" s="26"/>
       <c r="E220" s="26"/>
       <c r="F220" s="6"/>
@@ -9679,7 +9986,7 @@
     <row r="221" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
-      <c r="C221" s="25"/>
+      <c r="C221" s="33"/>
       <c r="D221" s="26"/>
       <c r="E221" s="26"/>
       <c r="F221" s="6"/>
@@ -9707,7 +10014,7 @@
     <row r="222" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A222" s="6"/>
       <c r="B222" s="6"/>
-      <c r="C222" s="25"/>
+      <c r="C222" s="33"/>
       <c r="D222" s="26"/>
       <c r="E222" s="26"/>
       <c r="F222" s="6"/>
@@ -9735,7 +10042,7 @@
     <row r="223" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
-      <c r="C223" s="25"/>
+      <c r="C223" s="33"/>
       <c r="D223" s="26"/>
       <c r="E223" s="26"/>
       <c r="F223" s="6"/>
@@ -9763,7 +10070,7 @@
     <row r="224" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A224" s="6"/>
       <c r="B224" s="6"/>
-      <c r="C224" s="25"/>
+      <c r="C224" s="33"/>
       <c r="D224" s="26"/>
       <c r="E224" s="26"/>
       <c r="F224" s="6"/>
@@ -9791,7 +10098,7 @@
     <row r="225" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
-      <c r="C225" s="25"/>
+      <c r="C225" s="33"/>
       <c r="D225" s="26"/>
       <c r="E225" s="26"/>
       <c r="F225" s="6"/>
@@ -9819,7 +10126,7 @@
     <row r="226" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A226" s="6"/>
       <c r="B226" s="6"/>
-      <c r="C226" s="25"/>
+      <c r="C226" s="33"/>
       <c r="D226" s="26"/>
       <c r="E226" s="26"/>
       <c r="F226" s="6"/>
@@ -9847,7 +10154,7 @@
     <row r="227" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
-      <c r="C227" s="25"/>
+      <c r="C227" s="33"/>
       <c r="D227" s="26"/>
       <c r="E227" s="26"/>
       <c r="F227" s="6"/>
@@ -9875,7 +10182,7 @@
     <row r="228" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
-      <c r="C228" s="25"/>
+      <c r="C228" s="33"/>
       <c r="D228" s="26"/>
       <c r="E228" s="26"/>
       <c r="F228" s="6"/>
@@ -9903,7 +10210,7 @@
     <row r="229" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A229" s="6"/>
       <c r="B229" s="6"/>
-      <c r="C229" s="25"/>
+      <c r="C229" s="33"/>
       <c r="D229" s="26"/>
       <c r="E229" s="26"/>
       <c r="F229" s="6"/>
@@ -9931,7 +10238,7 @@
     <row r="230" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
-      <c r="C230" s="25"/>
+      <c r="C230" s="33"/>
       <c r="D230" s="26"/>
       <c r="E230" s="26"/>
       <c r="F230" s="6"/>
@@ -9959,7 +10266,7 @@
     <row r="231" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
-      <c r="C231" s="25"/>
+      <c r="C231" s="33"/>
       <c r="D231" s="26"/>
       <c r="E231" s="26"/>
       <c r="F231" s="6"/>
@@ -9987,7 +10294,7 @@
     <row r="232" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
-      <c r="C232" s="25"/>
+      <c r="C232" s="33"/>
       <c r="D232" s="26"/>
       <c r="E232" s="26"/>
       <c r="F232" s="6"/>
@@ -10015,7 +10322,7 @@
     <row r="233" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A233" s="6"/>
       <c r="B233" s="6"/>
-      <c r="C233" s="25"/>
+      <c r="C233" s="33"/>
       <c r="D233" s="26"/>
       <c r="E233" s="26"/>
       <c r="F233" s="6"/>
@@ -10043,7 +10350,7 @@
     <row r="234" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A234" s="6"/>
       <c r="B234" s="6"/>
-      <c r="C234" s="25"/>
+      <c r="C234" s="33"/>
       <c r="D234" s="26"/>
       <c r="E234" s="26"/>
       <c r="F234" s="6"/>
@@ -10071,7 +10378,7 @@
     <row r="235" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A235" s="6"/>
       <c r="B235" s="6"/>
-      <c r="C235" s="25"/>
+      <c r="C235" s="33"/>
       <c r="D235" s="26"/>
       <c r="E235" s="26"/>
       <c r="F235" s="6"/>
@@ -10099,7 +10406,7 @@
     <row r="236" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A236" s="6"/>
       <c r="B236" s="6"/>
-      <c r="C236" s="25"/>
+      <c r="C236" s="33"/>
       <c r="D236" s="26"/>
       <c r="E236" s="26"/>
       <c r="F236" s="6"/>
@@ -10127,7 +10434,7 @@
     <row r="237" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A237" s="6"/>
       <c r="B237" s="6"/>
-      <c r="C237" s="25"/>
+      <c r="C237" s="33"/>
       <c r="D237" s="26"/>
       <c r="E237" s="26"/>
       <c r="F237" s="6"/>
@@ -10155,7 +10462,7 @@
     <row r="238" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A238" s="6"/>
       <c r="B238" s="6"/>
-      <c r="C238" s="25"/>
+      <c r="C238" s="33"/>
       <c r="D238" s="26"/>
       <c r="E238" s="26"/>
       <c r="F238" s="6"/>
@@ -10183,7 +10490,7 @@
     <row r="239" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A239" s="6"/>
       <c r="B239" s="6"/>
-      <c r="C239" s="25"/>
+      <c r="C239" s="33"/>
       <c r="D239" s="26"/>
       <c r="E239" s="26"/>
       <c r="F239" s="6"/>
@@ -10211,7 +10518,7 @@
     <row r="240" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A240" s="6"/>
       <c r="B240" s="6"/>
-      <c r="C240" s="25"/>
+      <c r="C240" s="33"/>
       <c r="D240" s="26"/>
       <c r="E240" s="26"/>
       <c r="F240" s="6"/>
@@ -10239,7 +10546,7 @@
     <row r="241" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A241" s="6"/>
       <c r="B241" s="6"/>
-      <c r="C241" s="25"/>
+      <c r="C241" s="33"/>
       <c r="D241" s="26"/>
       <c r="E241" s="26"/>
       <c r="F241" s="6"/>
@@ -10267,7 +10574,7 @@
     <row r="242" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A242" s="6"/>
       <c r="B242" s="6"/>
-      <c r="C242" s="25"/>
+      <c r="C242" s="33"/>
       <c r="D242" s="26"/>
       <c r="E242" s="26"/>
       <c r="F242" s="6"/>
@@ -10295,7 +10602,7 @@
     <row r="243" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A243" s="6"/>
       <c r="B243" s="6"/>
-      <c r="C243" s="25"/>
+      <c r="C243" s="33"/>
       <c r="D243" s="26"/>
       <c r="E243" s="26"/>
       <c r="F243" s="6"/>
@@ -10323,7 +10630,7 @@
     <row r="244" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A244" s="6"/>
       <c r="B244" s="6"/>
-      <c r="C244" s="25"/>
+      <c r="C244" s="33"/>
       <c r="D244" s="26"/>
       <c r="E244" s="26"/>
       <c r="F244" s="6"/>
@@ -10351,7 +10658,7 @@
     <row r="245" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A245" s="6"/>
       <c r="B245" s="6"/>
-      <c r="C245" s="25"/>
+      <c r="C245" s="33"/>
       <c r="D245" s="26"/>
       <c r="E245" s="26"/>
       <c r="F245" s="6"/>
@@ -10379,7 +10686,7 @@
     <row r="246" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A246" s="6"/>
       <c r="B246" s="6"/>
-      <c r="C246" s="25"/>
+      <c r="C246" s="33"/>
       <c r="D246" s="26"/>
       <c r="E246" s="26"/>
       <c r="F246" s="6"/>
@@ -10407,7 +10714,7 @@
     <row r="247" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A247" s="6"/>
       <c r="B247" s="6"/>
-      <c r="C247" s="25"/>
+      <c r="C247" s="33"/>
       <c r="D247" s="26"/>
       <c r="E247" s="26"/>
       <c r="F247" s="6"/>
@@ -10435,7 +10742,7 @@
     <row r="248" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A248" s="6"/>
       <c r="B248" s="6"/>
-      <c r="C248" s="25"/>
+      <c r="C248" s="33"/>
       <c r="D248" s="26"/>
       <c r="E248" s="26"/>
       <c r="F248" s="6"/>
@@ -10463,7 +10770,7 @@
     <row r="249" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A249" s="6"/>
       <c r="B249" s="6"/>
-      <c r="C249" s="25"/>
+      <c r="C249" s="33"/>
       <c r="D249" s="26"/>
       <c r="E249" s="26"/>
       <c r="F249" s="6"/>
@@ -10491,7 +10798,7 @@
     <row r="250" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A250" s="6"/>
       <c r="B250" s="6"/>
-      <c r="C250" s="25"/>
+      <c r="C250" s="33"/>
       <c r="D250" s="26"/>
       <c r="E250" s="26"/>
       <c r="F250" s="6"/>
@@ -10519,7 +10826,7 @@
     <row r="251" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A251" s="6"/>
       <c r="B251" s="6"/>
-      <c r="C251" s="25"/>
+      <c r="C251" s="33"/>
       <c r="D251" s="26"/>
       <c r="E251" s="26"/>
       <c r="F251" s="6"/>
@@ -10547,7 +10854,7 @@
     <row r="252" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A252" s="6"/>
       <c r="B252" s="6"/>
-      <c r="C252" s="25"/>
+      <c r="C252" s="33"/>
       <c r="D252" s="26"/>
       <c r="E252" s="26"/>
       <c r="F252" s="6"/>
@@ -10575,7 +10882,7 @@
     <row r="253" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A253" s="6"/>
       <c r="B253" s="6"/>
-      <c r="C253" s="25"/>
+      <c r="C253" s="33"/>
       <c r="D253" s="26"/>
       <c r="E253" s="26"/>
       <c r="F253" s="6"/>
@@ -10603,7 +10910,7 @@
     <row r="254" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A254" s="6"/>
       <c r="B254" s="6"/>
-      <c r="C254" s="25"/>
+      <c r="C254" s="33"/>
       <c r="D254" s="26"/>
       <c r="E254" s="26"/>
       <c r="F254" s="6"/>
@@ -10631,7 +10938,7 @@
     <row r="255" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A255" s="6"/>
       <c r="B255" s="6"/>
-      <c r="C255" s="25"/>
+      <c r="C255" s="33"/>
       <c r="D255" s="26"/>
       <c r="E255" s="26"/>
       <c r="F255" s="6"/>
@@ -10659,7 +10966,7 @@
     <row r="256" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A256" s="6"/>
       <c r="B256" s="6"/>
-      <c r="C256" s="25"/>
+      <c r="C256" s="33"/>
       <c r="D256" s="26"/>
       <c r="E256" s="26"/>
       <c r="F256" s="6"/>
@@ -10687,7 +10994,7 @@
     <row r="257" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A257" s="6"/>
       <c r="B257" s="6"/>
-      <c r="C257" s="25"/>
+      <c r="C257" s="33"/>
       <c r="D257" s="26"/>
       <c r="E257" s="26"/>
       <c r="F257" s="6"/>
@@ -10715,7 +11022,7 @@
     <row r="258" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A258" s="6"/>
       <c r="B258" s="6"/>
-      <c r="C258" s="25"/>
+      <c r="C258" s="33"/>
       <c r="D258" s="26"/>
       <c r="E258" s="26"/>
       <c r="F258" s="6"/>
@@ -10743,7 +11050,7 @@
     <row r="259" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A259" s="6"/>
       <c r="B259" s="6"/>
-      <c r="C259" s="25"/>
+      <c r="C259" s="33"/>
       <c r="D259" s="26"/>
       <c r="E259" s="26"/>
       <c r="F259" s="6"/>
@@ -10771,7 +11078,7 @@
     <row r="260" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A260" s="6"/>
       <c r="B260" s="6"/>
-      <c r="C260" s="25"/>
+      <c r="C260" s="33"/>
       <c r="D260" s="26"/>
       <c r="E260" s="26"/>
       <c r="F260" s="6"/>
@@ -10799,7 +11106,7 @@
     <row r="261" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A261" s="6"/>
       <c r="B261" s="6"/>
-      <c r="C261" s="25"/>
+      <c r="C261" s="33"/>
       <c r="D261" s="26"/>
       <c r="E261" s="26"/>
       <c r="F261" s="6"/>
@@ -10827,7 +11134,7 @@
     <row r="262" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A262" s="6"/>
       <c r="B262" s="6"/>
-      <c r="C262" s="25"/>
+      <c r="C262" s="33"/>
       <c r="D262" s="26"/>
       <c r="E262" s="26"/>
       <c r="F262" s="6"/>
@@ -10855,7 +11162,7 @@
     <row r="263" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A263" s="6"/>
       <c r="B263" s="6"/>
-      <c r="C263" s="25"/>
+      <c r="C263" s="33"/>
       <c r="D263" s="26"/>
       <c r="E263" s="26"/>
       <c r="F263" s="6"/>
@@ -10883,7 +11190,7 @@
     <row r="264" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A264" s="6"/>
       <c r="B264" s="6"/>
-      <c r="C264" s="25"/>
+      <c r="C264" s="33"/>
       <c r="D264" s="26"/>
       <c r="E264" s="26"/>
       <c r="F264" s="6"/>
@@ -10911,7 +11218,7 @@
     <row r="265" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A265" s="6"/>
       <c r="B265" s="6"/>
-      <c r="C265" s="25"/>
+      <c r="C265" s="33"/>
       <c r="D265" s="26"/>
       <c r="E265" s="26"/>
       <c r="F265" s="6"/>
@@ -10939,7 +11246,7 @@
     <row r="266" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A266" s="6"/>
       <c r="B266" s="6"/>
-      <c r="C266" s="25"/>
+      <c r="C266" s="33"/>
       <c r="D266" s="26"/>
       <c r="E266" s="26"/>
       <c r="F266" s="6"/>
@@ -10967,7 +11274,7 @@
     <row r="267" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A267" s="6"/>
       <c r="B267" s="6"/>
-      <c r="C267" s="25"/>
+      <c r="C267" s="33"/>
       <c r="D267" s="26"/>
       <c r="E267" s="26"/>
       <c r="F267" s="6"/>
@@ -10995,7 +11302,7 @@
     <row r="268" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A268" s="6"/>
       <c r="B268" s="6"/>
-      <c r="C268" s="25"/>
+      <c r="C268" s="33"/>
       <c r="D268" s="26"/>
       <c r="E268" s="26"/>
       <c r="F268" s="6"/>
@@ -11023,7 +11330,7 @@
     <row r="269" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A269" s="6"/>
       <c r="B269" s="6"/>
-      <c r="C269" s="25"/>
+      <c r="C269" s="33"/>
       <c r="D269" s="26"/>
       <c r="E269" s="26"/>
       <c r="F269" s="6"/>
@@ -11051,7 +11358,7 @@
     <row r="270" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A270" s="6"/>
       <c r="B270" s="6"/>
-      <c r="C270" s="25"/>
+      <c r="C270" s="33"/>
       <c r="D270" s="26"/>
       <c r="E270" s="26"/>
       <c r="F270" s="6"/>
@@ -11079,7 +11386,7 @@
     <row r="271" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A271" s="6"/>
       <c r="B271" s="6"/>
-      <c r="C271" s="25"/>
+      <c r="C271" s="33"/>
       <c r="D271" s="26"/>
       <c r="E271" s="26"/>
       <c r="F271" s="6"/>
@@ -11107,7 +11414,7 @@
     <row r="272" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A272" s="6"/>
       <c r="B272" s="6"/>
-      <c r="C272" s="25"/>
+      <c r="C272" s="33"/>
       <c r="D272" s="26"/>
       <c r="E272" s="26"/>
       <c r="F272" s="6"/>
@@ -11135,7 +11442,7 @@
     <row r="273" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A273" s="6"/>
       <c r="B273" s="6"/>
-      <c r="C273" s="25"/>
+      <c r="C273" s="33"/>
       <c r="D273" s="26"/>
       <c r="E273" s="26"/>
       <c r="F273" s="6"/>
@@ -11163,7 +11470,7 @@
     <row r="274" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A274" s="6"/>
       <c r="B274" s="6"/>
-      <c r="C274" s="25"/>
+      <c r="C274" s="33"/>
       <c r="D274" s="26"/>
       <c r="E274" s="26"/>
       <c r="F274" s="6"/>
@@ -11191,7 +11498,7 @@
     <row r="275" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A275" s="6"/>
       <c r="B275" s="6"/>
-      <c r="C275" s="25"/>
+      <c r="C275" s="33"/>
       <c r="D275" s="26"/>
       <c r="E275" s="26"/>
       <c r="F275" s="6"/>
@@ -11219,7 +11526,7 @@
     <row r="276" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A276" s="6"/>
       <c r="B276" s="6"/>
-      <c r="C276" s="25"/>
+      <c r="C276" s="33"/>
       <c r="D276" s="26"/>
       <c r="E276" s="26"/>
       <c r="F276" s="6"/>
@@ -11247,7 +11554,7 @@
     <row r="277" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A277" s="6"/>
       <c r="B277" s="6"/>
-      <c r="C277" s="25"/>
+      <c r="C277" s="33"/>
       <c r="D277" s="26"/>
       <c r="E277" s="26"/>
       <c r="F277" s="6"/>
@@ -11275,7 +11582,7 @@
     <row r="278" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A278" s="6"/>
       <c r="B278" s="6"/>
-      <c r="C278" s="25"/>
+      <c r="C278" s="33"/>
       <c r="D278" s="26"/>
       <c r="E278" s="26"/>
       <c r="F278" s="6"/>
@@ -11303,7 +11610,7 @@
     <row r="279" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A279" s="6"/>
       <c r="B279" s="6"/>
-      <c r="C279" s="25"/>
+      <c r="C279" s="33"/>
       <c r="D279" s="26"/>
       <c r="E279" s="26"/>
       <c r="F279" s="6"/>
@@ -11331,7 +11638,7 @@
     <row r="280" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A280" s="6"/>
       <c r="B280" s="6"/>
-      <c r="C280" s="25"/>
+      <c r="C280" s="33"/>
       <c r="D280" s="26"/>
       <c r="E280" s="26"/>
       <c r="F280" s="6"/>
@@ -11359,7 +11666,7 @@
     <row r="281" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A281" s="6"/>
       <c r="B281" s="6"/>
-      <c r="C281" s="25"/>
+      <c r="C281" s="33"/>
       <c r="D281" s="26"/>
       <c r="E281" s="26"/>
       <c r="F281" s="6"/>
@@ -11387,7 +11694,7 @@
     <row r="282" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A282" s="6"/>
       <c r="B282" s="6"/>
-      <c r="C282" s="25"/>
+      <c r="C282" s="33"/>
       <c r="D282" s="26"/>
       <c r="E282" s="26"/>
       <c r="F282" s="6"/>
@@ -11415,7 +11722,7 @@
     <row r="283" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A283" s="6"/>
       <c r="B283" s="6"/>
-      <c r="C283" s="25"/>
+      <c r="C283" s="33"/>
       <c r="D283" s="26"/>
       <c r="E283" s="26"/>
       <c r="F283" s="6"/>
@@ -11443,7 +11750,7 @@
     <row r="284" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A284" s="6"/>
       <c r="B284" s="6"/>
-      <c r="C284" s="25"/>
+      <c r="C284" s="33"/>
       <c r="D284" s="26"/>
       <c r="E284" s="26"/>
       <c r="F284" s="6"/>
@@ -11471,7 +11778,7 @@
     <row r="285" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A285" s="6"/>
       <c r="B285" s="6"/>
-      <c r="C285" s="25"/>
+      <c r="C285" s="33"/>
       <c r="D285" s="26"/>
       <c r="E285" s="26"/>
       <c r="F285" s="6"/>
@@ -11499,7 +11806,7 @@
     <row r="286" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A286" s="6"/>
       <c r="B286" s="6"/>
-      <c r="C286" s="25"/>
+      <c r="C286" s="33"/>
       <c r="D286" s="26"/>
       <c r="E286" s="26"/>
       <c r="F286" s="6"/>
@@ -11527,7 +11834,7 @@
     <row r="287" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A287" s="6"/>
       <c r="B287" s="6"/>
-      <c r="C287" s="25"/>
+      <c r="C287" s="33"/>
       <c r="D287" s="26"/>
       <c r="E287" s="26"/>
       <c r="F287" s="6"/>
@@ -11555,7 +11862,7 @@
     <row r="288" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A288" s="6"/>
       <c r="B288" s="6"/>
-      <c r="C288" s="25"/>
+      <c r="C288" s="33"/>
       <c r="D288" s="26"/>
       <c r="E288" s="26"/>
       <c r="F288" s="6"/>
@@ -11583,7 +11890,7 @@
     <row r="289" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A289" s="6"/>
       <c r="B289" s="6"/>
-      <c r="C289" s="25"/>
+      <c r="C289" s="33"/>
       <c r="D289" s="26"/>
       <c r="E289" s="26"/>
       <c r="F289" s="6"/>
@@ -11611,7 +11918,7 @@
     <row r="290" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A290" s="6"/>
       <c r="B290" s="6"/>
-      <c r="C290" s="25"/>
+      <c r="C290" s="33"/>
       <c r="D290" s="26"/>
       <c r="E290" s="26"/>
       <c r="F290" s="6"/>
@@ -11639,7 +11946,7 @@
     <row r="291" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A291" s="6"/>
       <c r="B291" s="6"/>
-      <c r="C291" s="25"/>
+      <c r="C291" s="33"/>
       <c r="D291" s="26"/>
       <c r="E291" s="26"/>
       <c r="F291" s="6"/>
@@ -11667,7 +11974,7 @@
     <row r="292" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A292" s="6"/>
       <c r="B292" s="6"/>
-      <c r="C292" s="25"/>
+      <c r="C292" s="33"/>
       <c r="D292" s="26"/>
       <c r="E292" s="26"/>
       <c r="F292" s="6"/>
@@ -11695,7 +12002,7 @@
     <row r="293" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A293" s="6"/>
       <c r="B293" s="6"/>
-      <c r="C293" s="25"/>
+      <c r="C293" s="33"/>
       <c r="D293" s="26"/>
       <c r="E293" s="26"/>
       <c r="F293" s="6"/>
@@ -11723,7 +12030,7 @@
     <row r="294" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A294" s="6"/>
       <c r="B294" s="6"/>
-      <c r="C294" s="25"/>
+      <c r="C294" s="33"/>
       <c r="D294" s="26"/>
       <c r="E294" s="26"/>
       <c r="F294" s="6"/>
@@ -11751,7 +12058,7 @@
     <row r="295" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A295" s="6"/>
       <c r="B295" s="6"/>
-      <c r="C295" s="25"/>
+      <c r="C295" s="33"/>
       <c r="D295" s="26"/>
       <c r="E295" s="26"/>
       <c r="F295" s="6"/>
@@ -11779,7 +12086,7 @@
     <row r="296" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A296" s="6"/>
       <c r="B296" s="6"/>
-      <c r="C296" s="25"/>
+      <c r="C296" s="33"/>
       <c r="D296" s="26"/>
       <c r="E296" s="26"/>
       <c r="F296" s="6"/>
@@ -11807,7 +12114,7 @@
     <row r="297" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A297" s="6"/>
       <c r="B297" s="6"/>
-      <c r="C297" s="25"/>
+      <c r="C297" s="33"/>
       <c r="D297" s="26"/>
       <c r="E297" s="26"/>
       <c r="F297" s="6"/>
@@ -11835,7 +12142,7 @@
     <row r="298" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A298" s="6"/>
       <c r="B298" s="6"/>
-      <c r="C298" s="25"/>
+      <c r="C298" s="33"/>
       <c r="D298" s="26"/>
       <c r="E298" s="26"/>
       <c r="F298" s="6"/>
@@ -11863,7 +12170,7 @@
     <row r="299" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A299" s="6"/>
       <c r="B299" s="6"/>
-      <c r="C299" s="25"/>
+      <c r="C299" s="33"/>
       <c r="D299" s="26"/>
       <c r="E299" s="26"/>
       <c r="F299" s="6"/>
@@ -11891,7 +12198,7 @@
     <row r="300" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A300" s="6"/>
       <c r="B300" s="6"/>
-      <c r="C300" s="25"/>
+      <c r="C300" s="33"/>
       <c r="D300" s="26"/>
       <c r="E300" s="26"/>
       <c r="F300" s="6"/>
@@ -11919,7 +12226,7 @@
     <row r="301" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A301" s="6"/>
       <c r="B301" s="6"/>
-      <c r="C301" s="25"/>
+      <c r="C301" s="33"/>
       <c r="D301" s="26"/>
       <c r="E301" s="26"/>
       <c r="F301" s="6"/>
@@ -11947,7 +12254,7 @@
     <row r="302" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A302" s="6"/>
       <c r="B302" s="6"/>
-      <c r="C302" s="25"/>
+      <c r="C302" s="33"/>
       <c r="D302" s="26"/>
       <c r="E302" s="26"/>
       <c r="F302" s="6"/>
@@ -11975,7 +12282,7 @@
     <row r="303" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A303" s="6"/>
       <c r="B303" s="6"/>
-      <c r="C303" s="25"/>
+      <c r="C303" s="33"/>
       <c r="D303" s="26"/>
       <c r="E303" s="26"/>
       <c r="F303" s="6"/>
@@ -12003,7 +12310,7 @@
     <row r="304" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A304" s="6"/>
       <c r="B304" s="6"/>
-      <c r="C304" s="25"/>
+      <c r="C304" s="33"/>
       <c r="D304" s="26"/>
       <c r="E304" s="26"/>
       <c r="F304" s="6"/>
@@ -12031,7 +12338,7 @@
     <row r="305" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A305" s="6"/>
       <c r="B305" s="6"/>
-      <c r="C305" s="25"/>
+      <c r="C305" s="33"/>
       <c r="D305" s="26"/>
       <c r="E305" s="26"/>
       <c r="F305" s="6"/>
@@ -12059,7 +12366,7 @@
     <row r="306" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A306" s="6"/>
       <c r="B306" s="6"/>
-      <c r="C306" s="25"/>
+      <c r="C306" s="33"/>
       <c r="D306" s="26"/>
       <c r="E306" s="26"/>
       <c r="F306" s="6"/>
@@ -12087,7 +12394,7 @@
     <row r="307" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A307" s="6"/>
       <c r="B307" s="6"/>
-      <c r="C307" s="25"/>
+      <c r="C307" s="33"/>
       <c r="D307" s="26"/>
       <c r="E307" s="26"/>
       <c r="F307" s="6"/>
@@ -12115,7 +12422,7 @@
     <row r="308" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A308" s="6"/>
       <c r="B308" s="6"/>
-      <c r="C308" s="25"/>
+      <c r="C308" s="33"/>
       <c r="D308" s="26"/>
       <c r="E308" s="26"/>
       <c r="F308" s="6"/>
@@ -12143,7 +12450,7 @@
     <row r="309" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A309" s="6"/>
       <c r="B309" s="6"/>
-      <c r="C309" s="25"/>
+      <c r="C309" s="33"/>
       <c r="D309" s="26"/>
       <c r="E309" s="26"/>
       <c r="F309" s="6"/>
@@ -12171,7 +12478,7 @@
     <row r="310" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A310" s="6"/>
       <c r="B310" s="6"/>
-      <c r="C310" s="25"/>
+      <c r="C310" s="33"/>
       <c r="D310" s="26"/>
       <c r="E310" s="26"/>
       <c r="F310" s="6"/>
@@ -12199,7 +12506,7 @@
     <row r="311" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A311" s="6"/>
       <c r="B311" s="6"/>
-      <c r="C311" s="25"/>
+      <c r="C311" s="33"/>
       <c r="D311" s="26"/>
       <c r="E311" s="26"/>
       <c r="F311" s="6"/>
@@ -12227,7 +12534,7 @@
     <row r="312" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A312" s="6"/>
       <c r="B312" s="6"/>
-      <c r="C312" s="25"/>
+      <c r="C312" s="33"/>
       <c r="D312" s="26"/>
       <c r="E312" s="26"/>
       <c r="F312" s="6"/>
@@ -12255,7 +12562,7 @@
     <row r="313" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A313" s="6"/>
       <c r="B313" s="6"/>
-      <c r="C313" s="25"/>
+      <c r="C313" s="33"/>
       <c r="D313" s="26"/>
       <c r="E313" s="26"/>
       <c r="F313" s="6"/>
@@ -12283,7 +12590,7 @@
     <row r="314" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A314" s="6"/>
       <c r="B314" s="6"/>
-      <c r="C314" s="25"/>
+      <c r="C314" s="33"/>
       <c r="D314" s="26"/>
       <c r="E314" s="26"/>
       <c r="F314" s="6"/>
@@ -12311,7 +12618,7 @@
     <row r="315" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A315" s="6"/>
       <c r="B315" s="6"/>
-      <c r="C315" s="25"/>
+      <c r="C315" s="33"/>
       <c r="D315" s="26"/>
       <c r="E315" s="26"/>
       <c r="F315" s="6"/>
@@ -12339,7 +12646,7 @@
     <row r="316" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A316" s="6"/>
       <c r="B316" s="6"/>
-      <c r="C316" s="25"/>
+      <c r="C316" s="33"/>
       <c r="D316" s="26"/>
       <c r="E316" s="26"/>
       <c r="F316" s="6"/>
@@ -12367,7 +12674,7 @@
     <row r="317" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A317" s="6"/>
       <c r="B317" s="6"/>
-      <c r="C317" s="25"/>
+      <c r="C317" s="33"/>
       <c r="D317" s="26"/>
       <c r="E317" s="26"/>
       <c r="F317" s="6"/>
@@ -12395,7 +12702,7 @@
     <row r="318" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A318" s="6"/>
       <c r="B318" s="6"/>
-      <c r="C318" s="25"/>
+      <c r="C318" s="33"/>
       <c r="D318" s="26"/>
       <c r="E318" s="26"/>
       <c r="F318" s="6"/>
@@ -12423,7 +12730,7 @@
     <row r="319" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A319" s="6"/>
       <c r="B319" s="6"/>
-      <c r="C319" s="25"/>
+      <c r="C319" s="33"/>
       <c r="D319" s="26"/>
       <c r="E319" s="26"/>
       <c r="F319" s="6"/>
@@ -12451,7 +12758,7 @@
     <row r="320" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A320" s="6"/>
       <c r="B320" s="6"/>
-      <c r="C320" s="25"/>
+      <c r="C320" s="33"/>
       <c r="D320" s="26"/>
       <c r="E320" s="26"/>
       <c r="F320" s="6"/>
@@ -12479,7 +12786,7 @@
     <row r="321" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A321" s="6"/>
       <c r="B321" s="6"/>
-      <c r="C321" s="25"/>
+      <c r="C321" s="33"/>
       <c r="D321" s="26"/>
       <c r="E321" s="26"/>
       <c r="F321" s="6"/>
@@ -12507,7 +12814,7 @@
     <row r="322" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A322" s="6"/>
       <c r="B322" s="6"/>
-      <c r="C322" s="25"/>
+      <c r="C322" s="33"/>
       <c r="D322" s="26"/>
       <c r="E322" s="26"/>
       <c r="F322" s="6"/>
@@ -12535,7 +12842,7 @@
     <row r="323" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A323" s="6"/>
       <c r="B323" s="6"/>
-      <c r="C323" s="25"/>
+      <c r="C323" s="33"/>
       <c r="D323" s="26"/>
       <c r="E323" s="26"/>
       <c r="F323" s="6"/>
@@ -12563,7 +12870,7 @@
     <row r="324" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A324" s="6"/>
       <c r="B324" s="6"/>
-      <c r="C324" s="25"/>
+      <c r="C324" s="33"/>
       <c r="D324" s="26"/>
       <c r="E324" s="26"/>
       <c r="F324" s="6"/>
@@ -12591,7 +12898,7 @@
     <row r="325" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A325" s="6"/>
       <c r="B325" s="6"/>
-      <c r="C325" s="25"/>
+      <c r="C325" s="33"/>
       <c r="D325" s="26"/>
       <c r="E325" s="26"/>
       <c r="F325" s="6"/>
@@ -12619,7 +12926,7 @@
     <row r="326" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A326" s="6"/>
       <c r="B326" s="6"/>
-      <c r="C326" s="25"/>
+      <c r="C326" s="33"/>
       <c r="D326" s="26"/>
       <c r="E326" s="26"/>
       <c r="F326" s="6"/>
@@ -12647,7 +12954,7 @@
     <row r="327" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A327" s="6"/>
       <c r="B327" s="6"/>
-      <c r="C327" s="25"/>
+      <c r="C327" s="33"/>
       <c r="D327" s="26"/>
       <c r="E327" s="26"/>
       <c r="F327" s="6"/>
@@ -12675,7 +12982,7 @@
     <row r="328" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A328" s="6"/>
       <c r="B328" s="6"/>
-      <c r="C328" s="25"/>
+      <c r="C328" s="33"/>
       <c r="D328" s="26"/>
       <c r="E328" s="26"/>
       <c r="F328" s="6"/>
@@ -12703,7 +13010,7 @@
     <row r="329" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A329" s="6"/>
       <c r="B329" s="6"/>
-      <c r="C329" s="25"/>
+      <c r="C329" s="33"/>
       <c r="D329" s="26"/>
       <c r="E329" s="26"/>
       <c r="F329" s="6"/>
@@ -12731,7 +13038,7 @@
     <row r="330" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A330" s="6"/>
       <c r="B330" s="6"/>
-      <c r="C330" s="25"/>
+      <c r="C330" s="33"/>
       <c r="D330" s="26"/>
       <c r="E330" s="26"/>
       <c r="F330" s="6"/>
@@ -12759,7 +13066,7 @@
     <row r="331" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A331" s="6"/>
       <c r="B331" s="6"/>
-      <c r="C331" s="25"/>
+      <c r="C331" s="33"/>
       <c r="D331" s="26"/>
       <c r="E331" s="26"/>
       <c r="F331" s="6"/>
@@ -12787,7 +13094,7 @@
     <row r="332" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A332" s="6"/>
       <c r="B332" s="6"/>
-      <c r="C332" s="25"/>
+      <c r="C332" s="33"/>
       <c r="D332" s="26"/>
       <c r="E332" s="26"/>
       <c r="F332" s="6"/>
@@ -12815,7 +13122,7 @@
     <row r="333" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A333" s="6"/>
       <c r="B333" s="6"/>
-      <c r="C333" s="25"/>
+      <c r="C333" s="33"/>
       <c r="D333" s="26"/>
       <c r="E333" s="26"/>
       <c r="F333" s="6"/>
@@ -12843,7 +13150,7 @@
     <row r="334" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A334" s="6"/>
       <c r="B334" s="6"/>
-      <c r="C334" s="25"/>
+      <c r="C334" s="33"/>
       <c r="D334" s="26"/>
       <c r="E334" s="26"/>
       <c r="F334" s="6"/>
@@ -12871,7 +13178,7 @@
     <row r="335" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A335" s="6"/>
       <c r="B335" s="6"/>
-      <c r="C335" s="25"/>
+      <c r="C335" s="33"/>
       <c r="D335" s="26"/>
       <c r="E335" s="26"/>
       <c r="F335" s="6"/>
@@ -12899,7 +13206,7 @@
     <row r="336" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A336" s="6"/>
       <c r="B336" s="6"/>
-      <c r="C336" s="25"/>
+      <c r="C336" s="33"/>
       <c r="D336" s="26"/>
       <c r="E336" s="26"/>
       <c r="F336" s="6"/>
@@ -12927,7 +13234,7 @@
     <row r="337" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A337" s="6"/>
       <c r="B337" s="6"/>
-      <c r="C337" s="25"/>
+      <c r="C337" s="33"/>
       <c r="D337" s="26"/>
       <c r="E337" s="26"/>
       <c r="F337" s="6"/>
@@ -12955,7 +13262,7 @@
     <row r="338" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A338" s="6"/>
       <c r="B338" s="6"/>
-      <c r="C338" s="25"/>
+      <c r="C338" s="33"/>
       <c r="D338" s="26"/>
       <c r="E338" s="26"/>
       <c r="F338" s="6"/>
@@ -12983,7 +13290,7 @@
     <row r="339" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A339" s="6"/>
       <c r="B339" s="6"/>
-      <c r="C339" s="25"/>
+      <c r="C339" s="33"/>
       <c r="D339" s="26"/>
       <c r="E339" s="26"/>
       <c r="F339" s="6"/>
@@ -13011,7 +13318,7 @@
     <row r="340" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A340" s="6"/>
       <c r="B340" s="6"/>
-      <c r="C340" s="25"/>
+      <c r="C340" s="33"/>
       <c r="D340" s="26"/>
       <c r="E340" s="26"/>
       <c r="F340" s="6"/>
@@ -13039,7 +13346,7 @@
     <row r="341" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A341" s="6"/>
       <c r="B341" s="6"/>
-      <c r="C341" s="25"/>
+      <c r="C341" s="33"/>
       <c r="D341" s="26"/>
       <c r="E341" s="26"/>
       <c r="F341" s="6"/>
@@ -13067,7 +13374,7 @@
     <row r="342" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A342" s="6"/>
       <c r="B342" s="6"/>
-      <c r="C342" s="25"/>
+      <c r="C342" s="33"/>
       <c r="D342" s="26"/>
       <c r="E342" s="26"/>
       <c r="F342" s="6"/>
@@ -13095,7 +13402,7 @@
     <row r="343" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A343" s="6"/>
       <c r="B343" s="6"/>
-      <c r="C343" s="25"/>
+      <c r="C343" s="33"/>
       <c r="D343" s="26"/>
       <c r="E343" s="26"/>
       <c r="F343" s="6"/>
@@ -13123,7 +13430,7 @@
     <row r="344" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A344" s="6"/>
       <c r="B344" s="6"/>
-      <c r="C344" s="25"/>
+      <c r="C344" s="33"/>
       <c r="D344" s="26"/>
       <c r="E344" s="26"/>
       <c r="F344" s="6"/>
@@ -13151,7 +13458,7 @@
     <row r="345" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A345" s="6"/>
       <c r="B345" s="6"/>
-      <c r="C345" s="25"/>
+      <c r="C345" s="33"/>
       <c r="D345" s="26"/>
       <c r="E345" s="26"/>
       <c r="F345" s="6"/>
@@ -13179,7 +13486,7 @@
     <row r="346" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A346" s="6"/>
       <c r="B346" s="6"/>
-      <c r="C346" s="25"/>
+      <c r="C346" s="33"/>
       <c r="D346" s="26"/>
       <c r="E346" s="26"/>
       <c r="F346" s="6"/>
@@ -13207,7 +13514,7 @@
     <row r="347" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A347" s="6"/>
       <c r="B347" s="6"/>
-      <c r="C347" s="25"/>
+      <c r="C347" s="33"/>
       <c r="D347" s="26"/>
       <c r="E347" s="26"/>
       <c r="F347" s="6"/>
@@ -13235,7 +13542,7 @@
     <row r="348" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A348" s="6"/>
       <c r="B348" s="6"/>
-      <c r="C348" s="25"/>
+      <c r="C348" s="33"/>
       <c r="D348" s="26"/>
       <c r="E348" s="26"/>
       <c r="F348" s="6"/>
@@ -13263,7 +13570,7 @@
     <row r="349" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A349" s="6"/>
       <c r="B349" s="6"/>
-      <c r="C349" s="25"/>
+      <c r="C349" s="33"/>
       <c r="D349" s="26"/>
       <c r="E349" s="26"/>
       <c r="F349" s="6"/>
@@ -13291,7 +13598,7 @@
     <row r="350" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A350" s="6"/>
       <c r="B350" s="6"/>
-      <c r="C350" s="25"/>
+      <c r="C350" s="33"/>
       <c r="D350" s="26"/>
       <c r="E350" s="26"/>
       <c r="F350" s="6"/>
@@ -13319,7 +13626,7 @@
     <row r="351" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A351" s="6"/>
       <c r="B351" s="6"/>
-      <c r="C351" s="25"/>
+      <c r="C351" s="33"/>
       <c r="D351" s="26"/>
       <c r="E351" s="26"/>
       <c r="F351" s="6"/>
@@ -13347,7 +13654,7 @@
     <row r="352" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A352" s="6"/>
       <c r="B352" s="6"/>
-      <c r="C352" s="25"/>
+      <c r="C352" s="33"/>
       <c r="D352" s="26"/>
       <c r="E352" s="26"/>
       <c r="F352" s="6"/>
@@ -13375,7 +13682,7 @@
     <row r="353" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A353" s="6"/>
       <c r="B353" s="6"/>
-      <c r="C353" s="25"/>
+      <c r="C353" s="33"/>
       <c r="D353" s="26"/>
       <c r="E353" s="26"/>
       <c r="F353" s="6"/>
@@ -13403,7 +13710,7 @@
     <row r="354" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A354" s="6"/>
       <c r="B354" s="6"/>
-      <c r="C354" s="25"/>
+      <c r="C354" s="33"/>
       <c r="D354" s="26"/>
       <c r="E354" s="26"/>
       <c r="F354" s="6"/>
@@ -13431,7 +13738,7 @@
     <row r="355" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A355" s="6"/>
       <c r="B355" s="6"/>
-      <c r="C355" s="25"/>
+      <c r="C355" s="33"/>
       <c r="D355" s="26"/>
       <c r="E355" s="26"/>
       <c r="F355" s="6"/>
@@ -13459,7 +13766,7 @@
     <row r="356" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A356" s="6"/>
       <c r="B356" s="6"/>
-      <c r="C356" s="25"/>
+      <c r="C356" s="33"/>
       <c r="D356" s="26"/>
       <c r="E356" s="26"/>
       <c r="F356" s="6"/>
@@ -13487,7 +13794,7 @@
     <row r="357" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A357" s="6"/>
       <c r="B357" s="6"/>
-      <c r="C357" s="25"/>
+      <c r="C357" s="33"/>
       <c r="D357" s="26"/>
       <c r="E357" s="26"/>
       <c r="F357" s="6"/>
@@ -13515,7 +13822,7 @@
     <row r="358" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A358" s="6"/>
       <c r="B358" s="6"/>
-      <c r="C358" s="25"/>
+      <c r="C358" s="33"/>
       <c r="D358" s="26"/>
       <c r="E358" s="26"/>
       <c r="F358" s="6"/>
@@ -13543,7 +13850,7 @@
     <row r="359" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A359" s="6"/>
       <c r="B359" s="6"/>
-      <c r="C359" s="25"/>
+      <c r="C359" s="33"/>
       <c r="D359" s="26"/>
       <c r="E359" s="26"/>
       <c r="F359" s="6"/>
@@ -13571,7 +13878,7 @@
     <row r="360" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A360" s="6"/>
       <c r="B360" s="6"/>
-      <c r="C360" s="25"/>
+      <c r="C360" s="33"/>
       <c r="D360" s="26"/>
       <c r="E360" s="26"/>
       <c r="F360" s="6"/>
@@ -13599,7 +13906,7 @@
     <row r="361" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A361" s="6"/>
       <c r="B361" s="6"/>
-      <c r="C361" s="25"/>
+      <c r="C361" s="33"/>
       <c r="D361" s="26"/>
       <c r="E361" s="26"/>
       <c r="F361" s="6"/>
@@ -13627,7 +13934,7 @@
     <row r="362" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A362" s="6"/>
       <c r="B362" s="6"/>
-      <c r="C362" s="25"/>
+      <c r="C362" s="33"/>
       <c r="D362" s="26"/>
       <c r="E362" s="26"/>
       <c r="F362" s="6"/>
@@ -13655,7 +13962,7 @@
     <row r="363" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A363" s="6"/>
       <c r="B363" s="6"/>
-      <c r="C363" s="25"/>
+      <c r="C363" s="33"/>
       <c r="D363" s="26"/>
       <c r="E363" s="26"/>
       <c r="F363" s="6"/>
@@ -13683,7 +13990,7 @@
     <row r="364" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A364" s="6"/>
       <c r="B364" s="6"/>
-      <c r="C364" s="25"/>
+      <c r="C364" s="33"/>
       <c r="D364" s="26"/>
       <c r="E364" s="26"/>
       <c r="F364" s="6"/>
@@ -13711,7 +14018,7 @@
     <row r="365" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A365" s="6"/>
       <c r="B365" s="6"/>
-      <c r="C365" s="25"/>
+      <c r="C365" s="33"/>
       <c r="D365" s="26"/>
       <c r="E365" s="26"/>
       <c r="F365" s="6"/>
@@ -13739,7 +14046,7 @@
     <row r="366" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A366" s="6"/>
       <c r="B366" s="6"/>
-      <c r="C366" s="25"/>
+      <c r="C366" s="33"/>
       <c r="D366" s="26"/>
       <c r="E366" s="26"/>
       <c r="F366" s="6"/>
@@ -13767,7 +14074,7 @@
     <row r="367" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A367" s="6"/>
       <c r="B367" s="6"/>
-      <c r="C367" s="25"/>
+      <c r="C367" s="33"/>
       <c r="D367" s="26"/>
       <c r="E367" s="26"/>
       <c r="F367" s="6"/>
@@ -13795,7 +14102,7 @@
     <row r="368" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A368" s="6"/>
       <c r="B368" s="6"/>
-      <c r="C368" s="25"/>
+      <c r="C368" s="33"/>
       <c r="D368" s="26"/>
       <c r="E368" s="26"/>
       <c r="F368" s="6"/>
@@ -13823,7 +14130,7 @@
     <row r="369" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A369" s="6"/>
       <c r="B369" s="6"/>
-      <c r="C369" s="25"/>
+      <c r="C369" s="33"/>
       <c r="D369" s="26"/>
       <c r="E369" s="26"/>
       <c r="F369" s="6"/>
@@ -13851,7 +14158,7 @@
     <row r="370" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A370" s="6"/>
       <c r="B370" s="6"/>
-      <c r="C370" s="25"/>
+      <c r="C370" s="33"/>
       <c r="D370" s="26"/>
       <c r="E370" s="26"/>
       <c r="F370" s="6"/>
@@ -13879,7 +14186,7 @@
     <row r="371" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A371" s="6"/>
       <c r="B371" s="6"/>
-      <c r="C371" s="25"/>
+      <c r="C371" s="33"/>
       <c r="D371" s="26"/>
       <c r="E371" s="26"/>
       <c r="F371" s="6"/>
@@ -13907,7 +14214,7 @@
     <row r="372" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A372" s="6"/>
       <c r="B372" s="6"/>
-      <c r="C372" s="25"/>
+      <c r="C372" s="33"/>
       <c r="D372" s="26"/>
       <c r="E372" s="26"/>
       <c r="F372" s="6"/>
@@ -13935,7 +14242,7 @@
     <row r="373" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A373" s="6"/>
       <c r="B373" s="6"/>
-      <c r="C373" s="25"/>
+      <c r="C373" s="33"/>
       <c r="D373" s="26"/>
       <c r="E373" s="26"/>
       <c r="F373" s="6"/>
@@ -13963,7 +14270,7 @@
     <row r="374" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A374" s="6"/>
       <c r="B374" s="6"/>
-      <c r="C374" s="25"/>
+      <c r="C374" s="33"/>
       <c r="D374" s="26"/>
       <c r="E374" s="26"/>
       <c r="F374" s="6"/>
@@ -13991,7 +14298,7 @@
     <row r="375" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A375" s="6"/>
       <c r="B375" s="6"/>
-      <c r="C375" s="25"/>
+      <c r="C375" s="33"/>
       <c r="D375" s="26"/>
       <c r="E375" s="26"/>
       <c r="F375" s="6"/>
@@ -14019,7 +14326,7 @@
     <row r="376" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A376" s="6"/>
       <c r="B376" s="6"/>
-      <c r="C376" s="25"/>
+      <c r="C376" s="33"/>
       <c r="D376" s="26"/>
       <c r="E376" s="26"/>
       <c r="F376" s="6"/>
@@ -14047,7 +14354,7 @@
     <row r="377" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A377" s="6"/>
       <c r="B377" s="6"/>
-      <c r="C377" s="25"/>
+      <c r="C377" s="33"/>
       <c r="D377" s="26"/>
       <c r="E377" s="26"/>
       <c r="F377" s="6"/>
@@ -14075,7 +14382,7 @@
     <row r="378" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A378" s="6"/>
       <c r="B378" s="6"/>
-      <c r="C378" s="25"/>
+      <c r="C378" s="33"/>
       <c r="D378" s="26"/>
       <c r="E378" s="26"/>
       <c r="F378" s="6"/>
@@ -14103,7 +14410,7 @@
     <row r="379" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A379" s="6"/>
       <c r="B379" s="6"/>
-      <c r="C379" s="25"/>
+      <c r="C379" s="33"/>
       <c r="D379" s="26"/>
       <c r="E379" s="26"/>
       <c r="F379" s="6"/>
@@ -14131,7 +14438,7 @@
     <row r="380" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A380" s="6"/>
       <c r="B380" s="6"/>
-      <c r="C380" s="25"/>
+      <c r="C380" s="33"/>
       <c r="D380" s="26"/>
       <c r="E380" s="26"/>
       <c r="F380" s="6"/>
@@ -14159,7 +14466,7 @@
     <row r="381" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A381" s="6"/>
       <c r="B381" s="6"/>
-      <c r="C381" s="25"/>
+      <c r="C381" s="33"/>
       <c r="D381" s="26"/>
       <c r="E381" s="26"/>
       <c r="F381" s="6"/>
@@ -14187,7 +14494,7 @@
     <row r="382" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A382" s="6"/>
       <c r="B382" s="6"/>
-      <c r="C382" s="25"/>
+      <c r="C382" s="33"/>
       <c r="D382" s="26"/>
       <c r="E382" s="26"/>
       <c r="F382" s="6"/>
@@ -14215,7 +14522,7 @@
     <row r="383" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A383" s="6"/>
       <c r="B383" s="6"/>
-      <c r="C383" s="25"/>
+      <c r="C383" s="33"/>
       <c r="D383" s="26"/>
       <c r="E383" s="26"/>
       <c r="F383" s="6"/>
@@ -14243,7 +14550,7 @@
     <row r="384" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A384" s="6"/>
       <c r="B384" s="6"/>
-      <c r="C384" s="25"/>
+      <c r="C384" s="33"/>
       <c r="D384" s="26"/>
       <c r="E384" s="26"/>
       <c r="F384" s="6"/>
@@ -14271,7 +14578,7 @@
     <row r="385" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A385" s="6"/>
       <c r="B385" s="6"/>
-      <c r="C385" s="25"/>
+      <c r="C385" s="33"/>
       <c r="D385" s="26"/>
       <c r="E385" s="26"/>
       <c r="F385" s="6"/>
@@ -14299,7 +14606,7 @@
     <row r="386" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A386" s="6"/>
       <c r="B386" s="6"/>
-      <c r="C386" s="25"/>
+      <c r="C386" s="33"/>
       <c r="D386" s="26"/>
       <c r="E386" s="26"/>
       <c r="F386" s="6"/>
@@ -14327,7 +14634,7 @@
     <row r="387" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A387" s="6"/>
       <c r="B387" s="6"/>
-      <c r="C387" s="25"/>
+      <c r="C387" s="33"/>
       <c r="D387" s="26"/>
       <c r="E387" s="26"/>
       <c r="F387" s="6"/>
@@ -14355,7 +14662,7 @@
     <row r="388" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A388" s="6"/>
       <c r="B388" s="6"/>
-      <c r="C388" s="25"/>
+      <c r="C388" s="33"/>
       <c r="D388" s="26"/>
       <c r="E388" s="26"/>
       <c r="F388" s="6"/>
@@ -14383,7 +14690,7 @@
     <row r="389" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A389" s="6"/>
       <c r="B389" s="6"/>
-      <c r="C389" s="25"/>
+      <c r="C389" s="33"/>
       <c r="D389" s="26"/>
       <c r="E389" s="26"/>
       <c r="F389" s="6"/>
@@ -14411,7 +14718,7 @@
     <row r="390" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A390" s="6"/>
       <c r="B390" s="6"/>
-      <c r="C390" s="25"/>
+      <c r="C390" s="33"/>
       <c r="D390" s="26"/>
       <c r="E390" s="26"/>
       <c r="F390" s="6"/>
@@ -14439,7 +14746,7 @@
     <row r="391" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A391" s="6"/>
       <c r="B391" s="6"/>
-      <c r="C391" s="25"/>
+      <c r="C391" s="33"/>
       <c r="D391" s="26"/>
       <c r="E391" s="26"/>
       <c r="F391" s="6"/>
@@ -14467,7 +14774,7 @@
     <row r="392" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A392" s="6"/>
       <c r="B392" s="6"/>
-      <c r="C392" s="25"/>
+      <c r="C392" s="33"/>
       <c r="D392" s="26"/>
       <c r="E392" s="26"/>
       <c r="F392" s="6"/>
@@ -14495,7 +14802,7 @@
     <row r="393" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A393" s="6"/>
       <c r="B393" s="6"/>
-      <c r="C393" s="25"/>
+      <c r="C393" s="33"/>
       <c r="D393" s="26"/>
       <c r="E393" s="26"/>
       <c r="F393" s="6"/>
@@ -14523,7 +14830,7 @@
     <row r="394" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A394" s="6"/>
       <c r="B394" s="6"/>
-      <c r="C394" s="25"/>
+      <c r="C394" s="33"/>
       <c r="D394" s="26"/>
       <c r="E394" s="26"/>
       <c r="F394" s="6"/>
@@ -14551,7 +14858,7 @@
     <row r="395" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A395" s="6"/>
       <c r="B395" s="6"/>
-      <c r="C395" s="25"/>
+      <c r="C395" s="33"/>
       <c r="D395" s="26"/>
       <c r="E395" s="26"/>
       <c r="F395" s="6"/>
@@ -14579,7 +14886,7 @@
     <row r="396" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A396" s="6"/>
       <c r="B396" s="6"/>
-      <c r="C396" s="25"/>
+      <c r="C396" s="33"/>
       <c r="D396" s="26"/>
       <c r="E396" s="26"/>
       <c r="F396" s="6"/>
@@ -14607,7 +14914,7 @@
     <row r="397" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A397" s="6"/>
       <c r="B397" s="6"/>
-      <c r="C397" s="25"/>
+      <c r="C397" s="33"/>
       <c r="D397" s="26"/>
       <c r="E397" s="26"/>
       <c r="F397" s="6"/>
@@ -14635,7 +14942,7 @@
     <row r="398" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A398" s="6"/>
       <c r="B398" s="6"/>
-      <c r="C398" s="25"/>
+      <c r="C398" s="33"/>
       <c r="D398" s="26"/>
       <c r="E398" s="26"/>
       <c r="F398" s="6"/>
@@ -14663,7 +14970,7 @@
     <row r="399" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A399" s="6"/>
       <c r="B399" s="6"/>
-      <c r="C399" s="25"/>
+      <c r="C399" s="33"/>
       <c r="D399" s="26"/>
       <c r="E399" s="26"/>
       <c r="F399" s="6"/>
@@ -14691,7 +14998,7 @@
     <row r="400" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A400" s="6"/>
       <c r="B400" s="6"/>
-      <c r="C400" s="25"/>
+      <c r="C400" s="33"/>
       <c r="D400" s="26"/>
       <c r="E400" s="26"/>
       <c r="F400" s="6"/>
@@ -14719,7 +15026,7 @@
     <row r="401" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A401" s="6"/>
       <c r="B401" s="6"/>
-      <c r="C401" s="25"/>
+      <c r="C401" s="33"/>
       <c r="D401" s="26"/>
       <c r="E401" s="26"/>
       <c r="F401" s="6"/>
@@ -14747,7 +15054,7 @@
     <row r="402" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A402" s="6"/>
       <c r="B402" s="6"/>
-      <c r="C402" s="25"/>
+      <c r="C402" s="33"/>
       <c r="D402" s="26"/>
       <c r="E402" s="26"/>
       <c r="F402" s="6"/>
@@ -14775,7 +15082,7 @@
     <row r="403" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A403" s="6"/>
       <c r="B403" s="6"/>
-      <c r="C403" s="25"/>
+      <c r="C403" s="33"/>
       <c r="D403" s="26"/>
       <c r="E403" s="26"/>
       <c r="F403" s="6"/>
@@ -14803,7 +15110,7 @@
     <row r="404" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A404" s="6"/>
       <c r="B404" s="6"/>
-      <c r="C404" s="25"/>
+      <c r="C404" s="33"/>
       <c r="D404" s="26"/>
       <c r="E404" s="26"/>
       <c r="F404" s="6"/>
@@ -14831,7 +15138,7 @@
     <row r="405" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A405" s="6"/>
       <c r="B405" s="6"/>
-      <c r="C405" s="25"/>
+      <c r="C405" s="33"/>
       <c r="D405" s="26"/>
       <c r="E405" s="26"/>
       <c r="F405" s="6"/>
@@ -14859,7 +15166,7 @@
     <row r="406" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A406" s="6"/>
       <c r="B406" s="6"/>
-      <c r="C406" s="25"/>
+      <c r="C406" s="33"/>
       <c r="D406" s="26"/>
       <c r="E406" s="26"/>
       <c r="F406" s="6"/>
@@ -14887,7 +15194,7 @@
     <row r="407" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A407" s="6"/>
       <c r="B407" s="6"/>
-      <c r="C407" s="25"/>
+      <c r="C407" s="33"/>
       <c r="D407" s="26"/>
       <c r="E407" s="26"/>
       <c r="F407" s="6"/>
@@ -14915,7 +15222,7 @@
     <row r="408" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A408" s="6"/>
       <c r="B408" s="6"/>
-      <c r="C408" s="25"/>
+      <c r="C408" s="33"/>
       <c r="D408" s="26"/>
       <c r="E408" s="26"/>
       <c r="F408" s="6"/>
@@ -14943,7 +15250,7 @@
     <row r="409" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A409" s="6"/>
       <c r="B409" s="6"/>
-      <c r="C409" s="25"/>
+      <c r="C409" s="33"/>
       <c r="D409" s="26"/>
       <c r="E409" s="26"/>
       <c r="F409" s="6"/>
@@ -14971,7 +15278,7 @@
     <row r="410" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A410" s="6"/>
       <c r="B410" s="6"/>
-      <c r="C410" s="25"/>
+      <c r="C410" s="33"/>
       <c r="D410" s="26"/>
       <c r="E410" s="26"/>
       <c r="F410" s="6"/>
@@ -14999,7 +15306,7 @@
     <row r="411" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A411" s="6"/>
       <c r="B411" s="6"/>
-      <c r="C411" s="25"/>
+      <c r="C411" s="33"/>
       <c r="D411" s="26"/>
       <c r="E411" s="26"/>
       <c r="F411" s="6"/>
@@ -15027,7 +15334,7 @@
     <row r="412" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A412" s="6"/>
       <c r="B412" s="6"/>
-      <c r="C412" s="25"/>
+      <c r="C412" s="33"/>
       <c r="D412" s="26"/>
       <c r="E412" s="26"/>
       <c r="F412" s="6"/>
@@ -15055,7 +15362,7 @@
     <row r="413" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A413" s="6"/>
       <c r="B413" s="6"/>
-      <c r="C413" s="25"/>
+      <c r="C413" s="33"/>
       <c r="D413" s="26"/>
       <c r="E413" s="26"/>
       <c r="F413" s="6"/>
@@ -15083,7 +15390,7 @@
     <row r="414" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A414" s="6"/>
       <c r="B414" s="6"/>
-      <c r="C414" s="25"/>
+      <c r="C414" s="33"/>
       <c r="D414" s="26"/>
       <c r="E414" s="26"/>
       <c r="F414" s="6"/>
@@ -15111,7 +15418,7 @@
     <row r="415" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A415" s="6"/>
       <c r="B415" s="6"/>
-      <c r="C415" s="25"/>
+      <c r="C415" s="33"/>
       <c r="D415" s="26"/>
       <c r="E415" s="26"/>
       <c r="F415" s="6"/>
@@ -15139,7 +15446,7 @@
     <row r="416" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A416" s="6"/>
       <c r="B416" s="6"/>
-      <c r="C416" s="25"/>
+      <c r="C416" s="33"/>
       <c r="D416" s="26"/>
       <c r="E416" s="26"/>
       <c r="F416" s="6"/>
@@ -15167,7 +15474,7 @@
     <row r="417" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A417" s="6"/>
       <c r="B417" s="6"/>
-      <c r="C417" s="25"/>
+      <c r="C417" s="33"/>
       <c r="D417" s="26"/>
       <c r="E417" s="26"/>
       <c r="F417" s="6"/>
@@ -15195,7 +15502,7 @@
     <row r="418" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A418" s="6"/>
       <c r="B418" s="6"/>
-      <c r="C418" s="25"/>
+      <c r="C418" s="33"/>
       <c r="D418" s="26"/>
       <c r="E418" s="26"/>
       <c r="F418" s="6"/>
@@ -15223,7 +15530,7 @@
     <row r="419" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A419" s="6"/>
       <c r="B419" s="6"/>
-      <c r="C419" s="25"/>
+      <c r="C419" s="33"/>
       <c r="D419" s="26"/>
       <c r="E419" s="26"/>
       <c r="F419" s="6"/>
@@ -15251,7 +15558,7 @@
     <row r="420" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A420" s="6"/>
       <c r="B420" s="6"/>
-      <c r="C420" s="25"/>
+      <c r="C420" s="33"/>
       <c r="D420" s="26"/>
       <c r="E420" s="26"/>
       <c r="F420" s="6"/>
@@ -15279,7 +15586,7 @@
     <row r="421" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A421" s="6"/>
       <c r="B421" s="6"/>
-      <c r="C421" s="25"/>
+      <c r="C421" s="33"/>
       <c r="D421" s="26"/>
       <c r="E421" s="26"/>
       <c r="F421" s="6"/>
@@ -15307,7 +15614,7 @@
     <row r="422" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A422" s="6"/>
       <c r="B422" s="6"/>
-      <c r="C422" s="25"/>
+      <c r="C422" s="33"/>
       <c r="D422" s="26"/>
       <c r="E422" s="26"/>
       <c r="F422" s="6"/>
@@ -15335,7 +15642,7 @@
     <row r="423" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A423" s="6"/>
       <c r="B423" s="6"/>
-      <c r="C423" s="25"/>
+      <c r="C423" s="33"/>
       <c r="D423" s="26"/>
       <c r="E423" s="26"/>
       <c r="F423" s="6"/>
@@ -15363,7 +15670,7 @@
     <row r="424" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A424" s="6"/>
       <c r="B424" s="6"/>
-      <c r="C424" s="25"/>
+      <c r="C424" s="33"/>
       <c r="D424" s="26"/>
       <c r="E424" s="26"/>
       <c r="F424" s="6"/>
@@ -15391,7 +15698,7 @@
     <row r="425" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A425" s="6"/>
       <c r="B425" s="6"/>
-      <c r="C425" s="25"/>
+      <c r="C425" s="33"/>
       <c r="D425" s="26"/>
       <c r="E425" s="26"/>
       <c r="F425" s="6"/>
@@ -15419,7 +15726,7 @@
     <row r="426" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A426" s="6"/>
       <c r="B426" s="6"/>
-      <c r="C426" s="25"/>
+      <c r="C426" s="33"/>
       <c r="D426" s="26"/>
       <c r="E426" s="26"/>
       <c r="F426" s="6"/>
@@ -15447,7 +15754,7 @@
     <row r="427" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A427" s="6"/>
       <c r="B427" s="6"/>
-      <c r="C427" s="25"/>
+      <c r="C427" s="33"/>
       <c r="D427" s="26"/>
       <c r="E427" s="26"/>
       <c r="F427" s="6"/>
@@ -15475,7 +15782,7 @@
     <row r="428" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A428" s="6"/>
       <c r="B428" s="6"/>
-      <c r="C428" s="25"/>
+      <c r="C428" s="33"/>
       <c r="D428" s="26"/>
       <c r="E428" s="26"/>
       <c r="F428" s="6"/>
@@ -15503,7 +15810,7 @@
     <row r="429" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A429" s="6"/>
       <c r="B429" s="6"/>
-      <c r="C429" s="25"/>
+      <c r="C429" s="33"/>
       <c r="D429" s="26"/>
       <c r="E429" s="26"/>
       <c r="F429" s="6"/>
@@ -15531,7 +15838,7 @@
     <row r="430" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A430" s="6"/>
       <c r="B430" s="6"/>
-      <c r="C430" s="25"/>
+      <c r="C430" s="33"/>
       <c r="D430" s="26"/>
       <c r="E430" s="26"/>
       <c r="F430" s="6"/>
@@ -15559,7 +15866,7 @@
     <row r="431" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A431" s="6"/>
       <c r="B431" s="6"/>
-      <c r="C431" s="25"/>
+      <c r="C431" s="33"/>
       <c r="D431" s="26"/>
       <c r="E431" s="26"/>
       <c r="F431" s="6"/>
@@ -15587,7 +15894,7 @@
     <row r="432" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A432" s="6"/>
       <c r="B432" s="6"/>
-      <c r="C432" s="25"/>
+      <c r="C432" s="33"/>
       <c r="D432" s="26"/>
       <c r="E432" s="26"/>
       <c r="F432" s="6"/>
@@ -15615,7 +15922,7 @@
     <row r="433" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A433" s="6"/>
       <c r="B433" s="6"/>
-      <c r="C433" s="25"/>
+      <c r="C433" s="33"/>
       <c r="D433" s="26"/>
       <c r="E433" s="26"/>
       <c r="F433" s="6"/>
@@ -15643,7 +15950,7 @@
     <row r="434" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A434" s="6"/>
       <c r="B434" s="6"/>
-      <c r="C434" s="25"/>
+      <c r="C434" s="33"/>
       <c r="D434" s="26"/>
       <c r="E434" s="26"/>
       <c r="F434" s="6"/>
@@ -15671,7 +15978,7 @@
     <row r="435" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A435" s="6"/>
       <c r="B435" s="6"/>
-      <c r="C435" s="25"/>
+      <c r="C435" s="33"/>
       <c r="D435" s="26"/>
       <c r="E435" s="26"/>
       <c r="F435" s="6"/>
@@ -15699,7 +16006,7 @@
     <row r="436" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A436" s="6"/>
       <c r="B436" s="6"/>
-      <c r="C436" s="25"/>
+      <c r="C436" s="33"/>
       <c r="D436" s="26"/>
       <c r="E436" s="26"/>
       <c r="F436" s="6"/>
@@ -15727,7 +16034,7 @@
     <row r="437" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A437" s="6"/>
       <c r="B437" s="6"/>
-      <c r="C437" s="25"/>
+      <c r="C437" s="33"/>
       <c r="D437" s="26"/>
       <c r="E437" s="26"/>
       <c r="F437" s="6"/>
@@ -15755,7 +16062,7 @@
     <row r="438" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A438" s="6"/>
       <c r="B438" s="6"/>
-      <c r="C438" s="25"/>
+      <c r="C438" s="33"/>
       <c r="D438" s="26"/>
       <c r="E438" s="26"/>
       <c r="F438" s="6"/>
@@ -15783,7 +16090,7 @@
     <row r="439" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A439" s="6"/>
       <c r="B439" s="6"/>
-      <c r="C439" s="25"/>
+      <c r="C439" s="33"/>
       <c r="D439" s="26"/>
       <c r="E439" s="26"/>
       <c r="F439" s="6"/>
@@ -15811,7 +16118,7 @@
     <row r="440" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A440" s="6"/>
       <c r="B440" s="6"/>
-      <c r="C440" s="25"/>
+      <c r="C440" s="33"/>
       <c r="D440" s="26"/>
       <c r="E440" s="26"/>
       <c r="F440" s="6"/>
@@ -15839,7 +16146,7 @@
     <row r="441" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A441" s="6"/>
       <c r="B441" s="6"/>
-      <c r="C441" s="25"/>
+      <c r="C441" s="33"/>
       <c r="D441" s="26"/>
       <c r="E441" s="26"/>
       <c r="F441" s="6"/>
@@ -15867,7 +16174,7 @@
     <row r="442" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A442" s="6"/>
       <c r="B442" s="6"/>
-      <c r="C442" s="25"/>
+      <c r="C442" s="33"/>
       <c r="D442" s="26"/>
       <c r="E442" s="26"/>
       <c r="F442" s="6"/>
@@ -15895,7 +16202,7 @@
     <row r="443" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A443" s="6"/>
       <c r="B443" s="6"/>
-      <c r="C443" s="25"/>
+      <c r="C443" s="33"/>
       <c r="D443" s="26"/>
       <c r="E443" s="26"/>
       <c r="F443" s="6"/>
@@ -15923,7 +16230,7 @@
     <row r="444" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A444" s="6"/>
       <c r="B444" s="6"/>
-      <c r="C444" s="25"/>
+      <c r="C444" s="33"/>
       <c r="D444" s="26"/>
       <c r="E444" s="26"/>
       <c r="F444" s="6"/>
@@ -15951,7 +16258,7 @@
     <row r="445" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A445" s="6"/>
       <c r="B445" s="6"/>
-      <c r="C445" s="25"/>
+      <c r="C445" s="33"/>
       <c r="D445" s="26"/>
       <c r="E445" s="26"/>
       <c r="F445" s="6"/>
@@ -15979,7 +16286,7 @@
     <row r="446" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A446" s="6"/>
       <c r="B446" s="6"/>
-      <c r="C446" s="25"/>
+      <c r="C446" s="33"/>
       <c r="D446" s="26"/>
       <c r="E446" s="26"/>
       <c r="F446" s="6"/>
@@ -16007,7 +16314,7 @@
     <row r="447" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A447" s="6"/>
       <c r="B447" s="6"/>
-      <c r="C447" s="25"/>
+      <c r="C447" s="33"/>
       <c r="D447" s="26"/>
       <c r="E447" s="26"/>
       <c r="F447" s="6"/>
@@ -16035,7 +16342,7 @@
     <row r="448" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A448" s="6"/>
       <c r="B448" s="6"/>
-      <c r="C448" s="25"/>
+      <c r="C448" s="33"/>
       <c r="D448" s="26"/>
       <c r="E448" s="26"/>
       <c r="F448" s="6"/>
@@ -16063,7 +16370,7 @@
     <row r="449" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A449" s="6"/>
       <c r="B449" s="6"/>
-      <c r="C449" s="25"/>
+      <c r="C449" s="33"/>
       <c r="D449" s="26"/>
       <c r="E449" s="26"/>
       <c r="F449" s="6"/>
@@ -16091,7 +16398,7 @@
     <row r="450" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A450" s="6"/>
       <c r="B450" s="6"/>
-      <c r="C450" s="25"/>
+      <c r="C450" s="33"/>
       <c r="D450" s="26"/>
       <c r="E450" s="26"/>
       <c r="F450" s="6"/>
@@ -16119,7 +16426,7 @@
     <row r="451" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A451" s="6"/>
       <c r="B451" s="6"/>
-      <c r="C451" s="25"/>
+      <c r="C451" s="33"/>
       <c r="D451" s="26"/>
       <c r="E451" s="26"/>
       <c r="F451" s="6"/>
@@ -16147,7 +16454,7 @@
     <row r="452" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A452" s="6"/>
       <c r="B452" s="6"/>
-      <c r="C452" s="25"/>
+      <c r="C452" s="33"/>
       <c r="D452" s="26"/>
       <c r="E452" s="26"/>
       <c r="F452" s="6"/>
@@ -16175,7 +16482,7 @@
     <row r="453" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A453" s="6"/>
       <c r="B453" s="6"/>
-      <c r="C453" s="25"/>
+      <c r="C453" s="33"/>
       <c r="D453" s="26"/>
       <c r="E453" s="26"/>
       <c r="F453" s="6"/>
@@ -16203,7 +16510,7 @@
     <row r="454" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A454" s="6"/>
       <c r="B454" s="6"/>
-      <c r="C454" s="25"/>
+      <c r="C454" s="33"/>
       <c r="D454" s="26"/>
       <c r="E454" s="26"/>
       <c r="F454" s="6"/>
@@ -16231,7 +16538,7 @@
     <row r="455" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A455" s="6"/>
       <c r="B455" s="6"/>
-      <c r="C455" s="25"/>
+      <c r="C455" s="33"/>
       <c r="D455" s="26"/>
       <c r="E455" s="26"/>
       <c r="F455" s="6"/>
@@ -16259,7 +16566,7 @@
     <row r="456" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A456" s="6"/>
       <c r="B456" s="6"/>
-      <c r="C456" s="25"/>
+      <c r="C456" s="33"/>
       <c r="D456" s="26"/>
       <c r="E456" s="26"/>
       <c r="F456" s="6"/>
@@ -16287,7 +16594,7 @@
     <row r="457" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A457" s="6"/>
       <c r="B457" s="6"/>
-      <c r="C457" s="25"/>
+      <c r="C457" s="33"/>
       <c r="D457" s="26"/>
       <c r="E457" s="26"/>
       <c r="F457" s="6"/>
@@ -16315,7 +16622,7 @@
     <row r="458" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A458" s="6"/>
       <c r="B458" s="6"/>
-      <c r="C458" s="25"/>
+      <c r="C458" s="33"/>
       <c r="D458" s="26"/>
       <c r="E458" s="26"/>
       <c r="F458" s="6"/>
@@ -16343,7 +16650,7 @@
     <row r="459" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A459" s="6"/>
       <c r="B459" s="6"/>
-      <c r="C459" s="25"/>
+      <c r="C459" s="33"/>
       <c r="D459" s="26"/>
       <c r="E459" s="26"/>
       <c r="F459" s="6"/>
@@ -16371,7 +16678,7 @@
     <row r="460" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A460" s="6"/>
       <c r="B460" s="6"/>
-      <c r="C460" s="25"/>
+      <c r="C460" s="33"/>
       <c r="D460" s="26"/>
       <c r="E460" s="26"/>
       <c r="F460" s="6"/>
@@ -16399,7 +16706,7 @@
     <row r="461" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A461" s="6"/>
       <c r="B461" s="6"/>
-      <c r="C461" s="25"/>
+      <c r="C461" s="33"/>
       <c r="D461" s="26"/>
       <c r="E461" s="26"/>
       <c r="F461" s="6"/>
@@ -16427,7 +16734,7 @@
     <row r="462" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A462" s="6"/>
       <c r="B462" s="6"/>
-      <c r="C462" s="25"/>
+      <c r="C462" s="33"/>
       <c r="D462" s="26"/>
       <c r="E462" s="26"/>
       <c r="F462" s="6"/>
@@ -16455,7 +16762,7 @@
     <row r="463" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A463" s="6"/>
       <c r="B463" s="6"/>
-      <c r="C463" s="25"/>
+      <c r="C463" s="33"/>
       <c r="D463" s="26"/>
       <c r="E463" s="26"/>
       <c r="F463" s="6"/>
@@ -16483,7 +16790,7 @@
     <row r="464" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A464" s="6"/>
       <c r="B464" s="6"/>
-      <c r="C464" s="25"/>
+      <c r="C464" s="33"/>
       <c r="D464" s="26"/>
       <c r="E464" s="26"/>
       <c r="F464" s="6"/>
@@ -16511,7 +16818,7 @@
     <row r="465" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A465" s="6"/>
       <c r="B465" s="6"/>
-      <c r="C465" s="25"/>
+      <c r="C465" s="33"/>
       <c r="D465" s="26"/>
       <c r="E465" s="26"/>
       <c r="F465" s="6"/>
@@ -16539,7 +16846,7 @@
     <row r="466" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A466" s="6"/>
       <c r="B466" s="6"/>
-      <c r="C466" s="25"/>
+      <c r="C466" s="33"/>
       <c r="D466" s="26"/>
       <c r="E466" s="26"/>
       <c r="F466" s="6"/>
@@ -16567,7 +16874,7 @@
     <row r="467" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A467" s="6"/>
       <c r="B467" s="6"/>
-      <c r="C467" s="25"/>
+      <c r="C467" s="33"/>
       <c r="D467" s="26"/>
       <c r="E467" s="26"/>
       <c r="F467" s="6"/>
@@ -16595,7 +16902,7 @@
     <row r="468" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A468" s="6"/>
       <c r="B468" s="6"/>
-      <c r="C468" s="25"/>
+      <c r="C468" s="33"/>
       <c r="D468" s="26"/>
       <c r="E468" s="26"/>
       <c r="F468" s="6"/>
@@ -16623,7 +16930,7 @@
     <row r="469" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A469" s="6"/>
       <c r="B469" s="6"/>
-      <c r="C469" s="25"/>
+      <c r="C469" s="33"/>
       <c r="D469" s="26"/>
       <c r="E469" s="26"/>
       <c r="F469" s="6"/>
@@ -16651,7 +16958,7 @@
     <row r="470" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A470" s="6"/>
       <c r="B470" s="6"/>
-      <c r="C470" s="25"/>
+      <c r="C470" s="33"/>
       <c r="D470" s="26"/>
       <c r="E470" s="26"/>
       <c r="F470" s="6"/>
@@ -16679,7 +16986,7 @@
     <row r="471" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A471" s="6"/>
       <c r="B471" s="6"/>
-      <c r="C471" s="25"/>
+      <c r="C471" s="33"/>
       <c r="D471" s="26"/>
       <c r="E471" s="26"/>
       <c r="F471" s="6"/>
@@ -16707,7 +17014,7 @@
     <row r="472" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A472" s="6"/>
       <c r="B472" s="6"/>
-      <c r="C472" s="25"/>
+      <c r="C472" s="33"/>
       <c r="D472" s="26"/>
       <c r="E472" s="26"/>
       <c r="F472" s="6"/>
@@ -16735,7 +17042,7 @@
     <row r="473" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A473" s="6"/>
       <c r="B473" s="6"/>
-      <c r="C473" s="25"/>
+      <c r="C473" s="33"/>
       <c r="D473" s="26"/>
       <c r="E473" s="26"/>
       <c r="F473" s="6"/>
@@ -16763,7 +17070,7 @@
     <row r="474" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A474" s="6"/>
       <c r="B474" s="6"/>
-      <c r="C474" s="25"/>
+      <c r="C474" s="33"/>
       <c r="D474" s="26"/>
       <c r="E474" s="26"/>
       <c r="F474" s="6"/>
@@ -16791,7 +17098,7 @@
     <row r="475" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A475" s="6"/>
       <c r="B475" s="6"/>
-      <c r="C475" s="25"/>
+      <c r="C475" s="33"/>
       <c r="D475" s="26"/>
       <c r="E475" s="26"/>
       <c r="F475" s="6"/>
@@ -16819,7 +17126,7 @@
     <row r="476" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A476" s="6"/>
       <c r="B476" s="6"/>
-      <c r="C476" s="25"/>
+      <c r="C476" s="33"/>
       <c r="D476" s="26"/>
       <c r="E476" s="26"/>
       <c r="F476" s="6"/>
@@ -16847,7 +17154,7 @@
     <row r="477" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A477" s="6"/>
       <c r="B477" s="6"/>
-      <c r="C477" s="25"/>
+      <c r="C477" s="33"/>
       <c r="D477" s="26"/>
       <c r="E477" s="26"/>
       <c r="F477" s="6"/>
@@ -16875,7 +17182,7 @@
     <row r="478" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A478" s="6"/>
       <c r="B478" s="6"/>
-      <c r="C478" s="25"/>
+      <c r="C478" s="33"/>
       <c r="D478" s="26"/>
       <c r="E478" s="26"/>
       <c r="F478" s="6"/>
@@ -16903,7 +17210,7 @@
     <row r="479" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A479" s="6"/>
       <c r="B479" s="6"/>
-      <c r="C479" s="25"/>
+      <c r="C479" s="33"/>
       <c r="D479" s="26"/>
       <c r="E479" s="26"/>
       <c r="F479" s="6"/>
@@ -16931,7 +17238,7 @@
     <row r="480" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A480" s="6"/>
       <c r="B480" s="6"/>
-      <c r="C480" s="25"/>
+      <c r="C480" s="33"/>
       <c r="D480" s="26"/>
       <c r="E480" s="26"/>
       <c r="F480" s="6"/>
@@ -16959,7 +17266,7 @@
     <row r="481" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A481" s="6"/>
       <c r="B481" s="6"/>
-      <c r="C481" s="25"/>
+      <c r="C481" s="33"/>
       <c r="D481" s="26"/>
       <c r="E481" s="26"/>
       <c r="F481" s="6"/>
@@ -16987,7 +17294,7 @@
     <row r="482" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A482" s="6"/>
       <c r="B482" s="6"/>
-      <c r="C482" s="25"/>
+      <c r="C482" s="33"/>
       <c r="D482" s="26"/>
       <c r="E482" s="26"/>
       <c r="F482" s="6"/>
@@ -17015,7 +17322,7 @@
     <row r="483" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A483" s="6"/>
       <c r="B483" s="6"/>
-      <c r="C483" s="25"/>
+      <c r="C483" s="33"/>
       <c r="D483" s="26"/>
       <c r="E483" s="26"/>
       <c r="F483" s="6"/>
@@ -17043,7 +17350,7 @@
     <row r="484" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A484" s="6"/>
       <c r="B484" s="6"/>
-      <c r="C484" s="25"/>
+      <c r="C484" s="33"/>
       <c r="D484" s="26"/>
       <c r="E484" s="26"/>
       <c r="F484" s="6"/>
@@ -17071,7 +17378,7 @@
     <row r="485" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A485" s="6"/>
       <c r="B485" s="6"/>
-      <c r="C485" s="25"/>
+      <c r="C485" s="33"/>
       <c r="D485" s="26"/>
       <c r="E485" s="26"/>
       <c r="F485" s="6"/>
@@ -17099,7 +17406,7 @@
     <row r="486" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A486" s="6"/>
       <c r="B486" s="6"/>
-      <c r="C486" s="25"/>
+      <c r="C486" s="33"/>
       <c r="D486" s="26"/>
       <c r="E486" s="26"/>
       <c r="F486" s="6"/>
@@ -17127,7 +17434,7 @@
     <row r="487" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A487" s="6"/>
       <c r="B487" s="6"/>
-      <c r="C487" s="25"/>
+      <c r="C487" s="33"/>
       <c r="D487" s="26"/>
       <c r="E487" s="26"/>
       <c r="F487" s="6"/>
@@ -17155,7 +17462,7 @@
     <row r="488" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A488" s="6"/>
       <c r="B488" s="6"/>
-      <c r="C488" s="25"/>
+      <c r="C488" s="33"/>
       <c r="D488" s="26"/>
       <c r="E488" s="26"/>
       <c r="F488" s="6"/>
@@ -17183,7 +17490,7 @@
     <row r="489" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A489" s="6"/>
       <c r="B489" s="6"/>
-      <c r="C489" s="25"/>
+      <c r="C489" s="33"/>
       <c r="D489" s="26"/>
       <c r="E489" s="26"/>
       <c r="F489" s="6"/>
@@ -17211,7 +17518,7 @@
     <row r="490" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A490" s="6"/>
       <c r="B490" s="6"/>
-      <c r="C490" s="25"/>
+      <c r="C490" s="33"/>
       <c r="D490" s="26"/>
       <c r="E490" s="26"/>
       <c r="F490" s="6"/>
@@ -17239,7 +17546,7 @@
     <row r="491" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A491" s="6"/>
       <c r="B491" s="6"/>
-      <c r="C491" s="25"/>
+      <c r="C491" s="33"/>
       <c r="D491" s="26"/>
       <c r="E491" s="26"/>
       <c r="F491" s="6"/>
@@ -17267,7 +17574,7 @@
     <row r="492" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A492" s="6"/>
       <c r="B492" s="6"/>
-      <c r="C492" s="25"/>
+      <c r="C492" s="33"/>
       <c r="D492" s="26"/>
       <c r="E492" s="26"/>
       <c r="F492" s="6"/>
@@ -17295,7 +17602,7 @@
     <row r="493" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A493" s="6"/>
       <c r="B493" s="6"/>
-      <c r="C493" s="25"/>
+      <c r="C493" s="33"/>
       <c r="D493" s="26"/>
       <c r="E493" s="26"/>
       <c r="F493" s="6"/>
@@ -17323,7 +17630,7 @@
     <row r="494" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A494" s="6"/>
       <c r="B494" s="6"/>
-      <c r="C494" s="25"/>
+      <c r="C494" s="33"/>
       <c r="D494" s="26"/>
       <c r="E494" s="26"/>
       <c r="F494" s="6"/>
@@ -17351,7 +17658,7 @@
     <row r="495" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A495" s="6"/>
       <c r="B495" s="6"/>
-      <c r="C495" s="25"/>
+      <c r="C495" s="33"/>
       <c r="D495" s="26"/>
       <c r="E495" s="26"/>
       <c r="F495" s="6"/>
@@ -17379,7 +17686,7 @@
     <row r="496" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A496" s="6"/>
       <c r="B496" s="6"/>
-      <c r="C496" s="25"/>
+      <c r="C496" s="33"/>
       <c r="D496" s="26"/>
       <c r="E496" s="26"/>
       <c r="F496" s="6"/>
@@ -17407,7 +17714,7 @@
     <row r="497" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A497" s="6"/>
       <c r="B497" s="6"/>
-      <c r="C497" s="25"/>
+      <c r="C497" s="33"/>
       <c r="D497" s="26"/>
       <c r="E497" s="26"/>
       <c r="F497" s="6"/>
@@ -17435,7 +17742,7 @@
     <row r="498" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A498" s="6"/>
       <c r="B498" s="6"/>
-      <c r="C498" s="25"/>
+      <c r="C498" s="33"/>
       <c r="D498" s="26"/>
       <c r="E498" s="26"/>
       <c r="F498" s="6"/>
@@ -17463,7 +17770,7 @@
     <row r="499" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A499" s="6"/>
       <c r="B499" s="6"/>
-      <c r="C499" s="25"/>
+      <c r="C499" s="33"/>
       <c r="D499" s="26"/>
       <c r="E499" s="26"/>
       <c r="F499" s="6"/>
@@ -17491,7 +17798,7 @@
     <row r="500" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A500" s="6"/>
       <c r="B500" s="6"/>
-      <c r="C500" s="25"/>
+      <c r="C500" s="33"/>
       <c r="D500" s="26"/>
       <c r="E500" s="26"/>
       <c r="F500" s="6"/>
@@ -17519,7 +17826,7 @@
     <row r="501" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A501" s="6"/>
       <c r="B501" s="6"/>
-      <c r="C501" s="25"/>
+      <c r="C501" s="33"/>
       <c r="D501" s="26"/>
       <c r="E501" s="26"/>
       <c r="F501" s="6"/>
@@ -17547,7 +17854,7 @@
     <row r="502" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A502" s="6"/>
       <c r="B502" s="6"/>
-      <c r="C502" s="25"/>
+      <c r="C502" s="33"/>
       <c r="D502" s="26"/>
       <c r="E502" s="26"/>
       <c r="F502" s="6"/>
@@ -17575,7 +17882,7 @@
     <row r="503" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A503" s="6"/>
       <c r="B503" s="6"/>
-      <c r="C503" s="25"/>
+      <c r="C503" s="33"/>
       <c r="D503" s="26"/>
       <c r="E503" s="26"/>
       <c r="F503" s="6"/>
@@ -17603,7 +17910,7 @@
     <row r="504" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A504" s="6"/>
       <c r="B504" s="6"/>
-      <c r="C504" s="25"/>
+      <c r="C504" s="33"/>
       <c r="D504" s="26"/>
       <c r="E504" s="26"/>
       <c r="F504" s="6"/>
@@ -17631,7 +17938,7 @@
     <row r="505" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A505" s="6"/>
       <c r="B505" s="6"/>
-      <c r="C505" s="25"/>
+      <c r="C505" s="33"/>
       <c r="D505" s="26"/>
       <c r="E505" s="26"/>
       <c r="F505" s="6"/>
@@ -17659,7 +17966,7 @@
     <row r="506" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A506" s="6"/>
       <c r="B506" s="6"/>
-      <c r="C506" s="25"/>
+      <c r="C506" s="33"/>
       <c r="D506" s="26"/>
       <c r="E506" s="26"/>
       <c r="F506" s="6"/>
@@ -17687,7 +17994,7 @@
     <row r="507" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A507" s="6"/>
       <c r="B507" s="6"/>
-      <c r="C507" s="25"/>
+      <c r="C507" s="33"/>
       <c r="D507" s="26"/>
       <c r="E507" s="26"/>
       <c r="F507" s="6"/>
@@ -17715,7 +18022,7 @@
     <row r="508" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A508" s="6"/>
       <c r="B508" s="6"/>
-      <c r="C508" s="25"/>
+      <c r="C508" s="33"/>
       <c r="D508" s="26"/>
       <c r="E508" s="26"/>
       <c r="F508" s="6"/>
@@ -17743,7 +18050,7 @@
     <row r="509" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A509" s="6"/>
       <c r="B509" s="6"/>
-      <c r="C509" s="25"/>
+      <c r="C509" s="33"/>
       <c r="D509" s="26"/>
       <c r="E509" s="26"/>
       <c r="F509" s="6"/>
@@ -17771,7 +18078,7 @@
     <row r="510" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A510" s="6"/>
       <c r="B510" s="6"/>
-      <c r="C510" s="25"/>
+      <c r="C510" s="33"/>
       <c r="D510" s="26"/>
       <c r="E510" s="26"/>
       <c r="F510" s="6"/>
@@ -17799,7 +18106,7 @@
     <row r="511" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A511" s="6"/>
       <c r="B511" s="6"/>
-      <c r="C511" s="25"/>
+      <c r="C511" s="33"/>
       <c r="D511" s="26"/>
       <c r="E511" s="26"/>
       <c r="F511" s="6"/>
@@ -17827,7 +18134,7 @@
     <row r="512" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A512" s="6"/>
       <c r="B512" s="6"/>
-      <c r="C512" s="25"/>
+      <c r="C512" s="33"/>
       <c r="D512" s="26"/>
       <c r="E512" s="26"/>
       <c r="F512" s="6"/>
@@ -17855,7 +18162,7 @@
     <row r="513" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A513" s="6"/>
       <c r="B513" s="6"/>
-      <c r="C513" s="25"/>
+      <c r="C513" s="33"/>
       <c r="D513" s="26"/>
       <c r="E513" s="26"/>
       <c r="F513" s="6"/>
@@ -17883,7 +18190,7 @@
     <row r="514" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A514" s="6"/>
       <c r="B514" s="6"/>
-      <c r="C514" s="25"/>
+      <c r="C514" s="33"/>
       <c r="D514" s="26"/>
       <c r="E514" s="26"/>
       <c r="F514" s="6"/>
@@ -17911,7 +18218,7 @@
     <row r="515" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A515" s="6"/>
       <c r="B515" s="6"/>
-      <c r="C515" s="25"/>
+      <c r="C515" s="33"/>
       <c r="D515" s="26"/>
       <c r="E515" s="26"/>
       <c r="F515" s="6"/>
@@ -17939,7 +18246,7 @@
     <row r="516" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A516" s="6"/>
       <c r="B516" s="6"/>
-      <c r="C516" s="25"/>
+      <c r="C516" s="33"/>
       <c r="D516" s="26"/>
       <c r="E516" s="26"/>
       <c r="F516" s="6"/>
@@ -17967,7 +18274,7 @@
     <row r="517" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A517" s="6"/>
       <c r="B517" s="6"/>
-      <c r="C517" s="25"/>
+      <c r="C517" s="33"/>
       <c r="D517" s="26"/>
       <c r="E517" s="26"/>
       <c r="F517" s="6"/>
@@ -17995,7 +18302,7 @@
     <row r="518" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A518" s="6"/>
       <c r="B518" s="6"/>
-      <c r="C518" s="25"/>
+      <c r="C518" s="33"/>
       <c r="D518" s="26"/>
       <c r="E518" s="26"/>
       <c r="F518" s="6"/>
@@ -18023,7 +18330,7 @@
     <row r="519" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A519" s="6"/>
       <c r="B519" s="6"/>
-      <c r="C519" s="25"/>
+      <c r="C519" s="33"/>
       <c r="D519" s="26"/>
       <c r="E519" s="26"/>
       <c r="F519" s="6"/>
@@ -18051,7 +18358,7 @@
     <row r="520" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A520" s="6"/>
       <c r="B520" s="6"/>
-      <c r="C520" s="25"/>
+      <c r="C520" s="33"/>
       <c r="D520" s="26"/>
       <c r="E520" s="26"/>
       <c r="F520" s="6"/>
@@ -18079,7 +18386,7 @@
     <row r="521" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A521" s="6"/>
       <c r="B521" s="6"/>
-      <c r="C521" s="25"/>
+      <c r="C521" s="33"/>
       <c r="D521" s="26"/>
       <c r="E521" s="26"/>
       <c r="F521" s="6"/>
@@ -18107,7 +18414,7 @@
     <row r="522" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A522" s="6"/>
       <c r="B522" s="6"/>
-      <c r="C522" s="25"/>
+      <c r="C522" s="33"/>
       <c r="D522" s="26"/>
       <c r="E522" s="26"/>
       <c r="F522" s="6"/>
@@ -18135,7 +18442,7 @@
     <row r="523" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A523" s="6"/>
       <c r="B523" s="6"/>
-      <c r="C523" s="25"/>
+      <c r="C523" s="33"/>
       <c r="D523" s="26"/>
       <c r="E523" s="26"/>
       <c r="F523" s="6"/>
@@ -18163,7 +18470,7 @@
     <row r="524" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A524" s="6"/>
       <c r="B524" s="6"/>
-      <c r="C524" s="25"/>
+      <c r="C524" s="33"/>
       <c r="D524" s="26"/>
       <c r="E524" s="26"/>
       <c r="F524" s="6"/>
@@ -18191,7 +18498,7 @@
     <row r="525" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A525" s="6"/>
       <c r="B525" s="6"/>
-      <c r="C525" s="25"/>
+      <c r="C525" s="33"/>
       <c r="D525" s="26"/>
       <c r="E525" s="26"/>
       <c r="F525" s="6"/>
@@ -18219,7 +18526,7 @@
     <row r="526" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A526" s="6"/>
       <c r="B526" s="6"/>
-      <c r="C526" s="25"/>
+      <c r="C526" s="33"/>
       <c r="D526" s="26"/>
       <c r="E526" s="26"/>
       <c r="F526" s="6"/>
@@ -18247,7 +18554,7 @@
     <row r="527" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A527" s="6"/>
       <c r="B527" s="6"/>
-      <c r="C527" s="25"/>
+      <c r="C527" s="33"/>
       <c r="D527" s="26"/>
       <c r="E527" s="26"/>
       <c r="F527" s="6"/>
@@ -18275,7 +18582,7 @@
     <row r="528" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A528" s="6"/>
       <c r="B528" s="6"/>
-      <c r="C528" s="25"/>
+      <c r="C528" s="33"/>
       <c r="D528" s="26"/>
       <c r="E528" s="26"/>
       <c r="F528" s="6"/>
@@ -18303,7 +18610,7 @@
     <row r="529" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A529" s="6"/>
       <c r="B529" s="6"/>
-      <c r="C529" s="25"/>
+      <c r="C529" s="33"/>
       <c r="D529" s="26"/>
       <c r="E529" s="26"/>
       <c r="F529" s="6"/>
@@ -18331,7 +18638,7 @@
     <row r="530" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A530" s="6"/>
       <c r="B530" s="6"/>
-      <c r="C530" s="25"/>
+      <c r="C530" s="33"/>
       <c r="D530" s="26"/>
       <c r="E530" s="26"/>
       <c r="F530" s="6"/>
@@ -18359,7 +18666,7 @@
     <row r="531" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A531" s="6"/>
       <c r="B531" s="6"/>
-      <c r="C531" s="25"/>
+      <c r="C531" s="33"/>
       <c r="D531" s="26"/>
       <c r="E531" s="26"/>
       <c r="F531" s="6"/>
@@ -18387,7 +18694,7 @@
     <row r="532" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A532" s="6"/>
       <c r="B532" s="6"/>
-      <c r="C532" s="25"/>
+      <c r="C532" s="33"/>
       <c r="D532" s="26"/>
       <c r="E532" s="26"/>
       <c r="F532" s="6"/>
@@ -18415,7 +18722,7 @@
     <row r="533" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A533" s="6"/>
       <c r="B533" s="6"/>
-      <c r="C533" s="25"/>
+      <c r="C533" s="33"/>
       <c r="D533" s="26"/>
       <c r="E533" s="26"/>
       <c r="F533" s="6"/>
@@ -18443,7 +18750,7 @@
     <row r="534" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A534" s="6"/>
       <c r="B534" s="6"/>
-      <c r="C534" s="25"/>
+      <c r="C534" s="33"/>
       <c r="D534" s="26"/>
       <c r="E534" s="26"/>
       <c r="F534" s="6"/>
@@ -18471,7 +18778,7 @@
     <row r="535" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A535" s="6"/>
       <c r="B535" s="6"/>
-      <c r="C535" s="25"/>
+      <c r="C535" s="33"/>
       <c r="D535" s="26"/>
       <c r="E535" s="26"/>
       <c r="F535" s="6"/>
@@ -18499,7 +18806,7 @@
     <row r="536" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A536" s="6"/>
       <c r="B536" s="6"/>
-      <c r="C536" s="25"/>
+      <c r="C536" s="33"/>
       <c r="D536" s="26"/>
       <c r="E536" s="26"/>
       <c r="F536" s="6"/>
@@ -18527,7 +18834,7 @@
     <row r="537" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A537" s="6"/>
       <c r="B537" s="6"/>
-      <c r="C537" s="25"/>
+      <c r="C537" s="33"/>
       <c r="D537" s="26"/>
       <c r="E537" s="26"/>
       <c r="F537" s="6"/>
@@ -18555,7 +18862,7 @@
     <row r="538" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A538" s="6"/>
       <c r="B538" s="6"/>
-      <c r="C538" s="25"/>
+      <c r="C538" s="33"/>
       <c r="D538" s="26"/>
       <c r="E538" s="26"/>
       <c r="F538" s="6"/>
@@ -18583,7 +18890,7 @@
     <row r="539" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A539" s="6"/>
       <c r="B539" s="6"/>
-      <c r="C539" s="25"/>
+      <c r="C539" s="33"/>
       <c r="D539" s="26"/>
       <c r="E539" s="26"/>
       <c r="F539" s="6"/>
@@ -18611,7 +18918,7 @@
     <row r="540" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A540" s="6"/>
       <c r="B540" s="6"/>
-      <c r="C540" s="25"/>
+      <c r="C540" s="33"/>
       <c r="D540" s="26"/>
       <c r="E540" s="26"/>
       <c r="F540" s="6"/>
@@ -18639,7 +18946,7 @@
     <row r="541" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A541" s="6"/>
       <c r="B541" s="6"/>
-      <c r="C541" s="25"/>
+      <c r="C541" s="33"/>
       <c r="D541" s="26"/>
       <c r="E541" s="26"/>
       <c r="F541" s="6"/>
@@ -18667,7 +18974,7 @@
     <row r="542" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A542" s="6"/>
       <c r="B542" s="6"/>
-      <c r="C542" s="25"/>
+      <c r="C542" s="33"/>
       <c r="D542" s="26"/>
       <c r="E542" s="26"/>
       <c r="F542" s="6"/>
@@ -18695,7 +19002,7 @@
     <row r="543" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A543" s="6"/>
       <c r="B543" s="6"/>
-      <c r="C543" s="25"/>
+      <c r="C543" s="33"/>
       <c r="D543" s="26"/>
       <c r="E543" s="26"/>
       <c r="F543" s="6"/>
@@ -18723,7 +19030,7 @@
     <row r="544" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A544" s="6"/>
       <c r="B544" s="6"/>
-      <c r="C544" s="25"/>
+      <c r="C544" s="33"/>
       <c r="D544" s="26"/>
       <c r="E544" s="26"/>
       <c r="F544" s="6"/>
@@ -18751,7 +19058,7 @@
     <row r="545" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A545" s="6"/>
       <c r="B545" s="6"/>
-      <c r="C545" s="25"/>
+      <c r="C545" s="33"/>
       <c r="D545" s="26"/>
       <c r="E545" s="26"/>
       <c r="F545" s="6"/>
@@ -18779,7 +19086,7 @@
     <row r="546" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A546" s="6"/>
       <c r="B546" s="6"/>
-      <c r="C546" s="25"/>
+      <c r="C546" s="33"/>
       <c r="D546" s="26"/>
       <c r="E546" s="26"/>
       <c r="F546" s="6"/>
@@ -18807,7 +19114,7 @@
     <row r="547" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A547" s="6"/>
       <c r="B547" s="6"/>
-      <c r="C547" s="25"/>
+      <c r="C547" s="33"/>
       <c r="D547" s="26"/>
       <c r="E547" s="26"/>
       <c r="F547" s="6"/>
@@ -18835,7 +19142,7 @@
     <row r="548" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A548" s="6"/>
       <c r="B548" s="6"/>
-      <c r="C548" s="25"/>
+      <c r="C548" s="33"/>
       <c r="D548" s="26"/>
       <c r="E548" s="26"/>
       <c r="F548" s="6"/>
@@ -18863,7 +19170,7 @@
     <row r="549" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A549" s="6"/>
       <c r="B549" s="6"/>
-      <c r="C549" s="25"/>
+      <c r="C549" s="33"/>
       <c r="D549" s="26"/>
       <c r="E549" s="26"/>
       <c r="F549" s="6"/>
@@ -18891,7 +19198,7 @@
     <row r="550" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A550" s="6"/>
       <c r="B550" s="6"/>
-      <c r="C550" s="25"/>
+      <c r="C550" s="33"/>
       <c r="D550" s="26"/>
       <c r="E550" s="26"/>
       <c r="F550" s="6"/>
@@ -18919,7 +19226,7 @@
     <row r="551" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A551" s="6"/>
       <c r="B551" s="6"/>
-      <c r="C551" s="25"/>
+      <c r="C551" s="33"/>
       <c r="D551" s="26"/>
       <c r="E551" s="26"/>
       <c r="F551" s="6"/>
@@ -18947,7 +19254,7 @@
     <row r="552" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A552" s="6"/>
       <c r="B552" s="6"/>
-      <c r="C552" s="25"/>
+      <c r="C552" s="33"/>
       <c r="D552" s="26"/>
       <c r="E552" s="26"/>
       <c r="F552" s="6"/>
@@ -18975,7 +19282,7 @@
     <row r="553" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A553" s="6"/>
       <c r="B553" s="6"/>
-      <c r="C553" s="25"/>
+      <c r="C553" s="33"/>
       <c r="D553" s="26"/>
       <c r="E553" s="26"/>
       <c r="F553" s="6"/>
@@ -19003,7 +19310,7 @@
     <row r="554" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A554" s="6"/>
       <c r="B554" s="6"/>
-      <c r="C554" s="25"/>
+      <c r="C554" s="33"/>
       <c r="D554" s="26"/>
       <c r="E554" s="26"/>
       <c r="F554" s="6"/>
@@ -19031,7 +19338,7 @@
     <row r="555" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A555" s="6"/>
       <c r="B555" s="6"/>
-      <c r="C555" s="25"/>
+      <c r="C555" s="33"/>
       <c r="D555" s="26"/>
       <c r="E555" s="26"/>
       <c r="F555" s="6"/>
@@ -19059,7 +19366,7 @@
     <row r="556" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A556" s="6"/>
       <c r="B556" s="6"/>
-      <c r="C556" s="25"/>
+      <c r="C556" s="33"/>
       <c r="D556" s="26"/>
       <c r="E556" s="26"/>
       <c r="F556" s="6"/>
@@ -19087,7 +19394,7 @@
     <row r="557" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A557" s="6"/>
       <c r="B557" s="6"/>
-      <c r="C557" s="25"/>
+      <c r="C557" s="33"/>
       <c r="D557" s="26"/>
       <c r="E557" s="26"/>
       <c r="F557" s="6"/>
@@ -19115,7 +19422,7 @@
     <row r="558" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A558" s="6"/>
       <c r="B558" s="6"/>
-      <c r="C558" s="25"/>
+      <c r="C558" s="33"/>
       <c r="D558" s="26"/>
       <c r="E558" s="26"/>
       <c r="F558" s="6"/>
@@ -19143,7 +19450,7 @@
     <row r="559" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A559" s="6"/>
       <c r="B559" s="6"/>
-      <c r="C559" s="25"/>
+      <c r="C559" s="33"/>
       <c r="D559" s="26"/>
       <c r="E559" s="26"/>
       <c r="F559" s="6"/>
@@ -19171,7 +19478,7 @@
     <row r="560" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A560" s="6"/>
       <c r="B560" s="6"/>
-      <c r="C560" s="25"/>
+      <c r="C560" s="33"/>
       <c r="D560" s="26"/>
       <c r="E560" s="26"/>
       <c r="F560" s="6"/>
@@ -19199,7 +19506,7 @@
     <row r="561" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A561" s="6"/>
       <c r="B561" s="6"/>
-      <c r="C561" s="25"/>
+      <c r="C561" s="33"/>
       <c r="D561" s="26"/>
       <c r="E561" s="26"/>
       <c r="F561" s="6"/>
@@ -19227,7 +19534,7 @@
     <row r="562" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A562" s="6"/>
       <c r="B562" s="6"/>
-      <c r="C562" s="25"/>
+      <c r="C562" s="33"/>
       <c r="D562" s="26"/>
       <c r="E562" s="26"/>
       <c r="F562" s="6"/>
@@ -19255,7 +19562,7 @@
     <row r="563" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A563" s="6"/>
       <c r="B563" s="6"/>
-      <c r="C563" s="25"/>
+      <c r="C563" s="33"/>
       <c r="D563" s="26"/>
       <c r="E563" s="26"/>
       <c r="F563" s="6"/>
@@ -19283,7 +19590,7 @@
     <row r="564" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A564" s="6"/>
       <c r="B564" s="6"/>
-      <c r="C564" s="25"/>
+      <c r="C564" s="33"/>
       <c r="D564" s="26"/>
       <c r="E564" s="26"/>
       <c r="F564" s="6"/>
@@ -19311,7 +19618,7 @@
     <row r="565" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A565" s="6"/>
       <c r="B565" s="6"/>
-      <c r="C565" s="25"/>
+      <c r="C565" s="33"/>
       <c r="D565" s="26"/>
       <c r="E565" s="26"/>
       <c r="F565" s="6"/>
@@ -19339,7 +19646,7 @@
     <row r="566" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A566" s="6"/>
       <c r="B566" s="6"/>
-      <c r="C566" s="25"/>
+      <c r="C566" s="33"/>
       <c r="D566" s="26"/>
       <c r="E566" s="26"/>
       <c r="F566" s="6"/>
@@ -19367,7 +19674,7 @@
     <row r="567" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A567" s="6"/>
       <c r="B567" s="6"/>
-      <c r="C567" s="25"/>
+      <c r="C567" s="33"/>
       <c r="D567" s="26"/>
       <c r="E567" s="26"/>
       <c r="F567" s="6"/>
@@ -19395,7 +19702,7 @@
     <row r="568" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A568" s="6"/>
       <c r="B568" s="6"/>
-      <c r="C568" s="25"/>
+      <c r="C568" s="33"/>
       <c r="D568" s="26"/>
       <c r="E568" s="26"/>
       <c r="F568" s="6"/>
@@ -19423,7 +19730,7 @@
     <row r="569" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A569" s="6"/>
       <c r="B569" s="6"/>
-      <c r="C569" s="25"/>
+      <c r="C569" s="33"/>
       <c r="D569" s="26"/>
       <c r="E569" s="26"/>
       <c r="F569" s="6"/>
@@ -19451,7 +19758,7 @@
     <row r="570" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A570" s="6"/>
       <c r="B570" s="6"/>
-      <c r="C570" s="25"/>
+      <c r="C570" s="33"/>
       <c r="D570" s="26"/>
       <c r="E570" s="26"/>
       <c r="F570" s="6"/>
@@ -19479,7 +19786,7 @@
     <row r="571" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A571" s="6"/>
       <c r="B571" s="6"/>
-      <c r="C571" s="25"/>
+      <c r="C571" s="33"/>
       <c r="D571" s="26"/>
       <c r="E571" s="26"/>
       <c r="F571" s="6"/>
@@ -19507,7 +19814,7 @@
     <row r="572" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A572" s="6"/>
       <c r="B572" s="6"/>
-      <c r="C572" s="25"/>
+      <c r="C572" s="33"/>
       <c r="D572" s="26"/>
       <c r="E572" s="26"/>
       <c r="F572" s="6"/>
@@ -19535,7 +19842,7 @@
     <row r="573" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A573" s="6"/>
       <c r="B573" s="6"/>
-      <c r="C573" s="25"/>
+      <c r="C573" s="33"/>
       <c r="D573" s="26"/>
       <c r="E573" s="26"/>
       <c r="F573" s="6"/>
@@ -19563,7 +19870,7 @@
     <row r="574" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A574" s="6"/>
       <c r="B574" s="6"/>
-      <c r="C574" s="25"/>
+      <c r="C574" s="33"/>
       <c r="D574" s="26"/>
       <c r="E574" s="26"/>
       <c r="F574" s="6"/>
@@ -19591,7 +19898,7 @@
     <row r="575" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A575" s="6"/>
       <c r="B575" s="6"/>
-      <c r="C575" s="25"/>
+      <c r="C575" s="33"/>
       <c r="D575" s="26"/>
       <c r="E575" s="26"/>
       <c r="F575" s="6"/>
@@ -19619,7 +19926,7 @@
     <row r="576" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A576" s="6"/>
       <c r="B576" s="6"/>
-      <c r="C576" s="25"/>
+      <c r="C576" s="33"/>
       <c r="D576" s="26"/>
       <c r="E576" s="26"/>
       <c r="F576" s="6"/>
@@ -19647,7 +19954,7 @@
     <row r="577" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A577" s="6"/>
       <c r="B577" s="6"/>
-      <c r="C577" s="25"/>
+      <c r="C577" s="33"/>
       <c r="D577" s="26"/>
       <c r="E577" s="26"/>
       <c r="F577" s="6"/>
@@ -19675,7 +19982,7 @@
     <row r="578" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A578" s="6"/>
       <c r="B578" s="6"/>
-      <c r="C578" s="25"/>
+      <c r="C578" s="33"/>
       <c r="D578" s="26"/>
       <c r="E578" s="26"/>
       <c r="F578" s="6"/>
@@ -19703,7 +20010,7 @@
     <row r="579" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A579" s="6"/>
       <c r="B579" s="6"/>
-      <c r="C579" s="25"/>
+      <c r="C579" s="33"/>
       <c r="D579" s="26"/>
       <c r="E579" s="26"/>
       <c r="F579" s="6"/>
@@ -19731,7 +20038,7 @@
     <row r="580" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A580" s="6"/>
       <c r="B580" s="6"/>
-      <c r="C580" s="25"/>
+      <c r="C580" s="33"/>
       <c r="D580" s="26"/>
       <c r="E580" s="26"/>
       <c r="F580" s="6"/>
@@ -19759,7 +20066,7 @@
     <row r="581" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A581" s="6"/>
       <c r="B581" s="6"/>
-      <c r="C581" s="25"/>
+      <c r="C581" s="33"/>
       <c r="D581" s="26"/>
       <c r="E581" s="26"/>
       <c r="F581" s="6"/>
@@ -19787,7 +20094,7 @@
     <row r="582" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A582" s="6"/>
       <c r="B582" s="6"/>
-      <c r="C582" s="25"/>
+      <c r="C582" s="33"/>
       <c r="D582" s="26"/>
       <c r="E582" s="26"/>
       <c r="F582" s="6"/>
@@ -19815,7 +20122,7 @@
     <row r="583" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A583" s="6"/>
       <c r="B583" s="6"/>
-      <c r="C583" s="25"/>
+      <c r="C583" s="33"/>
       <c r="D583" s="26"/>
       <c r="E583" s="26"/>
       <c r="F583" s="6"/>
@@ -19843,7 +20150,7 @@
     <row r="584" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A584" s="6"/>
       <c r="B584" s="6"/>
-      <c r="C584" s="25"/>
+      <c r="C584" s="33"/>
       <c r="D584" s="26"/>
       <c r="E584" s="26"/>
       <c r="F584" s="6"/>
@@ -19871,7 +20178,7 @@
     <row r="585" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A585" s="6"/>
       <c r="B585" s="6"/>
-      <c r="C585" s="25"/>
+      <c r="C585" s="33"/>
       <c r="D585" s="26"/>
       <c r="E585" s="26"/>
       <c r="F585" s="6"/>
@@ -19899,7 +20206,7 @@
     <row r="586" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A586" s="6"/>
       <c r="B586" s="6"/>
-      <c r="C586" s="25"/>
+      <c r="C586" s="33"/>
       <c r="D586" s="26"/>
       <c r="E586" s="26"/>
       <c r="F586" s="6"/>
@@ -19927,7 +20234,7 @@
     <row r="587" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A587" s="6"/>
       <c r="B587" s="6"/>
-      <c r="C587" s="25"/>
+      <c r="C587" s="33"/>
       <c r="D587" s="26"/>
       <c r="E587" s="26"/>
       <c r="F587" s="6"/>
@@ -19955,7 +20262,7 @@
     <row r="588" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A588" s="6"/>
       <c r="B588" s="6"/>
-      <c r="C588" s="25"/>
+      <c r="C588" s="33"/>
       <c r="D588" s="26"/>
       <c r="E588" s="26"/>
       <c r="F588" s="6"/>
@@ -19983,7 +20290,7 @@
     <row r="589" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A589" s="6"/>
       <c r="B589" s="6"/>
-      <c r="C589" s="25"/>
+      <c r="C589" s="33"/>
       <c r="D589" s="26"/>
       <c r="E589" s="26"/>
       <c r="F589" s="6"/>
@@ -20011,7 +20318,7 @@
     <row r="590" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A590" s="6"/>
       <c r="B590" s="6"/>
-      <c r="C590" s="25"/>
+      <c r="C590" s="33"/>
       <c r="D590" s="26"/>
       <c r="E590" s="26"/>
       <c r="F590" s="6"/>
@@ -20039,7 +20346,7 @@
     <row r="591" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A591" s="6"/>
       <c r="B591" s="6"/>
-      <c r="C591" s="25"/>
+      <c r="C591" s="33"/>
       <c r="D591" s="26"/>
       <c r="E591" s="26"/>
       <c r="F591" s="6"/>
@@ -20067,7 +20374,7 @@
     <row r="592" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A592" s="6"/>
       <c r="B592" s="6"/>
-      <c r="C592" s="25"/>
+      <c r="C592" s="33"/>
       <c r="D592" s="26"/>
       <c r="E592" s="26"/>
       <c r="F592" s="6"/>
@@ -20095,7 +20402,7 @@
     <row r="593" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A593" s="6"/>
       <c r="B593" s="6"/>
-      <c r="C593" s="25"/>
+      <c r="C593" s="33"/>
       <c r="D593" s="26"/>
       <c r="E593" s="26"/>
       <c r="F593" s="6"/>
@@ -20123,7 +20430,7 @@
     <row r="594" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A594" s="6"/>
       <c r="B594" s="6"/>
-      <c r="C594" s="25"/>
+      <c r="C594" s="33"/>
       <c r="D594" s="26"/>
       <c r="E594" s="26"/>
       <c r="F594" s="6"/>
@@ -20151,7 +20458,7 @@
     <row r="595" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A595" s="6"/>
       <c r="B595" s="6"/>
-      <c r="C595" s="25"/>
+      <c r="C595" s="33"/>
       <c r="D595" s="26"/>
       <c r="E595" s="26"/>
       <c r="F595" s="6"/>
@@ -20179,7 +20486,7 @@
     <row r="596" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A596" s="6"/>
       <c r="B596" s="6"/>
-      <c r="C596" s="25"/>
+      <c r="C596" s="33"/>
       <c r="D596" s="26"/>
       <c r="E596" s="26"/>
       <c r="F596" s="6"/>
@@ -20207,7 +20514,7 @@
     <row r="597" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A597" s="6"/>
       <c r="B597" s="6"/>
-      <c r="C597" s="25"/>
+      <c r="C597" s="33"/>
       <c r="D597" s="26"/>
       <c r="E597" s="26"/>
       <c r="F597" s="6"/>
@@ -20235,7 +20542,7 @@
     <row r="598" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A598" s="6"/>
       <c r="B598" s="6"/>
-      <c r="C598" s="25"/>
+      <c r="C598" s="33"/>
       <c r="D598" s="26"/>
       <c r="E598" s="26"/>
       <c r="F598" s="6"/>
@@ -20263,7 +20570,7 @@
     <row r="599" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A599" s="6"/>
       <c r="B599" s="6"/>
-      <c r="C599" s="25"/>
+      <c r="C599" s="33"/>
       <c r="D599" s="26"/>
       <c r="E599" s="26"/>
       <c r="F599" s="6"/>
@@ -20291,7 +20598,7 @@
     <row r="600" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A600" s="6"/>
       <c r="B600" s="6"/>
-      <c r="C600" s="25"/>
+      <c r="C600" s="33"/>
       <c r="D600" s="26"/>
       <c r="E600" s="26"/>
       <c r="F600" s="6"/>
@@ -20319,7 +20626,7 @@
     <row r="601" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A601" s="6"/>
       <c r="B601" s="6"/>
-      <c r="C601" s="25"/>
+      <c r="C601" s="33"/>
       <c r="D601" s="26"/>
       <c r="E601" s="26"/>
       <c r="F601" s="6"/>
@@ -20347,7 +20654,7 @@
     <row r="602" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A602" s="6"/>
       <c r="B602" s="6"/>
-      <c r="C602" s="25"/>
+      <c r="C602" s="33"/>
       <c r="D602" s="26"/>
       <c r="E602" s="26"/>
       <c r="F602" s="6"/>
@@ -20375,7 +20682,7 @@
     <row r="603" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A603" s="6"/>
       <c r="B603" s="6"/>
-      <c r="C603" s="25"/>
+      <c r="C603" s="33"/>
       <c r="D603" s="26"/>
       <c r="E603" s="26"/>
       <c r="F603" s="6"/>
@@ -20403,7 +20710,7 @@
     <row r="604" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A604" s="6"/>
       <c r="B604" s="6"/>
-      <c r="C604" s="25"/>
+      <c r="C604" s="33"/>
       <c r="D604" s="26"/>
       <c r="E604" s="26"/>
       <c r="F604" s="6"/>
@@ -20431,7 +20738,7 @@
     <row r="605" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A605" s="6"/>
       <c r="B605" s="6"/>
-      <c r="C605" s="25"/>
+      <c r="C605" s="33"/>
       <c r="D605" s="26"/>
       <c r="E605" s="26"/>
       <c r="F605" s="6"/>
@@ -20459,7 +20766,7 @@
     <row r="606" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A606" s="6"/>
       <c r="B606" s="6"/>
-      <c r="C606" s="25"/>
+      <c r="C606" s="33"/>
       <c r="D606" s="26"/>
       <c r="E606" s="26"/>
       <c r="F606" s="6"/>
@@ -20487,7 +20794,7 @@
     <row r="607" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A607" s="6"/>
       <c r="B607" s="6"/>
-      <c r="C607" s="25"/>
+      <c r="C607" s="33"/>
       <c r="D607" s="26"/>
       <c r="E607" s="26"/>
       <c r="F607" s="6"/>
@@ -20515,7 +20822,7 @@
     <row r="608" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A608" s="6"/>
       <c r="B608" s="6"/>
-      <c r="C608" s="25"/>
+      <c r="C608" s="33"/>
       <c r="D608" s="26"/>
       <c r="E608" s="26"/>
       <c r="F608" s="6"/>
@@ -20543,7 +20850,7 @@
     <row r="609" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A609" s="6"/>
       <c r="B609" s="6"/>
-      <c r="C609" s="25"/>
+      <c r="C609" s="33"/>
       <c r="D609" s="26"/>
       <c r="E609" s="26"/>
       <c r="F609" s="6"/>
@@ -20571,7 +20878,7 @@
     <row r="610" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A610" s="6"/>
       <c r="B610" s="6"/>
-      <c r="C610" s="25"/>
+      <c r="C610" s="33"/>
       <c r="D610" s="26"/>
       <c r="E610" s="26"/>
       <c r="F610" s="6"/>
@@ -20599,7 +20906,7 @@
     <row r="611" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A611" s="6"/>
       <c r="B611" s="6"/>
-      <c r="C611" s="25"/>
+      <c r="C611" s="33"/>
       <c r="D611" s="26"/>
       <c r="E611" s="26"/>
       <c r="F611" s="6"/>
@@ -20627,7 +20934,7 @@
     <row r="612" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A612" s="6"/>
       <c r="B612" s="6"/>
-      <c r="C612" s="25"/>
+      <c r="C612" s="33"/>
       <c r="D612" s="26"/>
       <c r="E612" s="26"/>
       <c r="F612" s="6"/>
@@ -20655,7 +20962,7 @@
     <row r="613" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A613" s="6"/>
       <c r="B613" s="6"/>
-      <c r="C613" s="25"/>
+      <c r="C613" s="33"/>
       <c r="D613" s="26"/>
       <c r="E613" s="26"/>
       <c r="F613" s="6"/>
@@ -20683,7 +20990,7 @@
     <row r="614" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A614" s="6"/>
       <c r="B614" s="6"/>
-      <c r="C614" s="25"/>
+      <c r="C614" s="33"/>
       <c r="D614" s="26"/>
       <c r="E614" s="26"/>
       <c r="F614" s="6"/>
@@ -20711,7 +21018,7 @@
     <row r="615" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A615" s="6"/>
       <c r="B615" s="6"/>
-      <c r="C615" s="25"/>
+      <c r="C615" s="33"/>
       <c r="D615" s="26"/>
       <c r="E615" s="26"/>
       <c r="F615" s="6"/>
@@ -20739,7 +21046,7 @@
     <row r="616" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A616" s="6"/>
       <c r="B616" s="6"/>
-      <c r="C616" s="25"/>
+      <c r="C616" s="33"/>
       <c r="D616" s="26"/>
       <c r="E616" s="26"/>
       <c r="F616" s="6"/>
@@ -20767,7 +21074,7 @@
     <row r="617" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A617" s="6"/>
       <c r="B617" s="6"/>
-      <c r="C617" s="25"/>
+      <c r="C617" s="33"/>
       <c r="D617" s="26"/>
       <c r="E617" s="26"/>
       <c r="F617" s="6"/>
@@ -20795,7 +21102,7 @@
     <row r="618" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A618" s="6"/>
       <c r="B618" s="6"/>
-      <c r="C618" s="25"/>
+      <c r="C618" s="33"/>
       <c r="D618" s="26"/>
       <c r="E618" s="26"/>
       <c r="F618" s="6"/>
@@ -20823,7 +21130,7 @@
     <row r="619" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A619" s="6"/>
       <c r="B619" s="6"/>
-      <c r="C619" s="25"/>
+      <c r="C619" s="33"/>
       <c r="D619" s="26"/>
       <c r="E619" s="26"/>
       <c r="F619" s="6"/>
@@ -20851,7 +21158,7 @@
     <row r="620" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A620" s="6"/>
       <c r="B620" s="6"/>
-      <c r="C620" s="25"/>
+      <c r="C620" s="33"/>
       <c r="D620" s="26"/>
       <c r="E620" s="26"/>
       <c r="F620" s="6"/>
@@ -20879,7 +21186,7 @@
     <row r="621" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A621" s="6"/>
       <c r="B621" s="6"/>
-      <c r="C621" s="25"/>
+      <c r="C621" s="33"/>
       <c r="D621" s="26"/>
       <c r="E621" s="26"/>
       <c r="F621" s="6"/>
@@ -20907,7 +21214,7 @@
     <row r="622" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A622" s="6"/>
       <c r="B622" s="6"/>
-      <c r="C622" s="25"/>
+      <c r="C622" s="33"/>
       <c r="D622" s="26"/>
       <c r="E622" s="26"/>
       <c r="F622" s="6"/>
@@ -20935,7 +21242,7 @@
     <row r="623" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A623" s="6"/>
       <c r="B623" s="6"/>
-      <c r="C623" s="25"/>
+      <c r="C623" s="33"/>
       <c r="D623" s="26"/>
       <c r="E623" s="26"/>
       <c r="F623" s="6"/>
@@ -20963,7 +21270,7 @@
     <row r="624" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A624" s="6"/>
       <c r="B624" s="6"/>
-      <c r="C624" s="25"/>
+      <c r="C624" s="33"/>
       <c r="D624" s="26"/>
       <c r="E624" s="26"/>
       <c r="F624" s="6"/>
@@ -20991,7 +21298,7 @@
     <row r="625" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A625" s="6"/>
       <c r="B625" s="6"/>
-      <c r="C625" s="25"/>
+      <c r="C625" s="33"/>
       <c r="D625" s="26"/>
       <c r="E625" s="26"/>
       <c r="F625" s="6"/>
@@ -21019,7 +21326,7 @@
     <row r="626" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A626" s="6"/>
       <c r="B626" s="6"/>
-      <c r="C626" s="25"/>
+      <c r="C626" s="33"/>
       <c r="D626" s="26"/>
       <c r="E626" s="26"/>
       <c r="F626" s="6"/>
@@ -21047,7 +21354,7 @@
     <row r="627" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A627" s="6"/>
       <c r="B627" s="6"/>
-      <c r="C627" s="25"/>
+      <c r="C627" s="33"/>
       <c r="D627" s="26"/>
       <c r="E627" s="26"/>
       <c r="F627" s="6"/>
@@ -21075,7 +21382,7 @@
     <row r="628" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A628" s="6"/>
       <c r="B628" s="6"/>
-      <c r="C628" s="25"/>
+      <c r="C628" s="33"/>
       <c r="D628" s="26"/>
       <c r="E628" s="26"/>
       <c r="F628" s="6"/>
@@ -21103,7 +21410,7 @@
     <row r="629" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A629" s="6"/>
       <c r="B629" s="6"/>
-      <c r="C629" s="25"/>
+      <c r="C629" s="33"/>
       <c r="D629" s="26"/>
       <c r="E629" s="26"/>
       <c r="F629" s="6"/>
@@ -21131,7 +21438,7 @@
     <row r="630" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A630" s="6"/>
       <c r="B630" s="6"/>
-      <c r="C630" s="25"/>
+      <c r="C630" s="33"/>
       <c r="D630" s="26"/>
       <c r="E630" s="26"/>
       <c r="F630" s="6"/>
@@ -21159,7 +21466,7 @@
     <row r="631" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A631" s="6"/>
       <c r="B631" s="6"/>
-      <c r="C631" s="25"/>
+      <c r="C631" s="33"/>
       <c r="D631" s="26"/>
       <c r="E631" s="26"/>
       <c r="F631" s="6"/>
@@ -21187,7 +21494,7 @@
     <row r="632" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A632" s="6"/>
       <c r="B632" s="6"/>
-      <c r="C632" s="25"/>
+      <c r="C632" s="33"/>
       <c r="D632" s="26"/>
       <c r="E632" s="26"/>
       <c r="F632" s="6"/>
@@ -21215,7 +21522,7 @@
     <row r="633" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A633" s="6"/>
       <c r="B633" s="6"/>
-      <c r="C633" s="25"/>
+      <c r="C633" s="33"/>
       <c r="D633" s="26"/>
       <c r="E633" s="26"/>
       <c r="F633" s="6"/>
@@ -21243,7 +21550,7 @@
     <row r="634" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A634" s="6"/>
       <c r="B634" s="6"/>
-      <c r="C634" s="25"/>
+      <c r="C634" s="33"/>
       <c r="D634" s="26"/>
       <c r="E634" s="26"/>
       <c r="F634" s="6"/>
@@ -21271,7 +21578,7 @@
     <row r="635" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A635" s="6"/>
       <c r="B635" s="6"/>
-      <c r="C635" s="25"/>
+      <c r="C635" s="33"/>
       <c r="D635" s="26"/>
       <c r="E635" s="26"/>
       <c r="F635" s="6"/>
@@ -21299,7 +21606,7 @@
     <row r="636" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A636" s="6"/>
       <c r="B636" s="6"/>
-      <c r="C636" s="25"/>
+      <c r="C636" s="33"/>
       <c r="D636" s="26"/>
       <c r="E636" s="26"/>
       <c r="F636" s="6"/>
@@ -21327,7 +21634,7 @@
     <row r="637" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A637" s="6"/>
       <c r="B637" s="6"/>
-      <c r="C637" s="25"/>
+      <c r="C637" s="33"/>
       <c r="D637" s="26"/>
       <c r="E637" s="26"/>
       <c r="F637" s="6"/>
@@ -21355,7 +21662,7 @@
     <row r="638" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A638" s="6"/>
       <c r="B638" s="6"/>
-      <c r="C638" s="25"/>
+      <c r="C638" s="33"/>
       <c r="D638" s="26"/>
       <c r="E638" s="26"/>
       <c r="F638" s="6"/>
@@ -21383,7 +21690,7 @@
     <row r="639" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A639" s="6"/>
       <c r="B639" s="6"/>
-      <c r="C639" s="25"/>
+      <c r="C639" s="33"/>
       <c r="D639" s="26"/>
       <c r="E639" s="26"/>
       <c r="F639" s="6"/>
@@ -21411,7 +21718,7 @@
     <row r="640" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A640" s="6"/>
       <c r="B640" s="6"/>
-      <c r="C640" s="25"/>
+      <c r="C640" s="33"/>
       <c r="D640" s="26"/>
       <c r="E640" s="26"/>
       <c r="F640" s="6"/>
@@ -21439,7 +21746,7 @@
     <row r="641" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A641" s="6"/>
       <c r="B641" s="6"/>
-      <c r="C641" s="25"/>
+      <c r="C641" s="33"/>
       <c r="D641" s="26"/>
       <c r="E641" s="26"/>
       <c r="F641" s="6"/>
@@ -21467,7 +21774,7 @@
     <row r="642" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A642" s="6"/>
       <c r="B642" s="6"/>
-      <c r="C642" s="25"/>
+      <c r="C642" s="33"/>
       <c r="D642" s="26"/>
       <c r="E642" s="26"/>
       <c r="F642" s="6"/>
@@ -21495,7 +21802,7 @@
     <row r="643" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A643" s="6"/>
       <c r="B643" s="6"/>
-      <c r="C643" s="25"/>
+      <c r="C643" s="33"/>
       <c r="D643" s="26"/>
       <c r="E643" s="26"/>
       <c r="F643" s="6"/>
@@ -21523,7 +21830,7 @@
     <row r="644" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A644" s="6"/>
       <c r="B644" s="6"/>
-      <c r="C644" s="25"/>
+      <c r="C644" s="33"/>
       <c r="D644" s="26"/>
       <c r="E644" s="26"/>
       <c r="F644" s="6"/>
@@ -21551,7 +21858,7 @@
     <row r="645" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A645" s="6"/>
       <c r="B645" s="6"/>
-      <c r="C645" s="25"/>
+      <c r="C645" s="33"/>
       <c r="D645" s="26"/>
       <c r="E645" s="26"/>
       <c r="F645" s="6"/>
@@ -21579,7 +21886,7 @@
     <row r="646" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A646" s="6"/>
       <c r="B646" s="6"/>
-      <c r="C646" s="25"/>
+      <c r="C646" s="33"/>
       <c r="D646" s="26"/>
       <c r="E646" s="26"/>
       <c r="F646" s="6"/>
@@ -21607,7 +21914,7 @@
     <row r="647" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A647" s="6"/>
       <c r="B647" s="6"/>
-      <c r="C647" s="25"/>
+      <c r="C647" s="33"/>
       <c r="D647" s="26"/>
       <c r="E647" s="26"/>
       <c r="F647" s="6"/>
@@ -21635,7 +21942,7 @@
     <row r="648" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A648" s="6"/>
       <c r="B648" s="6"/>
-      <c r="C648" s="25"/>
+      <c r="C648" s="33"/>
       <c r="D648" s="26"/>
       <c r="E648" s="26"/>
       <c r="F648" s="6"/>
@@ -21663,7 +21970,7 @@
     <row r="649" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A649" s="6"/>
       <c r="B649" s="6"/>
-      <c r="C649" s="25"/>
+      <c r="C649" s="33"/>
       <c r="D649" s="26"/>
       <c r="E649" s="26"/>
       <c r="F649" s="6"/>
@@ -21691,7 +21998,7 @@
     <row r="650" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A650" s="6"/>
       <c r="B650" s="6"/>
-      <c r="C650" s="25"/>
+      <c r="C650" s="33"/>
       <c r="D650" s="26"/>
       <c r="E650" s="26"/>
       <c r="F650" s="6"/>
@@ -21719,7 +22026,7 @@
     <row r="651" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A651" s="6"/>
       <c r="B651" s="6"/>
-      <c r="C651" s="25"/>
+      <c r="C651" s="33"/>
       <c r="D651" s="26"/>
       <c r="E651" s="26"/>
       <c r="F651" s="6"/>
@@ -21747,7 +22054,7 @@
     <row r="652" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A652" s="6"/>
       <c r="B652" s="6"/>
-      <c r="C652" s="25"/>
+      <c r="C652" s="33"/>
       <c r="D652" s="26"/>
       <c r="E652" s="26"/>
       <c r="F652" s="6"/>
@@ -21775,7 +22082,7 @@
     <row r="653" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A653" s="6"/>
       <c r="B653" s="6"/>
-      <c r="C653" s="25"/>
+      <c r="C653" s="33"/>
       <c r="D653" s="26"/>
       <c r="E653" s="26"/>
       <c r="F653" s="6"/>
@@ -21803,7 +22110,7 @@
     <row r="654" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A654" s="6"/>
       <c r="B654" s="6"/>
-      <c r="C654" s="25"/>
+      <c r="C654" s="33"/>
       <c r="D654" s="26"/>
       <c r="E654" s="26"/>
       <c r="F654" s="6"/>
@@ -21831,7 +22138,7 @@
     <row r="655" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A655" s="6"/>
       <c r="B655" s="6"/>
-      <c r="C655" s="25"/>
+      <c r="C655" s="33"/>
       <c r="D655" s="26"/>
       <c r="E655" s="26"/>
       <c r="F655" s="6"/>
@@ -21859,7 +22166,7 @@
     <row r="656" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A656" s="6"/>
       <c r="B656" s="6"/>
-      <c r="C656" s="25"/>
+      <c r="C656" s="33"/>
       <c r="D656" s="26"/>
       <c r="E656" s="26"/>
       <c r="F656" s="6"/>
@@ -21887,7 +22194,7 @@
     <row r="657" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A657" s="6"/>
       <c r="B657" s="6"/>
-      <c r="C657" s="25"/>
+      <c r="C657" s="33"/>
       <c r="D657" s="26"/>
       <c r="E657" s="26"/>
       <c r="F657" s="6"/>
@@ -21915,7 +22222,7 @@
     <row r="658" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A658" s="6"/>
       <c r="B658" s="6"/>
-      <c r="C658" s="25"/>
+      <c r="C658" s="33"/>
       <c r="D658" s="26"/>
       <c r="E658" s="26"/>
       <c r="F658" s="6"/>
@@ -21943,7 +22250,7 @@
     <row r="659" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A659" s="6"/>
       <c r="B659" s="6"/>
-      <c r="C659" s="25"/>
+      <c r="C659" s="33"/>
       <c r="D659" s="26"/>
       <c r="E659" s="26"/>
       <c r="F659" s="6"/>
@@ -21971,7 +22278,7 @@
     <row r="660" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A660" s="6"/>
       <c r="B660" s="6"/>
-      <c r="C660" s="25"/>
+      <c r="C660" s="33"/>
       <c r="D660" s="26"/>
       <c r="E660" s="26"/>
       <c r="F660" s="6"/>
@@ -21999,7 +22306,7 @@
     <row r="661" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A661" s="6"/>
       <c r="B661" s="6"/>
-      <c r="C661" s="25"/>
+      <c r="C661" s="33"/>
       <c r="D661" s="26"/>
       <c r="E661" s="26"/>
       <c r="F661" s="6"/>
@@ -22027,7 +22334,7 @@
     <row r="662" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A662" s="6"/>
       <c r="B662" s="6"/>
-      <c r="C662" s="25"/>
+      <c r="C662" s="33"/>
       <c r="D662" s="26"/>
       <c r="E662" s="26"/>
       <c r="F662" s="6"/>
@@ -22055,7 +22362,7 @@
     <row r="663" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A663" s="6"/>
       <c r="B663" s="6"/>
-      <c r="C663" s="25"/>
+      <c r="C663" s="33"/>
       <c r="D663" s="26"/>
       <c r="E663" s="26"/>
       <c r="F663" s="6"/>
@@ -22083,7 +22390,7 @@
     <row r="664" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A664" s="6"/>
       <c r="B664" s="6"/>
-      <c r="C664" s="25"/>
+      <c r="C664" s="33"/>
       <c r="D664" s="26"/>
       <c r="E664" s="26"/>
       <c r="F664" s="6"/>
@@ -22111,7 +22418,7 @@
     <row r="665" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A665" s="6"/>
       <c r="B665" s="6"/>
-      <c r="C665" s="25"/>
+      <c r="C665" s="33"/>
       <c r="D665" s="26"/>
       <c r="E665" s="26"/>
       <c r="F665" s="6"/>
@@ -22139,7 +22446,7 @@
     <row r="666" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A666" s="6"/>
       <c r="B666" s="6"/>
-      <c r="C666" s="25"/>
+      <c r="C666" s="33"/>
       <c r="D666" s="26"/>
       <c r="E666" s="26"/>
       <c r="F666" s="6"/>
@@ -22167,7 +22474,7 @@
     <row r="667" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A667" s="6"/>
       <c r="B667" s="6"/>
-      <c r="C667" s="25"/>
+      <c r="C667" s="33"/>
       <c r="D667" s="26"/>
       <c r="E667" s="26"/>
       <c r="F667" s="6"/>
@@ -22195,7 +22502,7 @@
     <row r="668" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A668" s="6"/>
       <c r="B668" s="6"/>
-      <c r="C668" s="25"/>
+      <c r="C668" s="33"/>
       <c r="D668" s="26"/>
       <c r="E668" s="26"/>
       <c r="F668" s="6"/>
@@ -22223,7 +22530,7 @@
     <row r="669" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A669" s="6"/>
       <c r="B669" s="6"/>
-      <c r="C669" s="25"/>
+      <c r="C669" s="33"/>
       <c r="D669" s="26"/>
       <c r="E669" s="26"/>
       <c r="F669" s="6"/>
@@ -22251,7 +22558,7 @@
     <row r="670" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A670" s="6"/>
       <c r="B670" s="6"/>
-      <c r="C670" s="25"/>
+      <c r="C670" s="33"/>
       <c r="D670" s="26"/>
       <c r="E670" s="26"/>
       <c r="F670" s="6"/>
@@ -22279,7 +22586,7 @@
     <row r="671" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A671" s="6"/>
       <c r="B671" s="6"/>
-      <c r="C671" s="25"/>
+      <c r="C671" s="33"/>
       <c r="D671" s="26"/>
       <c r="E671" s="26"/>
       <c r="F671" s="6"/>
@@ -22307,7 +22614,7 @@
     <row r="672" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A672" s="6"/>
       <c r="B672" s="6"/>
-      <c r="C672" s="25"/>
+      <c r="C672" s="33"/>
       <c r="D672" s="26"/>
       <c r="E672" s="26"/>
       <c r="F672" s="6"/>
@@ -22335,7 +22642,7 @@
     <row r="673" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A673" s="6"/>
       <c r="B673" s="6"/>
-      <c r="C673" s="25"/>
+      <c r="C673" s="33"/>
       <c r="D673" s="26"/>
       <c r="E673" s="26"/>
       <c r="F673" s="6"/>
@@ -22363,7 +22670,7 @@
     <row r="674" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A674" s="6"/>
       <c r="B674" s="6"/>
-      <c r="C674" s="25"/>
+      <c r="C674" s="33"/>
       <c r="D674" s="26"/>
       <c r="E674" s="26"/>
       <c r="F674" s="6"/>
@@ -22391,7 +22698,7 @@
     <row r="675" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A675" s="6"/>
       <c r="B675" s="6"/>
-      <c r="C675" s="25"/>
+      <c r="C675" s="33"/>
       <c r="D675" s="26"/>
       <c r="E675" s="26"/>
       <c r="F675" s="6"/>
@@ -22419,7 +22726,7 @@
     <row r="676" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A676" s="6"/>
       <c r="B676" s="6"/>
-      <c r="C676" s="25"/>
+      <c r="C676" s="33"/>
       <c r="D676" s="26"/>
       <c r="E676" s="26"/>
       <c r="F676" s="6"/>
@@ -22447,7 +22754,7 @@
     <row r="677" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A677" s="6"/>
       <c r="B677" s="6"/>
-      <c r="C677" s="25"/>
+      <c r="C677" s="33"/>
       <c r="D677" s="26"/>
       <c r="E677" s="26"/>
       <c r="F677" s="6"/>
@@ -22475,7 +22782,7 @@
     <row r="678" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A678" s="6"/>
       <c r="B678" s="6"/>
-      <c r="C678" s="25"/>
+      <c r="C678" s="33"/>
       <c r="D678" s="26"/>
       <c r="E678" s="26"/>
       <c r="F678" s="6"/>
@@ -22503,7 +22810,7 @@
     <row r="679" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A679" s="6"/>
       <c r="B679" s="6"/>
-      <c r="C679" s="25"/>
+      <c r="C679" s="33"/>
       <c r="D679" s="26"/>
       <c r="E679" s="26"/>
       <c r="F679" s="6"/>
@@ -22531,7 +22838,7 @@
     <row r="680" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A680" s="6"/>
       <c r="B680" s="6"/>
-      <c r="C680" s="25"/>
+      <c r="C680" s="33"/>
       <c r="D680" s="26"/>
       <c r="E680" s="26"/>
       <c r="F680" s="6"/>
@@ -22559,7 +22866,7 @@
     <row r="681" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A681" s="6"/>
       <c r="B681" s="6"/>
-      <c r="C681" s="25"/>
+      <c r="C681" s="33"/>
       <c r="D681" s="26"/>
       <c r="E681" s="26"/>
       <c r="F681" s="6"/>
@@ -22587,7 +22894,7 @@
     <row r="682" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A682" s="6"/>
       <c r="B682" s="6"/>
-      <c r="C682" s="25"/>
+      <c r="C682" s="33"/>
       <c r="D682" s="26"/>
       <c r="E682" s="26"/>
       <c r="F682" s="6"/>
@@ -22615,7 +22922,7 @@
     <row r="683" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A683" s="6"/>
       <c r="B683" s="6"/>
-      <c r="C683" s="25"/>
+      <c r="C683" s="33"/>
       <c r="D683" s="26"/>
       <c r="E683" s="26"/>
       <c r="F683" s="6"/>
@@ -22643,7 +22950,7 @@
     <row r="684" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A684" s="6"/>
       <c r="B684" s="6"/>
-      <c r="C684" s="25"/>
+      <c r="C684" s="33"/>
       <c r="D684" s="26"/>
       <c r="E684" s="26"/>
       <c r="F684" s="6"/>
@@ -22671,7 +22978,7 @@
     <row r="685" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A685" s="6"/>
       <c r="B685" s="6"/>
-      <c r="C685" s="25"/>
+      <c r="C685" s="33"/>
       <c r="D685" s="26"/>
       <c r="E685" s="26"/>
       <c r="F685" s="6"/>
@@ -22699,7 +23006,7 @@
     <row r="686" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A686" s="6"/>
       <c r="B686" s="6"/>
-      <c r="C686" s="25"/>
+      <c r="C686" s="33"/>
       <c r="D686" s="26"/>
       <c r="E686" s="26"/>
       <c r="F686" s="6"/>
@@ -22727,7 +23034,7 @@
     <row r="687" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A687" s="6"/>
       <c r="B687" s="6"/>
-      <c r="C687" s="25"/>
+      <c r="C687" s="33"/>
       <c r="D687" s="26"/>
       <c r="E687" s="26"/>
       <c r="F687" s="6"/>
@@ -22755,7 +23062,7 @@
     <row r="688" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A688" s="6"/>
       <c r="B688" s="6"/>
-      <c r="C688" s="25"/>
+      <c r="C688" s="33"/>
       <c r="D688" s="26"/>
       <c r="E688" s="26"/>
       <c r="F688" s="6"/>
@@ -22783,7 +23090,7 @@
     <row r="689" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A689" s="6"/>
       <c r="B689" s="6"/>
-      <c r="C689" s="25"/>
+      <c r="C689" s="33"/>
       <c r="D689" s="26"/>
       <c r="E689" s="26"/>
       <c r="F689" s="6"/>
@@ -22811,7 +23118,7 @@
     <row r="690" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A690" s="6"/>
       <c r="B690" s="6"/>
-      <c r="C690" s="25"/>
+      <c r="C690" s="33"/>
       <c r="D690" s="26"/>
       <c r="E690" s="26"/>
       <c r="F690" s="6"/>
@@ -22839,7 +23146,7 @@
     <row r="691" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A691" s="6"/>
       <c r="B691" s="6"/>
-      <c r="C691" s="25"/>
+      <c r="C691" s="33"/>
       <c r="D691" s="26"/>
       <c r="E691" s="26"/>
       <c r="F691" s="6"/>
@@ -22867,7 +23174,7 @@
     <row r="692" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A692" s="6"/>
       <c r="B692" s="6"/>
-      <c r="C692" s="25"/>
+      <c r="C692" s="33"/>
       <c r="D692" s="26"/>
       <c r="E692" s="26"/>
       <c r="F692" s="6"/>
@@ -22895,7 +23202,7 @@
     <row r="693" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A693" s="6"/>
       <c r="B693" s="6"/>
-      <c r="C693" s="25"/>
+      <c r="C693" s="33"/>
       <c r="D693" s="26"/>
       <c r="E693" s="26"/>
       <c r="F693" s="6"/>
@@ -22923,7 +23230,7 @@
     <row r="694" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A694" s="6"/>
       <c r="B694" s="6"/>
-      <c r="C694" s="25"/>
+      <c r="C694" s="33"/>
       <c r="D694" s="26"/>
       <c r="E694" s="26"/>
       <c r="F694" s="6"/>
@@ -22951,7 +23258,7 @@
     <row r="695" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A695" s="6"/>
       <c r="B695" s="6"/>
-      <c r="C695" s="25"/>
+      <c r="C695" s="33"/>
       <c r="D695" s="26"/>
       <c r="E695" s="26"/>
       <c r="F695" s="6"/>
@@ -22979,7 +23286,7 @@
     <row r="696" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A696" s="6"/>
       <c r="B696" s="6"/>
-      <c r="C696" s="25"/>
+      <c r="C696" s="33"/>
       <c r="D696" s="26"/>
       <c r="E696" s="26"/>
       <c r="F696" s="6"/>
@@ -23007,7 +23314,7 @@
     <row r="697" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A697" s="6"/>
       <c r="B697" s="6"/>
-      <c r="C697" s="25"/>
+      <c r="C697" s="33"/>
       <c r="D697" s="26"/>
       <c r="E697" s="26"/>
       <c r="F697" s="6"/>
@@ -23035,7 +23342,7 @@
     <row r="698" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A698" s="6"/>
       <c r="B698" s="6"/>
-      <c r="C698" s="25"/>
+      <c r="C698" s="33"/>
       <c r="D698" s="26"/>
       <c r="E698" s="26"/>
       <c r="F698" s="6"/>
@@ -23063,7 +23370,7 @@
     <row r="699" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A699" s="6"/>
       <c r="B699" s="6"/>
-      <c r="C699" s="25"/>
+      <c r="C699" s="33"/>
       <c r="D699" s="26"/>
       <c r="E699" s="26"/>
       <c r="F699" s="6"/>
@@ -23091,7 +23398,7 @@
     <row r="700" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A700" s="6"/>
       <c r="B700" s="6"/>
-      <c r="C700" s="25"/>
+      <c r="C700" s="33"/>
       <c r="D700" s="26"/>
       <c r="E700" s="26"/>
       <c r="F700" s="6"/>
@@ -23119,7 +23426,7 @@
     <row r="701" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A701" s="6"/>
       <c r="B701" s="6"/>
-      <c r="C701" s="25"/>
+      <c r="C701" s="33"/>
       <c r="D701" s="26"/>
       <c r="E701" s="26"/>
       <c r="F701" s="6"/>
@@ -23147,7 +23454,7 @@
     <row r="702" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A702" s="6"/>
       <c r="B702" s="6"/>
-      <c r="C702" s="25"/>
+      <c r="C702" s="33"/>
       <c r="D702" s="26"/>
       <c r="E702" s="26"/>
       <c r="F702" s="6"/>
@@ -23175,7 +23482,7 @@
     <row r="703" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A703" s="6"/>
       <c r="B703" s="6"/>
-      <c r="C703" s="25"/>
+      <c r="C703" s="33"/>
       <c r="D703" s="26"/>
       <c r="E703" s="26"/>
       <c r="F703" s="6"/>
@@ -23203,7 +23510,7 @@
     <row r="704" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A704" s="6"/>
       <c r="B704" s="6"/>
-      <c r="C704" s="25"/>
+      <c r="C704" s="33"/>
       <c r="D704" s="26"/>
       <c r="E704" s="26"/>
       <c r="F704" s="6"/>
@@ -23231,7 +23538,7 @@
     <row r="705" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A705" s="6"/>
       <c r="B705" s="6"/>
-      <c r="C705" s="25"/>
+      <c r="C705" s="33"/>
       <c r="D705" s="26"/>
       <c r="E705" s="26"/>
       <c r="F705" s="6"/>
@@ -23259,7 +23566,7 @@
     <row r="706" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A706" s="6"/>
       <c r="B706" s="6"/>
-      <c r="C706" s="25"/>
+      <c r="C706" s="33"/>
       <c r="D706" s="26"/>
       <c r="E706" s="26"/>
       <c r="F706" s="6"/>
@@ -23287,7 +23594,7 @@
     <row r="707" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A707" s="6"/>
       <c r="B707" s="6"/>
-      <c r="C707" s="25"/>
+      <c r="C707" s="33"/>
       <c r="D707" s="26"/>
       <c r="E707" s="26"/>
       <c r="F707" s="6"/>
@@ -23315,7 +23622,7 @@
     <row r="708" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A708" s="6"/>
       <c r="B708" s="6"/>
-      <c r="C708" s="25"/>
+      <c r="C708" s="33"/>
       <c r="D708" s="26"/>
       <c r="E708" s="26"/>
       <c r="F708" s="6"/>
@@ -23343,7 +23650,7 @@
     <row r="709" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A709" s="6"/>
       <c r="B709" s="6"/>
-      <c r="C709" s="25"/>
+      <c r="C709" s="33"/>
       <c r="D709" s="26"/>
       <c r="E709" s="26"/>
       <c r="F709" s="6"/>
@@ -23371,7 +23678,7 @@
     <row r="710" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A710" s="6"/>
       <c r="B710" s="6"/>
-      <c r="C710" s="25"/>
+      <c r="C710" s="33"/>
       <c r="D710" s="26"/>
       <c r="E710" s="26"/>
       <c r="F710" s="6"/>
@@ -23399,7 +23706,7 @@
     <row r="711" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A711" s="6"/>
       <c r="B711" s="6"/>
-      <c r="C711" s="25"/>
+      <c r="C711" s="33"/>
       <c r="D711" s="26"/>
       <c r="E711" s="26"/>
       <c r="F711" s="6"/>
@@ -23427,7 +23734,7 @@
     <row r="712" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A712" s="6"/>
       <c r="B712" s="6"/>
-      <c r="C712" s="25"/>
+      <c r="C712" s="33"/>
       <c r="D712" s="26"/>
       <c r="E712" s="26"/>
       <c r="F712" s="6"/>
@@ -23455,7 +23762,7 @@
     <row r="713" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A713" s="6"/>
       <c r="B713" s="6"/>
-      <c r="C713" s="25"/>
+      <c r="C713" s="33"/>
       <c r="D713" s="26"/>
       <c r="E713" s="26"/>
       <c r="F713" s="6"/>
@@ -23483,7 +23790,7 @@
     <row r="714" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A714" s="6"/>
       <c r="B714" s="6"/>
-      <c r="C714" s="25"/>
+      <c r="C714" s="33"/>
       <c r="D714" s="26"/>
       <c r="E714" s="26"/>
       <c r="F714" s="6"/>
@@ -23511,7 +23818,7 @@
     <row r="715" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A715" s="6"/>
       <c r="B715" s="6"/>
-      <c r="C715" s="25"/>
+      <c r="C715" s="33"/>
       <c r="D715" s="26"/>
       <c r="E715" s="26"/>
       <c r="F715" s="6"/>
@@ -23539,7 +23846,7 @@
     <row r="716" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A716" s="6"/>
       <c r="B716" s="6"/>
-      <c r="C716" s="25"/>
+      <c r="C716" s="33"/>
       <c r="D716" s="26"/>
       <c r="E716" s="26"/>
       <c r="F716" s="6"/>
@@ -23567,7 +23874,7 @@
     <row r="717" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A717" s="6"/>
       <c r="B717" s="6"/>
-      <c r="C717" s="25"/>
+      <c r="C717" s="33"/>
       <c r="D717" s="26"/>
       <c r="E717" s="26"/>
       <c r="F717" s="6"/>
@@ -23595,7 +23902,7 @@
     <row r="718" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A718" s="6"/>
       <c r="B718" s="6"/>
-      <c r="C718" s="25"/>
+      <c r="C718" s="33"/>
       <c r="D718" s="26"/>
       <c r="E718" s="26"/>
       <c r="F718" s="6"/>
@@ -23623,7 +23930,7 @@
     <row r="719" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A719" s="6"/>
       <c r="B719" s="6"/>
-      <c r="C719" s="25"/>
+      <c r="C719" s="33"/>
       <c r="D719" s="26"/>
       <c r="E719" s="26"/>
       <c r="F719" s="6"/>
@@ -23651,7 +23958,7 @@
     <row r="720" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A720" s="6"/>
       <c r="B720" s="6"/>
-      <c r="C720" s="25"/>
+      <c r="C720" s="33"/>
       <c r="D720" s="26"/>
       <c r="E720" s="26"/>
       <c r="F720" s="6"/>
@@ -23679,7 +23986,7 @@
     <row r="721" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A721" s="6"/>
       <c r="B721" s="6"/>
-      <c r="C721" s="25"/>
+      <c r="C721" s="33"/>
       <c r="D721" s="26"/>
       <c r="E721" s="26"/>
       <c r="F721" s="6"/>
@@ -23707,7 +24014,7 @@
     <row r="722" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A722" s="6"/>
       <c r="B722" s="6"/>
-      <c r="C722" s="25"/>
+      <c r="C722" s="33"/>
       <c r="D722" s="26"/>
       <c r="E722" s="26"/>
       <c r="F722" s="6"/>
@@ -23735,7 +24042,7 @@
     <row r="723" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A723" s="6"/>
       <c r="B723" s="6"/>
-      <c r="C723" s="25"/>
+      <c r="C723" s="33"/>
       <c r="D723" s="26"/>
       <c r="E723" s="26"/>
       <c r="F723" s="6"/>
@@ -23763,7 +24070,7 @@
     <row r="724" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A724" s="6"/>
       <c r="B724" s="6"/>
-      <c r="C724" s="25"/>
+      <c r="C724" s="33"/>
       <c r="D724" s="26"/>
       <c r="E724" s="26"/>
       <c r="F724" s="6"/>
@@ -23791,7 +24098,7 @@
     <row r="725" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A725" s="6"/>
       <c r="B725" s="6"/>
-      <c r="C725" s="25"/>
+      <c r="C725" s="33"/>
       <c r="D725" s="26"/>
       <c r="E725" s="26"/>
       <c r="F725" s="6"/>
@@ -23819,7 +24126,7 @@
     <row r="726" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A726" s="6"/>
       <c r="B726" s="6"/>
-      <c r="C726" s="25"/>
+      <c r="C726" s="33"/>
       <c r="D726" s="26"/>
       <c r="E726" s="26"/>
       <c r="F726" s="6"/>
@@ -23847,7 +24154,7 @@
     <row r="727" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A727" s="6"/>
       <c r="B727" s="6"/>
-      <c r="C727" s="25"/>
+      <c r="C727" s="33"/>
       <c r="D727" s="26"/>
       <c r="E727" s="26"/>
       <c r="F727" s="6"/>
@@ -23875,7 +24182,7 @@
     <row r="728" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A728" s="6"/>
       <c r="B728" s="6"/>
-      <c r="C728" s="25"/>
+      <c r="C728" s="33"/>
       <c r="D728" s="26"/>
       <c r="E728" s="26"/>
       <c r="F728" s="6"/>
@@ -23903,7 +24210,7 @@
     <row r="729" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A729" s="6"/>
       <c r="B729" s="6"/>
-      <c r="C729" s="25"/>
+      <c r="C729" s="33"/>
       <c r="D729" s="26"/>
       <c r="E729" s="26"/>
       <c r="F729" s="6"/>
@@ -23931,7 +24238,7 @@
     <row r="730" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A730" s="6"/>
       <c r="B730" s="6"/>
-      <c r="C730" s="25"/>
+      <c r="C730" s="33"/>
       <c r="D730" s="26"/>
       <c r="E730" s="26"/>
       <c r="F730" s="6"/>
@@ -23959,7 +24266,7 @@
     <row r="731" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A731" s="6"/>
       <c r="B731" s="6"/>
-      <c r="C731" s="25"/>
+      <c r="C731" s="33"/>
       <c r="D731" s="26"/>
       <c r="E731" s="26"/>
       <c r="F731" s="6"/>
@@ -23987,7 +24294,7 @@
     <row r="732" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A732" s="6"/>
       <c r="B732" s="6"/>
-      <c r="C732" s="25"/>
+      <c r="C732" s="33"/>
       <c r="D732" s="26"/>
       <c r="E732" s="26"/>
       <c r="F732" s="6"/>
@@ -24015,7 +24322,7 @@
     <row r="733" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A733" s="6"/>
       <c r="B733" s="6"/>
-      <c r="C733" s="25"/>
+      <c r="C733" s="33"/>
       <c r="D733" s="26"/>
       <c r="E733" s="26"/>
       <c r="F733" s="6"/>
@@ -24043,7 +24350,7 @@
     <row r="734" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A734" s="6"/>
       <c r="B734" s="6"/>
-      <c r="C734" s="25"/>
+      <c r="C734" s="33"/>
       <c r="D734" s="26"/>
       <c r="E734" s="26"/>
       <c r="F734" s="6"/>
@@ -24071,7 +24378,7 @@
     <row r="735" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A735" s="6"/>
       <c r="B735" s="6"/>
-      <c r="C735" s="25"/>
+      <c r="C735" s="33"/>
       <c r="D735" s="26"/>
       <c r="E735" s="26"/>
       <c r="F735" s="6"/>
@@ -24099,7 +24406,7 @@
     <row r="736" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A736" s="6"/>
       <c r="B736" s="6"/>
-      <c r="C736" s="25"/>
+      <c r="C736" s="33"/>
       <c r="D736" s="26"/>
       <c r="E736" s="26"/>
       <c r="F736" s="6"/>
@@ -24127,7 +24434,7 @@
     <row r="737" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A737" s="6"/>
       <c r="B737" s="6"/>
-      <c r="C737" s="25"/>
+      <c r="C737" s="33"/>
       <c r="D737" s="26"/>
       <c r="E737" s="26"/>
       <c r="F737" s="6"/>
@@ -24155,7 +24462,7 @@
     <row r="738" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A738" s="6"/>
       <c r="B738" s="6"/>
-      <c r="C738" s="25"/>
+      <c r="C738" s="33"/>
       <c r="D738" s="26"/>
       <c r="E738" s="26"/>
       <c r="F738" s="6"/>
@@ -24183,7 +24490,7 @@
     <row r="739" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A739" s="6"/>
       <c r="B739" s="6"/>
-      <c r="C739" s="25"/>
+      <c r="C739" s="33"/>
       <c r="D739" s="26"/>
       <c r="E739" s="26"/>
       <c r="F739" s="6"/>
@@ -24211,7 +24518,7 @@
     <row r="740" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A740" s="6"/>
       <c r="B740" s="6"/>
-      <c r="C740" s="25"/>
+      <c r="C740" s="33"/>
       <c r="D740" s="26"/>
       <c r="E740" s="26"/>
       <c r="F740" s="6"/>
@@ -24239,7 +24546,7 @@
     <row r="741" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A741" s="6"/>
       <c r="B741" s="6"/>
-      <c r="C741" s="25"/>
+      <c r="C741" s="33"/>
       <c r="D741" s="26"/>
       <c r="E741" s="26"/>
       <c r="F741" s="6"/>
@@ -24267,7 +24574,7 @@
     <row r="742" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A742" s="6"/>
       <c r="B742" s="6"/>
-      <c r="C742" s="25"/>
+      <c r="C742" s="33"/>
       <c r="D742" s="26"/>
       <c r="E742" s="26"/>
       <c r="F742" s="6"/>
@@ -24295,7 +24602,7 @@
     <row r="743" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A743" s="6"/>
       <c r="B743" s="6"/>
-      <c r="C743" s="25"/>
+      <c r="C743" s="33"/>
       <c r="D743" s="26"/>
       <c r="E743" s="26"/>
       <c r="F743" s="6"/>
@@ -24323,7 +24630,7 @@
     <row r="744" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A744" s="6"/>
       <c r="B744" s="6"/>
-      <c r="C744" s="25"/>
+      <c r="C744" s="33"/>
       <c r="D744" s="26"/>
       <c r="E744" s="26"/>
       <c r="F744" s="6"/>
@@ -24351,7 +24658,7 @@
     <row r="745" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A745" s="6"/>
       <c r="B745" s="6"/>
-      <c r="C745" s="25"/>
+      <c r="C745" s="33"/>
       <c r="D745" s="26"/>
       <c r="E745" s="26"/>
       <c r="F745" s="6"/>
@@ -24379,7 +24686,7 @@
     <row r="746" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A746" s="6"/>
       <c r="B746" s="6"/>
-      <c r="C746" s="25"/>
+      <c r="C746" s="33"/>
       <c r="D746" s="26"/>
       <c r="E746" s="26"/>
       <c r="F746" s="6"/>
@@ -24407,7 +24714,7 @@
     <row r="747" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A747" s="6"/>
       <c r="B747" s="6"/>
-      <c r="C747" s="25"/>
+      <c r="C747" s="33"/>
       <c r="D747" s="26"/>
       <c r="E747" s="26"/>
       <c r="F747" s="6"/>
@@ -24435,7 +24742,7 @@
     <row r="748" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A748" s="6"/>
       <c r="B748" s="6"/>
-      <c r="C748" s="25"/>
+      <c r="C748" s="33"/>
       <c r="D748" s="26"/>
       <c r="E748" s="26"/>
       <c r="F748" s="6"/>
@@ -24463,7 +24770,7 @@
     <row r="749" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A749" s="6"/>
       <c r="B749" s="6"/>
-      <c r="C749" s="25"/>
+      <c r="C749" s="33"/>
       <c r="D749" s="26"/>
       <c r="E749" s="26"/>
       <c r="F749" s="6"/>
@@ -24491,7 +24798,7 @@
     <row r="750" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A750" s="6"/>
       <c r="B750" s="6"/>
-      <c r="C750" s="25"/>
+      <c r="C750" s="33"/>
       <c r="D750" s="26"/>
       <c r="E750" s="26"/>
       <c r="F750" s="6"/>
@@ -24519,7 +24826,7 @@
     <row r="751" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A751" s="6"/>
       <c r="B751" s="6"/>
-      <c r="C751" s="25"/>
+      <c r="C751" s="33"/>
       <c r="D751" s="26"/>
       <c r="E751" s="26"/>
       <c r="F751" s="6"/>
@@ -24547,7 +24854,7 @@
     <row r="752" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A752" s="6"/>
       <c r="B752" s="6"/>
-      <c r="C752" s="25"/>
+      <c r="C752" s="33"/>
       <c r="D752" s="26"/>
       <c r="E752" s="26"/>
       <c r="F752" s="6"/>
@@ -24575,7 +24882,7 @@
     <row r="753" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A753" s="6"/>
       <c r="B753" s="6"/>
-      <c r="C753" s="25"/>
+      <c r="C753" s="33"/>
       <c r="D753" s="26"/>
       <c r="E753" s="26"/>
       <c r="F753" s="6"/>
@@ -24603,7 +24910,7 @@
     <row r="754" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A754" s="6"/>
       <c r="B754" s="6"/>
-      <c r="C754" s="25"/>
+      <c r="C754" s="33"/>
       <c r="D754" s="26"/>
       <c r="E754" s="26"/>
       <c r="F754" s="6"/>
@@ -24631,7 +24938,7 @@
     <row r="755" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A755" s="6"/>
       <c r="B755" s="6"/>
-      <c r="C755" s="25"/>
+      <c r="C755" s="33"/>
       <c r="D755" s="26"/>
       <c r="E755" s="26"/>
       <c r="F755" s="6"/>
@@ -24659,7 +24966,7 @@
     <row r="756" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A756" s="6"/>
       <c r="B756" s="6"/>
-      <c r="C756" s="25"/>
+      <c r="C756" s="33"/>
       <c r="D756" s="26"/>
       <c r="E756" s="26"/>
       <c r="F756" s="6"/>
@@ -24687,7 +24994,7 @@
     <row r="757" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A757" s="6"/>
       <c r="B757" s="6"/>
-      <c r="C757" s="25"/>
+      <c r="C757" s="33"/>
       <c r="D757" s="26"/>
       <c r="E757" s="26"/>
       <c r="F757" s="6"/>
@@ -24715,7 +25022,7 @@
     <row r="758" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A758" s="6"/>
       <c r="B758" s="6"/>
-      <c r="C758" s="25"/>
+      <c r="C758" s="33"/>
       <c r="D758" s="26"/>
       <c r="E758" s="26"/>
       <c r="F758" s="6"/>
@@ -24743,7 +25050,7 @@
     <row r="759" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A759" s="6"/>
       <c r="B759" s="6"/>
-      <c r="C759" s="25"/>
+      <c r="C759" s="33"/>
       <c r="D759" s="26"/>
       <c r="E759" s="26"/>
       <c r="F759" s="6"/>
@@ -24771,7 +25078,7 @@
     <row r="760" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A760" s="6"/>
       <c r="B760" s="6"/>
-      <c r="C760" s="25"/>
+      <c r="C760" s="33"/>
       <c r="D760" s="26"/>
       <c r="E760" s="26"/>
       <c r="F760" s="6"/>
@@ -24799,7 +25106,7 @@
     <row r="761" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A761" s="6"/>
       <c r="B761" s="6"/>
-      <c r="C761" s="25"/>
+      <c r="C761" s="33"/>
       <c r="D761" s="26"/>
       <c r="E761" s="26"/>
       <c r="F761" s="6"/>
@@ -24827,7 +25134,7 @@
     <row r="762" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A762" s="6"/>
       <c r="B762" s="6"/>
-      <c r="C762" s="25"/>
+      <c r="C762" s="33"/>
       <c r="D762" s="26"/>
       <c r="E762" s="26"/>
       <c r="F762" s="6"/>
@@ -24855,7 +25162,7 @@
     <row r="763" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A763" s="6"/>
       <c r="B763" s="6"/>
-      <c r="C763" s="25"/>
+      <c r="C763" s="33"/>
       <c r="D763" s="26"/>
       <c r="E763" s="26"/>
       <c r="F763" s="6"/>
@@ -24883,7 +25190,7 @@
     <row r="764" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A764" s="6"/>
       <c r="B764" s="6"/>
-      <c r="C764" s="25"/>
+      <c r="C764" s="33"/>
       <c r="D764" s="26"/>
       <c r="E764" s="26"/>
       <c r="F764" s="6"/>
@@ -24911,7 +25218,7 @@
     <row r="765" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A765" s="6"/>
       <c r="B765" s="6"/>
-      <c r="C765" s="25"/>
+      <c r="C765" s="33"/>
       <c r="D765" s="26"/>
       <c r="E765" s="26"/>
       <c r="F765" s="6"/>
@@ -24939,7 +25246,7 @@
     <row r="766" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A766" s="6"/>
       <c r="B766" s="6"/>
-      <c r="C766" s="25"/>
+      <c r="C766" s="33"/>
       <c r="D766" s="26"/>
       <c r="E766" s="26"/>
       <c r="F766" s="6"/>
@@ -24967,7 +25274,7 @@
     <row r="767" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A767" s="6"/>
       <c r="B767" s="6"/>
-      <c r="C767" s="25"/>
+      <c r="C767" s="33"/>
       <c r="D767" s="26"/>
       <c r="E767" s="26"/>
       <c r="F767" s="6"/>
@@ -24995,7 +25302,7 @@
     <row r="768" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A768" s="6"/>
       <c r="B768" s="6"/>
-      <c r="C768" s="25"/>
+      <c r="C768" s="33"/>
       <c r="D768" s="26"/>
       <c r="E768" s="26"/>
       <c r="F768" s="6"/>
@@ -25023,7 +25330,7 @@
     <row r="769" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A769" s="6"/>
       <c r="B769" s="6"/>
-      <c r="C769" s="25"/>
+      <c r="C769" s="33"/>
       <c r="D769" s="26"/>
       <c r="E769" s="26"/>
       <c r="F769" s="6"/>
@@ -25051,7 +25358,7 @@
     <row r="770" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A770" s="6"/>
       <c r="B770" s="6"/>
-      <c r="C770" s="25"/>
+      <c r="C770" s="33"/>
       <c r="D770" s="26"/>
       <c r="E770" s="26"/>
       <c r="F770" s="6"/>
@@ -25079,7 +25386,7 @@
     <row r="771" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A771" s="6"/>
       <c r="B771" s="6"/>
-      <c r="C771" s="25"/>
+      <c r="C771" s="33"/>
       <c r="D771" s="26"/>
       <c r="E771" s="26"/>
       <c r="F771" s="6"/>
@@ -25107,7 +25414,7 @@
     <row r="772" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A772" s="6"/>
       <c r="B772" s="6"/>
-      <c r="C772" s="25"/>
+      <c r="C772" s="33"/>
       <c r="D772" s="26"/>
       <c r="E772" s="26"/>
       <c r="F772" s="6"/>
@@ -25135,7 +25442,7 @@
     <row r="773" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A773" s="6"/>
       <c r="B773" s="6"/>
-      <c r="C773" s="25"/>
+      <c r="C773" s="33"/>
       <c r="D773" s="26"/>
       <c r="E773" s="26"/>
       <c r="F773" s="6"/>
@@ -25163,7 +25470,7 @@
     <row r="774" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A774" s="6"/>
       <c r="B774" s="6"/>
-      <c r="C774" s="25"/>
+      <c r="C774" s="33"/>
       <c r="D774" s="26"/>
       <c r="E774" s="26"/>
       <c r="F774" s="6"/>
@@ -25191,7 +25498,7 @@
     <row r="775" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A775" s="6"/>
       <c r="B775" s="6"/>
-      <c r="C775" s="25"/>
+      <c r="C775" s="33"/>
       <c r="D775" s="26"/>
       <c r="E775" s="26"/>
       <c r="F775" s="6"/>
@@ -25219,7 +25526,7 @@
     <row r="776" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A776" s="6"/>
       <c r="B776" s="6"/>
-      <c r="C776" s="25"/>
+      <c r="C776" s="33"/>
       <c r="D776" s="26"/>
       <c r="E776" s="26"/>
       <c r="F776" s="6"/>
@@ -25247,7 +25554,7 @@
     <row r="777" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A777" s="6"/>
       <c r="B777" s="6"/>
-      <c r="C777" s="25"/>
+      <c r="C777" s="33"/>
       <c r="D777" s="26"/>
       <c r="E777" s="26"/>
       <c r="F777" s="6"/>
@@ -25275,7 +25582,7 @@
     <row r="778" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A778" s="6"/>
       <c r="B778" s="6"/>
-      <c r="C778" s="25"/>
+      <c r="C778" s="33"/>
       <c r="D778" s="26"/>
       <c r="E778" s="26"/>
       <c r="F778" s="6"/>
@@ -25303,7 +25610,7 @@
     <row r="779" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A779" s="6"/>
       <c r="B779" s="6"/>
-      <c r="C779" s="25"/>
+      <c r="C779" s="33"/>
       <c r="D779" s="26"/>
       <c r="E779" s="26"/>
       <c r="F779" s="6"/>
@@ -25331,7 +25638,7 @@
     <row r="780" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A780" s="6"/>
       <c r="B780" s="6"/>
-      <c r="C780" s="25"/>
+      <c r="C780" s="33"/>
       <c r="D780" s="26"/>
       <c r="E780" s="26"/>
       <c r="F780" s="6"/>
@@ -25359,7 +25666,7 @@
     <row r="781" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A781" s="6"/>
       <c r="B781" s="6"/>
-      <c r="C781" s="25"/>
+      <c r="C781" s="33"/>
       <c r="D781" s="26"/>
       <c r="E781" s="26"/>
       <c r="F781" s="6"/>
@@ -25387,7 +25694,7 @@
     <row r="782" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A782" s="6"/>
       <c r="B782" s="6"/>
-      <c r="C782" s="25"/>
+      <c r="C782" s="33"/>
       <c r="D782" s="26"/>
       <c r="E782" s="26"/>
       <c r="F782" s="6"/>
@@ -25415,7 +25722,7 @@
     <row r="783" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A783" s="6"/>
       <c r="B783" s="6"/>
-      <c r="C783" s="25"/>
+      <c r="C783" s="33"/>
       <c r="D783" s="26"/>
       <c r="E783" s="26"/>
       <c r="F783" s="6"/>
@@ -25443,7 +25750,7 @@
     <row r="784" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A784" s="6"/>
       <c r="B784" s="6"/>
-      <c r="C784" s="25"/>
+      <c r="C784" s="33"/>
       <c r="D784" s="26"/>
       <c r="E784" s="26"/>
       <c r="F784" s="6"/>
@@ -25471,7 +25778,7 @@
     <row r="785" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A785" s="6"/>
       <c r="B785" s="6"/>
-      <c r="C785" s="25"/>
+      <c r="C785" s="33"/>
       <c r="D785" s="26"/>
       <c r="E785" s="26"/>
       <c r="F785" s="6"/>
@@ -25499,7 +25806,7 @@
     <row r="786" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A786" s="6"/>
       <c r="B786" s="6"/>
-      <c r="C786" s="25"/>
+      <c r="C786" s="33"/>
       <c r="D786" s="26"/>
       <c r="E786" s="26"/>
       <c r="F786" s="6"/>
@@ -25527,7 +25834,7 @@
     <row r="787" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A787" s="6"/>
       <c r="B787" s="6"/>
-      <c r="C787" s="25"/>
+      <c r="C787" s="33"/>
       <c r="D787" s="26"/>
       <c r="E787" s="26"/>
       <c r="F787" s="6"/>
@@ -25555,7 +25862,7 @@
     <row r="788" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A788" s="6"/>
       <c r="B788" s="6"/>
-      <c r="C788" s="25"/>
+      <c r="C788" s="33"/>
       <c r="D788" s="26"/>
       <c r="E788" s="26"/>
       <c r="F788" s="6"/>
@@ -25583,7 +25890,7 @@
     <row r="789" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A789" s="6"/>
       <c r="B789" s="6"/>
-      <c r="C789" s="25"/>
+      <c r="C789" s="33"/>
       <c r="D789" s="26"/>
       <c r="E789" s="26"/>
       <c r="F789" s="6"/>
@@ -25611,7 +25918,7 @@
     <row r="790" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A790" s="6"/>
       <c r="B790" s="6"/>
-      <c r="C790" s="25"/>
+      <c r="C790" s="33"/>
       <c r="D790" s="26"/>
       <c r="E790" s="26"/>
       <c r="F790" s="6"/>
@@ -25639,7 +25946,7 @@
     <row r="791" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A791" s="6"/>
       <c r="B791" s="6"/>
-      <c r="C791" s="25"/>
+      <c r="C791" s="33"/>
       <c r="D791" s="26"/>
       <c r="E791" s="26"/>
       <c r="F791" s="6"/>
@@ -25667,7 +25974,7 @@
     <row r="792" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A792" s="6"/>
       <c r="B792" s="6"/>
-      <c r="C792" s="25"/>
+      <c r="C792" s="33"/>
       <c r="D792" s="26"/>
       <c r="E792" s="26"/>
       <c r="F792" s="6"/>
@@ -25695,7 +26002,7 @@
     <row r="793" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A793" s="6"/>
       <c r="B793" s="6"/>
-      <c r="C793" s="25"/>
+      <c r="C793" s="33"/>
       <c r="D793" s="26"/>
       <c r="E793" s="26"/>
       <c r="F793" s="6"/>
@@ -25723,7 +26030,7 @@
     <row r="794" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A794" s="6"/>
       <c r="B794" s="6"/>
-      <c r="C794" s="25"/>
+      <c r="C794" s="33"/>
       <c r="D794" s="26"/>
       <c r="E794" s="26"/>
       <c r="F794" s="6"/>
@@ -25751,7 +26058,7 @@
     <row r="795" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A795" s="6"/>
       <c r="B795" s="6"/>
-      <c r="C795" s="25"/>
+      <c r="C795" s="33"/>
       <c r="D795" s="26"/>
       <c r="E795" s="26"/>
       <c r="F795" s="6"/>
@@ -25779,7 +26086,7 @@
     <row r="796" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A796" s="6"/>
       <c r="B796" s="6"/>
-      <c r="C796" s="25"/>
+      <c r="C796" s="33"/>
       <c r="D796" s="26"/>
       <c r="E796" s="26"/>
       <c r="F796" s="6"/>
@@ -25807,7 +26114,7 @@
     <row r="797" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A797" s="6"/>
       <c r="B797" s="6"/>
-      <c r="C797" s="25"/>
+      <c r="C797" s="33"/>
       <c r="D797" s="26"/>
       <c r="E797" s="26"/>
       <c r="F797" s="6"/>
@@ -25835,7 +26142,7 @@
     <row r="798" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A798" s="6"/>
       <c r="B798" s="6"/>
-      <c r="C798" s="25"/>
+      <c r="C798" s="33"/>
       <c r="D798" s="26"/>
       <c r="E798" s="26"/>
       <c r="F798" s="6"/>
@@ -25863,7 +26170,7 @@
     <row r="799" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A799" s="6"/>
       <c r="B799" s="6"/>
-      <c r="C799" s="25"/>
+      <c r="C799" s="33"/>
       <c r="D799" s="26"/>
       <c r="E799" s="26"/>
       <c r="F799" s="6"/>
@@ -25891,7 +26198,7 @@
     <row r="800" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A800" s="6"/>
       <c r="B800" s="6"/>
-      <c r="C800" s="25"/>
+      <c r="C800" s="33"/>
       <c r="D800" s="26"/>
       <c r="E800" s="26"/>
       <c r="F800" s="6"/>
@@ -25919,7 +26226,7 @@
     <row r="801" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A801" s="6"/>
       <c r="B801" s="6"/>
-      <c r="C801" s="25"/>
+      <c r="C801" s="33"/>
       <c r="D801" s="26"/>
       <c r="E801" s="26"/>
       <c r="F801" s="6"/>
@@ -25947,7 +26254,7 @@
     <row r="802" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A802" s="6"/>
       <c r="B802" s="6"/>
-      <c r="C802" s="25"/>
+      <c r="C802" s="33"/>
       <c r="D802" s="26"/>
       <c r="E802" s="26"/>
       <c r="F802" s="6"/>
@@ -25975,7 +26282,7 @@
     <row r="803" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A803" s="6"/>
       <c r="B803" s="6"/>
-      <c r="C803" s="25"/>
+      <c r="C803" s="33"/>
       <c r="D803" s="26"/>
       <c r="E803" s="26"/>
       <c r="F803" s="6"/>
@@ -26003,7 +26310,7 @@
     <row r="804" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A804" s="6"/>
       <c r="B804" s="6"/>
-      <c r="C804" s="25"/>
+      <c r="C804" s="33"/>
       <c r="D804" s="26"/>
       <c r="E804" s="26"/>
       <c r="F804" s="6"/>
@@ -26031,7 +26338,7 @@
     <row r="805" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A805" s="6"/>
       <c r="B805" s="6"/>
-      <c r="C805" s="25"/>
+      <c r="C805" s="33"/>
       <c r="D805" s="26"/>
       <c r="E805" s="26"/>
       <c r="F805" s="6"/>
@@ -26059,7 +26366,7 @@
     <row r="806" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A806" s="6"/>
       <c r="B806" s="6"/>
-      <c r="C806" s="25"/>
+      <c r="C806" s="33"/>
       <c r="D806" s="26"/>
       <c r="E806" s="26"/>
       <c r="F806" s="6"/>
@@ -26087,7 +26394,7 @@
     <row r="807" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A807" s="6"/>
       <c r="B807" s="6"/>
-      <c r="C807" s="25"/>
+      <c r="C807" s="33"/>
       <c r="D807" s="26"/>
       <c r="E807" s="26"/>
       <c r="F807" s="6"/>
@@ -26115,7 +26422,7 @@
     <row r="808" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A808" s="6"/>
       <c r="B808" s="6"/>
-      <c r="C808" s="25"/>
+      <c r="C808" s="33"/>
       <c r="D808" s="26"/>
       <c r="E808" s="26"/>
       <c r="F808" s="6"/>
@@ -26143,7 +26450,7 @@
     <row r="809" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A809" s="6"/>
       <c r="B809" s="6"/>
-      <c r="C809" s="25"/>
+      <c r="C809" s="33"/>
       <c r="D809" s="26"/>
       <c r="E809" s="26"/>
       <c r="F809" s="6"/>
@@ -26171,7 +26478,7 @@
     <row r="810" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A810" s="6"/>
       <c r="B810" s="6"/>
-      <c r="C810" s="25"/>
+      <c r="C810" s="33"/>
       <c r="D810" s="26"/>
       <c r="E810" s="26"/>
       <c r="F810" s="6"/>
@@ -26199,7 +26506,7 @@
     <row r="811" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A811" s="6"/>
       <c r="B811" s="6"/>
-      <c r="C811" s="25"/>
+      <c r="C811" s="33"/>
       <c r="D811" s="26"/>
       <c r="E811" s="26"/>
       <c r="F811" s="6"/>
@@ -26227,7 +26534,7 @@
     <row r="812" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A812" s="6"/>
       <c r="B812" s="6"/>
-      <c r="C812" s="25"/>
+      <c r="C812" s="33"/>
       <c r="D812" s="26"/>
       <c r="E812" s="26"/>
       <c r="F812" s="6"/>
@@ -26255,7 +26562,7 @@
     <row r="813" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A813" s="6"/>
       <c r="B813" s="6"/>
-      <c r="C813" s="25"/>
+      <c r="C813" s="33"/>
       <c r="D813" s="26"/>
       <c r="E813" s="26"/>
       <c r="F813" s="6"/>
@@ -26283,7 +26590,7 @@
     <row r="814" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A814" s="6"/>
       <c r="B814" s="6"/>
-      <c r="C814" s="25"/>
+      <c r="C814" s="33"/>
       <c r="D814" s="26"/>
       <c r="E814" s="26"/>
       <c r="F814" s="6"/>
@@ -26311,7 +26618,7 @@
     <row r="815" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A815" s="6"/>
       <c r="B815" s="6"/>
-      <c r="C815" s="25"/>
+      <c r="C815" s="33"/>
       <c r="D815" s="26"/>
       <c r="E815" s="26"/>
       <c r="F815" s="6"/>
@@ -26339,7 +26646,7 @@
     <row r="816" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A816" s="6"/>
       <c r="B816" s="6"/>
-      <c r="C816" s="25"/>
+      <c r="C816" s="33"/>
       <c r="D816" s="26"/>
       <c r="E816" s="26"/>
       <c r="F816" s="6"/>
@@ -26367,7 +26674,7 @@
     <row r="817" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A817" s="6"/>
       <c r="B817" s="6"/>
-      <c r="C817" s="25"/>
+      <c r="C817" s="33"/>
       <c r="D817" s="26"/>
       <c r="E817" s="26"/>
       <c r="F817" s="6"/>
@@ -26395,7 +26702,7 @@
     <row r="818" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A818" s="6"/>
       <c r="B818" s="6"/>
-      <c r="C818" s="25"/>
+      <c r="C818" s="33"/>
       <c r="D818" s="26"/>
       <c r="E818" s="26"/>
       <c r="F818" s="6"/>
@@ -26423,7 +26730,7 @@
     <row r="819" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A819" s="6"/>
       <c r="B819" s="6"/>
-      <c r="C819" s="25"/>
+      <c r="C819" s="33"/>
       <c r="D819" s="26"/>
       <c r="E819" s="26"/>
       <c r="F819" s="6"/>
@@ -26451,7 +26758,7 @@
     <row r="820" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A820" s="6"/>
       <c r="B820" s="6"/>
-      <c r="C820" s="25"/>
+      <c r="C820" s="33"/>
       <c r="D820" s="26"/>
       <c r="E820" s="26"/>
       <c r="F820" s="6"/>
@@ -26479,7 +26786,7 @@
     <row r="821" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A821" s="6"/>
       <c r="B821" s="6"/>
-      <c r="C821" s="25"/>
+      <c r="C821" s="33"/>
       <c r="D821" s="26"/>
       <c r="E821" s="26"/>
       <c r="F821" s="6"/>
@@ -26507,7 +26814,7 @@
     <row r="822" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A822" s="6"/>
       <c r="B822" s="6"/>
-      <c r="C822" s="25"/>
+      <c r="C822" s="33"/>
       <c r="D822" s="26"/>
       <c r="E822" s="26"/>
       <c r="F822" s="6"/>
@@ -26535,7 +26842,7 @@
     <row r="823" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A823" s="6"/>
       <c r="B823" s="6"/>
-      <c r="C823" s="25"/>
+      <c r="C823" s="33"/>
       <c r="D823" s="26"/>
       <c r="E823" s="26"/>
       <c r="F823" s="6"/>
@@ -26563,7 +26870,7 @@
     <row r="824" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A824" s="6"/>
       <c r="B824" s="6"/>
-      <c r="C824" s="25"/>
+      <c r="C824" s="33"/>
       <c r="D824" s="26"/>
       <c r="E824" s="26"/>
       <c r="F824" s="6"/>
@@ -26591,7 +26898,7 @@
     <row r="825" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A825" s="6"/>
       <c r="B825" s="6"/>
-      <c r="C825" s="25"/>
+      <c r="C825" s="33"/>
       <c r="D825" s="26"/>
       <c r="E825" s="26"/>
       <c r="F825" s="6"/>
@@ -26619,7 +26926,7 @@
     <row r="826" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A826" s="6"/>
       <c r="B826" s="6"/>
-      <c r="C826" s="25"/>
+      <c r="C826" s="33"/>
       <c r="D826" s="26"/>
       <c r="E826" s="26"/>
       <c r="F826" s="6"/>
@@ -26647,7 +26954,7 @@
     <row r="827" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A827" s="6"/>
       <c r="B827" s="6"/>
-      <c r="C827" s="25"/>
+      <c r="C827" s="33"/>
       <c r="D827" s="26"/>
       <c r="E827" s="26"/>
       <c r="F827" s="6"/>
@@ -26675,7 +26982,7 @@
     <row r="828" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A828" s="6"/>
       <c r="B828" s="6"/>
-      <c r="C828" s="25"/>
+      <c r="C828" s="33"/>
       <c r="D828" s="26"/>
       <c r="E828" s="26"/>
       <c r="F828" s="6"/>
@@ -26703,7 +27010,7 @@
     <row r="829" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A829" s="6"/>
       <c r="B829" s="6"/>
-      <c r="C829" s="25"/>
+      <c r="C829" s="33"/>
       <c r="D829" s="26"/>
       <c r="E829" s="26"/>
       <c r="F829" s="6"/>
@@ -26731,7 +27038,7 @@
     <row r="830" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A830" s="6"/>
       <c r="B830" s="6"/>
-      <c r="C830" s="25"/>
+      <c r="C830" s="33"/>
       <c r="D830" s="26"/>
       <c r="E830" s="26"/>
       <c r="F830" s="6"/>
@@ -26759,7 +27066,7 @@
     <row r="831" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A831" s="6"/>
       <c r="B831" s="6"/>
-      <c r="C831" s="25"/>
+      <c r="C831" s="33"/>
       <c r="D831" s="26"/>
       <c r="E831" s="26"/>
       <c r="F831" s="6"/>
@@ -26787,7 +27094,7 @@
     <row r="832" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A832" s="6"/>
       <c r="B832" s="6"/>
-      <c r="C832" s="25"/>
+      <c r="C832" s="33"/>
       <c r="D832" s="26"/>
       <c r="E832" s="26"/>
       <c r="F832" s="6"/>
@@ -26815,7 +27122,7 @@
     <row r="833" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A833" s="6"/>
       <c r="B833" s="6"/>
-      <c r="C833" s="25"/>
+      <c r="C833" s="33"/>
       <c r="D833" s="26"/>
       <c r="E833" s="26"/>
       <c r="F833" s="6"/>
@@ -26843,7 +27150,7 @@
     <row r="834" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A834" s="6"/>
       <c r="B834" s="6"/>
-      <c r="C834" s="25"/>
+      <c r="C834" s="33"/>
       <c r="D834" s="26"/>
       <c r="E834" s="26"/>
       <c r="F834" s="6"/>
@@ -26871,7 +27178,7 @@
     <row r="835" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A835" s="6"/>
       <c r="B835" s="6"/>
-      <c r="C835" s="25"/>
+      <c r="C835" s="33"/>
       <c r="D835" s="26"/>
       <c r="E835" s="26"/>
       <c r="F835" s="6"/>
@@ -26899,7 +27206,7 @@
     <row r="836" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A836" s="6"/>
       <c r="B836" s="6"/>
-      <c r="C836" s="25"/>
+      <c r="C836" s="33"/>
       <c r="D836" s="26"/>
       <c r="E836" s="26"/>
       <c r="F836" s="6"/>
@@ -26927,7 +27234,7 @@
     <row r="837" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A837" s="6"/>
       <c r="B837" s="6"/>
-      <c r="C837" s="25"/>
+      <c r="C837" s="33"/>
       <c r="D837" s="26"/>
       <c r="E837" s="26"/>
       <c r="F837" s="6"/>
@@ -26955,7 +27262,7 @@
     <row r="838" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A838" s="6"/>
       <c r="B838" s="6"/>
-      <c r="C838" s="25"/>
+      <c r="C838" s="33"/>
       <c r="D838" s="26"/>
       <c r="E838" s="26"/>
       <c r="F838" s="6"/>
@@ -26983,7 +27290,7 @@
     <row r="839" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A839" s="6"/>
       <c r="B839" s="6"/>
-      <c r="C839" s="25"/>
+      <c r="C839" s="33"/>
       <c r="D839" s="26"/>
       <c r="E839" s="26"/>
       <c r="F839" s="6"/>
@@ -27011,7 +27318,7 @@
     <row r="840" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A840" s="6"/>
       <c r="B840" s="6"/>
-      <c r="C840" s="25"/>
+      <c r="C840" s="33"/>
       <c r="D840" s="26"/>
       <c r="E840" s="26"/>
       <c r="F840" s="6"/>
@@ -27039,7 +27346,7 @@
     <row r="841" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A841" s="6"/>
       <c r="B841" s="6"/>
-      <c r="C841" s="25"/>
+      <c r="C841" s="33"/>
       <c r="D841" s="26"/>
       <c r="E841" s="26"/>
       <c r="F841" s="6"/>
@@ -27067,7 +27374,7 @@
     <row r="842" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A842" s="6"/>
       <c r="B842" s="6"/>
-      <c r="C842" s="25"/>
+      <c r="C842" s="33"/>
       <c r="D842" s="26"/>
       <c r="E842" s="26"/>
       <c r="F842" s="6"/>
@@ -27095,7 +27402,7 @@
     <row r="843" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A843" s="6"/>
       <c r="B843" s="6"/>
-      <c r="C843" s="25"/>
+      <c r="C843" s="33"/>
       <c r="D843" s="26"/>
       <c r="E843" s="26"/>
       <c r="F843" s="6"/>
@@ -27123,7 +27430,7 @@
     <row r="844" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A844" s="6"/>
       <c r="B844" s="6"/>
-      <c r="C844" s="25"/>
+      <c r="C844" s="33"/>
       <c r="D844" s="26"/>
       <c r="E844" s="26"/>
       <c r="F844" s="6"/>
@@ -27151,7 +27458,7 @@
     <row r="845" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A845" s="6"/>
       <c r="B845" s="6"/>
-      <c r="C845" s="25"/>
+      <c r="C845" s="33"/>
       <c r="D845" s="26"/>
       <c r="E845" s="26"/>
       <c r="F845" s="6"/>
@@ -27179,7 +27486,7 @@
     <row r="846" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A846" s="6"/>
       <c r="B846" s="6"/>
-      <c r="C846" s="25"/>
+      <c r="C846" s="33"/>
       <c r="D846" s="26"/>
       <c r="E846" s="26"/>
       <c r="F846" s="6"/>
@@ -27207,7 +27514,7 @@
     <row r="847" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A847" s="6"/>
       <c r="B847" s="6"/>
-      <c r="C847" s="25"/>
+      <c r="C847" s="33"/>
       <c r="D847" s="26"/>
       <c r="E847" s="26"/>
       <c r="F847" s="6"/>
@@ -27235,7 +27542,7 @@
     <row r="848" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A848" s="6"/>
       <c r="B848" s="6"/>
-      <c r="C848" s="25"/>
+      <c r="C848" s="33"/>
       <c r="D848" s="26"/>
       <c r="E848" s="26"/>
       <c r="F848" s="6"/>
@@ -27263,7 +27570,7 @@
     <row r="849" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A849" s="6"/>
       <c r="B849" s="6"/>
-      <c r="C849" s="25"/>
+      <c r="C849" s="33"/>
       <c r="D849" s="26"/>
       <c r="E849" s="26"/>
       <c r="F849" s="6"/>
@@ -27291,7 +27598,7 @@
     <row r="850" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A850" s="6"/>
       <c r="B850" s="6"/>
-      <c r="C850" s="25"/>
+      <c r="C850" s="33"/>
       <c r="D850" s="26"/>
       <c r="E850" s="26"/>
       <c r="F850" s="6"/>
@@ -27319,7 +27626,7 @@
     <row r="851" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A851" s="6"/>
       <c r="B851" s="6"/>
-      <c r="C851" s="25"/>
+      <c r="C851" s="33"/>
       <c r="D851" s="26"/>
       <c r="E851" s="26"/>
       <c r="F851" s="6"/>
@@ -27347,7 +27654,7 @@
     <row r="852" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A852" s="6"/>
       <c r="B852" s="6"/>
-      <c r="C852" s="25"/>
+      <c r="C852" s="33"/>
       <c r="D852" s="26"/>
       <c r="E852" s="26"/>
       <c r="F852" s="6"/>
@@ -27375,7 +27682,7 @@
     <row r="853" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A853" s="6"/>
       <c r="B853" s="6"/>
-      <c r="C853" s="25"/>
+      <c r="C853" s="33"/>
       <c r="D853" s="26"/>
       <c r="E853" s="26"/>
       <c r="F853" s="6"/>
@@ -27403,7 +27710,7 @@
     <row r="854" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A854" s="6"/>
       <c r="B854" s="6"/>
-      <c r="C854" s="25"/>
+      <c r="C854" s="33"/>
       <c r="D854" s="26"/>
       <c r="E854" s="26"/>
       <c r="F854" s="6"/>
@@ -27431,7 +27738,7 @@
     <row r="855" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A855" s="6"/>
       <c r="B855" s="6"/>
-      <c r="C855" s="25"/>
+      <c r="C855" s="33"/>
       <c r="D855" s="26"/>
       <c r="E855" s="26"/>
       <c r="F855" s="6"/>
@@ -27459,7 +27766,7 @@
     <row r="856" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A856" s="6"/>
       <c r="B856" s="6"/>
-      <c r="C856" s="25"/>
+      <c r="C856" s="33"/>
       <c r="D856" s="26"/>
       <c r="E856" s="26"/>
       <c r="F856" s="6"/>
@@ -27487,7 +27794,7 @@
     <row r="857" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A857" s="6"/>
       <c r="B857" s="6"/>
-      <c r="C857" s="25"/>
+      <c r="C857" s="33"/>
       <c r="D857" s="26"/>
       <c r="E857" s="26"/>
       <c r="F857" s="6"/>
@@ -27515,7 +27822,7 @@
     <row r="858" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A858" s="6"/>
       <c r="B858" s="6"/>
-      <c r="C858" s="25"/>
+      <c r="C858" s="33"/>
       <c r="D858" s="26"/>
       <c r="E858" s="26"/>
       <c r="F858" s="6"/>
@@ -27543,7 +27850,7 @@
     <row r="859" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A859" s="6"/>
       <c r="B859" s="6"/>
-      <c r="C859" s="25"/>
+      <c r="C859" s="33"/>
       <c r="D859" s="26"/>
       <c r="E859" s="26"/>
       <c r="F859" s="6"/>
@@ -27571,7 +27878,7 @@
     <row r="860" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A860" s="6"/>
       <c r="B860" s="6"/>
-      <c r="C860" s="25"/>
+      <c r="C860" s="33"/>
       <c r="D860" s="26"/>
       <c r="E860" s="26"/>
       <c r="F860" s="6"/>
@@ -27599,7 +27906,7 @@
     <row r="861" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A861" s="6"/>
       <c r="B861" s="6"/>
-      <c r="C861" s="25"/>
+      <c r="C861" s="33"/>
       <c r="D861" s="26"/>
       <c r="E861" s="26"/>
       <c r="F861" s="6"/>
@@ -27627,7 +27934,7 @@
     <row r="862" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A862" s="6"/>
       <c r="B862" s="6"/>
-      <c r="C862" s="25"/>
+      <c r="C862" s="33"/>
       <c r="D862" s="26"/>
       <c r="E862" s="26"/>
       <c r="F862" s="6"/>
@@ -27655,7 +27962,7 @@
     <row r="863" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A863" s="6"/>
       <c r="B863" s="6"/>
-      <c r="C863" s="25"/>
+      <c r="C863" s="33"/>
       <c r="D863" s="26"/>
       <c r="E863" s="26"/>
       <c r="F863" s="6"/>
@@ -27683,7 +27990,7 @@
     <row r="864" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A864" s="6"/>
       <c r="B864" s="6"/>
-      <c r="C864" s="25"/>
+      <c r="C864" s="33"/>
       <c r="D864" s="26"/>
       <c r="E864" s="26"/>
       <c r="F864" s="6"/>
@@ -27711,7 +28018,7 @@
     <row r="865" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A865" s="6"/>
       <c r="B865" s="6"/>
-      <c r="C865" s="25"/>
+      <c r="C865" s="33"/>
       <c r="D865" s="26"/>
       <c r="E865" s="26"/>
       <c r="F865" s="6"/>
@@ -27739,7 +28046,7 @@
     <row r="866" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A866" s="6"/>
       <c r="B866" s="6"/>
-      <c r="C866" s="25"/>
+      <c r="C866" s="33"/>
       <c r="D866" s="26"/>
       <c r="E866" s="26"/>
       <c r="F866" s="6"/>
@@ -27767,7 +28074,7 @@
     <row r="867" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A867" s="6"/>
       <c r="B867" s="6"/>
-      <c r="C867" s="25"/>
+      <c r="C867" s="33"/>
       <c r="D867" s="26"/>
       <c r="E867" s="26"/>
       <c r="F867" s="6"/>
@@ -27795,7 +28102,7 @@
     <row r="868" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A868" s="6"/>
       <c r="B868" s="6"/>
-      <c r="C868" s="25"/>
+      <c r="C868" s="33"/>
       <c r="D868" s="26"/>
       <c r="E868" s="26"/>
       <c r="F868" s="6"/>
@@ -27823,7 +28130,7 @@
     <row r="869" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A869" s="6"/>
       <c r="B869" s="6"/>
-      <c r="C869" s="25"/>
+      <c r="C869" s="33"/>
       <c r="D869" s="26"/>
       <c r="E869" s="26"/>
       <c r="F869" s="6"/>
@@ -27851,7 +28158,7 @@
     <row r="870" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A870" s="6"/>
       <c r="B870" s="6"/>
-      <c r="C870" s="25"/>
+      <c r="C870" s="33"/>
       <c r="D870" s="26"/>
       <c r="E870" s="26"/>
       <c r="F870" s="6"/>
@@ -27879,7 +28186,7 @@
     <row r="871" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A871" s="6"/>
       <c r="B871" s="6"/>
-      <c r="C871" s="25"/>
+      <c r="C871" s="33"/>
       <c r="D871" s="26"/>
       <c r="E871" s="26"/>
       <c r="F871" s="6"/>
@@ -27907,7 +28214,7 @@
     <row r="872" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A872" s="6"/>
       <c r="B872" s="6"/>
-      <c r="C872" s="25"/>
+      <c r="C872" s="33"/>
       <c r="D872" s="26"/>
       <c r="E872" s="26"/>
       <c r="F872" s="6"/>
@@ -27935,7 +28242,7 @@
     <row r="873" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A873" s="6"/>
       <c r="B873" s="6"/>
-      <c r="C873" s="25"/>
+      <c r="C873" s="33"/>
       <c r="D873" s="26"/>
       <c r="E873" s="26"/>
       <c r="F873" s="6"/>
@@ -27963,7 +28270,7 @@
     <row r="874" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A874" s="6"/>
       <c r="B874" s="6"/>
-      <c r="C874" s="25"/>
+      <c r="C874" s="33"/>
       <c r="D874" s="26"/>
       <c r="E874" s="26"/>
       <c r="F874" s="6"/>
@@ -27991,7 +28298,7 @@
     <row r="875" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A875" s="6"/>
       <c r="B875" s="6"/>
-      <c r="C875" s="25"/>
+      <c r="C875" s="33"/>
       <c r="D875" s="26"/>
       <c r="E875" s="26"/>
       <c r="F875" s="6"/>
@@ -28019,7 +28326,7 @@
     <row r="876" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A876" s="6"/>
       <c r="B876" s="6"/>
-      <c r="C876" s="25"/>
+      <c r="C876" s="33"/>
       <c r="D876" s="26"/>
       <c r="E876" s="26"/>
       <c r="F876" s="6"/>
@@ -28047,7 +28354,7 @@
     <row r="877" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A877" s="6"/>
       <c r="B877" s="6"/>
-      <c r="C877" s="25"/>
+      <c r="C877" s="33"/>
       <c r="D877" s="26"/>
       <c r="E877" s="26"/>
       <c r="F877" s="6"/>
@@ -28075,7 +28382,7 @@
     <row r="878" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A878" s="6"/>
       <c r="B878" s="6"/>
-      <c r="C878" s="25"/>
+      <c r="C878" s="33"/>
       <c r="D878" s="26"/>
       <c r="E878" s="26"/>
       <c r="F878" s="6"/>
@@ -28103,7 +28410,7 @@
     <row r="879" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A879" s="6"/>
       <c r="B879" s="6"/>
-      <c r="C879" s="25"/>
+      <c r="C879" s="33"/>
       <c r="D879" s="26"/>
       <c r="E879" s="26"/>
       <c r="F879" s="6"/>
@@ -28131,7 +28438,7 @@
     <row r="880" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A880" s="6"/>
       <c r="B880" s="6"/>
-      <c r="C880" s="25"/>
+      <c r="C880" s="33"/>
       <c r="D880" s="26"/>
       <c r="E880" s="26"/>
       <c r="F880" s="6"/>
@@ -28159,7 +28466,7 @@
     <row r="881" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A881" s="6"/>
       <c r="B881" s="6"/>
-      <c r="C881" s="25"/>
+      <c r="C881" s="33"/>
       <c r="D881" s="26"/>
       <c r="E881" s="26"/>
       <c r="F881" s="6"/>
@@ -28187,7 +28494,7 @@
     <row r="882" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A882" s="6"/>
       <c r="B882" s="6"/>
-      <c r="C882" s="25"/>
+      <c r="C882" s="33"/>
       <c r="D882" s="26"/>
       <c r="E882" s="26"/>
       <c r="F882" s="6"/>
@@ -28215,7 +28522,7 @@
     <row r="883" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A883" s="6"/>
       <c r="B883" s="6"/>
-      <c r="C883" s="25"/>
+      <c r="C883" s="33"/>
       <c r="D883" s="26"/>
       <c r="E883" s="26"/>
       <c r="F883" s="6"/>
@@ -28243,7 +28550,7 @@
     <row r="884" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A884" s="6"/>
       <c r="B884" s="6"/>
-      <c r="C884" s="25"/>
+      <c r="C884" s="33"/>
       <c r="D884" s="26"/>
       <c r="E884" s="26"/>
       <c r="F884" s="6"/>
@@ -28271,7 +28578,7 @@
     <row r="885" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A885" s="6"/>
       <c r="B885" s="6"/>
-      <c r="C885" s="25"/>
+      <c r="C885" s="33"/>
       <c r="D885" s="26"/>
       <c r="E885" s="26"/>
       <c r="F885" s="6"/>
@@ -28299,7 +28606,7 @@
     <row r="886" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A886" s="6"/>
       <c r="B886" s="6"/>
-      <c r="C886" s="25"/>
+      <c r="C886" s="33"/>
       <c r="D886" s="26"/>
       <c r="E886" s="26"/>
       <c r="F886" s="6"/>
@@ -28327,7 +28634,7 @@
     <row r="887" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A887" s="6"/>
       <c r="B887" s="6"/>
-      <c r="C887" s="25"/>
+      <c r="C887" s="33"/>
       <c r="D887" s="26"/>
       <c r="E887" s="26"/>
       <c r="F887" s="6"/>
@@ -28355,7 +28662,7 @@
     <row r="888" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A888" s="6"/>
       <c r="B888" s="6"/>
-      <c r="C888" s="25"/>
+      <c r="C888" s="33"/>
       <c r="D888" s="26"/>
       <c r="E888" s="26"/>
       <c r="F888" s="6"/>
@@ -28383,7 +28690,7 @@
     <row r="889" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A889" s="6"/>
       <c r="B889" s="6"/>
-      <c r="C889" s="25"/>
+      <c r="C889" s="33"/>
       <c r="D889" s="26"/>
       <c r="E889" s="26"/>
       <c r="F889" s="6"/>
@@ -28411,7 +28718,7 @@
     <row r="890" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A890" s="6"/>
       <c r="B890" s="6"/>
-      <c r="C890" s="25"/>
+      <c r="C890" s="33"/>
       <c r="D890" s="26"/>
       <c r="E890" s="26"/>
       <c r="F890" s="6"/>
@@ -28439,7 +28746,7 @@
     <row r="891" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A891" s="6"/>
       <c r="B891" s="6"/>
-      <c r="C891" s="25"/>
+      <c r="C891" s="33"/>
       <c r="D891" s="26"/>
       <c r="E891" s="26"/>
       <c r="F891" s="6"/>
@@ -28467,7 +28774,7 @@
     <row r="892" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A892" s="6"/>
       <c r="B892" s="6"/>
-      <c r="C892" s="25"/>
+      <c r="C892" s="33"/>
       <c r="D892" s="26"/>
       <c r="E892" s="26"/>
       <c r="F892" s="6"/>
@@ -28495,7 +28802,7 @@
     <row r="893" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A893" s="6"/>
       <c r="B893" s="6"/>
-      <c r="C893" s="25"/>
+      <c r="C893" s="33"/>
       <c r="D893" s="26"/>
       <c r="E893" s="26"/>
       <c r="F893" s="6"/>
@@ -28523,7 +28830,7 @@
     <row r="894" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A894" s="6"/>
       <c r="B894" s="6"/>
-      <c r="C894" s="25"/>
+      <c r="C894" s="33"/>
       <c r="D894" s="26"/>
       <c r="E894" s="26"/>
       <c r="F894" s="6"/>
@@ -28551,7 +28858,7 @@
     <row r="895" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A895" s="6"/>
       <c r="B895" s="6"/>
-      <c r="C895" s="25"/>
+      <c r="C895" s="33"/>
       <c r="D895" s="26"/>
       <c r="E895" s="26"/>
       <c r="F895" s="6"/>
@@ -28579,7 +28886,7 @@
     <row r="896" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A896" s="6"/>
       <c r="B896" s="6"/>
-      <c r="C896" s="25"/>
+      <c r="C896" s="33"/>
       <c r="D896" s="26"/>
       <c r="E896" s="26"/>
       <c r="F896" s="6"/>
@@ -28607,7 +28914,7 @@
     <row r="897" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A897" s="6"/>
       <c r="B897" s="6"/>
-      <c r="C897" s="25"/>
+      <c r="C897" s="33"/>
       <c r="D897" s="26"/>
       <c r="E897" s="26"/>
       <c r="F897" s="6"/>
@@ -28635,7 +28942,7 @@
     <row r="898" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A898" s="6"/>
       <c r="B898" s="6"/>
-      <c r="C898" s="25"/>
+      <c r="C898" s="33"/>
       <c r="D898" s="26"/>
       <c r="E898" s="26"/>
       <c r="F898" s="6"/>
@@ -28663,7 +28970,7 @@
     <row r="899" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A899" s="6"/>
       <c r="B899" s="6"/>
-      <c r="C899" s="25"/>
+      <c r="C899" s="33"/>
       <c r="D899" s="26"/>
       <c r="E899" s="26"/>
       <c r="F899" s="6"/>
@@ -28691,7 +28998,7 @@
     <row r="900" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A900" s="6"/>
       <c r="B900" s="6"/>
-      <c r="C900" s="25"/>
+      <c r="C900" s="33"/>
       <c r="D900" s="26"/>
       <c r="E900" s="26"/>
       <c r="F900" s="6"/>
@@ -28719,7 +29026,7 @@
     <row r="901" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A901" s="6"/>
       <c r="B901" s="6"/>
-      <c r="C901" s="25"/>
+      <c r="C901" s="33"/>
       <c r="D901" s="26"/>
       <c r="E901" s="26"/>
       <c r="F901" s="6"/>
@@ -28747,7 +29054,7 @@
     <row r="902" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A902" s="6"/>
       <c r="B902" s="6"/>
-      <c r="C902" s="25"/>
+      <c r="C902" s="33"/>
       <c r="D902" s="26"/>
       <c r="E902" s="26"/>
       <c r="F902" s="6"/>
@@ -28775,7 +29082,7 @@
     <row r="903" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A903" s="6"/>
       <c r="B903" s="6"/>
-      <c r="C903" s="25"/>
+      <c r="C903" s="33"/>
       <c r="D903" s="26"/>
       <c r="E903" s="26"/>
       <c r="F903" s="6"/>
@@ -28803,7 +29110,7 @@
     <row r="904" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A904" s="6"/>
       <c r="B904" s="6"/>
-      <c r="C904" s="25"/>
+      <c r="C904" s="33"/>
       <c r="D904" s="26"/>
       <c r="E904" s="26"/>
       <c r="F904" s="6"/>
@@ -28831,7 +29138,7 @@
     <row r="905" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A905" s="6"/>
       <c r="B905" s="6"/>
-      <c r="C905" s="25"/>
+      <c r="C905" s="33"/>
       <c r="D905" s="26"/>
       <c r="E905" s="26"/>
       <c r="F905" s="6"/>
@@ -28859,7 +29166,7 @@
     <row r="906" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A906" s="6"/>
       <c r="B906" s="6"/>
-      <c r="C906" s="25"/>
+      <c r="C906" s="33"/>
       <c r="D906" s="26"/>
       <c r="E906" s="26"/>
       <c r="F906" s="6"/>
@@ -28887,7 +29194,7 @@
     <row r="907" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A907" s="6"/>
       <c r="B907" s="6"/>
-      <c r="C907" s="25"/>
+      <c r="C907" s="33"/>
       <c r="D907" s="26"/>
       <c r="E907" s="26"/>
       <c r="F907" s="6"/>
@@ -28915,7 +29222,7 @@
     <row r="908" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A908" s="6"/>
       <c r="B908" s="6"/>
-      <c r="C908" s="25"/>
+      <c r="C908" s="33"/>
       <c r="D908" s="26"/>
       <c r="E908" s="26"/>
       <c r="F908" s="6"/>
@@ -28943,7 +29250,7 @@
     <row r="909" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A909" s="6"/>
       <c r="B909" s="6"/>
-      <c r="C909" s="25"/>
+      <c r="C909" s="33"/>
       <c r="D909" s="26"/>
       <c r="E909" s="26"/>
       <c r="F909" s="6"/>
@@ -28971,7 +29278,7 @@
     <row r="910" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A910" s="6"/>
       <c r="B910" s="6"/>
-      <c r="C910" s="25"/>
+      <c r="C910" s="33"/>
       <c r="D910" s="26"/>
       <c r="E910" s="26"/>
       <c r="F910" s="6"/>
@@ -28999,7 +29306,7 @@
     <row r="911" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A911" s="6"/>
       <c r="B911" s="6"/>
-      <c r="C911" s="25"/>
+      <c r="C911" s="33"/>
       <c r="D911" s="26"/>
       <c r="E911" s="26"/>
       <c r="F911" s="6"/>
@@ -29027,7 +29334,7 @@
     <row r="912" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A912" s="6"/>
       <c r="B912" s="6"/>
-      <c r="C912" s="25"/>
+      <c r="C912" s="33"/>
       <c r="D912" s="26"/>
       <c r="E912" s="26"/>
       <c r="F912" s="6"/>
@@ -29055,7 +29362,7 @@
     <row r="913" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A913" s="6"/>
       <c r="B913" s="6"/>
-      <c r="C913" s="25"/>
+      <c r="C913" s="33"/>
       <c r="D913" s="26"/>
       <c r="E913" s="26"/>
       <c r="F913" s="6"/>
@@ -29083,7 +29390,7 @@
     <row r="914" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A914" s="6"/>
       <c r="B914" s="6"/>
-      <c r="C914" s="25"/>
+      <c r="C914" s="33"/>
       <c r="D914" s="26"/>
       <c r="E914" s="26"/>
       <c r="F914" s="6"/>
@@ -29111,7 +29418,7 @@
     <row r="915" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A915" s="6"/>
       <c r="B915" s="6"/>
-      <c r="C915" s="25"/>
+      <c r="C915" s="33"/>
       <c r="D915" s="26"/>
       <c r="E915" s="26"/>
       <c r="F915" s="6"/>
@@ -29139,7 +29446,7 @@
     <row r="916" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A916" s="6"/>
       <c r="B916" s="6"/>
-      <c r="C916" s="25"/>
+      <c r="C916" s="33"/>
       <c r="D916" s="26"/>
       <c r="E916" s="26"/>
       <c r="F916" s="6"/>
@@ -29167,7 +29474,7 @@
     <row r="917" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A917" s="6"/>
       <c r="B917" s="6"/>
-      <c r="C917" s="25"/>
+      <c r="C917" s="33"/>
       <c r="D917" s="26"/>
       <c r="E917" s="26"/>
       <c r="F917" s="6"/>
@@ -29195,7 +29502,7 @@
     <row r="918" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A918" s="6"/>
       <c r="B918" s="6"/>
-      <c r="C918" s="25"/>
+      <c r="C918" s="33"/>
       <c r="D918" s="26"/>
       <c r="E918" s="26"/>
       <c r="F918" s="6"/>
@@ -29223,7 +29530,7 @@
     <row r="919" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A919" s="6"/>
       <c r="B919" s="6"/>
-      <c r="C919" s="25"/>
+      <c r="C919" s="33"/>
       <c r="D919" s="26"/>
       <c r="E919" s="26"/>
       <c r="F919" s="6"/>
@@ -29251,7 +29558,7 @@
     <row r="920" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A920" s="6"/>
       <c r="B920" s="6"/>
-      <c r="C920" s="25"/>
+      <c r="C920" s="33"/>
       <c r="D920" s="26"/>
       <c r="E920" s="26"/>
       <c r="F920" s="6"/>
@@ -29279,7 +29586,7 @@
     <row r="921" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A921" s="6"/>
       <c r="B921" s="6"/>
-      <c r="C921" s="25"/>
+      <c r="C921" s="33"/>
       <c r="D921" s="26"/>
       <c r="E921" s="26"/>
       <c r="F921" s="6"/>
@@ -29307,7 +29614,7 @@
     <row r="922" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A922" s="6"/>
       <c r="B922" s="6"/>
-      <c r="C922" s="25"/>
+      <c r="C922" s="33"/>
       <c r="D922" s="26"/>
       <c r="E922" s="26"/>
       <c r="F922" s="6"/>
@@ -29335,7 +29642,7 @@
     <row r="923" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A923" s="6"/>
       <c r="B923" s="6"/>
-      <c r="C923" s="25"/>
+      <c r="C923" s="33"/>
       <c r="D923" s="26"/>
       <c r="E923" s="26"/>
       <c r="F923" s="6"/>
@@ -29363,7 +29670,7 @@
     <row r="924" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A924" s="6"/>
       <c r="B924" s="6"/>
-      <c r="C924" s="25"/>
+      <c r="C924" s="33"/>
       <c r="D924" s="26"/>
       <c r="E924" s="26"/>
       <c r="F924" s="6"/>
@@ -29391,7 +29698,7 @@
     <row r="925" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A925" s="6"/>
       <c r="B925" s="6"/>
-      <c r="C925" s="25"/>
+      <c r="C925" s="33"/>
       <c r="D925" s="26"/>
       <c r="E925" s="26"/>
       <c r="F925" s="6"/>
@@ -29419,7 +29726,7 @@
     <row r="926" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A926" s="6"/>
       <c r="B926" s="6"/>
-      <c r="C926" s="25"/>
+      <c r="C926" s="33"/>
       <c r="D926" s="26"/>
       <c r="E926" s="26"/>
       <c r="F926" s="6"/>
@@ -29447,7 +29754,7 @@
     <row r="927" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A927" s="6"/>
       <c r="B927" s="6"/>
-      <c r="C927" s="25"/>
+      <c r="C927" s="33"/>
       <c r="D927" s="26"/>
       <c r="E927" s="26"/>
       <c r="F927" s="6"/>
@@ -29475,7 +29782,7 @@
     <row r="928" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A928" s="6"/>
       <c r="B928" s="6"/>
-      <c r="C928" s="25"/>
+      <c r="C928" s="33"/>
       <c r="D928" s="26"/>
       <c r="E928" s="26"/>
       <c r="F928" s="6"/>
@@ -29503,7 +29810,7 @@
     <row r="929" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A929" s="6"/>
       <c r="B929" s="6"/>
-      <c r="C929" s="25"/>
+      <c r="C929" s="33"/>
       <c r="D929" s="26"/>
       <c r="E929" s="26"/>
       <c r="F929" s="6"/>
@@ -29531,7 +29838,7 @@
     <row r="930" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A930" s="6"/>
       <c r="B930" s="6"/>
-      <c r="C930" s="25"/>
+      <c r="C930" s="33"/>
       <c r="D930" s="26"/>
       <c r="E930" s="26"/>
       <c r="F930" s="6"/>
@@ -29559,7 +29866,7 @@
     <row r="931" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A931" s="6"/>
       <c r="B931" s="6"/>
-      <c r="C931" s="25"/>
+      <c r="C931" s="33"/>
       <c r="D931" s="26"/>
       <c r="E931" s="26"/>
       <c r="F931" s="6"/>
@@ -29587,7 +29894,7 @@
     <row r="932" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A932" s="6"/>
       <c r="B932" s="6"/>
-      <c r="C932" s="25"/>
+      <c r="C932" s="33"/>
       <c r="D932" s="26"/>
       <c r="E932" s="26"/>
       <c r="F932" s="6"/>
@@ -29615,7 +29922,7 @@
     <row r="933" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A933" s="6"/>
       <c r="B933" s="6"/>
-      <c r="C933" s="25"/>
+      <c r="C933" s="33"/>
       <c r="D933" s="26"/>
       <c r="E933" s="26"/>
       <c r="F933" s="6"/>
@@ -29643,7 +29950,7 @@
     <row r="934" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A934" s="6"/>
       <c r="B934" s="6"/>
-      <c r="C934" s="25"/>
+      <c r="C934" s="33"/>
       <c r="D934" s="26"/>
       <c r="E934" s="26"/>
       <c r="F934" s="6"/>
@@ -29671,7 +29978,7 @@
     <row r="935" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A935" s="6"/>
       <c r="B935" s="6"/>
-      <c r="C935" s="25"/>
+      <c r="C935" s="33"/>
       <c r="D935" s="26"/>
       <c r="E935" s="26"/>
       <c r="F935" s="6"/>
@@ -29699,7 +30006,7 @@
     <row r="936" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A936" s="6"/>
       <c r="B936" s="6"/>
-      <c r="C936" s="25"/>
+      <c r="C936" s="33"/>
       <c r="D936" s="26"/>
       <c r="E936" s="26"/>
       <c r="F936" s="6"/>
@@ -29727,7 +30034,7 @@
     <row r="937" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A937" s="6"/>
       <c r="B937" s="6"/>
-      <c r="C937" s="25"/>
+      <c r="C937" s="33"/>
       <c r="D937" s="26"/>
       <c r="E937" s="26"/>
       <c r="F937" s="6"/>
@@ -29755,7 +30062,7 @@
     <row r="938" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A938" s="6"/>
       <c r="B938" s="6"/>
-      <c r="C938" s="25"/>
+      <c r="C938" s="33"/>
       <c r="D938" s="26"/>
       <c r="E938" s="26"/>
       <c r="F938" s="6"/>
@@ -29783,7 +30090,7 @@
     <row r="939" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A939" s="6"/>
       <c r="B939" s="6"/>
-      <c r="C939" s="25"/>
+      <c r="C939" s="33"/>
       <c r="D939" s="26"/>
       <c r="E939" s="26"/>
       <c r="F939" s="6"/>
@@ -29811,7 +30118,7 @@
     <row r="940" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A940" s="6"/>
       <c r="B940" s="6"/>
-      <c r="C940" s="25"/>
+      <c r="C940" s="33"/>
       <c r="D940" s="26"/>
       <c r="E940" s="26"/>
       <c r="F940" s="6"/>
@@ -29839,7 +30146,7 @@
     <row r="941" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A941" s="6"/>
       <c r="B941" s="6"/>
-      <c r="C941" s="25"/>
+      <c r="C941" s="33"/>
       <c r="D941" s="26"/>
       <c r="E941" s="26"/>
       <c r="F941" s="6"/>
@@ -29867,7 +30174,7 @@
     <row r="942" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A942" s="6"/>
       <c r="B942" s="6"/>
-      <c r="C942" s="25"/>
+      <c r="C942" s="33"/>
       <c r="D942" s="26"/>
       <c r="E942" s="26"/>
       <c r="F942" s="6"/>
@@ -29895,7 +30202,7 @@
     <row r="943" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A943" s="6"/>
       <c r="B943" s="6"/>
-      <c r="C943" s="25"/>
+      <c r="C943" s="33"/>
       <c r="D943" s="26"/>
       <c r="E943" s="26"/>
       <c r="F943" s="6"/>
@@ -29923,7 +30230,7 @@
     <row r="944" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A944" s="6"/>
       <c r="B944" s="6"/>
-      <c r="C944" s="25"/>
+      <c r="C944" s="33"/>
       <c r="D944" s="26"/>
       <c r="E944" s="26"/>
       <c r="F944" s="6"/>
@@ -29951,7 +30258,7 @@
     <row r="945" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A945" s="6"/>
       <c r="B945" s="6"/>
-      <c r="C945" s="25"/>
+      <c r="C945" s="33"/>
       <c r="D945" s="26"/>
       <c r="E945" s="26"/>
       <c r="F945" s="6"/>
@@ -29979,7 +30286,7 @@
     <row r="946" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A946" s="6"/>
       <c r="B946" s="6"/>
-      <c r="C946" s="25"/>
+      <c r="C946" s="33"/>
       <c r="D946" s="26"/>
       <c r="E946" s="26"/>
       <c r="F946" s="6"/>
@@ -30007,7 +30314,7 @@
     <row r="947" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A947" s="6"/>
       <c r="B947" s="6"/>
-      <c r="C947" s="25"/>
+      <c r="C947" s="33"/>
       <c r="D947" s="26"/>
       <c r="E947" s="26"/>
       <c r="F947" s="6"/>
@@ -30035,7 +30342,7 @@
     <row r="948" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A948" s="6"/>
       <c r="B948" s="6"/>
-      <c r="C948" s="25"/>
+      <c r="C948" s="33"/>
       <c r="D948" s="26"/>
       <c r="E948" s="26"/>
       <c r="F948" s="6"/>
@@ -30063,7 +30370,7 @@
     <row r="949" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A949" s="6"/>
       <c r="B949" s="6"/>
-      <c r="C949" s="25"/>
+      <c r="C949" s="33"/>
       <c r="D949" s="26"/>
       <c r="E949" s="26"/>
       <c r="F949" s="6"/>
@@ -30091,7 +30398,7 @@
     <row r="950" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A950" s="6"/>
       <c r="B950" s="6"/>
-      <c r="C950" s="25"/>
+      <c r="C950" s="33"/>
       <c r="D950" s="26"/>
       <c r="E950" s="26"/>
       <c r="F950" s="6"/>
@@ -30119,7 +30426,7 @@
     <row r="951" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A951" s="6"/>
       <c r="B951" s="6"/>
-      <c r="C951" s="25"/>
+      <c r="C951" s="33"/>
       <c r="D951" s="26"/>
       <c r="E951" s="26"/>
       <c r="F951" s="6"/>
@@ -30147,7 +30454,7 @@
     <row r="952" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A952" s="6"/>
       <c r="B952" s="6"/>
-      <c r="C952" s="25"/>
+      <c r="C952" s="33"/>
       <c r="D952" s="26"/>
       <c r="E952" s="26"/>
       <c r="F952" s="6"/>
@@ -30175,7 +30482,7 @@
     <row r="953" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A953" s="6"/>
       <c r="B953" s="6"/>
-      <c r="C953" s="25"/>
+      <c r="C953" s="33"/>
       <c r="D953" s="26"/>
       <c r="E953" s="26"/>
       <c r="F953" s="6"/>
@@ -30203,7 +30510,7 @@
     <row r="954" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A954" s="6"/>
       <c r="B954" s="6"/>
-      <c r="C954" s="25"/>
+      <c r="C954" s="33"/>
       <c r="D954" s="26"/>
       <c r="E954" s="26"/>
       <c r="F954" s="6"/>
@@ -30231,7 +30538,7 @@
     <row r="955" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A955" s="6"/>
       <c r="B955" s="6"/>
-      <c r="C955" s="25"/>
+      <c r="C955" s="33"/>
       <c r="D955" s="26"/>
       <c r="E955" s="26"/>
       <c r="F955" s="6"/>
@@ -30259,7 +30566,7 @@
     <row r="956" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A956" s="6"/>
       <c r="B956" s="6"/>
-      <c r="C956" s="25"/>
+      <c r="C956" s="33"/>
       <c r="D956" s="26"/>
       <c r="E956" s="26"/>
       <c r="F956" s="6"/>
@@ -30287,7 +30594,7 @@
     <row r="957" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A957" s="6"/>
       <c r="B957" s="6"/>
-      <c r="C957" s="25"/>
+      <c r="C957" s="33"/>
       <c r="D957" s="26"/>
       <c r="E957" s="26"/>
       <c r="F957" s="6"/>
@@ -30315,7 +30622,7 @@
     <row r="958" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A958" s="6"/>
       <c r="B958" s="6"/>
-      <c r="C958" s="25"/>
+      <c r="C958" s="33"/>
       <c r="D958" s="26"/>
       <c r="E958" s="26"/>
       <c r="F958" s="6"/>
@@ -30343,7 +30650,7 @@
     <row r="959" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A959" s="6"/>
       <c r="B959" s="6"/>
-      <c r="C959" s="25"/>
+      <c r="C959" s="33"/>
       <c r="D959" s="26"/>
       <c r="E959" s="26"/>
       <c r="F959" s="6"/>
@@ -30371,7 +30678,7 @@
     <row r="960" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A960" s="6"/>
       <c r="B960" s="6"/>
-      <c r="C960" s="25"/>
+      <c r="C960" s="33"/>
       <c r="D960" s="26"/>
       <c r="E960" s="26"/>
       <c r="F960" s="6"/>
@@ -30399,7 +30706,7 @@
     <row r="961" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A961" s="6"/>
       <c r="B961" s="6"/>
-      <c r="C961" s="25"/>
+      <c r="C961" s="33"/>
       <c r="D961" s="26"/>
       <c r="E961" s="26"/>
       <c r="F961" s="6"/>
@@ -30427,7 +30734,7 @@
     <row r="962" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A962" s="6"/>
       <c r="B962" s="6"/>
-      <c r="C962" s="25"/>
+      <c r="C962" s="33"/>
       <c r="D962" s="26"/>
       <c r="E962" s="26"/>
       <c r="F962" s="6"/>
@@ -30455,7 +30762,7 @@
     <row r="963" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A963" s="6"/>
       <c r="B963" s="6"/>
-      <c r="C963" s="25"/>
+      <c r="C963" s="33"/>
       <c r="D963" s="26"/>
       <c r="E963" s="26"/>
       <c r="F963" s="6"/>
@@ -30483,7 +30790,7 @@
     <row r="964" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A964" s="6"/>
       <c r="B964" s="6"/>
-      <c r="C964" s="25"/>
+      <c r="C964" s="33"/>
       <c r="D964" s="26"/>
       <c r="E964" s="26"/>
       <c r="F964" s="6"/>
@@ -30511,7 +30818,7 @@
     <row r="965" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A965" s="6"/>
       <c r="B965" s="6"/>
-      <c r="C965" s="25"/>
+      <c r="C965" s="33"/>
       <c r="D965" s="26"/>
       <c r="E965" s="26"/>
       <c r="F965" s="6"/>
@@ -30539,7 +30846,7 @@
     <row r="966" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A966" s="6"/>
       <c r="B966" s="6"/>
-      <c r="C966" s="25"/>
+      <c r="C966" s="33"/>
       <c r="D966" s="26"/>
       <c r="E966" s="26"/>
       <c r="F966" s="6"/>
@@ -30567,7 +30874,7 @@
     <row r="967" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A967" s="6"/>
       <c r="B967" s="6"/>
-      <c r="C967" s="25"/>
+      <c r="C967" s="33"/>
       <c r="D967" s="26"/>
       <c r="E967" s="26"/>
       <c r="F967" s="6"/>
@@ -30595,7 +30902,7 @@
     <row r="968" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A968" s="6"/>
       <c r="B968" s="6"/>
-      <c r="C968" s="25"/>
+      <c r="C968" s="33"/>
       <c r="D968" s="26"/>
       <c r="E968" s="26"/>
       <c r="F968" s="6"/>
@@ -30623,7 +30930,7 @@
     <row r="969" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A969" s="6"/>
       <c r="B969" s="6"/>
-      <c r="C969" s="25"/>
+      <c r="C969" s="33"/>
       <c r="D969" s="26"/>
       <c r="E969" s="26"/>
       <c r="F969" s="6"/>
@@ -30651,7 +30958,7 @@
     <row r="970" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A970" s="6"/>
       <c r="B970" s="6"/>
-      <c r="C970" s="25"/>
+      <c r="C970" s="33"/>
       <c r="D970" s="26"/>
       <c r="E970" s="26"/>
       <c r="F970" s="6"/>
@@ -30679,7 +30986,7 @@
     <row r="971" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A971" s="6"/>
       <c r="B971" s="6"/>
-      <c r="C971" s="25"/>
+      <c r="C971" s="33"/>
       <c r="D971" s="26"/>
       <c r="E971" s="26"/>
       <c r="F971" s="6"/>
@@ -30707,7 +31014,7 @@
     <row r="972" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A972" s="6"/>
       <c r="B972" s="6"/>
-      <c r="C972" s="25"/>
+      <c r="C972" s="33"/>
       <c r="D972" s="26"/>
       <c r="E972" s="26"/>
       <c r="F972" s="6"/>
@@ -30735,7 +31042,7 @@
     <row r="973" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A973" s="6"/>
       <c r="B973" s="6"/>
-      <c r="C973" s="25"/>
+      <c r="C973" s="33"/>
       <c r="D973" s="26"/>
       <c r="E973" s="26"/>
       <c r="F973" s="6"/>
@@ -30763,7 +31070,7 @@
     <row r="974" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A974" s="6"/>
       <c r="B974" s="6"/>
-      <c r="C974" s="25"/>
+      <c r="C974" s="33"/>
       <c r="D974" s="26"/>
       <c r="E974" s="26"/>
       <c r="F974" s="6"/>
@@ -30791,7 +31098,7 @@
     <row r="975" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A975" s="6"/>
       <c r="B975" s="6"/>
-      <c r="C975" s="25"/>
+      <c r="C975" s="33"/>
       <c r="D975" s="26"/>
       <c r="E975" s="26"/>
       <c r="F975" s="6"/>
@@ -30819,7 +31126,7 @@
     <row r="976" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A976" s="6"/>
       <c r="B976" s="6"/>
-      <c r="C976" s="25"/>
+      <c r="C976" s="33"/>
       <c r="D976" s="26"/>
       <c r="E976" s="26"/>
       <c r="F976" s="6"/>
@@ -30847,7 +31154,7 @@
     <row r="977" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A977" s="6"/>
       <c r="B977" s="6"/>
-      <c r="C977" s="25"/>
+      <c r="C977" s="33"/>
       <c r="D977" s="26"/>
       <c r="E977" s="26"/>
       <c r="F977" s="6"/>
@@ -30875,7 +31182,7 @@
     <row r="978" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A978" s="6"/>
       <c r="B978" s="6"/>
-      <c r="C978" s="25"/>
+      <c r="C978" s="33"/>
       <c r="D978" s="26"/>
       <c r="E978" s="26"/>
       <c r="F978" s="6"/>
@@ -30903,7 +31210,7 @@
     <row r="979" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A979" s="6"/>
       <c r="B979" s="6"/>
-      <c r="C979" s="25"/>
+      <c r="C979" s="33"/>
       <c r="D979" s="26"/>
       <c r="E979" s="26"/>
       <c r="F979" s="6"/>
@@ -30931,7 +31238,7 @@
     <row r="980" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A980" s="6"/>
       <c r="B980" s="6"/>
-      <c r="C980" s="25"/>
+      <c r="C980" s="33"/>
       <c r="D980" s="26"/>
       <c r="E980" s="26"/>
       <c r="F980" s="6"/>
@@ -30959,7 +31266,7 @@
     <row r="981" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A981" s="6"/>
       <c r="B981" s="6"/>
-      <c r="C981" s="25"/>
+      <c r="C981" s="33"/>
       <c r="D981" s="26"/>
       <c r="E981" s="26"/>
       <c r="F981" s="6"/>
@@ -30987,7 +31294,7 @@
     <row r="982" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A982" s="6"/>
       <c r="B982" s="6"/>
-      <c r="C982" s="25"/>
+      <c r="C982" s="33"/>
       <c r="D982" s="26"/>
       <c r="E982" s="26"/>
       <c r="F982" s="6"/>
@@ -31015,7 +31322,7 @@
     <row r="983" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A983" s="6"/>
       <c r="B983" s="6"/>
-      <c r="C983" s="25"/>
+      <c r="C983" s="33"/>
       <c r="D983" s="26"/>
       <c r="E983" s="26"/>
       <c r="F983" s="6"/>
@@ -31043,7 +31350,7 @@
     <row r="984" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A984" s="6"/>
       <c r="B984" s="6"/>
-      <c r="C984" s="25"/>
+      <c r="C984" s="33"/>
       <c r="D984" s="26"/>
       <c r="E984" s="26"/>
       <c r="F984" s="6"/>
@@ -31071,7 +31378,7 @@
     <row r="985" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A985" s="6"/>
       <c r="B985" s="6"/>
-      <c r="C985" s="25"/>
+      <c r="C985" s="33"/>
       <c r="D985" s="26"/>
       <c r="E985" s="26"/>
       <c r="F985" s="6"/>
@@ -31099,7 +31406,7 @@
     <row r="986" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A986" s="6"/>
       <c r="B986" s="6"/>
-      <c r="C986" s="25"/>
+      <c r="C986" s="33"/>
       <c r="D986" s="26"/>
       <c r="E986" s="26"/>
       <c r="F986" s="6"/>
@@ -31127,7 +31434,7 @@
     <row r="987" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A987" s="6"/>
       <c r="B987" s="6"/>
-      <c r="C987" s="25"/>
+      <c r="C987" s="33"/>
       <c r="D987" s="26"/>
       <c r="E987" s="26"/>
       <c r="F987" s="6"/>
@@ -31155,7 +31462,7 @@
     <row r="988" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A988" s="6"/>
       <c r="B988" s="6"/>
-      <c r="C988" s="25"/>
+      <c r="C988" s="33"/>
       <c r="D988" s="26"/>
       <c r="E988" s="26"/>
       <c r="F988" s="6"/>
@@ -31183,7 +31490,7 @@
     <row r="989" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A989" s="6"/>
       <c r="B989" s="6"/>
-      <c r="C989" s="25"/>
+      <c r="C989" s="33"/>
       <c r="D989" s="26"/>
       <c r="E989" s="26"/>
       <c r="F989" s="6"/>
@@ -31211,7 +31518,7 @@
     <row r="990" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A990" s="6"/>
       <c r="B990" s="6"/>
-      <c r="C990" s="25"/>
+      <c r="C990" s="33"/>
       <c r="D990" s="26"/>
       <c r="E990" s="26"/>
       <c r="F990" s="6"/>
@@ -31239,7 +31546,7 @@
     <row r="991" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A991" s="6"/>
       <c r="B991" s="6"/>
-      <c r="C991" s="25"/>
+      <c r="C991" s="33"/>
       <c r="D991" s="26"/>
       <c r="E991" s="26"/>
       <c r="F991" s="6"/>
@@ -31267,7 +31574,7 @@
     <row r="992" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A992" s="6"/>
       <c r="B992" s="6"/>
-      <c r="C992" s="25"/>
+      <c r="C992" s="33"/>
       <c r="D992" s="26"/>
       <c r="E992" s="26"/>
       <c r="F992" s="6"/>
@@ -31295,7 +31602,7 @@
     <row r="993" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A993" s="6"/>
       <c r="B993" s="6"/>
-      <c r="C993" s="25"/>
+      <c r="C993" s="33"/>
       <c r="D993" s="26"/>
       <c r="E993" s="26"/>
       <c r="F993" s="6"/>
@@ -31323,7 +31630,7 @@
     <row r="994" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A994" s="6"/>
       <c r="B994" s="6"/>
-      <c r="C994" s="25"/>
+      <c r="C994" s="33"/>
       <c r="D994" s="26"/>
       <c r="E994" s="26"/>
       <c r="F994" s="6"/>
@@ -31351,7 +31658,7 @@
     <row r="995" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A995" s="6"/>
       <c r="B995" s="6"/>
-      <c r="C995" s="25"/>
+      <c r="C995" s="33"/>
       <c r="D995" s="26"/>
       <c r="E995" s="26"/>
       <c r="F995" s="6"/>
@@ -31379,7 +31686,7 @@
     <row r="996" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A996" s="6"/>
       <c r="B996" s="6"/>
-      <c r="C996" s="25"/>
+      <c r="C996" s="33"/>
       <c r="D996" s="26"/>
       <c r="E996" s="26"/>
       <c r="F996" s="6"/>
@@ -31407,7 +31714,7 @@
     <row r="997" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A997" s="6"/>
       <c r="B997" s="6"/>
-      <c r="C997" s="25"/>
+      <c r="C997" s="33"/>
       <c r="D997" s="26"/>
       <c r="E997" s="26"/>
       <c r="F997" s="6"/>
@@ -31435,7 +31742,7 @@
     <row r="998" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A998" s="6"/>
       <c r="B998" s="6"/>
-      <c r="C998" s="25"/>
+      <c r="C998" s="33"/>
       <c r="D998" s="26"/>
       <c r="E998" s="26"/>
       <c r="F998" s="6"/>
@@ -31463,7 +31770,7 @@
     <row r="999" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A999" s="6"/>
       <c r="B999" s="6"/>
-      <c r="C999" s="25"/>
+      <c r="C999" s="33"/>
       <c r="D999" s="26"/>
       <c r="E999" s="26"/>
       <c r="F999" s="6"/>
@@ -31491,7 +31798,7 @@
     <row r="1000" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A1000" s="6"/>
       <c r="B1000" s="6"/>
-      <c r="C1000" s="25"/>
+      <c r="C1000" s="33"/>
       <c r="D1000" s="26"/>
       <c r="E1000" s="26"/>
       <c r="F1000" s="6"/>
@@ -31519,7 +31826,7 @@
     <row r="1001" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A1001" s="6"/>
       <c r="B1001" s="6"/>
-      <c r="C1001" s="25"/>
+      <c r="C1001" s="33"/>
       <c r="D1001" s="26"/>
       <c r="E1001" s="26"/>
       <c r="F1001" s="6"/>
@@ -31547,7 +31854,7 @@
     <row r="1002" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A1002" s="6"/>
       <c r="B1002" s="6"/>
-      <c r="C1002" s="25"/>
+      <c r="C1002" s="33"/>
       <c r="D1002" s="26"/>
       <c r="E1002" s="26"/>
       <c r="F1002" s="6"/>
@@ -31575,7 +31882,7 @@
     <row r="1003" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A1003" s="6"/>
       <c r="B1003" s="6"/>
-      <c r="C1003" s="25"/>
+      <c r="C1003" s="33"/>
       <c r="D1003" s="26"/>
       <c r="E1003" s="26"/>
       <c r="F1003" s="6"/>
@@ -31603,7 +31910,7 @@
     <row r="1004" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A1004" s="6"/>
       <c r="B1004" s="6"/>
-      <c r="C1004" s="25"/>
+      <c r="C1004" s="33"/>
       <c r="D1004" s="26"/>
       <c r="E1004" s="26"/>
       <c r="F1004" s="6"/>
@@ -31631,7 +31938,7 @@
     <row r="1005" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A1005" s="6"/>
       <c r="B1005" s="6"/>
-      <c r="C1005" s="25"/>
+      <c r="C1005" s="33"/>
       <c r="D1005" s="26"/>
       <c r="E1005" s="26"/>
       <c r="F1005" s="6"/>
@@ -31659,7 +31966,7 @@
     <row r="1006" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A1006" s="6"/>
       <c r="B1006" s="6"/>
-      <c r="C1006" s="25"/>
+      <c r="C1006" s="33"/>
       <c r="D1006" s="26"/>
       <c r="E1006" s="26"/>
       <c r="F1006" s="6"/>
@@ -31687,7 +31994,7 @@
     <row r="1007" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A1007" s="6"/>
       <c r="B1007" s="6"/>
-      <c r="C1007" s="25"/>
+      <c r="C1007" s="33"/>
       <c r="D1007" s="26"/>
       <c r="E1007" s="26"/>
       <c r="F1007" s="6"/>
@@ -31715,7 +32022,7 @@
     <row r="1008" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A1008" s="6"/>
       <c r="B1008" s="6"/>
-      <c r="C1008" s="25"/>
+      <c r="C1008" s="33"/>
       <c r="D1008" s="26"/>
       <c r="E1008" s="26"/>
       <c r="F1008" s="6"/>
@@ -31743,7 +32050,7 @@
     <row r="1009" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A1009" s="6"/>
       <c r="B1009" s="6"/>
-      <c r="C1009" s="25"/>
+      <c r="C1009" s="33"/>
       <c r="D1009" s="26"/>
       <c r="E1009" s="26"/>
       <c r="F1009" s="6"/>
@@ -31771,7 +32078,7 @@
     <row r="1010" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A1010" s="6"/>
       <c r="B1010" s="6"/>
-      <c r="C1010" s="25"/>
+      <c r="C1010" s="33"/>
       <c r="D1010" s="26"/>
       <c r="E1010" s="26"/>
       <c r="F1010" s="6"/>
@@ -31799,7 +32106,7 @@
     <row r="1011" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A1011" s="6"/>
       <c r="B1011" s="6"/>
-      <c r="C1011" s="25"/>
+      <c r="C1011" s="33"/>
       <c r="D1011" s="26"/>
       <c r="E1011" s="26"/>
       <c r="F1011" s="6"/>
@@ -31827,7 +32134,7 @@
     <row r="1012" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A1012" s="6"/>
       <c r="B1012" s="6"/>
-      <c r="C1012" s="25"/>
+      <c r="C1012" s="33"/>
       <c r="D1012" s="26"/>
       <c r="E1012" s="26"/>
       <c r="F1012" s="6"/>
@@ -31855,7 +32162,7 @@
     <row r="1013" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A1013" s="6"/>
       <c r="B1013" s="6"/>
-      <c r="C1013" s="25"/>
+      <c r="C1013" s="33"/>
       <c r="D1013" s="26"/>
       <c r="E1013" s="26"/>
       <c r="F1013" s="6"/>
@@ -31902,7 +32209,7 @@
       </c>
       <c r="C1" s="27">
         <f>COUNTIF(Texts!B:B,B1)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
@@ -31911,7 +32218,7 @@
       </c>
       <c r="C2" s="27">
         <f>COUNTIF(Texts!B:B,B2)</f>
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
@@ -31920,7 +32227,7 @@
       </c>
       <c r="C3" s="27">
         <f>COUNTIF(Texts!B:B,B3)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">

--- a/Rpg.Client/PlotConverter/Ewar - Plot.xlsx
+++ b/Rpg.Client/PlotConverter/Ewar - Plot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECTS\ewar\Rpg.Client\PlotConverter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF50E8A0-30FC-48F5-89ED-963EE0B8DB40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736025E6-5009-435F-9563-50C56538CDF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="355">
   <si>
     <t>Sid</t>
   </si>
@@ -1103,6 +1103,12 @@
   <si>
     <t>Другие времена</t>
   </si>
+  <si>
+    <t>Goal</t>
+  </si>
+  <si>
+    <t>Найти старый исследовательский центр и спросить учёных про артефакт из моснтра.</t>
+  </si>
 </sst>
 </file>
 
@@ -1203,7 +1209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1285,6 +1291,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1505,401 +1517,437 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" style="34" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="35" t="s">
+        <v>353</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="36"/>
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="36"/>
+      <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="36"/>
+      <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="36"/>
+      <c r="D8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="36"/>
+      <c r="D9" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="36"/>
+      <c r="D10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="36"/>
+      <c r="D11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="36"/>
+      <c r="D12" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="36"/>
+      <c r="D13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="36"/>
+      <c r="D14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="36"/>
+      <c r="D15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="36"/>
+      <c r="D16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="36"/>
+      <c r="D17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="36"/>
+      <c r="D18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="36"/>
+      <c r="D19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="36"/>
+      <c r="D20" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="36"/>
+      <c r="D21" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="36"/>
+      <c r="D22" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="36"/>
+      <c r="D23" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="36"/>
+      <c r="D24" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="36"/>
+      <c r="D25" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="36"/>
+      <c r="D26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>325</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="36"/>
+      <c r="D27" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>330</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="36"/>
+      <c r="D28" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>333</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="36"/>
+      <c r="D29" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>336</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="36"/>
+      <c r="D30" s="2" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>345</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="36"/>
+      <c r="D31" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/Rpg.Client/PlotConverter/Ewar - Plot.xlsx
+++ b/Rpg.Client/PlotConverter/Ewar - Plot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECTS\ewar\Rpg.Client\PlotConverter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736025E6-5009-435F-9563-50C56538CDF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D4C8E6-6A8B-4563-BB22-F4CA24386154}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="356">
   <si>
     <t>Sid</t>
   </si>
@@ -1109,6 +1109,9 @@
   <si>
     <t>Найти старый исследовательский центр и спросить учёных про артефакт из моснтра.</t>
   </si>
+  <si>
+    <t>ParentSids</t>
+  </si>
 </sst>
 </file>
 
@@ -1517,10 +1520,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1531,7 +1534,7 @@
     <col min="6" max="6" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1550,8 +1553,11 @@
       <c r="F1" s="1" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1563,7 +1569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1577,7 +1583,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1592,7 +1598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1604,7 +1610,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1619,7 +1625,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1631,7 +1637,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -1646,7 +1652,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -1658,7 +1664,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -1673,7 +1679,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
@@ -1688,7 +1694,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
@@ -1700,7 +1706,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
@@ -1715,7 +1721,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
@@ -1730,7 +1736,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>50</v>
       </c>
@@ -1745,7 +1751,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>54</v>
       </c>
@@ -1758,7 +1764,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>57</v>
       </c>
@@ -1771,7 +1777,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>60</v>
       </c>
@@ -1786,7 +1792,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>64</v>
       </c>
@@ -1801,7 +1807,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>68</v>
       </c>
@@ -1816,7 +1822,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>72</v>
       </c>
@@ -1828,7 +1834,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>75</v>
       </c>
@@ -1840,7 +1846,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>78</v>
       </c>
@@ -1852,7 +1858,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>81</v>
       </c>
@@ -1864,7 +1870,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>84</v>
       </c>
@@ -1876,7 +1882,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>87</v>
       </c>
@@ -1890,8 +1896,11 @@
       <c r="F26" s="2" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G26" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>325</v>
       </c>
@@ -1902,8 +1911,11 @@
       <c r="D27" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G27" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>330</v>
       </c>
@@ -1914,8 +1926,11 @@
       <c r="D28" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G28" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>333</v>
       </c>
@@ -1926,8 +1941,11 @@
       <c r="D29" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G29" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>336</v>
       </c>
@@ -1938,8 +1956,11 @@
       <c r="D30" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G30" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>345</v>
       </c>
@@ -1949,6 +1970,9 @@
       <c r="C31" s="36"/>
       <c r="D31" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Rpg.Client/PlotConverter/Ewar - Plot.xlsx
+++ b/Rpg.Client/PlotConverter/Ewar - Plot.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="359">
   <si>
     <t>Sid</t>
   </si>
@@ -1007,7 +1007,7 @@
     <t>Возле входа сидит бабушка. Она уже пожила своё, она видела многое. И, честно говоря, её время отличается от теперешнего. Поэтому она просто сидит и безучастно смотрит на всю эту бесполезную суету.</t>
   </si>
   <si>
-    <t>Добраться до болот и выжить.</t>
+    <t>Идти на звук боя.</t>
   </si>
   <si>
     <t>На болотах найти специалиста
@@ -1016,6 +1016,9 @@
   <si>
     <t>В Яме разговорить колдуна.
 Расспросить про корень зла.</t>
+  </si>
+  <si>
+    <t>DestroyedVillage</t>
   </si>
   <si>
     <t>Альфа, приём! Чтоб тебя!</t>
@@ -38441,7 +38444,7 @@
         <v>328</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>17</v>
@@ -38458,7 +38461,7 @@
         <v>329</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>16</v>
+        <v>330</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>24</v>
@@ -38530,7 +38533,7 @@
         <v>110</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D2" s="40">
         <v>1.0</v>
@@ -38568,7 +38571,7 @@
         <v>112</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D3" s="40">
         <v>2.0</v>
@@ -38606,7 +38609,7 @@
         <v>110</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D4" s="40">
         <v>3.0</v>
@@ -38642,7 +38645,7 @@
       </c>
       <c r="B5" s="43"/>
       <c r="C5" s="41" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D5" s="40">
         <v>4.0</v>
@@ -38678,7 +38681,7 @@
       </c>
       <c r="B6" s="43"/>
       <c r="C6" s="41" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D6" s="40">
         <v>1.0</v>
@@ -38752,7 +38755,7 @@
       </c>
       <c r="B8" s="44"/>
       <c r="C8" s="41" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D8" s="40">
         <v>2.0</v>
@@ -38790,7 +38793,7 @@
         <v>112</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D9" s="40">
         <v>3.0</v>
@@ -38828,7 +38831,7 @@
         <v>130</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D10" s="40">
         <v>4.0</v>
@@ -38864,7 +38867,7 @@
       </c>
       <c r="B11" s="40"/>
       <c r="C11" s="41" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D11" s="40">
         <v>5.0</v>
@@ -38902,7 +38905,7 @@
         <v>130</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D12" s="40">
         <v>6.0</v>
@@ -38938,7 +38941,7 @@
       </c>
       <c r="B13" s="40"/>
       <c r="C13" s="41" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D13" s="40">
         <v>7.0</v>
@@ -38974,7 +38977,7 @@
       </c>
       <c r="B14" s="43"/>
       <c r="C14" s="41" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D14" s="40">
         <v>1.0</v>
@@ -39010,7 +39013,7 @@
       </c>
       <c r="B15" s="40"/>
       <c r="C15" s="41" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D15" s="40">
         <v>2.0</v>
@@ -39048,7 +39051,7 @@
         <v>112</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D16" s="40">
         <v>3.0</v>
@@ -39086,7 +39089,7 @@
         <v>130</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D17" s="40">
         <v>4.0</v>
@@ -39122,7 +39125,7 @@
       </c>
       <c r="B18" s="40"/>
       <c r="C18" s="41" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D18" s="40">
         <v>5.0</v>
@@ -39160,7 +39163,7 @@
         <v>130</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D19" s="40">
         <v>1.0</v>
@@ -39198,7 +39201,7 @@
         <v>150</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D20" s="40">
         <v>2.0</v>
@@ -39234,7 +39237,7 @@
       </c>
       <c r="B21" s="40"/>
       <c r="C21" s="41" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D21" s="40">
         <v>3.0</v>
@@ -39272,7 +39275,7 @@
         <v>150</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D22" s="40">
         <v>4.0</v>
@@ -39310,7 +39313,7 @@
         <v>112</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D23" s="40">
         <v>5.0</v>
@@ -39348,7 +39351,7 @@
         <v>150</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D24" s="40">
         <v>6.0</v>
@@ -39386,7 +39389,7 @@
         <v>130</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D25" s="40">
         <v>7.0</v>
@@ -39422,7 +39425,7 @@
       </c>
       <c r="B26" s="45"/>
       <c r="C26" s="41" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D26" s="40">
         <v>8.0</v>
@@ -39460,7 +39463,7 @@
         <v>112</v>
       </c>
       <c r="C27" s="41" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D27" s="40">
         <v>1.0</v>
@@ -39496,7 +39499,7 @@
       </c>
       <c r="B28" s="43"/>
       <c r="C28" s="41" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D28" s="40">
         <v>2.0</v>
@@ -39534,7 +39537,7 @@
         <v>130</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D29" s="40">
         <v>3.0</v>
@@ -39570,7 +39573,7 @@
       </c>
       <c r="B30" s="40"/>
       <c r="C30" s="41" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D30" s="40">
         <v>4.0</v>
